--- a/WebApplication1/WebApplication1/示例测试目录/莫莫/专题-淘宝数据收集.xlsx
+++ b/WebApplication1/WebApplication1/示例测试目录/莫莫/专题-淘宝数据收集.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>专题</t>
   </si>
@@ -37,31 +37,55 @@
     <t>采集链接</t>
   </si>
   <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>首图</t>
+  </si>
+  <si>
     <t>人民币¥</t>
   </si>
   <si>
     <t>原始数据</t>
   </si>
   <si>
-    <t>ushoes</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.hk/hk/item.htm?abbucket=4&amp;id=974271878334&amp;mi_id=0000YEUOLiMIdZ7YNRg0SYBg7VLxms0ve9osB1dPrtSxBis&amp;ns=1&amp;priceTId=2147807d17639496192335623e171f&amp;skuId=5928159757744&amp;spm=a21n57.imgsearch.item.17&amp;utparam=%7B%22aplus_abtest%22%3A%22c3ac5bb32cb7b06bf05dcff52b9d9733%22%7D&amp;xxc=taobaoSearch</t>
-  </si>
-  <si>
-    <t>{"item":{"num_iid":"974271878334","title":"1h可退 【美国直邮】ugg 女士 时尚休闲鞋","price":1578,"item_imgs":[{"url":"https://img.alicdn.com/imgextra/i2/4066234693/O1CN01gGmQc81kXRqCZITYg_!!4066234693-0-tmg_sticker_daily.jpg"},{"url":"https://img.alicdn.com/imgextra/i3/2201230376636/O1CN01JqgD4l1ytLNZSbJwI_!!2201230376636.jpg"},{"url":"https://img.alicdn.com/imgextra/i3/2201230376636/O1CN01chAvo31ytLNfJxmVS_!!2201230376636.jpg"},{"url":"https://img.alicdn.com/imgextra/i1/2201230376636/O1CN01NkTRja1ytLNeGCL82_!!2201230376636.jpg"},{"url":"https://img.alicdn.com/imgextra/i4/2201230376636/O1CN01tNyAFb1ytLNf4sa7p_!!2201230376636.jpg"}],"prop_imgs":{"prop_img":[{"properties":"1627207:1036564308","url":"https://gw.alicdn.com/bao/uploaded/i2/2201230376636/O1CN01YEjmEg1ytLNg6a7od_!!2201230376636.jpg"}]},"props_list":{"-1:-1":"规格:36码 脚长220MM","-1:-2":"规格:37码 脚长230MM","-1:-3":"规格:38码 脚长240MM","-1:-4":"规格:39码 脚长250MM","-1:-5":"规格:40码 脚长260MM","-1:-6":"规格:41码 脚长270MM","-1:-7":"规格:42码 脚长280MM","-1:-8":"规格:43码 脚长290MM","1627207:1036564308":"颜色分类:Dark Peony"},"sales":"0","seller_info":{"shop_name":"天猫国际全球探物"},"seller_id":"4066234693","shop_id":"479456214","skus":{"sku":[{"price":1578,"properties_name":"-1:-1:规格:36码 脚长220MM;1627207:1036564308:颜色分类:Dark Peony","quantity":11,"sku_id":"5928159757744"},{"price":1578,"properties_name":"-1:-2:规格:37码 脚长230MM;1627207:1036564308:颜色分类:Dark Peony","quantity":20,"sku_id":"5928159757745"},{"price":1578,"properties_name":"-1:-3:规格:38码 脚长240MM;1627207:1036564308:颜色分类:Dark Peony","quantity":28,"sku_id":"5928159757746"},{"price":1578,"properties_name":"-1:-4:规格:39码 脚长250MM;1627207:1036564308:颜色分类:Dark Peony","quantity":0,"sku_id":"5928159757747"},{"price":1578,"properties_name":"-1:-5:规格:40码 脚长260MM;1627207:1036564308:颜色分类:Dark Peony","quantity":0,"sku_id":"5928159757748"},{"price":1578,"properties_name":"-1:-6:规格:41码 脚长270MM;1627207:1036564308:颜色分类:Dark Peony","quantity":0,"sku_id":"5928159757749"},{"price":1578,"properties_name":"-1:-7:规格:42码 脚长280MM;1627207:1036564308:颜色分类:Dark Peony","quantity":0,"sku_id":"5928159757750"},{"price":1578,"properties_name":"-1:-8:规格:43码 脚长290MM;1627207:1036564308:颜色分类:Dark Peony","quantity":0,"sku_id":"5928159757751"}]},"desc":"&lt;div id=\"content\" class=\"desc-root\" style=\"zoom: 0.64; visibility: visible;\"&gt;&lt;div class=\"descV8-container\"&gt; &lt;div class=\"descV8-singleImage\"&gt; &lt;a href=\"https://m.duanqu.com?_ariver_appid=3000000035930451&amp;amp;spm=a2231.spwm.1.1&amp;amp;spm=a2141.7631564.1999060322.t_tmg_overseas_149185_child_HotArea_1\" class=\"descV8-hotArea\" style=\"width: 750px; height: 686px; top: 0px; left: 0px;\"&gt;&lt;/a&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i3/4066234693/O1CN01AQysVN1kXRjOZfiIV_!!4066234693.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;height: 686px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i3/4066234693/O1CN01pJkQjK1kXRmskSSiP_!!4066234693.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i2/4066234693/O1CN018vMB341kXRDtzHWBC_!!4066234693.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i4/4066234693/O1CN01ORQ3BE1kXRpezIhn4_!!4066234693.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i3/4066234693/O1CN01Gvlh2r1kXRpfpzGiD_!!4066234693.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i4/4066234693/O1CN01V9h4mJ1kXRDvWBnZA_!!4066234693.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i2/2201230376636/O1CN01YDYCY51ytLNf4rNHU_!!2201230376636.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i1/2201230376636/O1CN01zHiPxP1ytLNfebhjN_!!2201230376636.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i1/2201230376636/O1CN018k2fz21ytLNfAM8ik_!!2201230376636.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i4/2201230376636/O1CN01pFy4rO1ytLNeGDPfj_!!2201230376636.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i3/2201230376636/O1CN01lArQUs1ytLNgY6dqe_!!2201230376636.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i4/2201230376636/O1CN01yNv1ZQ1ytLNgH0tdb_!!2201230376636.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i1/2201230376636/O1CN016BU2NC1ytLNgjF5nY_!!2201230376636.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i1/4066234693/O1CN01mgscbc1kXRp3zZzR5_!!4066234693.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i3/4066234693/O1CN01BG6EYg1kXRD0CU03R_!!4066234693.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i2/4066234693/O1CN015EkurL1kXRUYBsngE_!!4066234693.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i1/4066234693/O1CN01VDTBwW1kXRUWCotxJ_!!4066234693.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i3/4066234693/O1CN01frBvcG1kXRUTVVpEM_!!4066234693.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;a href=\"https://m.duanqu.com?_ariver_appid=3000000035930451&amp;amp;spm=a2231.spwm.1.1&amp;amp;spm=a2141.7631564.1999060322.tmg_overseas_149185_child_HotArea_1\" class=\"descV8-hotArea\" style=\"width: 750px; height: 1500px; top: 0px; left: 0px;\"&gt;&lt;/a&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i1/O1CN01QEo5oo1gkUPpguuTK_!!6000000004180-0-tps-750-1500.jpg\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;height: 1500px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i4/O1CN01IjhlKv20nVEUPlzOV_!!6000000006894-2-tps-1500-1194.png\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt;&lt;div class=\"descV8-singleImage\"&gt; &lt;img src=\"https://img.alicdn.com/imgextra/i3/O1CN01XU1Y2d1Sk7fIMOkeU_!!6000000002284-2-tps-1125-1446.png\" data-name=\"singleImage\" class=\"descV8-singleImage-image lazyload\" style=\"width: 750px;\"&gt; &lt;/div&gt; &lt;/div&gt;&lt;/div&gt;","detail_url":"https://item.taobao.com/item.htm?id=974271878334"}}</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?abbucket=4&amp;id=717723733575&amp;mi_id=0000Ftlup8TXwFSxvAFYqoXddAuhZ7-GF2FA5-Lft_5iiZQ&amp;ns=1&amp;priceTId=213e040017639512826808435e1e60&amp;skuId=5178590318164&amp;spm=a21n57.imgsearch.item.4&amp;utparam=%7B%22aplus_abtest%22%3A%22282e5f05913ecb79ef8d859eb7c0dd91%22%7D&amp;xxc=taobaoSearch</t>
-  </si>
-  <si>
-    <t>{"item":{"num_iid":"717723733575","title":"UGG秋季女士时尚经典舒适简约厚底毛拖包头休闲懒人毛毛鞋1122550","desc_short":"","price":"799","orginal_price":799,"nick":"ugg官方旗舰店","num":"4800","pic_url":"https://img.alicdn.com/imgextra/i2/1602582004/O1CN01vwfKHN1QfsnYgzqCV_!!4611686018427385332-0-item_pic.jpg","brand":"UGG","brandId":0,"rootCatId":0,"cid":202054104,"crumbs":null,"detail_url":"https://item.taobao.com/item.htm?id=717723733575","desc":"","item_imgs":[{"url":"//img.alicdn.com/imgextra/i2/1602582004/O1CN01vwfKHN1QfsnYgzqCV_!!4611686018427385332-0-item_pic.jpg"},{"url":"//img.alicdn.com/imgextra/i1/1602582004/O1CN01aBs80X1QfsnXbau1f_!!4611686018427385332-0-item_pic.jpg"},{"url":"//img.alicdn.com/imgextra/i3/1602582004/O1CN01Mg3bPs1QfsmUh1Rwk_!!1602582004.jpg"},{"url":"//img.alicdn.com/imgextra/i1/1602582004/O1CN01UZokSo1QfsmSjRdL4_!!1602582004.jpg"},{"url":"//img.alicdn.com/imgextra/i1/1602582004/O1CN01OZ93uR1QfsmVKeiYs_!!1602582004.jpg"}],"item_weight":0,"location":"浙江嘉兴","post_fee":0,"express_fee":0,"ems_fee":0,"shipping_to":"","has_discount":"false","video":{"url":""},"is_virtual":null,"sample_id":"","is_promotion":"false","prop_imgs":{"prop_img":[]},"property_alias":"76652:62839:36 鞋内长：22CM;50795:62746:【试穿报告】尺码挑选，可详询客服;50795:62797:CHE | 栗色;50795:62805:SAN | 沙色;76652:62850:37 鞋内长：23CM;50795:62746:【试穿报告】尺码挑选，可详询客服;50795:62797:CHE | 栗色;50795:62805:SAN | 沙色;76652:62859:38 鞋内长：24CM;50795:62746:【试穿报告】尺码挑选，可详询客服;50795:62797:CHE | 栗色;50795:62805:SAN | 沙色;76652:62866:39 鞋内长：25CM;50795:62746:【试穿报告】尺码挑选，可详询客服;50795:62797:CHE | 栗色;50795:62805:SAN | 沙色;76652:62872:40 鞋内长：26CM;50795:62746:【试穿报告】尺码挑选，可详询客服;50795:62797:CHE | 栗色;50795:62805:SAN | 沙色;76652:62880:41 鞋内长：27CM;50795:62746:【试穿报告】尺码挑选，可详询客服;50795:62797:CHE | 栗色;50795:62805:SAN | 沙色;76652:62908:42 鞋内长：28CM;50795:62746:【试穿报告】尺码挑选，可详询客服;50795:62797:CHE | 栗色;50795:62805:SAN | 沙色;76652:62916:43 鞋内长：29CM;50795:62746:【试穿报告】尺码挑选，可详询客服;50795:62797:CHE | 栗色;50795:62805:SAN | 沙色","props":[{"name":"品牌","value":"UGG"},{"name":"货号","value":"1122550-1"},{"name":"款式","value":"包头"},{"name":"后跟高","value":"低跟(小于3cm)"},{"name":"上市年份季节","value":"2023年秋季"},{"name":"销售渠道类型","value":"商场同款(线上线下都销售)"},{"name":"适用对象","value":"青年"},{"name":"跟底款式","value":"平底"},{"name":"帮面材质","value":"混合材质"}],"props_name":"50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;50795:62797:颜色分类:CHE | 栗色;50795:62797:颜色分类:CHE | 栗色;50795:62797:颜色分类:CHE | 栗色;50795:62805:颜色分类:SAN | 沙色;50795:62805:颜色分类:SAN | 沙色;50795:62805:颜色分类:SAN | 沙色;50795:62805:颜色分类:SAN | 沙色;50795:62805:颜色分类:SAN | 沙色;50795:62805:颜色分类:SAN | 沙色;50795:62805:颜色分类:SAN | 沙色;50795:62805:颜色分类:SAN | 沙色;50795:62797:颜色分类:CHE | 栗色;50795:62797:颜色分类:CHE | 栗色;50795:62797:颜色分类:CHE | 栗色;50795:62797:颜色分类:CHE | 栗色;50795:62797:颜色分类:CHE | 栗色;76652:62839:尺码:36 鞋内长：22CM;76652:62850:尺码:37 鞋内长：23CM;76652:62859:尺码:38 鞋内长：24CM;76652:62866:尺码:39 鞋内长：25CM;76652:62872:尺码:40 鞋内长：26CM;76652:62880:尺码:41 鞋内长：27CM;76652:62908:尺码:42 鞋内长：28CM;76652:62916:尺码:43 鞋内长：29CM;76652:62880:尺码:41 鞋内长：27CM;76652:62908:尺码:42 鞋内长：28CM;76652:62916:尺码:43 鞋内长：29CM;76652:62839:尺码:36 鞋内长：22CM;76652:62850:尺码:37 鞋内长：23CM;76652:62859:尺码:38 鞋内长：24CM;76652:62866:尺码:39 鞋内长：25CM;76652:62872:尺码:40 鞋内长：26CM;76652:62880:尺码:41 鞋内长：27CM;76652:62908:尺码:42 鞋内长：28CM;76652:62916:尺码:43 鞋内长：29CM;76652:62839:尺码:36 鞋内长：22CM;76652:62850:尺码:37 鞋内长：23CM;76652:62859:尺码:38 鞋内长：24CM;76652:62866:尺码:39 鞋内长：25CM;76652:62872:尺码:40 鞋内长：26CM","total_sold":0,"skus":{"sku":[{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62746;76652:62839","properties_name":"50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;76652:62839:尺码:36 鞋内长：22CM","quantity":200,"sku_id":"6039215258802"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62746;76652:62850","properties_name":"50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;76652:62850:尺码:37 鞋内长：23CM","quantity":200,"sku_id":"6039215258799"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62746;76652:62859","properties_name":"50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;76652:62859:尺码:38 鞋内长：24CM","quantity":200,"sku_id":"6039215258797"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62746;76652:62866","properties_name":"50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;76652:62866:尺码:39 鞋内长：25CM","quantity":200,"sku_id":"6039215258803"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62746;76652:62872","properties_name":"50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;76652:62872:尺码:40 鞋内长：26CM","quantity":200,"sku_id":"6039215258798"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62746;76652:62880","properties_name":"50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;76652:62880:尺码:41 鞋内长：27CM","quantity":200,"sku_id":"6039215258800"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62746;76652:62908","properties_name":"50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;76652:62908:尺码:42 鞋内长：28CM","quantity":200,"sku_id":"6039215258801"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62746;76652:62916","properties_name":"50795:62746:颜色分类:【试穿报告】尺码挑选，可详询客服;76652:62916:尺码:43 鞋内长：29CM","quantity":200,"sku_id":"6039215258796"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62797;76652:62880","properties_name":"50795:62797:颜色分类:CHE | 栗色;76652:62880:尺码:41 鞋内长：27CM","quantity":200,"sku_id":"5690030175911"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62797;76652:62908","properties_name":"50795:62797:颜色分类:CHE | 栗色;76652:62908:尺码:42 鞋内长：28CM","quantity":200,"sku_id":"5690030175913"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62797;76652:62916","properties_name":"50795:62797:颜色分类:CHE | 栗色;76652:62916:尺码:43 鞋内长：29CM","quantity":200,"sku_id":"5690030175909"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62805;76652:62839","properties_name":"50795:62805:颜色分类:SAN | 沙色;76652:62839:尺码:36 鞋内长：22CM","quantity":200,"sku_id":"6006836955296"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62805;76652:62850","properties_name":"50795:62805:颜色分类:SAN | 沙色;76652:62850:尺码:37 鞋内长：23CM","quantity":200,"sku_id":"6006836955293"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62805;76652:62859","properties_name":"50795:62805:颜色分类:SAN | 沙色;76652:62859:尺码:38 鞋内长：24CM","quantity":200,"sku_id":"6006836955291"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62805;76652:62866","properties_name":"50795:62805:颜色分类:SAN | 沙色;76652:62866:尺码:39 鞋内长：25CM","quantity":200,"sku_id":"6006836955297"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62805;76652:62872","properties_name":"50795:62805:颜色分类:SAN | 沙色;76652:62872:尺码:40 鞋内长：26CM","quantity":200,"sku_id":"6006836955292"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62805;76652:62880","properties_name":"50795:62805:颜色分类:SAN | 沙色;76652:62880:尺码:41 鞋内长：27CM","quantity":200,"sku_id":"6006836955294"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62805;76652:62908","properties_name":"50795:62805:颜色分类:SAN | 沙色;76652:62908:尺码:42 鞋内长：28CM","quantity":200,"sku_id":"6006836955295"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62805;76652:62916","properties_name":"50795:62805:颜色分类:SAN | 沙色;76652:62916:尺码:43 鞋内长：29CM","quantity":200,"sku_id":"6006836955290"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62797;76652:62839","properties_name":"50795:62797:颜色分类:CHE | 栗色;76652:62839:尺码:36 鞋内长：22CM","quantity":200,"sku_id":"5178590318164"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62797;76652:62850","properties_name":"50795:62797:颜色分类:CHE | 栗色;76652:62850:尺码:37 鞋内长：23CM","quantity":200,"sku_id":"5178590318165"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62797;76652:62859","properties_name":"50795:62797:颜色分类:CHE | 栗色;76652:62859:尺码:38 鞋内长：24CM","quantity":200,"sku_id":"5178590318166"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62797;76652:62866","properties_name":"50795:62797:颜色分类:CHE | 栗色;76652:62866:尺码:39 鞋内长：25CM","quantity":200,"sku_id":"5178590318167"},{"price":799,"total_price":0,"orginal_price":799,"properties":"50795:62797;76652:62872","properties_name":"50795:62797:颜色分类:CHE | 栗色;76652:62872:尺码:40 鞋内长：26CM","quantity":200,"sku_id":"5178590318168"}]},"seller_id":"1602582004","shop_id":"102435051","props_list":{"50795:62746":"颜色分类:【试穿报告】尺码挑选，可详询客服","50795:62797":"颜色分类:CHE | 栗色","50795:62805":"颜色分类:SAN | 沙色","76652:62839":"尺码:36 鞋内长：22CM","76652:62850":"尺码:37 鞋内长：23CM","76652:62859":"尺码:38 鞋内长：24CM","76652:62866":"尺码:39 鞋内长：25CM","76652:62872":"尺码:40 鞋内长：26CM","76652:62880":"尺码:41 鞋内长：27CM","76652:62908":"尺码:42 鞋内长：28CM","76652:62916":"尺码:43 鞋内长：29CM"},"seller_info":{"nick":"ugg官方旗舰店","item_score":4.83335,"score_p":4.8514,"delivery_score":4.889,"shop_type":"","user_num_id":"1602582004","sid":null,"title":"","zhuy":"https://shop102435051.taobao.com.taobao.com","cert":null,"open_time":"","credit_score":null,"shop_name":"UGG官方旗舰店"},"tmall":false,"update_time":"2025-11-05 18:41:36","data_update":"2025-11-05 18:41:36","data_f":"ha2","data_from":"hid","promo_type":null,"props_img":[],"error":null,"format_check":"ok","sales":0,"desc_img":[],"shop_item":[],"relate_items":[]},"error":"","secache":"2719ac348e6d84f69f739c7d8706a41e","secache_time":1763951399,"secache_date":"2025-11-24 10:29:59","translate_status":"","translate_time":0,"language":{"default_lang":"cn","current_lang":"cn"},"reason":"","error_code":"0000","cache":0,"api_info":"today:1 max:20000 all[4=1+3+0];expires:2026-06-06","execution_time":"0.912","server_time":"Beijing/2025-11-24 10:29:59","client_ip":"111.199.251.132","call_args":{"num_iid":"717723733575"},"api_type":"taobao","server_memory":"4.72MB","request_id":"gw-3.6923c3264ab22","last_id":"delay"}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?abbucket=4&amp;id=994482838559&amp;mi_id=0000aZ-5CLd2fVbVqFPeXLjV-6SG9HYr4Axi2hMymG9UFWQ&amp;ns=1&amp;priceTId=214780da17639499782374051e173f&amp;skuId=5972921360978&amp;spm=a21n57.imgsearch.item.14&amp;utparam=%7B%22aplus_abtest%22%3A%220ace399df1f411f6c9c1964c8df9fb3b%22%7D&amp;xxc=taobaoSearch</t>
-  </si>
-  <si>
-    <t>{"item":{"num_iid":"994482838559","title":"桑坡羊皮毛一体厚底包头羊毛拖鞋女冬季休闲保暖加厚松紧带毛毛拖","desc_short":"","price":"228.00","total_price":0,"suggestive_price":0,"orginal_price":"228.00","nick":"桑坡雪地靴源版","num":4800,"min_num":0,"detail_url":"https://item.taobao.com/item.htm?id=994482838559","pic_url":"//img.alicdn.com/imgextra/i3/824103578/O1CN01RZ46gt1cImEEvDLi2_!!824103578.jpg","brand":"无品牌/无注册商标","brandId":null,"rootCatId":null,"cid":"50012033","crumbs":[],"created_time":"","modified_time":"","delist_time":"","desc":"&lt;img style=\"width:750.0px;\" src=\"https://gw.alicdn.com/imgextra/i1/O1CN01NAcw6M1JPfMS0Sz9Q_!!6000000001021-0-tps-750-128.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i1/824103578/O1CN0175KQwc1cImDIfZTsR_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i2/824103578/O1CN01k1u1WF1cImDJS6MM0_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i3/824103578/O1CN01Ge8H2y1cImDKDzNNO_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i2/824103578/O1CN01UYVO681cImDMSXOgP_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i4/824103578/O1CN013C7RXx1cImDK6X2zJ_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i2/824103578/O1CN01lI6bRf1cImDDwyWxJ_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i2/824103578/O1CN01QEspVA1cImDK41J2u_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i2/824103578/O1CN01pXHraX1cImDJFvNiL_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i4/824103578/O1CN01WpyoDW1cImDK40AKv_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i4/824103578/O1CN01Z1pwhh1cImDJXgmfQ_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i3/824103578/O1CN01G8cQ9D1cImDDx0PO1_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i1/824103578/O1CN01ohahM61cImDJdqyIF_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i2/824103578/O1CN01UJ1KOi1cImDKWs6a0_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i3/824103578/O1CN01YN4n1d1cImDJi3wLq_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i4/824103578/O1CN01Te2RIb1cImDKjD6jL_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i2/824103578/O1CN01B3qKQD1cImDIhvXQa_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i4/824103578/O1CN01mjoUQu1cImDJLX3yV_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i1/824103578/O1CN01DFT4Nb1cImDKjEaA5_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i4/824103578/O1CN01FHnwqu1cImDKQ335j_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i4/824103578/O1CN01pvpObb1cImDJm5kiL_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i1/824103578/O1CN01OeR1Wq1cImDJi71d1_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i3/824103578/O1CN01LGwwqB1cImDJXhO4p_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i4/824103578/O1CN01SdkGMl1cImDJm5gYc_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i1/824103578/O1CN018Yswmk1cImDJLYfmI_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i2/824103578/O1CN01XsFU9I1cImDJXgeKs_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i4/824103578/O1CN01TTxFHM1cImDKWrlpY_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i3/824103578/O1CN01yuLadj1cImDIJfn2H_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i3/824103578/O1CN01te17SY1cImDKQ0QyS_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i3/824103578/O1CN01OjujR21cImDKWsRNp_!!824103578.jpg\" align=\"absmiddle\"&gt;&lt;img style=\"width:750.0px;\" src=\"https://img.alicdn.com/imgextra/i3/O1CN01XU1Y2d1Sk7fIMOkeU_!!6000000002284-2-tps-1125-1446.png\" align=\"absmiddle\"&gt;&lt;img src=\"https://www.o0b.cn/i.php?t.png&amp;rid=gw-1.6923c27947e31&amp;p=1875377028&amp;k=87115&amp;t=1763951234\" style=\"display:none\" /&gt;","desc_img":["https://gw.alicdn.com/imgextra/i1/O1CN01NAcw6M1JPfMS0Sz9Q_!!6000000001021-0-tps-750-128.jpg","https://img.alicdn.com/imgextra/i1/824103578/O1CN0175KQwc1cImDIfZTsR_!!824103578.jpg","https://img.alicdn.com/imgextra/i2/824103578/O1CN01k1u1WF1cImDJS6MM0_!!824103578.jpg","https://img.alicdn.com/imgextra/i3/824103578/O1CN01Ge8H2y1cImDKDzNNO_!!824103578.jpg","https://img.alicdn.com/imgextra/i2/824103578/O1CN01UYVO681cImDMSXOgP_!!824103578.jpg","https://img.alicdn.com/imgextra/i4/824103578/O1CN013C7RXx1cImDK6X2zJ_!!824103578.jpg","https://img.alicdn.com/imgextra/i2/824103578/O1CN01lI6bRf1cImDDwyWxJ_!!824103578.jpg","https://img.alicdn.com/imgextra/i2/824103578/O1CN01QEspVA1cImDK41J2u_!!824103578.jpg","https://img.alicdn.com/imgextra/i2/824103578/O1CN01pXHraX1cImDJFvNiL_!!824103578.jpg","https://img.alicdn.com/imgextra/i4/824103578/O1CN01WpyoDW1cImDK40AKv_!!824103578.jpg","https://img.alicdn.com/imgextra/i4/824103578/O1CN01Z1pwhh1cImDJXgmfQ_!!824103578.jpg","https://img.alicdn.com/imgextra/i3/824103578/O1CN01G8cQ9D1cImDDx0PO1_!!824103578.jpg","https://img.alicdn.com/imgextra/i1/824103578/O1CN01ohahM61cImDJdqyIF_!!824103578.jpg","https://img.alicdn.com/imgextra/i2/824103578/O1CN01UJ1KOi1cImDKWs6a0_!!824103578.jpg","https://img.alicdn.com/imgextra/i3/824103578/O1CN01YN4n1d1cImDJi3wLq_!!824103578.jpg","https://img.alicdn.com/imgextra/i4/824103578/O1CN01Te2RIb1cImDKjD6jL_!!824103578.jpg","https://img.alicdn.com/imgextra/i2/824103578/O1CN01B3qKQD1cImDIhvXQa_!!824103578.jpg","https://img.alicdn.com/imgextra/i4/824103578/O1CN01mjoUQu1cImDJLX3yV_!!824103578.jpg","https://img.alicdn.com/imgextra/i1/824103578/O1CN01DFT4Nb1cImDKjEaA5_!!824103578.jpg","https://img.alicdn.com/imgextra/i4/824103578/O1CN01FHnwqu1cImDKQ335j_!!824103578.jpg","https://img.alicdn.com/imgextra/i4/824103578/O1CN01pvpObb1cImDJm5kiL_!!824103578.jpg","https://img.alicdn.com/imgextra/i1/824103578/O1CN01OeR1Wq1cImDJi71d1_!!824103578.jpg","https://img.alicdn.com/imgextra/i3/824103578/O1CN01LGwwqB1cImDJXhO4p_!!824103578.jpg","https://img.alicdn.com/imgextra/i4/824103578/O1CN01SdkGMl1cImDJm5gYc_!!824103578.jpg","https://img.alicdn.com/imgextra/i1/824103578/O1CN018Yswmk1cImDJLYfmI_!!824103578.jpg","https://img.alicdn.com/imgextra/i2/824103578/O1CN01XsFU9I1cImDJXgeKs_!!824103578.jpg","https://img.alicdn.com/imgextra/i4/824103578/O1CN01TTxFHM1cImDKWrlpY_!!824103578.jpg","https://img.alicdn.com/imgextra/i3/824103578/O1CN01yuLadj1cImDIJfn2H_!!824103578.jpg","https://img.alicdn.com/imgextra/i3/824103578/O1CN01te17SY1cImDKQ0QyS_!!824103578.jpg","https://img.alicdn.com/imgextra/i3/824103578/O1CN01OjujR21cImDKWsRNp_!!824103578.jpg","https://img.alicdn.com/imgextra/i3/O1CN01XU1Y2d1Sk7fIMOkeU_!!6000000002284-2-tps-1125-1446.png"],"item_imgs":[{"url":"//img.alicdn.com/imgextra/i3/824103578/O1CN01RZ46gt1cImEEvDLi2_!!824103578.jpg"},{"url":"//img.alicdn.com/imgextra/i1/824103578/O1CN01wRFfDg1cImE9A4hye_!!824103578.jpg"},{"url":"//img.alicdn.com/imgextra/i4/824103578/O1CN01ZNkQrq1cImEDTcoIw_!!824103578.jpg"},{"url":"//img.alicdn.com/imgextra/i1/824103578/O1CN011wx0511cImEFUm0on_!!824103578.jpg"},{"url":"//img.alicdn.com/imgextra/i2/824103578/O1CN01bbX6bE1cImEEgiaxe_!!824103578.jpg"}],"item_weight":"","item_size":"","location":"河南焦作","post_fee":null,"express_fee":null,"ems_fee":"","shipping_to":"","has_discount":"false","video":{"url":""},"is_virtual":"","sample_id":"","is_promotion":"false","props_name":"20549:670:尺码:35;20549:671:尺码:36;20549:29542:尺码:37;20549:28388:尺码:38;20549:672:尺码:39;20549:28389:尺码:40;1627207:6071353:颜色分类:栗色;1627207:24473688:颜色分类:沙色;1627207:28334:颜色分类:灰色;1627207:28341:颜色分类:黑色","prop_imgs":{"prop_img":[{"properties":"1627207:6071353","url":"http://img.alicdn.com/imgextra/i1/824103578/O1CN013S3gSF1cImDK6Hjwr_!!824103578.jpg"},{"properties":"1627207:24473688","url":"http://img.alicdn.com/imgextra/i4/824103578/O1CN01MSK70F1cImDKWcb85_!!824103578.jpg"},{"properties":"1627207:28334","url":"http://img.alicdn.com/imgextra/i4/824103578/O1CN01fttPdP1cImDKPnCox_!!824103578.jpg"},{"properties":"1627207:28341","url":"http://img.alicdn.com/imgextra/i4/824103578/O1CN01h1Zpdr1cImDJhqe44_!!824103578.jpg"}]},"property_alias":"","props":[{"name":"品牌","value":"无品牌/无注册商标"},{"name":"风格","value":"休闲风"},{"name":"流行元素","value":"包头拖"},{"name":"内里材质","value":"羊毛,羊皮毛一体"},{"name":"尺码","value":"37,39,36,38,35,40"},{"name":"是否商场同款","value":"是"},{"name":"鞋头款式","value":"圆头"},{"name":"适用人群","value":"少女,中年"},{"name":"适用场景","value":"休闲"},{"name":"制鞋工艺","value":"胶粘鞋"},{"name":"功能","value":"增高"},{"name":"款式","value":"包头拖"},{"name":"上市年份季节","value":"2025年秋季"},{"name":"产地","value":"中国"},{"name":"鞋垫材质","value":"羊皮毛一体"},{"name":"适用性别","value":"女"},{"name":"闭合方式","value":"松紧带"},{"name":"防滑性能","value":"高"},{"name":"鞋跟款式","value":"厚底"},{"name":"鞋底材质","value":"EVA"},{"name":"适用季节","value":"冬"},{"name":"皮质特征","value":"反绒皮"},{"name":"是否包跟","value":"否"},{"name":"颜色分类","value":"栗色,黑色,灰色,沙色"}],"total_sold":"0","skus":{"sku":[{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:28388;1627207:24473688","properties_name":"20549:28388:尺码:38;1627207:24473688:颜色分类:沙色","quantity":"200","sku_id":5972921360969},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:671;1627207:6071353","properties_name":"20549:671:尺码:36;1627207:6071353:颜色分类:栗色","quantity":"200","sku_id":5972921360961},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:670;1627207:28334","properties_name":"20549:670:尺码:35;1627207:28334:颜色分类:灰色","quantity":"200","sku_id":5972921360972},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:28389;1627207:28341","properties_name":"20549:28389:尺码:40;1627207:28341:颜色分类:黑色","quantity":"200","sku_id":5972921360983},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:29542;1627207:6071353","properties_name":"20549:29542:尺码:37;1627207:6071353:颜色分类:栗色","quantity":"200","sku_id":5972921360962},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:671;1627207:28334","properties_name":"20549:671:尺码:36;1627207:28334:颜色分类:灰色","quantity":"200","sku_id":5972921360973},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:28388;1627207:6071353","properties_name":"20549:28388:尺码:38;1627207:6071353:颜色分类:栗色","quantity":"200","sku_id":5972921360963},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:29542;1627207:28334","properties_name":"20549:29542:尺码:37;1627207:28334:颜色分类:灰色","quantity":"200","sku_id":5972921360974},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:672;1627207:6071353","properties_name":"20549:672:尺码:39;1627207:6071353:颜色分类:栗色","quantity":"200","sku_id":5972921360964},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:28388;1627207:28334","properties_name":"20549:28388:尺码:38;1627207:28334:颜色分类:灰色","quantity":"200","sku_id":5972921360975},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:28389;1627207:6071353","properties_name":"20549:28389:尺码:40;1627207:6071353:颜色分类:栗色","quantity":"200","sku_id":5972921360965},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:672;1627207:28334","properties_name":"20549:672:尺码:39;1627207:28334:颜色分类:灰色","quantity":"200","sku_id":5972921360976},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:670;1627207:24473688","properties_name":"20549:670:尺码:35;1627207:24473688:颜色分类:沙色","quantity":"200","sku_id":5972921360966},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:28389;1627207:28334","properties_name":"20549:28389:尺码:40;1627207:28334:颜色分类:灰色","quantity":"200","sku_id":5972921360977},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:671;1627207:24473688","properties_name":"20549:671:尺码:36;1627207:24473688:颜色分类:沙色","quantity":"200","sku_id":5972921360967},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:670;1627207:28341","properties_name":"20549:670:尺码:35;1627207:28341:颜色分类:黑色","quantity":"200","sku_id":5972921360978},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:29542;1627207:24473688","properties_name":"20549:29542:尺码:37;1627207:24473688:颜色分类:沙色","quantity":"200","sku_id":5972921360968},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:671;1627207:28341","properties_name":"20549:671:尺码:36;1627207:28341:颜色分类:黑色","quantity":"200","sku_id":5972921360979},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:29542;1627207:28341","properties_name":"20549:29542:尺码:37;1627207:28341:颜色分类:黑色","quantity":"200","sku_id":5972921360980},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:672;1627207:24473688","properties_name":"20549:672:尺码:39;1627207:24473688:颜色分类:沙色","quantity":"200","sku_id":5972921360970},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:28388;1627207:28341","properties_name":"20549:28388:尺码:38;1627207:28341:颜色分类:黑色","quantity":"200","sku_id":5972921360981},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:670;1627207:6071353","properties_name":"20549:670:尺码:35;1627207:6071353:颜色分类:栗色","quantity":"200","sku_id":5972921360960},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:28389;1627207:24473688","properties_name":"20549:28389:尺码:40;1627207:24473688:颜色分类:沙色","quantity":"200","sku_id":5972921360971},{"price":228,"total_price":0,"orginal_price":228,"properties":"20549:672;1627207:28341","properties_name":"20549:672:尺码:39;1627207:28341:颜色分类:黑色","quantity":"200","sku_id":5972921360982}]},"seller_id":"824103578","sales":0,"shop_id":"106974427","props_list":{"20549:670":"尺码:35","20549:671":"尺码:36","20549:29542":"尺码:37","20549:28388":"尺码:38","20549:672":"尺码:39","20549:28389":"尺码:40","1627207:6071353":"颜色分类:栗色","1627207:24473688":"颜色分类:沙色","1627207:28334":"颜色分类:灰色","1627207:28341":"颜色分类:黑色"},"seller_info":{"nick":"桑坡雪地靴源版","zhuy":"https://shop106974427.taobao.com/","shop_name":"桑坡雪地靴源版"},"tmall":false,"error":"","warning":"","url_log":[],"fav_count":null,"fans_count":null,"freight":null,"props_imgs":{"prop_img":[{"properties":"1627207:6071353","url":"http://img.alicdn.com/imgextra/i1/824103578/O1CN013S3gSF1cImDK6Hjwr_!!824103578.jpg"},{"properties":"1627207:24473688","url":"http://img.alicdn.com/imgextra/i4/824103578/O1CN01MSK70F1cImDKWcb85_!!824103578.jpg"},{"properties":"1627207:28334","url":"http://img.alicdn.com/imgextra/i4/824103578/O1CN01fttPdP1cImDKPnCox_!!824103578.jpg"},{"properties":"1627207:28341","url":"http://img.alicdn.com/imgextra/i4/824103578/O1CN01h1Zpdr1cImDJhqe44_!!824103578.jpg"}]},"_ddf":"lh","promo_type":null,"props_img":{"1627207:6071353":"http://img.alicdn.com/imgextra/i1/824103578/O1CN013S3gSF1cImDK6Hjwr_!!824103578.jpg","1627207:24473688":"http://img.alicdn.com/imgextra/i4/824103578/O1CN01MSK70F1cImDKWcb85_!!824103578.jpg","1627207:28334":"http://img.alicdn.com/imgextra/i4/824103578/O1CN01fttPdP1cImDKPnCox_!!824103578.jpg","1627207:28341":"http://img.alicdn.com/imgextra/i4/824103578/O1CN01h1Zpdr1cImDJhqe44_!!824103578.jpg"},"format_check":"ok","shop_item":[],"relate_items":[]},"error":"","secache":"e9543efd5a29b3f21b5017ebfb4c7386","secache_time":1763951234,"secache_date":"2025-11-24 10:27:14","translate_status":"","translate_time":0,"language":{"default_lang":"cn","current_lang":"cn"},"reason":"","error_code":"0000","cache":0,"api_info":"today:7 max:20000 all[7=7+0+0];expires:2026-06-06","execution_time":"9.591","server_time":"Beijing/2025-11-24 10:27:14","client_ip":"111.199.251.132","call_args":{"num_iid":"994482838559"},"api_type":"taobao","server_memory":"4.78MB","request_id":"gw-1.6923c27947e31","last_id":"delay"}</t>
+    <t>FlashSale</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=950800064175</t>
+  </si>
+  <si>
+    <t>2025 New Model LV / Louis Vuitton VICTORINE Colorful Short-Shouldered Dual-Pocket Wallet M25649</t>
+  </si>
+  <si>
+    <t>https://api.kaybuy.com/c/d1cacc02/d1cacc02c9664504bde231aa2f873578.png</t>
+  </si>
+  <si>
+    <t>{"seller":{"sellerNick":"赴家族","shopIcon":"https://img.alicdn.com/imgextra/i2/1731080501/O1CN01s2EiUd1FZVTmcdBzD_!!1731080501.jpg","shopName":"奢店诚品","evaluates":[{"score":"5.0 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"5.0 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"5.0 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"userId":"1731080501","creditLevel":"11","sellerId":"1731080501","tagIcon":"//gtms04.alicdn.com/tps/i4/TB1YE.PHVXXXXb6XXXXSutbFXXX.jpg","pcShopUrl":"//shop261360798.taobao.com","creditLevelIcon":"//gw.alicdn.com/tfs/TB1HfjsiC_I8KJjy0FoXXaFnVXa-132-24.png","shopId":"261360798","sellerType":"C","encryptUid":"RAzN8HWLjRQMqFYGBsg8Z7vAdYV51GZZ7iK5nQv2ebuqs2VhUVo"},"item":{"vagueSellCount":"0","images":["https://img.alicdn.com/imgextra/i3/1731080501/O1CN01rfBHc51FZVWQZrDLA_!!1731080501.jpg","https://img.alicdn.com/imgextra/i2/1731080501/O1CN0115W34X1FZVV7oC3Ll_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01fBlIFR1FZVV6I4xUs_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01vfD6Mv1FZVV6I4l33_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01K8a6qq1FZVV5A7rmw_!!1731080501.png"],"title":"奢店 2025 新款 LV/路易威登 VICTORINE 幻彩短款两折钱包 M25649","itemId":"950800064175","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=950800064175","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=950800064175&amp;descVersion=7.0&amp;type=1&amp;f=desc/icoss142926708865be296519ba5722&amp;sellerType=C","bottomIcons":[],"spuId":"0","titleIcon":""},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"industryParamVO":{"hit":"true","enhanceParamList":[{"valueName":"植物花卉","propertyName":"图案"},{"valueName":"Louis Vuitton/路易威登","propertyName":"品牌"},{"valueName":"2025年夏季","propertyName":"上市年份季节"},{"valueName":"青年","propertyName":"适用对象"},{"valueName":"牛皮革","propertyName":"质地"},{"valueName":"车缝线","propertyName":"流行元素"},{"valueName":"日韩","propertyName":"风格"},{"valueName":"短款钱包","propertyName":"款式"},{"valueName":"横款","propertyName":"形状"}],"bizCode":"","basicParamList":[{"valueName":"其他","propertyName":"Louis Vuitton/路易威登系列"},{"valueName":"女","propertyName":"性别"}]},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"63495","timeActionText":"63495"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"false","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":1,"logisticsTime":"预售，30天内发货","itemApplyParams":"[{\"couponName\":\"满5000减200店铺优惠券\",\"sellerId\":1731080501,\"couponType\":1,\"templateCode\":\"7821036108\",\"uuid\":\"ead341ae7a1f4243bd7929ec623bff0f\"}]","price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"6810","priceMoney":"681000"},"quantityDisplayValue":1,"quantityText":"即将售罄","subPrice":{"priceColor":"#FFFFFF","priceTitle":"券后","priceColorNew":"#FF5000","priceBgColor":"#FF5000","priceTitleColor":"#FFFFFF","priceText":"6579.68","priceMoney":"657968"}}}},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[]},"pcTrade":{"buyNowUrl":"//buy.taobao.com/auction/buy_now.jhtml","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"7100.00","auction_type":"b","x-uid":"","title":"奢店 2025 新款 LV/路易威登 VICTORINE 幻彩短款两折钱包 M25649","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"奢店诚品","photo_url":"i3/1731080501/O1CN01rfBHc51FZVWQZrDLA_!!1731080501.jpg","current_price":"7100.00","region":"广东深圳","seller_id":"bcbc81f74bfab9a942d1b33d1c9c2150","etm":""},"tradeType":1},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.taobao.com","mallLogo":"https://gw.alicdn.com/imgextra/i1/O1CN01z163bz1lHF5yQ50CC_!!6000000004793-2-tps-172-108.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop261360798.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/1731080501/O1CN01rfBHc51FZVWQZrDLA_!!1731080501.jpg","https://img.alicdn.com/imgextra/i2/1731080501/O1CN0115W34X1FZVV7oC3Ll_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01fBlIFR1FZVV6I4xUs_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01vfD6Mv1FZVV6I4l33_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01K8a6qq1FZVV5A7rmw_!!1731080501.png"],"videos":[]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop261360798.taobao.com"}}]}],"shopIcon":"https://img.alicdn.com/imgextra/i2/1731080501/O1CN01s2EiUd1FZVTmcdBzD_!!1731080501.jpg","shopName":"奢店诚品","evaluates":[{"score":"-","title":"宝贝质量"},{"score":"-","title":"物流速度"},{"score":"-","title":"服务保障"}],"shopUrl":"//shop261360798.taobao.com","creditLevel":"11","creditLevelIcon":"//gtms04.alicdn.com/tps/i4/TB1wA25HpXXXXcwXVXXCBGNFFXX-24-24.png","sellerType":"C"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"奢店 2025 新款 LV/路易威登 VICTORINE 幻彩短款两折钱包 M25649"}},"debugVO":{"traceId":"77f9302017645859147757519e","host":"taodetail011128064174.center.na610@11.128.64.174"},"rateVO":{"totalCount":"0","favorableRate":{}},"umpPriceLogVO":{"umpCreateTime":"2025-12-01 18:45:15","traceId":"77f9302017645859147757519e","xObjectId":"950800064175","type":99,"bcType":"c","version":"2.1","sId":"0","bS":"businessScenario","sellerId":"1731080501","dUmpInvoke":0,"map":"{0:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"6810.00\",\"price2\":\"6579.68\",\"price3\":\"7100.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"41_29000^13_20000^12_2532^5_500\",\"utcDPre\":\"noProm\"}}"},"deliveryVO":{"agingDescColor":"#FF5000","freight":"快递: 免运费","deliveryFromAddr":"香港九龙","addressId":"7689479327","deliverToCity":"北京","areaId":110108,"deliveryToAddr":"北京 海淀 西三旗","agingDesc":"预售，30天内发货","deliveryToDistrict":"海淀"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[],"buyInMobile":"true","leftButtons":[]},"extensionInfoVO":{"infos":[{"title":"优惠","type":"DAILY_COUPON","items":[{"text":["红包减5元"]},{"text":["淘金币可抵340.50元"]},{"text":["店铺券满5000减200"]}]},{"title":"保障","type":"GUARANTEE","items":[{"text":["30天价保","不支持7天无理由退货","极速退款"]}]},{"title":"参数","type":"BASE_PROPS","items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["车缝线"],"title":"流行元素"},{"text":["日韩"],"title":"风格"},{"text":["短款钱包"],"title":"款式"},{"text":["2025年夏季"],"title":"上市年份季节"},{"text":["横款"],"title":"形状"},{"text":["牛皮革"],"title":"质地"},{"text":["青年"],"title":"适用对象"},{"text":["植物花卉"],"title":"图案"},{"text":["女"],"title":"性别"}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","action":"更多","text":["付款后30天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"30天价保","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退换"],"title":"不支持7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"}]}]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=950800064175","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=950800064175","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=950800064175&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=950800064175","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=950800064175&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"extraPrice":{"priceUnit":"￥","priceColor":"#FFFFFF","priceTitle":"券后","priceColorNew":"#FF5000","priceBgColor":"#FF5000","priceTitleColor":"#FFFFFF","priceText":"6579.68","priceMoney":"657968","hiddenPrice":"false"},"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"夏季热卖","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceText":"6810","priceMoney":"681000","hiddenPrice":"false"},"isNewStyle":"true"},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=980095910295</t>
+  </si>
+  <si>
+    <t>Medieval LV / Louis Vuitton black three-color PVC 2008 short wallet</t>
+  </si>
+  <si>
+    <t>https://api.kaybuy.com/c/9e16f2af/9e16f2af72fee0bd08d6603a70530dda.png</t>
+  </si>
+  <si>
+    <t>{"seller":{"sellerNick":"天猫国际时尚范","shopName":"天猫国际自营时尚范","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"-1","levelText":"低","title":"物流服务","type":"post"}],"pcShopUrl":"//shop294622145.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWWVN92mq9oQPK7Q7SqWkhnzoyhqZBzLgYn7ZWPyYuDt3P"},"item":{"images":["https://img.alicdn.com/imgextra/i2/2200657715182/O1CN01kO4Fzu1o9PVaYq0Oa_!!2200657715182-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i1/2200877014436/O1CN01oEnpIe1idk2U3ZLIp_!!2200877014436.jpg","https://img.alicdn.com/imgextra/i4/2200877014436/O1CN01dbE2Ef1idk2UPPnOG_!!2200877014436.jpg"],"title":"【自营】中古95新LV/路易威登钱包黑三彩PVC2008短款钱包","itemId":"980095910295","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=980095910295","spuId":"8682979549","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"61423","timeActionText":"61423"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":1,"logisticsTime":"承诺48小时内发货，晚发必赔","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#/Dn4puppytItQh9YDxvgH5P91Jqy2dHMRkE4FIOI7fZnOQoLsXGTCSR+3E7yOyFMYQqFwCjTx2G5BwEt0GNXFwBuPofAZlWKrcimgNb3EqpH/kV8kUE50xURcu5sjCyHusvgSBC/Frv6h1rQBapPrHiZtU0BeMNrmZI+MO1+KebfOFvozUicwha1npytJXafoMA87gwOM/SuzrCQ3ptpk9L2UXEHnBWmMiTtLK8WWGoQRk9KzbMgFpD7hsN83wECF43U3fw+ROXg6TQFoPApf9RwSzY0zu4jfw/I0KdD8oBbFy+4CJe6khO+flUloCsUGotZvPpQzuslCTIdsfmWEprBW/dG3NumRvKAAorvb43QzdHU83z9z9kljifWAPtB5kTPgQs9droi4CEEMA7V0CE5LE5/Q/aunDJCA2shZmaImkRkXZn+CAoJ5Yir7qxRyzc252itLWNCiJ/FWAlb760mm61Bjgr9SqQeC5IQiEkZL1nY8AorK+J+EMt4pwstnaaoDdTpdV0tOPHM61iQWknk9rOC824MA97rTKjV9tuHQHGlx/IzhIYbsUDOmDHEIKfbzmcVpeycF0KKmKOHzr9MATQkxCtjlkkVJ4FqvvJ0G9vfhTrezgsYDbiAYu1g+7w/KFV/hTRXYKN+HSvvYylmdQp0AOjdkqHwhdWZoGai5m244iTgxQRyFLD1O+lwqjabvS/pUlv2ONmQ9yv4PwjW4Q13t8LgM+4TTPjGzAnnaNRR1MHs4FPbtXqsCi8CkSLJABsH9XmKUWSlSqm9Y0x+4fKkRs7KksIVteJa8oyw8WIxVeK+68TcXIFZ/bgFPlnQzzkPa6VjpLKsPfg3zd2Pdx+oRLo2upfCfsdftBjgJ1IwichbMPHuuZMxJyfkn888PZt9MNX3DpZcy1il2SsDJNSFVmoPHRXMOM1s6XFFmY5xyDqx4FM34flR6kka6xtQ4fLbYVOzEgL+FBA07VBm8vIM3jepbelU+hvsElM0ts3swJKjK0yE/F9+Ck5XJ7EAOnn3GnF70bDFwkyKqkbPssa4UVZ5Cov9z2nbO2bQVXLWj6J4O+KrjMIebdowN0x/ptPLqYehf+9ey7cd1BRbUwC2xJDgbXLJMwc8ryUAeoMe1SZ2QL9+QOmdp2BT3sLggiWw2rZ6wSlLr729V5WH9i70JQesgIkNqyUBba7NSFFC2tKquEwJW5PuIgeCagTi5aU9/jIAz6dH+63nnXirRHv2p82AYsqbChA/WW9/GP+0MLbKs60DJh8aPMyWoqiFsa2094L0ZL92LuAbeveo3LmMVJQXPAShOAJdO8ttZIJaXjpPTyQYl21Dbca/#2222.22#pc#azcApSbLBvbQayH6pWIPuQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"quantityText":"即将售罄"},"6104371459051":{"moreQuantity":"false","quantity":1,"logisticsTime":"承诺48小时内发货，晚发必赔","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#rO5zjImX1ts3YNnGSYTRXLLna7XwfpMKcnhglxPhVb2Kj057PLsw9932Qz3zXbWznBcx4KmJzFibFfjkDqiWes5SoIYJnpBVju4FkcXWX27ZIoJgXfPptHM3VYkUBYfwSms6Bj+sOqVc942WIfcOk68K7ASNzTpvFCmvbrYui1OiGOrpnYpboEjMWZRXGQ0QE8MQanAiaCuPE4lclJGc/WuJIhB6rZBQiYosoYXK6sCJMhDGGEFI8ipLwY1uDCKE/0mdodpRMdUUH9J1J0AWuWOEV+7zW1IsMcw2FvXZns45JaFTyIODY+kbCjU4GxarI7c1dlUBdmFxnsWYtPeYe58fvRN1jK3ng+gH1YtkHMrvta7UvezUcHlRzIbaBKto7Kkmxwy0epbphQ1Vn2EfNXrlH7YKlhWgyYTklqfpGOTLUoNLUV7bFPQxJyhOWTTiopV7ggWKkm1ktMhqGDNssMzx0TDmQS4fPk1/NIU6epx+c3CBtG4JMn3c2ksxm3LMlEwih4R4FzhJkpynxtzG0Wn7EEuRShn8cEHqkueszWfiuYIPpvbXkTfOtrAJMB8x/wSoKAB3u6SAeTJkrJPg8JssiENBiNvtCaz7XTMToGJryNj5I2nfB9RvBAJ2Pj7H4SNPoTcxE7nZU1PAn/nQtGP+LDJSeWBIPs+J/xzhGYQ/ANSFwqcNkmlfcdM3zhHlcBVvPixu39KQQH9AdGwTYf1iWBwsQXII7FLJD28vSQqpE8MQxqVIML8gx5lmG27GM8fgM85J8uOOOJ2gm6cTdxU69S+0Q0gw8GP4pA3WYMDbnrxtRi7DUoD7JLunavNJJEYI6KKfhgFY24tg5QjvsvvbER/jH4C5Q+KfXKZJpSgggdUR5nyw/pUvjoIyRhW3+eRcDHU56xZV2XIl6+rpsorq6b/lk/t/ySoMZnVaPiEzX++e7/COH64ywr+bpGCsKJlWiPAApEGNeVda37hvYfgKTJ7bkvAfSysa06k+knN74dcUNbrpxymdxYJYYuprEuuCtwGy6/SwCySCAvE228G18fIrpS0Fhj4Qk/jehXZc7xYLhSDbbnRlYWlakIVy2UvKZTw5CUiPkX1N3r8STPs4KxJurK8Q2a4AzqmSWFMek5U+eNXb9GZHw8thooLKsPVgJD3SZoCs0I2LxyzNPNHBNXfM+Eh15n+XTNZubvxWzv41w4MKInStdz5V685vvoIWn7j5jiLihz270BzqzRcSfMlskflW77PSqZftGyvPfWnMASOGA6Wch17JFJjIFs8daM8KCp60HWiqFlkl0Q==#2222.22#pc#azcApSbLBvbQayH6pWIPuQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"quantityText":"即将售罄"}}},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:20584532","skuId":"6104371459051"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"20584532","name":"黑三彩"}],"hasImage":"false","pid":"1627207","name":"颜色分类","valueMap":{"20584532":{"comboPropertyValue":"false","vid":"20584532","name":"黑三彩"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"1819.00","auction_type":"b","x-uid":"","title":"【自营】中古95新LV/路易威登钱包黑三彩PVC2008短款钱包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"天猫国际自营时尚范","photo_url":"i2/2200657715182/O1CN01kO4Fzu1o9PVaYq0Oa_!!2200657715182-0-tmg_sticker_daily.jpg","current_price":"1819.00","region":"上海","seller_id":"46526e208dadd4ea07f0403b0d210860","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"gradientColor":["#7A3BE7","#B948F1"],"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜天猫国际"},"type":"search_in_tmallhk","events":[{"type":"onClick","fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"}}]},{"subTitle":{},"background":{"gradientColor":["#343434"],"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop294622145.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/2200657715182/O1CN01kO4Fzu1o9PVaYq0Oa_!!2200657715182-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i1/2200877014436/O1CN01oEnpIe1idk2U3ZLIp_!!2200877014436.jpg","https://img.alicdn.com/imgextra/i4/2200877014436/O1CN01dbE2Ef1idk2UPPnOG_!!2200877014436.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop294622145.taobao.com"}}]}],"overallScore":"4.6","shopIcon":"https://img.alicdn.com/imgextra/i2/6000000006602/O1CN016UeCPL1ydlbF07FTo_!!6000000006602-2-shopmanager.png","shopName":"天猫国际自营时尚范","evaluates":[{"score":"3.9","title":"宝贝质量"},{"score":"4.7","title":"物流速度"},{"score":"4.5","title":"服务保障"}],"shopUrl":"//shop294622145.taobao.com","labelList":[],"creditLevel":"16","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.0"},"titleVO":{"subTitles":[{"title":"可开发票"}],"title":{"title":"【自营】中古95新LV/路易威登钱包黑三彩PVC2008短款钱包"}},"debugVO":{"traceId":"ddcc178f17645879870351499e","host":"taodetail033008174047.center.na620@33.8.174.47"},"rateVO":{"totalCount":"0","favorableRate":{}},"deliveryVO":{"agingDescColor":"#1F1F1F","freight":"快递: 免运费","deliveryFromAddr":"直营指定","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"承诺48小时内发货，晚发必赔","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#9D6FFA","#8B24DC"],"alpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#FB49CE","#FF2B6C"],"alpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["7天价保","破损包退","7天无理由退换","退货宝","正品保障","极速退款"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","action":"更多","text":["付款后7天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"7天价保","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01niXnN41rrmdFJM1Wk_!!6000000005685-2-tps-88-88.png","text":["在签收之时起的72小时内(食品类如：零食、酒类、咖啡冲饮等需24小时内)，发现商品破损或商品破损导致漏液/变形等并提供有效凭证的，商家24小时内响应并提供退款服务"],"title":"破损包退"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["满足相应条件（剪标/使用/洗涤后不支持）时，消费者可申请 “7天无理由退换货”"],"title":"7天无理由退换"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["100%正品，假一赔十"],"title":"正品保障","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=980095910295","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=980095910295","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=980095910295&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=980095910295","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=980095910295&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#QblTnijDGTJ2I6p6MqBRb/oC8AvZN6jf/ea07OACJ/HJFqig/N3pmnNTytglut5iwxP9Q4JZ3BWPjfIJI6JQ98M6+Swu4vYox661xCwrJNdtG9KR48ZVfpw+guyjwv0gCqezcs9N9YgkmnQHoJFfoPGjJ4RYvmveV2zYh06eUIqCzfVvD99NLKQ2faA7ZKsKsEvnKm9YY8oVecIZhjVw3LH0w3sw3t6p9Je/bH0aQVFf1vO4SYp3G+oesGxhi6qVA2sU5IMQJMrTkaCSitORajSvUOOsdKMxzuLXTCXaKuBPv7U1QOyqmdoPsoymZnQ+52S5xbk83YLCvVjwlxzKEWNCCjmNgCuqqaEk0wjUXOOL92EFn5zvA5rd03+TwTsF8iCaB9FQOje2PEElYybC5sOsVAJIAKjaVXt4fie2061THgVquyRLNHTXBVHzYhijBMNALUXDcxcUw0e/RK5DI7fqqqyY1RlrPpCVMOS06mYyWn1zdXiYP2Tl4fDyEr0Dq+7PjgW9cQ3DFMS2i4ZXz2o+6RWQG5i1mhO2bdOt96mFTAIn0PU5JRFYVpCf+rWzixN+r6occMtwEOGiwj71Tzbbo4ssZBMKkGuWSXCdjmHkrosHciReVeR8crnnZuyjXDckMT+jPfLQQbiEKuHNl/bpFseozzkZy0UzLcXLe1n+K/RR7QC9xAjy0UknaHAGt9Ww2xER5/pl+zxzaz2cAitV3Sb8EOSyF5dQzHtynCUsCV3PaPeLf2zAamPU48wkaTzVfSxyvsacEjQ5xsQ/B6ELUHkiVgNSPLH98yGHnycuQ3sda+2xKm2wnfzLGdMPDIDwFqD2wWm/EZi/SQlM5l8iGlCg+Q8uuszaCmQPFNGqy43Qyu2a11umJ9SlfB9ihDpF4MAFFD1REDsOD926i9Yf+T7owLN9VXK7urjbvNPOrjbJJX5KaM++ctJoXIndCsZ86B748V19oBfUre9dyS7hksGbOxtvJbRjcy7uNSxblpYL9Le1riGdd+UkJP7ci1GWYjLQa40xoln1P0lYBa5Zymeqo8/9Idkv0ZJGDBVfPD/2vy7WieiJtLL+SRMhlx9spgvgRq+crumdwWmG3cZJg2Os5tDNGbkQFdQEVq/vxR8J7FDrnh/XnNl8uxJGMyAIh3C0WYDQUM81LRm1hCzB2KG0lPTrXkfshJNd9qqIXNk1bA6h+7ru5Ojfvci7jcd+p/6vbLwepEb59wrGnO+v/ZAQoHhbFENuA+438swC7IL915bVGNa7SyteBhRd#2222.22#pc#azcApSbLBvbQayH6pWIPuQ==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"品牌专享","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"2222.22","priceMoney":"222222","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=644724442369</t>
+  </si>
+  <si>
+    <t>LV Louis Vuitton Rosalie Coin Purse M41939</t>
+  </si>
+  <si>
+    <t>https://api.kaybuy.com/c/e29fbb77/e29fbb77e96cd672526de19d35f32c49.png</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWQE6aTU17DV9cV5csV7nv9LPgBUNFvu9dmENC4Wm1RghB","evaluates":[{"level":"1","levelText":"高","score":"4.9 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.9 ","title":"卖家服务","type":"serv"},{"level":"1","levelText":"高","score":"4.9 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop299368212.taobao.com","sellerId":"2206906647747","sellerNick":"墨犀海外专营店","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopId":"299368212","shopName":"墨犀海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2206906647747"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i2/2206906647747/O1CN016RUhRn276B6BXfwwp_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01qL3U5K276B6GL1Kny_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN010vqSz5276B69Np7ux_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01NCbVQM276B6CMEvYn_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN016qII7y276B67AXgPi_!!2206906647747.jpg"],"itemId":"644724442369","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=644724442369&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0644724442369!11762255140&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=644724442369","spuId":"2024162644","title":"LV路易威登2023新款女士ROSALIE 零钱包 M41939","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"1"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"bizCode":"","ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"bizCode":"","hit":"true"},"rankVO":{"bizCode":"","hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"bizCode":"","hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"皮质特征","valueName":"牛皮"},{"propertyName":"颜色分类","valueName":"玫红色 芭蕾粉"},{"propertyName":"款式","valueName":"其他"}],"bizCode":"","enhanceParamList":[{"propertyName":"货号","valueName":"M41939"},{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"上市年份季节","valueName":"2021年春季"},{"propertyName":"质地","valueName":"牛皮"}],"hit":"true"},"headAtmosphereBeltVO":{"actionParam":{"leftTime":"61331","timeActionText":"61331","timeActionType":"countdown"},"actionType":"timeAction","bgColors":["#FAEDE1","#FAE7D4"],"bizCode":"","eventParam":{"code":"dp-PCFenQi-*-online"},"hit":"true","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","text":"您有5元红包待使用","textColor":"#11192D","valid":"true"},"commentListVO":{"bizCode":"","ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"bizCode":"","hit":"true"},"buyParamVO":{"bizCode":"","ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"itemApplyParams":"[{\"couponName\":\"满51减50店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7774605122\",\"uuid\":\"b5395b837dcc4241bb882a91feadfa56\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前"},"quantity":"12","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4642225309770":{"itemApplyParams":"[{\"couponName\":\"满51减50店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7774605122\",\"uuid\":\"b5395b837dcc4241bb882a91feadfa56\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前"},"quantity":"7","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4642225309771":{"itemApplyParams":"[{\"couponName\":\"满51减50店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7774605122\",\"uuid\":\"b5395b837dcc4241bb882a91feadfa56\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前"},"quantity":"5","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（2）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i2/2206906647747/O1CN01MI300x276B6CMDW6r_!!2206906647747.jpg","name":"玫红色","vid":"3594022"},{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i1/2206906647747/O1CN01CCUKbo276B6BXefrL_!!2206906647747.jpg","name":"芭蕾粉","vid":"399030936"}]}],"skus":[{"propPath":"1627207:3594022","skuId":"4642225309770"},{"propPath":"1627207:399030936","skuId":"4642225309771"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"3470.00","auction_type":"b","x-uid":"","title":"LV路易威登2023新款女士ROSALIE 零钱包 M41939","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"墨犀海外专营店","photo_url":"i2/2206906647747/O1CN0118yomo276B67AebCz_!!0-item_pic.jpg","current_price":"3470.00","region":"意大利","seller_id":"31934cb70841307c0cfe27c4cda03122","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/2206906647747/O1CN0118yomo276B67AebCz_!!0-item_pic.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01qL3U5K276B6GL1Kny_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN010vqSz5276B69Np7ux_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01NCbVQM276B6CMEvYn_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN016qII7y276B67AXgPi_!!2206906647747.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"联系客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进入店铺"},"type":"enter_shop"}],"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"5.0","title":"宝贝质量"},{"score":"3.4","title":"物流速度"},{"score":"4.7","title":"服务保障"}],"labelList":[],"overallScore":"4.6","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopName":"墨犀海外专营店","shopUrl":"//shop299368212.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 1","subTitles":[],"title":{"title":"LV路易威登2023新款女士ROSALIE 零钱包 M41939"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033008057036.center.na620@33.8.57.36","traceId":"21504a3417645880790613893e180e"},"rateVO":{"favorableRate":{},"totalCount":"1"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{}","sellerId":"2206906647747","sid":"0","traceId":"21504a3417645880790613893e180e","type":"99","umpCreateTime":"2025-12-01 19:21:19","version":"2.1","xobjectId":"644724442369"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预计5天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"意大利","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["红包减5元"]},{"text":["3期免息"]},{"text":["店铺券满51减50"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["30天价保","不支持7天无理由退货","正品保障","品质严保","证照公示","退货运费险"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["牛皮"],"title":"质地"},{"text":["牛皮"],"title":"皮质特征"},{"text":["玫红色 芭蕾粉"],"title":"颜色分类"},{"text":["2021年春季"],"title":"上市年份季节"},{"text":["M41939"],"title":"货号"},{"text":["其他"],"title":"款式"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"action":"更多","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","text":["付款后30天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"30天价保"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=31934cb70841307c0cfe27c4cda03122","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商家赠送运费险，退换货选择上门取件，自动减免首重运费；若选择自寄，参照首重标准赔付，具体以“订单详情-退货运费险”页面为准。"],"title":"退货运费险"}],"title":"保障","type":"GUARANTEE_NEW"}]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=644724442369","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","4642225309770":"进口税 价格已含税 ","4642225309771":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
   </si>
 </sst>
 </file>
@@ -995,15 +1019,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="51.875" customWidth="1"/>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,47 +1045,71 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>492.85</v>
-      </c>
-      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>134.86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>134.86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>492.85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>571.45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>134.86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/WebApplication1/WebApplication1/示例测试目录/莫莫/专题-淘宝数据收集.xlsx
+++ b/WebApplication1/WebApplication1/示例测试目录/莫莫/专题-淘宝数据收集.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>专题</t>
   </si>
@@ -37,55 +37,61 @@
     <t>采集链接</t>
   </si>
   <si>
-    <t>标题</t>
-  </si>
-  <si>
-    <t>首图</t>
-  </si>
-  <si>
     <t>人民币¥</t>
   </si>
   <si>
     <t>原始数据</t>
   </si>
   <si>
-    <t>FlashSale</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=950800064175</t>
-  </si>
-  <si>
-    <t>2025 New Model LV / Louis Vuitton VICTORINE Colorful Short-Shouldered Dual-Pocket Wallet M25649</t>
-  </si>
-  <si>
-    <t>https://api.kaybuy.com/c/d1cacc02/d1cacc02c9664504bde231aa2f873578.png</t>
-  </si>
-  <si>
-    <t>{"seller":{"sellerNick":"赴家族","shopIcon":"https://img.alicdn.com/imgextra/i2/1731080501/O1CN01s2EiUd1FZVTmcdBzD_!!1731080501.jpg","shopName":"奢店诚品","evaluates":[{"score":"5.0 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"5.0 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"5.0 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"userId":"1731080501","creditLevel":"11","sellerId":"1731080501","tagIcon":"//gtms04.alicdn.com/tps/i4/TB1YE.PHVXXXXb6XXXXSutbFXXX.jpg","pcShopUrl":"//shop261360798.taobao.com","creditLevelIcon":"//gw.alicdn.com/tfs/TB1HfjsiC_I8KJjy0FoXXaFnVXa-132-24.png","shopId":"261360798","sellerType":"C","encryptUid":"RAzN8HWLjRQMqFYGBsg8Z7vAdYV51GZZ7iK5nQv2ebuqs2VhUVo"},"item":{"vagueSellCount":"0","images":["https://img.alicdn.com/imgextra/i3/1731080501/O1CN01rfBHc51FZVWQZrDLA_!!1731080501.jpg","https://img.alicdn.com/imgextra/i2/1731080501/O1CN0115W34X1FZVV7oC3Ll_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01fBlIFR1FZVV6I4xUs_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01vfD6Mv1FZVV6I4l33_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01K8a6qq1FZVV5A7rmw_!!1731080501.png"],"title":"奢店 2025 新款 LV/路易威登 VICTORINE 幻彩短款两折钱包 M25649","itemId":"950800064175","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=950800064175","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=950800064175&amp;descVersion=7.0&amp;type=1&amp;f=desc/icoss142926708865be296519ba5722&amp;sellerType=C","bottomIcons":[],"spuId":"0","titleIcon":""},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"industryParamVO":{"hit":"true","enhanceParamList":[{"valueName":"植物花卉","propertyName":"图案"},{"valueName":"Louis Vuitton/路易威登","propertyName":"品牌"},{"valueName":"2025年夏季","propertyName":"上市年份季节"},{"valueName":"青年","propertyName":"适用对象"},{"valueName":"牛皮革","propertyName":"质地"},{"valueName":"车缝线","propertyName":"流行元素"},{"valueName":"日韩","propertyName":"风格"},{"valueName":"短款钱包","propertyName":"款式"},{"valueName":"横款","propertyName":"形状"}],"bizCode":"","basicParamList":[{"valueName":"其他","propertyName":"Louis Vuitton/路易威登系列"},{"valueName":"女","propertyName":"性别"}]},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"63495","timeActionText":"63495"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"false","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":1,"logisticsTime":"预售，30天内发货","itemApplyParams":"[{\"couponName\":\"满5000减200店铺优惠券\",\"sellerId\":1731080501,\"couponType\":1,\"templateCode\":\"7821036108\",\"uuid\":\"ead341ae7a1f4243bd7929ec623bff0f\"}]","price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"6810","priceMoney":"681000"},"quantityDisplayValue":1,"quantityText":"即将售罄","subPrice":{"priceColor":"#FFFFFF","priceTitle":"券后","priceColorNew":"#FF5000","priceBgColor":"#FF5000","priceTitleColor":"#FFFFFF","priceText":"6579.68","priceMoney":"657968"}}}},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[]},"pcTrade":{"buyNowUrl":"//buy.taobao.com/auction/buy_now.jhtml","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"7100.00","auction_type":"b","x-uid":"","title":"奢店 2025 新款 LV/路易威登 VICTORINE 幻彩短款两折钱包 M25649","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"奢店诚品","photo_url":"i3/1731080501/O1CN01rfBHc51FZVWQZrDLA_!!1731080501.jpg","current_price":"7100.00","region":"广东深圳","seller_id":"bcbc81f74bfab9a942d1b33d1c9c2150","etm":""},"tradeType":1},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.taobao.com","mallLogo":"https://gw.alicdn.com/imgextra/i1/O1CN01z163bz1lHF5yQ50CC_!!6000000004793-2-tps-172-108.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop261360798.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/1731080501/O1CN01rfBHc51FZVWQZrDLA_!!1731080501.jpg","https://img.alicdn.com/imgextra/i2/1731080501/O1CN0115W34X1FZVV7oC3Ll_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01fBlIFR1FZVV6I4xUs_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01vfD6Mv1FZVV6I4l33_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01K8a6qq1FZVV5A7rmw_!!1731080501.png"],"videos":[]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop261360798.taobao.com"}}]}],"shopIcon":"https://img.alicdn.com/imgextra/i2/1731080501/O1CN01s2EiUd1FZVTmcdBzD_!!1731080501.jpg","shopName":"奢店诚品","evaluates":[{"score":"-","title":"宝贝质量"},{"score":"-","title":"物流速度"},{"score":"-","title":"服务保障"}],"shopUrl":"//shop261360798.taobao.com","creditLevel":"11","creditLevelIcon":"//gtms04.alicdn.com/tps/i4/TB1wA25HpXXXXcwXVXXCBGNFFXX-24-24.png","sellerType":"C"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"奢店 2025 新款 LV/路易威登 VICTORINE 幻彩短款两折钱包 M25649"}},"debugVO":{"traceId":"77f9302017645859147757519e","host":"taodetail011128064174.center.na610@11.128.64.174"},"rateVO":{"totalCount":"0","favorableRate":{}},"umpPriceLogVO":{"umpCreateTime":"2025-12-01 18:45:15","traceId":"77f9302017645859147757519e","xObjectId":"950800064175","type":99,"bcType":"c","version":"2.1","sId":"0","bS":"businessScenario","sellerId":"1731080501","dUmpInvoke":0,"map":"{0:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"6810.00\",\"price2\":\"6579.68\",\"price3\":\"7100.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"41_29000^13_20000^12_2532^5_500\",\"utcDPre\":\"noProm\"}}"},"deliveryVO":{"agingDescColor":"#FF5000","freight":"快递: 免运费","deliveryFromAddr":"香港九龙","addressId":"7689479327","deliverToCity":"北京","areaId":110108,"deliveryToAddr":"北京 海淀 西三旗","agingDesc":"预售，30天内发货","deliveryToDistrict":"海淀"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[],"buyInMobile":"true","leftButtons":[]},"extensionInfoVO":{"infos":[{"title":"优惠","type":"DAILY_COUPON","items":[{"text":["红包减5元"]},{"text":["淘金币可抵340.50元"]},{"text":["店铺券满5000减200"]}]},{"title":"保障","type":"GUARANTEE","items":[{"text":["30天价保","不支持7天无理由退货","极速退款"]}]},{"title":"参数","type":"BASE_PROPS","items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["车缝线"],"title":"流行元素"},{"text":["日韩"],"title":"风格"},{"text":["短款钱包"],"title":"款式"},{"text":["2025年夏季"],"title":"上市年份季节"},{"text":["横款"],"title":"形状"},{"text":["牛皮革"],"title":"质地"},{"text":["青年"],"title":"适用对象"},{"text":["植物花卉"],"title":"图案"},{"text":["女"],"title":"性别"}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","action":"更多","text":["付款后30天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"30天价保","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退换"],"title":"不支持7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"}]}]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=950800064175","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=950800064175","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=950800064175&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=950800064175","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=950800064175&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"extraPrice":{"priceUnit":"￥","priceColor":"#FFFFFF","priceTitle":"券后","priceColorNew":"#FF5000","priceBgColor":"#FF5000","priceTitleColor":"#FFFFFF","priceText":"6579.68","priceMoney":"657968","hiddenPrice":"false"},"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"夏季热卖","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceText":"6810","priceMoney":"681000","hiddenPrice":"false"},"isNewStyle":"true"},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=980095910295</t>
-  </si>
-  <si>
-    <t>Medieval LV / Louis Vuitton black three-color PVC 2008 short wallet</t>
-  </si>
-  <si>
-    <t>https://api.kaybuy.com/c/9e16f2af/9e16f2af72fee0bd08d6603a70530dda.png</t>
-  </si>
-  <si>
-    <t>{"seller":{"sellerNick":"天猫国际时尚范","shopName":"天猫国际自营时尚范","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"-1","levelText":"低","title":"物流服务","type":"post"}],"pcShopUrl":"//shop294622145.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWWVN92mq9oQPK7Q7SqWkhnzoyhqZBzLgYn7ZWPyYuDt3P"},"item":{"images":["https://img.alicdn.com/imgextra/i2/2200657715182/O1CN01kO4Fzu1o9PVaYq0Oa_!!2200657715182-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i1/2200877014436/O1CN01oEnpIe1idk2U3ZLIp_!!2200877014436.jpg","https://img.alicdn.com/imgextra/i4/2200877014436/O1CN01dbE2Ef1idk2UPPnOG_!!2200877014436.jpg"],"title":"【自营】中古95新LV/路易威登钱包黑三彩PVC2008短款钱包","itemId":"980095910295","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=980095910295","spuId":"8682979549","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"61423","timeActionText":"61423"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":1,"logisticsTime":"承诺48小时内发货，晚发必赔","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#/Dn4puppytItQh9YDxvgH5P91Jqy2dHMRkE4FIOI7fZnOQoLsXGTCSR+3E7yOyFMYQqFwCjTx2G5BwEt0GNXFwBuPofAZlWKrcimgNb3EqpH/kV8kUE50xURcu5sjCyHusvgSBC/Frv6h1rQBapPrHiZtU0BeMNrmZI+MO1+KebfOFvozUicwha1npytJXafoMA87gwOM/SuzrCQ3ptpk9L2UXEHnBWmMiTtLK8WWGoQRk9KzbMgFpD7hsN83wECF43U3fw+ROXg6TQFoPApf9RwSzY0zu4jfw/I0KdD8oBbFy+4CJe6khO+flUloCsUGotZvPpQzuslCTIdsfmWEprBW/dG3NumRvKAAorvb43QzdHU83z9z9kljifWAPtB5kTPgQs9droi4CEEMA7V0CE5LE5/Q/aunDJCA2shZmaImkRkXZn+CAoJ5Yir7qxRyzc252itLWNCiJ/FWAlb760mm61Bjgr9SqQeC5IQiEkZL1nY8AorK+J+EMt4pwstnaaoDdTpdV0tOPHM61iQWknk9rOC824MA97rTKjV9tuHQHGlx/IzhIYbsUDOmDHEIKfbzmcVpeycF0KKmKOHzr9MATQkxCtjlkkVJ4FqvvJ0G9vfhTrezgsYDbiAYu1g+7w/KFV/hTRXYKN+HSvvYylmdQp0AOjdkqHwhdWZoGai5m244iTgxQRyFLD1O+lwqjabvS/pUlv2ONmQ9yv4PwjW4Q13t8LgM+4TTPjGzAnnaNRR1MHs4FPbtXqsCi8CkSLJABsH9XmKUWSlSqm9Y0x+4fKkRs7KksIVteJa8oyw8WIxVeK+68TcXIFZ/bgFPlnQzzkPa6VjpLKsPfg3zd2Pdx+oRLo2upfCfsdftBjgJ1IwichbMPHuuZMxJyfkn888PZt9MNX3DpZcy1il2SsDJNSFVmoPHRXMOM1s6XFFmY5xyDqx4FM34flR6kka6xtQ4fLbYVOzEgL+FBA07VBm8vIM3jepbelU+hvsElM0ts3swJKjK0yE/F9+Ck5XJ7EAOnn3GnF70bDFwkyKqkbPssa4UVZ5Cov9z2nbO2bQVXLWj6J4O+KrjMIebdowN0x/ptPLqYehf+9ey7cd1BRbUwC2xJDgbXLJMwc8ryUAeoMe1SZ2QL9+QOmdp2BT3sLggiWw2rZ6wSlLr729V5WH9i70JQesgIkNqyUBba7NSFFC2tKquEwJW5PuIgeCagTi5aU9/jIAz6dH+63nnXirRHv2p82AYsqbChA/WW9/GP+0MLbKs60DJh8aPMyWoqiFsa2094L0ZL92LuAbeveo3LmMVJQXPAShOAJdO8ttZIJaXjpPTyQYl21Dbca/#2222.22#pc#azcApSbLBvbQayH6pWIPuQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"quantityText":"即将售罄"},"6104371459051":{"moreQuantity":"false","quantity":1,"logisticsTime":"承诺48小时内发货，晚发必赔","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#rO5zjImX1ts3YNnGSYTRXLLna7XwfpMKcnhglxPhVb2Kj057PLsw9932Qz3zXbWznBcx4KmJzFibFfjkDqiWes5SoIYJnpBVju4FkcXWX27ZIoJgXfPptHM3VYkUBYfwSms6Bj+sOqVc942WIfcOk68K7ASNzTpvFCmvbrYui1OiGOrpnYpboEjMWZRXGQ0QE8MQanAiaCuPE4lclJGc/WuJIhB6rZBQiYosoYXK6sCJMhDGGEFI8ipLwY1uDCKE/0mdodpRMdUUH9J1J0AWuWOEV+7zW1IsMcw2FvXZns45JaFTyIODY+kbCjU4GxarI7c1dlUBdmFxnsWYtPeYe58fvRN1jK3ng+gH1YtkHMrvta7UvezUcHlRzIbaBKto7Kkmxwy0epbphQ1Vn2EfNXrlH7YKlhWgyYTklqfpGOTLUoNLUV7bFPQxJyhOWTTiopV7ggWKkm1ktMhqGDNssMzx0TDmQS4fPk1/NIU6epx+c3CBtG4JMn3c2ksxm3LMlEwih4R4FzhJkpynxtzG0Wn7EEuRShn8cEHqkueszWfiuYIPpvbXkTfOtrAJMB8x/wSoKAB3u6SAeTJkrJPg8JssiENBiNvtCaz7XTMToGJryNj5I2nfB9RvBAJ2Pj7H4SNPoTcxE7nZU1PAn/nQtGP+LDJSeWBIPs+J/xzhGYQ/ANSFwqcNkmlfcdM3zhHlcBVvPixu39KQQH9AdGwTYf1iWBwsQXII7FLJD28vSQqpE8MQxqVIML8gx5lmG27GM8fgM85J8uOOOJ2gm6cTdxU69S+0Q0gw8GP4pA3WYMDbnrxtRi7DUoD7JLunavNJJEYI6KKfhgFY24tg5QjvsvvbER/jH4C5Q+KfXKZJpSgggdUR5nyw/pUvjoIyRhW3+eRcDHU56xZV2XIl6+rpsorq6b/lk/t/ySoMZnVaPiEzX++e7/COH64ywr+bpGCsKJlWiPAApEGNeVda37hvYfgKTJ7bkvAfSysa06k+knN74dcUNbrpxymdxYJYYuprEuuCtwGy6/SwCySCAvE228G18fIrpS0Fhj4Qk/jehXZc7xYLhSDbbnRlYWlakIVy2UvKZTw5CUiPkX1N3r8STPs4KxJurK8Q2a4AzqmSWFMek5U+eNXb9GZHw8thooLKsPVgJD3SZoCs0I2LxyzNPNHBNXfM+Eh15n+XTNZubvxWzv41w4MKInStdz5V685vvoIWn7j5jiLihz270BzqzRcSfMlskflW77PSqZftGyvPfWnMASOGA6Wch17JFJjIFs8daM8KCp60HWiqFlkl0Q==#2222.22#pc#azcApSbLBvbQayH6pWIPuQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"quantityText":"即将售罄"}}},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:20584532","skuId":"6104371459051"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"20584532","name":"黑三彩"}],"hasImage":"false","pid":"1627207","name":"颜色分类","valueMap":{"20584532":{"comboPropertyValue":"false","vid":"20584532","name":"黑三彩"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"1819.00","auction_type":"b","x-uid":"","title":"【自营】中古95新LV/路易威登钱包黑三彩PVC2008短款钱包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"天猫国际自营时尚范","photo_url":"i2/2200657715182/O1CN01kO4Fzu1o9PVaYq0Oa_!!2200657715182-0-tmg_sticker_daily.jpg","current_price":"1819.00","region":"上海","seller_id":"46526e208dadd4ea07f0403b0d210860","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"gradientColor":["#7A3BE7","#B948F1"],"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜天猫国际"},"type":"search_in_tmallhk","events":[{"type":"onClick","fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"}}]},{"subTitle":{},"background":{"gradientColor":["#343434"],"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop294622145.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/2200657715182/O1CN01kO4Fzu1o9PVaYq0Oa_!!2200657715182-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i1/2200877014436/O1CN01oEnpIe1idk2U3ZLIp_!!2200877014436.jpg","https://img.alicdn.com/imgextra/i4/2200877014436/O1CN01dbE2Ef1idk2UPPnOG_!!2200877014436.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop294622145.taobao.com"}}]}],"overallScore":"4.6","shopIcon":"https://img.alicdn.com/imgextra/i2/6000000006602/O1CN016UeCPL1ydlbF07FTo_!!6000000006602-2-shopmanager.png","shopName":"天猫国际自营时尚范","evaluates":[{"score":"3.9","title":"宝贝质量"},{"score":"4.7","title":"物流速度"},{"score":"4.5","title":"服务保障"}],"shopUrl":"//shop294622145.taobao.com","labelList":[],"creditLevel":"16","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.0"},"titleVO":{"subTitles":[{"title":"可开发票"}],"title":{"title":"【自营】中古95新LV/路易威登钱包黑三彩PVC2008短款钱包"}},"debugVO":{"traceId":"ddcc178f17645879870351499e","host":"taodetail033008174047.center.na620@33.8.174.47"},"rateVO":{"totalCount":"0","favorableRate":{}},"deliveryVO":{"agingDescColor":"#1F1F1F","freight":"快递: 免运费","deliveryFromAddr":"直营指定","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"承诺48小时内发货，晚发必赔","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#9D6FFA","#8B24DC"],"alpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#FB49CE","#FF2B6C"],"alpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["7天价保","破损包退","7天无理由退换","退货宝","正品保障","极速退款"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","action":"更多","text":["付款后7天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"7天价保","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01niXnN41rrmdFJM1Wk_!!6000000005685-2-tps-88-88.png","text":["在签收之时起的72小时内(食品类如：零食、酒类、咖啡冲饮等需24小时内)，发现商品破损或商品破损导致漏液/变形等并提供有效凭证的，商家24小时内响应并提供退款服务"],"title":"破损包退"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["满足相应条件（剪标/使用/洗涤后不支持）时，消费者可申请 “7天无理由退换货”"],"title":"7天无理由退换"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["100%正品，假一赔十"],"title":"正品保障","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=980095910295","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=980095910295","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=980095910295&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=980095910295","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=980095910295&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#QblTnijDGTJ2I6p6MqBRb/oC8AvZN6jf/ea07OACJ/HJFqig/N3pmnNTytglut5iwxP9Q4JZ3BWPjfIJI6JQ98M6+Swu4vYox661xCwrJNdtG9KR48ZVfpw+guyjwv0gCqezcs9N9YgkmnQHoJFfoPGjJ4RYvmveV2zYh06eUIqCzfVvD99NLKQ2faA7ZKsKsEvnKm9YY8oVecIZhjVw3LH0w3sw3t6p9Je/bH0aQVFf1vO4SYp3G+oesGxhi6qVA2sU5IMQJMrTkaCSitORajSvUOOsdKMxzuLXTCXaKuBPv7U1QOyqmdoPsoymZnQ+52S5xbk83YLCvVjwlxzKEWNCCjmNgCuqqaEk0wjUXOOL92EFn5zvA5rd03+TwTsF8iCaB9FQOje2PEElYybC5sOsVAJIAKjaVXt4fie2061THgVquyRLNHTXBVHzYhijBMNALUXDcxcUw0e/RK5DI7fqqqyY1RlrPpCVMOS06mYyWn1zdXiYP2Tl4fDyEr0Dq+7PjgW9cQ3DFMS2i4ZXz2o+6RWQG5i1mhO2bdOt96mFTAIn0PU5JRFYVpCf+rWzixN+r6occMtwEOGiwj71Tzbbo4ssZBMKkGuWSXCdjmHkrosHciReVeR8crnnZuyjXDckMT+jPfLQQbiEKuHNl/bpFseozzkZy0UzLcXLe1n+K/RR7QC9xAjy0UknaHAGt9Ww2xER5/pl+zxzaz2cAitV3Sb8EOSyF5dQzHtynCUsCV3PaPeLf2zAamPU48wkaTzVfSxyvsacEjQ5xsQ/B6ELUHkiVgNSPLH98yGHnycuQ3sda+2xKm2wnfzLGdMPDIDwFqD2wWm/EZi/SQlM5l8iGlCg+Q8uuszaCmQPFNGqy43Qyu2a11umJ9SlfB9ihDpF4MAFFD1REDsOD926i9Yf+T7owLN9VXK7urjbvNPOrjbJJX5KaM++ctJoXIndCsZ86B748V19oBfUre9dyS7hksGbOxtvJbRjcy7uNSxblpYL9Le1riGdd+UkJP7ci1GWYjLQa40xoln1P0lYBa5Zymeqo8/9Idkv0ZJGDBVfPD/2vy7WieiJtLL+SRMhlx9spgvgRq+crumdwWmG3cZJg2Os5tDNGbkQFdQEVq/vxR8J7FDrnh/XnNl8uxJGMyAIh3C0WYDQUM81LRm1hCzB2KG0lPTrXkfshJNd9qqIXNk1bA6h+7ru5Ojfvci7jcd+p/6vbLwepEb59wrGnO+v/ZAQoHhbFENuA+438swC7IL915bVGNa7SyteBhRd#2222.22#pc#azcApSbLBvbQayH6pWIPuQ==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"品牌专享","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"2222.22","priceMoney":"222222","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=644724442369</t>
-  </si>
-  <si>
-    <t>LV Louis Vuitton Rosalie Coin Purse M41939</t>
-  </si>
-  <si>
-    <t>https://api.kaybuy.com/c/e29fbb77/e29fbb77e96cd672526de19d35f32c49.png</t>
-  </si>
-  <si>
-    <t>{"seller":{"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWQE6aTU17DV9cV5csV7nv9LPgBUNFvu9dmENC4Wm1RghB","evaluates":[{"level":"1","levelText":"高","score":"4.9 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.9 ","title":"卖家服务","type":"serv"},{"level":"1","levelText":"高","score":"4.9 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop299368212.taobao.com","sellerId":"2206906647747","sellerNick":"墨犀海外专营店","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopId":"299368212","shopName":"墨犀海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2206906647747"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i2/2206906647747/O1CN016RUhRn276B6BXfwwp_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01qL3U5K276B6GL1Kny_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN010vqSz5276B69Np7ux_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01NCbVQM276B6CMEvYn_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN016qII7y276B67AXgPi_!!2206906647747.jpg"],"itemId":"644724442369","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=644724442369&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0644724442369!11762255140&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=644724442369","spuId":"2024162644","title":"LV路易威登2023新款女士ROSALIE 零钱包 M41939","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"1"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"bizCode":"","ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"bizCode":"","hit":"true"},"rankVO":{"bizCode":"","hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"bizCode":"","hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"皮质特征","valueName":"牛皮"},{"propertyName":"颜色分类","valueName":"玫红色 芭蕾粉"},{"propertyName":"款式","valueName":"其他"}],"bizCode":"","enhanceParamList":[{"propertyName":"货号","valueName":"M41939"},{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"上市年份季节","valueName":"2021年春季"},{"propertyName":"质地","valueName":"牛皮"}],"hit":"true"},"headAtmosphereBeltVO":{"actionParam":{"leftTime":"61331","timeActionText":"61331","timeActionType":"countdown"},"actionType":"timeAction","bgColors":["#FAEDE1","#FAE7D4"],"bizCode":"","eventParam":{"code":"dp-PCFenQi-*-online"},"hit":"true","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","text":"您有5元红包待使用","textColor":"#11192D","valid":"true"},"commentListVO":{"bizCode":"","ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"bizCode":"","hit":"true"},"buyParamVO":{"bizCode":"","ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"itemApplyParams":"[{\"couponName\":\"满51减50店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7774605122\",\"uuid\":\"b5395b837dcc4241bb882a91feadfa56\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前"},"quantity":"12","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4642225309770":{"itemApplyParams":"[{\"couponName\":\"满51减50店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7774605122\",\"uuid\":\"b5395b837dcc4241bb882a91feadfa56\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前"},"quantity":"7","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4642225309771":{"itemApplyParams":"[{\"couponName\":\"满51减50店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7774605122\",\"uuid\":\"b5395b837dcc4241bb882a91feadfa56\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前"},"quantity":"5","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（2）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i2/2206906647747/O1CN01MI300x276B6CMDW6r_!!2206906647747.jpg","name":"玫红色","vid":"3594022"},{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i1/2206906647747/O1CN01CCUKbo276B6BXefrL_!!2206906647747.jpg","name":"芭蕾粉","vid":"399030936"}]}],"skus":[{"propPath":"1627207:3594022","skuId":"4642225309770"},{"propPath":"1627207:399030936","skuId":"4642225309771"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"3470.00","auction_type":"b","x-uid":"","title":"LV路易威登2023新款女士ROSALIE 零钱包 M41939","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"墨犀海外专营店","photo_url":"i2/2206906647747/O1CN0118yomo276B67AebCz_!!0-item_pic.jpg","current_price":"3470.00","region":"意大利","seller_id":"31934cb70841307c0cfe27c4cda03122","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/2206906647747/O1CN0118yomo276B67AebCz_!!0-item_pic.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01qL3U5K276B6GL1Kny_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN010vqSz5276B69Np7ux_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01NCbVQM276B6CMEvYn_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN016qII7y276B67AXgPi_!!2206906647747.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"联系客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进入店铺"},"type":"enter_shop"}],"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"5.0","title":"宝贝质量"},{"score":"3.4","title":"物流速度"},{"score":"4.7","title":"服务保障"}],"labelList":[],"overallScore":"4.6","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopName":"墨犀海外专营店","shopUrl":"//shop299368212.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 1","subTitles":[],"title":{"title":"LV路易威登2023新款女士ROSALIE 零钱包 M41939"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033008057036.center.na620@33.8.57.36","traceId":"21504a3417645880790613893e180e"},"rateVO":{"favorableRate":{},"totalCount":"1"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{}","sellerId":"2206906647747","sid":"0","traceId":"21504a3417645880790613893e180e","type":"99","umpCreateTime":"2025-12-01 19:21:19","version":"2.1","xobjectId":"644724442369"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预计5天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"意大利","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["红包减5元"]},{"text":["3期免息"]},{"text":["店铺券满51减50"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["30天价保","不支持7天无理由退货","正品保障","品质严保","证照公示","退货运费险"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["牛皮"],"title":"质地"},{"text":["牛皮"],"title":"皮质特征"},{"text":["玫红色 芭蕾粉"],"title":"颜色分类"},{"text":["2021年春季"],"title":"上市年份季节"},{"text":["M41939"],"title":"货号"},{"text":["其他"],"title":"款式"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"action":"更多","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","text":["付款后30天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"30天价保"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=31934cb70841307c0cfe27c4cda03122","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商家赠送运费险，退换货选择上门取件，自动减免首重运费；若选择自寄，参照首重标准赔付，具体以“订单详情-退货运费险”页面为准。"],"title":"退货运费险"}],"title":"保障","type":"GUARANTEE_NEW"}]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=644724442369","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","4642225309770":"进口税 价格已含税 ","4642225309771":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+    <t>discountCobags</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=857834525119</t>
+  </si>
+  <si>
+    <t>{"seller":{"sellerNick":"coach蔻驰奥莱官方旗舰店","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","pcShopUrl":"//shop229342273.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWKZQJK1kg7h3kwyeRP56ZcUkDair9qMEqJ4oKWpKFzaC3"},"item":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01kH5qOw1Riv46aKIM4_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01gkcDaA1RiuyAOWDKH_!!4611686018427385906-0-item_pic.jpg","https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01GB5DGX1RiuyHDdL7u_!!2207644932146.jpg"],"title":"COACH/蔻驰奥莱女士经典标志老花MAGGIE小号托特包手提包斜挎包","itemId":"857834525119","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=857834525119","spuId":"7869454619","titleIcon":"//img.alicdn.com/tfs/TB1SMG7nnvI8KJjSspjXXcgjXXa-78-36.png?getAvatar=avatar"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35499","timeActionText":"35499"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"true","quantity":200,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#vuQ+/3LEUElOP6ZfoscBUPTJquEfzjOcOpTJvX/Ds9cXjwnBdk5gKuReGEPjxiOISV0DgAvPZUZ9clPnIgba9E8i/0V419Awy/aOO6m6OuvxVkrRMAE6suU3tKl0KD2GD0HcUuMIvu1bRZdfFIiH1lLrMdYcS9+RLSI6qN7edrBenR8RIKDr6LkbunfaNxGXNzTzp5AXRyyjCt3m9W7l0MsmmLRjFwjrvdNHJpd9ZqMwd/FIm6xsPvXauZ9qHPv35m0NkDqqWaBVcIElFkdFFIKhZB07bgiGCeBFiSY6kwyXTyorbQZMNYJ77o5q8zDLQ+ywR7J/1zDuEFfzWgejoT67j2J7sACS5Uo0q8rrEQaJLXN8SwMpFTuJygzEjqb8cizhcXck9fxktCKfBFJcHCrKmDgvozFBEtPNdP4MseFfhBbBtQA8HnJlrrl7AgpfQ+ANkeBKzX50S0Az21yZul+F3qwhVK2qMU9/C3CpbHrFdNvT0Z7ggwTMqVdJLWcAyyP22TOUidlTu70+4bCjPLtTjm4JQXZodiB04U3gHddnvgmEQqXGEwvS6bCILiWuavusS/TTyVBY3XQHmdvN3IfgDYg0AhJnL8YyFIjU4GluHCsRPNLhbWJhDor9cTKePYc+NSLRc3a4PdpgcSpICNf7Z+Wi7WsLDGtImoA8+h7xdHP/VKUK882z1+bfktv4IaEOTEYXbtSl+JaFqtMh34TcuCwNth/Yb/9LRU48fmQOPV5poe3mwM4cwG6W6DkMlFYoaPfZsRk5fZ1Q08yazT53WtT6eUdkxKnqS0caqm0i+q5ahyYti/fOSG4+a1OJOlPoejY9oMqtu9qB5mlq6GXBCi/I1yR4gdvXMCohmuQEFAUnPTf9asOQZBuemi7HTmh+K3vbZ8plJn/GMHynxVGsRGiGBXI/CFUfdStKophf+sXNBucIB9oCe+1XGGBBaFz+dSWxVq4G0k7bhpNO/D91FWRnI4qVodB+C3NncnrBENIk29SYZoaIQI56p2/MQycnptJUl8EgPtC11kIZ+Bs8l/cc7NmK/pNMlvOS26HovDCX/Cz40WFG/o4448SCAQBmcWUQXDo8pKlo9vQToP0mwBSspkvh5/ssbkJ0iSztRO43BUd2QkDpUHPxHos9Vm6J1PahouFSVY6KZDJ9/NAbiFHuw2BLKTUDx6lESdme6Pwc11RgBy93ubRxvLfsLUdv4rNBqJi9iHgW8N4PQLnz6L0PHJi8SAjnV4mbrOKz4gw9+t/MzVojbajqiHT8msDKSWMWSGefXbET1HfOqG3MprTuBMwZtBIIlFwo0caQtJ/P62s53kr4dvanHtnUYOYhBylQ8sQrCv3q8Tz9m/7b8OF8YDlu1o0KfWsPbODN+BBVQNsXL4ryN/wZXnJ1BSY2Fg65EdgjeeuV0CYwQwNvFWOG837Ili57MaB9gqk=#3333.33#pc#YLZ4wIKVDsWvokYTkjqWtg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"3333.33","priceMoney":"333333"},"quantityDisplayValue":1,"quantityText":"有货"},"5666151264237":{"moreQuantity":"true","quantity":200,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#DVWxXsqtivWchWdX1s9SLKamfNqhMh0YYG37Se0NqK0CJMYDq38Rh1fjco0K80OexhE67P6ne/hNXPJvwu/VhGXTohPK1hdg+o9o3ngp/PSyPsDrTJtrEqQSjT/MuRuXDslLH3zB4li7IXDoFRw1SRmp4lFtr4dCE+3rVwtc6s0wBKjvwjrUrJRPllyhgMFHSthcAvltyEWYuy9XDs3fvqcJvqcn/qZbIjI0JJ4HH8pBtW8YYrsbcrIH9ZZAArTbwdoQ6eoOwtjB5YSQbxykY/rtUDDlUA0DNffycqMISMd06UQR3RaP2SbLn4LtifT7jPsBXlFMwZ0na9bPNMj2eH3vjyNXOWLscc4T+wwkxazipb7nIz1yiDcxGfd8q9gWBh7zqirW2fkPD3xujXKEFsQvjKL7k3iV/AUzuaLtAU8vjSwsy87UN2HAllnNKMp0Z0r8huuIupDBrEyEkJ8bAeP/G3qCFm3+rD4rApXXh67EnYnAv8Ox4MmCkA+sU90dVsg97P9gM33FeUa6gcewrNnVQcsepTylp0XcSk6F3zoMfexLCctWGnBRDZa3fgB+Hga+DRu800/lH5U2lWVy20ydaIcrTrabW4LTThwuxjTv5g05Bat6GgSD2PNPqX+LF3V4XWWp0xE+cUxAsq3wwqY6Io2xw8IMxDm8OBzSkOsPp/iblJb9BMJwkjInzk/AV9CZTAgXfXMbiN9/rVYz1Gi9CbCfDuzl2RMkYfby4Wj9FzPNIvQi9JkFwLs5Zi/uHQjrnajXZuxpzclJAR/EK1Aow/a1bMFJjNy63n0JIHsE7743Uo6fy39T0ecBdN0KSFfm7wx7m9a2W5PYb/esFiLKjl5jyQBPicN2ShIdzc+9KEABFR3ccFgqL/701rUZHTEhOFcxtx9H4JrIGc3zGQmKOSM3uAuStgNbn1p1gQNkEunwn7OgFv8duBbYwugVd4gwBOCo1zVDNnnxiEFbGRT68vxLdlva0ncMokSuQZwha8SE7tPyUZW0AH73mdCNOakAWZ2siPpr+KX+Q/8OKQ9qKSs87ZUwXZiNUytwUFxzZwSXN8V18/iOINQdRaixhytOq+GQUFsLPwpB5kq7m9YEpAsyFxSbeM4xcSywkiJmpVyDZP8WrIYMbrPrCnPR0ZNuj/Ign5wZ4xV1N/7lWZcxGUfN9Rse+Y7LqAsvrHrpLDPO+DtidLboRksN+lPztKlhxAWW7hy47AzhyQIfwHIKuNpZduHYNMNHCQHv2eqNzsq/wq/6RpLgOdstzc+MYYKE6lUNL3YHLFJPnZdoNnbzvs7hC0aGsxASaNNyF//p08/itOKM+Miv11j33yreJwSEeNUT4s9JD6fON755wlMqOSitjjT895M3tnLpTWQ=#3333.33#pc#YLZ4wIKVDsWvokYTkjqWtg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"3333.33","priceMoney":"333333"},"cartParam":{"addCartCheck":"true"},"quantityDisplayValue":1,"quantityText":"有货"},"5666151264238":{"moreQuantity":"true","quantity":200,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#t4mF4xNsLez4VMDCC7yL1iNWUN2Xh/4A6Lmo1fItaJkwgLgR+Du6oXWhoCf1m/nd2S0FPT1iV/nk8bAvUlfwvoWpDnNGacNqVWCXQotlaSqK/FMmDg5ZbMYZNeFhqrHyP2jnYKIMcOVToJnE1Y8CntGmaRqI9AXSG7fI2MYFWjzwz8e2LgMaXpLXAB/Kj3WY5yvKwAd75qg28ymN6fvrPKSPMDUpVCAHuLWSVcWMGU/KTarvYRtsLcAZbAv3WEuEkRWryyQhw10SU14EhYYVo/V3jwKX9dqZu4vZZk2/nMoI6L+i/YhlF2UhGnOU0fT7oGqwqTA4vUJvdzvgxcPtdhznOCGMEUoAXeqnUqjK6XiuKPGMCe3N/xSMDIAH8jYI+A5AeCB7/WvVX2xrkVAaq4Z8jKhvkh9YDOWRmhJztYMu6PKGPXFRM4OMGlPdZRP9+DALnb80bcv3jounaEDAuIjcadKPPLRozG9ujy6sYN4vAIUdoqjOWCkrtfEA2tH65DB3BRQRD0C9mFcNio5dxuSFfwvRJBHJ7eAh870JoIl7B/SUONYgSzjuoChC/M/3/FNdZKc7l9KPyjtOqRztIhGj/E3ipgWGjyd+XovV5kpYwSFVnKMZv3Xe9RcaLolTX82OYdHhCKBajjrHV81XB5Fm9CCj0Smw8mTbIDIgFIZLeaJvGoeR9uO5uMTF8tTcN8KWFnOZmltMMovkmXTHd3aqMfTrYT56WsRJO5e2ClYOGTNG3eXu5x2TjCO7+wjEjOenM/+xVctC6z5Tpk5E7DVTF5vs3BlChAndmCyI3PDQ0xz7sdWA1s+WNeLxknHC7BbtLIcUqNPVxou2TfmnmPN1nKTXKKpU9vR6Hzi9MrTtVUuj/ltuz6FpdN12Kls2h0riWcUAzdM9AK9bHoBuo8cHrqyjVBiKr13tVZYOAAU+jgW15qqIVgxK2C+IbI4CSlHfbPI7rSLkuE2LqKMxVJguBfN/iSt+6zYKP9VzRboPU2wMeOQs7NAPXzlEWVsWTbb1SermeOYukk55rGY+4yePzYE5X5iAj8GWeKhXo1v0jbhCkaCxqD5YXR5dxFq55OBWXYeWIKZJ069i+fh752vg08lPu7SuSuqQ7zY/on04DxtVkSRtCcctoThdRTBtm95IZCYQh3mtjq+0w1EF0KT9wQ9wRSJblY+394sVFqLV7mtCAesDJMWiMLzhbtgM8TZqvTMY/KaTy4FNGbyEKr2NU3wyqpQt7oVncBcTGlcuD55blauVxe81cqzvHJwOxoiBx/qbgVbEygn0DSXevG068BsLRlTJZO5V6F2SAD5hS/R563mPlXhenxmU5unG1x66bZFvWwOG574DH131k5v+Zukh9qX/8ALQVNO5RgXKsSv0vY4sNXnllopW7Ggvsj61tPruu+hu0UfH4q7YAQ==#3333.33#pc#YLZ4wIKVDsWvokYTkjqWtg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"3333.33","priceMoney":"333333"},"cartParam":{"addCartCheck":"true"},"quantityDisplayValue":1,"quantityText":"有货"}}},"services":{},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:35457490002","skuId":"5666151264238"},{"propPath":"1627207:35457490001","skuId":"5666151264237"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"35457490002","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01CX4oA81RiuyFfKaXP_!!2207644932146.jpg","name":"IM/沙黄色/棕黄色"},{"comboPropertyValue":"false","vid":"35457490001","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01N2YfiE1RiuyGmqQVN_!!2207644932146.jpg","name":"IM/胡桃木色/棕黄色"}],"hasImage":"true","pid":"1627207","nameDesc":"（2）","name":"颜色分类","valueMap":{"35457490002":{"comboPropertyValue":"false","vid":"35457490002","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01CX4oA81RiuyFfKaXP_!!2207644932146.jpg","name":"IM/沙黄色/棕黄色"},"35457490001":{"comboPropertyValue":"false","vid":"35457490001","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01N2YfiE1RiuyGmqQVN_!!2207644932146.jpg","name":"IM/胡桃木色/棕黄色"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"6900.00","auction_type":"b","x-uid":"","title":"COACH/蔻驰奥莱女士经典标志老花MAGGIE小号托特包手提包斜挎包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"COACH蔻驰奥莱官方旗舰店","photo_url":"i3/2207644932146/O1CN01kH5qOw1Riv46aKIM4_!!2207644932146.jpg","current_price":"6900.00","region":"江苏苏州","seller_id":"4f1e5faea51a5939932b2d01ad2af408","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.tmall.com","mallLogo":"https://img.alicdn.com/imgextra/i2/O1CN01a69z6z1hJklCkBqOU_!!6000000004257-2-tps-174-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop229342273.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01kH5qOw1Riv46aKIM4_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01gkcDaA1RiuyAOWDKH_!!4611686018427385906-0-item_pic.jpg","https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01GB5DGX1RiuyHDdL7u_!!2207644932146.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop229342273.taobao.com"}}]}],"overallScore":"4.7","shopIcon":"//img.alicdn.com/imgextra//i1/2207644932146/O1CN015nqRsv1Riuf1RtBeq_!!2207644932146.jpg","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.4","title":"宝贝质量"},{"score":"5.0","title":"物流速度"},{"score":"4.6","title":"服务保障"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","shopUrl":"//shop229342273.taobao.com","labelList":[{"contentDesc":"88VIP好评率96%"},{"contentDesc":"平均10小时发货"},{"contentDesc":"平均6小时退款"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.5"},"titleVO":{"subTitles":[{"title":"可开发票"},{"titleDesc":"如需定制服务，请至手淘下单","titleAfterIcon":"icon-taobaoxinxishuoming","title":"定制服务"}],"title":{"title":"COACH/蔻驰奥莱女士经典标志老花MAGGIE小号托特包手提包斜挎包"}},"debugVO":{"traceId":"7d27672117647323550995325e","host":"taodetail011187008221.center.na610@11.187.8.221"},"rateVO":{"keywords":[{"labelId":"300151007-11","count":"11","title":"形状很好看","status":"1"},{"labelId":"300151001-11","count":"2","title":"喜欢图片颜色","status":"1"},{"labelId":"300131000-11","count":"5","title":"性价比很高","status":"1"},{"labelId":"300041008-11","count":"2","title":"客服态度很好","status":"1"},{"labelId":"300021037-11","count":"2","title":"款式非常时尚","status":"1"},{"labelId":"300051000-11","count":"3","title":"尺寸大小刚好","status":"1"},{"labelId":"300051002-11","count":"2","title":"房间空间很大","status":"1"},{"labelId":"300021029-11","count":"4","title":"质感很好","status":"1"}],"totalCount":"100+","favorableRate":{},"group":{"items":[{"dateTime":"2025-10-11","highLightPositions":[{"start":"22","end":"28"}],"memberLevel":"10","createTimeInterval":"1个月前","media":[{"imageUrl":"//gw.alicdn.com/bao/uploaded/i1/O1CN01zBLCRL2IkuPRB8WwZ_!!4611686018427380989-0-rate.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i4/O1CN01JDxhbj2IkuPRXNcwM_!!4611686018427380989-0-rate.jpg","type":"image"}],"userName":"^O^睿★雪","headPic":"//sns.m.taobao.com/avatar/sns/user/flag/sns_logo?type=taobao&amp;kn=wwc_tb_11&amp;bizCode=taobao_avatar&amp;userFlag=RAzN83923zmuym9sArAaE2wBXbA23mX1cB3zvzecKgizMfyNScn6368zgqXpcBErSFMHuy4ga4LeYmDqkchtN85YM79ZHsq8wySXFrBUNUVAT9nnBycngtSUPaY9","content":"很满意，我本就爱蔻驰包，轻奢，款式也高大上，价格也能接受，曾经也背了上万多包包，都差不多的","mediaSize":"2","feedId":"1286020708014","blackCardUserUrl":"//img.alicdn.com/tfs/TB1wrG1elv0gK0jSZKbXXbK2FXa-225-96.png","skuInfo":"颜色分类:IM/胡桃木色/棕黄色","tmallMemberLevel":"3"},{"dateTime":"2025-10-13","highLightPositions":[{"start":"61","end":"70"}],"memberLevel":"6","createTimeInterval":"1个月前","media":[{"imageUrl":"//gw.alicdn.com/bao/uploaded/i3/O1CN0136sy0F1TccqJ7uWTI_!!4611686018427387523-0-tbbala.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i2/O1CN01eVoaqq1TccqJaZB4O_!!4611686018427387523-0-tbbala.jpg","type":"image"}],"userName":"隋朝女皇","headPic":"//sns.m.taobao.com/avatar/sns/user/flag/sns_logo?type=taobao&amp;kn=wwc_tb_11&amp;bizCode=taobao_avatar&amp;userFlag=RAzN83923zmuym9sArAaE2wBXbA23mX1cB3zuybuXoLMj2ZmQFoQ4TsxT9uWUuWyLbw2DSrcRqGERtmmgvT9tqRH4oUo2pgYy7kDJc1gfcedvnVBrUG5ziw14RxM","content":"尺寸属于小号，其实很大空间， 能满足职场和日常工作需要！长肩带165净身高表示很合适！手提带子也方便，常常需要跨在胳膊上。 奥莱款性价比很高，耐磨！不会很娇贵，不怕到处放","mediaSize":"2","feedId":"1286280359365","blackCardUserUrl":"//img.alicdn.com/tfs/TB1wrG1elv0gK0jSZKbXXbK2FXa-225-96.png","skuInfo":"颜色分类:IM/沙黄色/棕黄色","tmallMemberLevel":"2"}]}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"江苏苏州","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"48小时内发货，预计后天送达","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["奢礼定制","假一赔四","极速退款","7天无理由退换"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["由品牌官方提供的礼品镌刻、礼品包装、礼品卡片等奢品定制服务"],"title":"奢礼定制"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["若消费者收到商品非“正品”，商家需额外向消费者支付商品实际成交金额的四倍作为赔偿"],"title":"假一赔四","actionLink":"https://rulechannel.tmall.com/tmall?type=detail&amp;ruleId=4400&amp;cId=391#/rule/detail?ruleId=4400&amp;cId=391"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["支持7天无理由退换(定制下单除外)"],"title":"7天无理由退换"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=857834525119","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=857834525119","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=857834525119&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=857834525119","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=857834525119&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#1hR/RsqT7oUnbyTQ9O/hVcycAcFkMdCDWl3sWEFW2lJez4Kl1PAuQ/djEgxUpExDfAx4jPNPrrjjglLm8nbK5hR/dB8vmN1Y2+bLJRZw15z0jUphxxRmb4VloOqM53Ox48NljIUH02o3is5ZQa9VLDaZZpJu1imghWAsEenc/goQol/Y4qPxwa2cmGzLy/hILoPoACoZC0M9PjdMqPgnLObo7O85cjo1k5U20g0VVc2dgu+5SOVc8i/JZlid9zNp4XTn7IQ4haEI4UBIvH/w/n4WymSggFEkYsXMR2Cq7YRhq9otS9rj5lqbAnhmVtRKDiMRy9FHf+WNVBaXHVunfp9mr6f3Br56WhPUSHQFEbfqlbLqEg8AlkRKC5B1uC4mH2EAm+ifa/wuJn0/dKA0KHPBhH5DeA5tKbQIpY5A3AHg5IWUrV9Lgwtfgs4UXQxpzxLWM1iM7mJOS6mEH0fqcOXxxRvflSWDi/rQoZFsbTLP7yD9AOMOUdPrv9sJeKxH/NfUrwnupwOjLiuqX1zLPJnZRsa8abGh+qwJYqaC6QSmKSxfas2o5l3lcU3JKT3B7LThLXf8DCSIB9nmG/10NLoBL5OOVKtoA8e2yZc127BnDgqyVSuhlNLx9rOYDXGTzMZgsKgNNYDzcSxi4ODmsYRdwGAaTikRn3ggSTvuTDh7K8WQBzWhm1PPCZmThjwarBXoctGgKvtzO0GD6r9bdWPUhM0F2LHFP4n5HYnYVRwNswDlHSwK1qR+596Tmb3moIsImvQ1kLcJ60KJQ1WDuDE5Ok3AnxUvWJr//LqGOnu6S5J2qbzLUDVlL6v4gk/3EfGVAxE66/3pQNXtdhb6TWFs34bkEfU8xzakIxniGMaVmNxn1J0RprNLJvnrVBEygm9mCPvKZfr8aBl1YuPk6XfbSFXI0Nox3tDXf+UYQ+mktw5O4KwZhbJc7V5Q8ZuMOCkqdap2FNRum1Ulzj/bbjsVRUls1Yo4XgwEfx7lUydBje7tBlv5+GRBeh9LN8piAV2z8TQ0fGDxrjuO24rSuei5UtcUJyJUjY4ThLrhm1ahf9cBomQB4yqYuwn8rlZ8mJUF03DC8+TZIUKcTflHS2ZT1p8eGuSBV6bdCZfBOoMoWwjklAdNkNnFhJ8g3jTg43ADn19o/d3TmYJ1jJ1dBJKhRoycXuCa3h4HwC6E1iPCpNF+4HEtQNenUDz1QgNhAdnPW4iZayb2y0jCdSXY8dYz7kNRODzxkRnYQl0YH7DzTqfuPnChVhzciWHnY6eyhss6YSwC7df27dQ5kfNjcDq7u/gBHFhnhb8KzzEr+j20aWdmEC6NxYWzcQR6prg0nA9HrucOCsH32zFaK/jE44M/SkGO5vaaG0hRjEqUyX9HgVAI9ktlE3mrIjyXlaLSJwPzkrLpLHhPnmyxf3koAg==#3333.33#pc#YLZ4wIKVDsWvokYTkjqWtg==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"店铺活动","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"3333.33","priceMoney":"333333","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=880364206406</t>
+  </si>
+  <si>
+    <t>{"seller":{"sellerNick":"coach蔻驰奥莱官方旗舰店","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","pcShopUrl":"//shop229342273.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWKZQJK1kg7h3kwyeRP56ZcUkDair9qMEqJ4oKWpKFzaC3"},"item":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01dK0wvy1Riv46TS1Qx_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01J2n9O21RiuzETdV7z_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01z31hrZ1RiuzHG4Pix_!!2207644932146.jpg"],"title":"COACH/蔻驰奥莱女士IDOL 23号简约斜挎包单肩包通勤","itemId":"880364206406","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=880364206406","spuId":"5993808085","titleIcon":"//img.alicdn.com/tfs/TB1SMG7nnvI8KJjSspjXXcgjXXa-78-36.png?getAvatar=avatar"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35462","timeActionText":"35462"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":65,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#lhb9NIik+sQUoHYLWs5sn7ncynYsAV9mMqDVaQlJ38GADwfyt6UNErxs/Houg0QgUVWQV9+SwOQ73Uz0mjMPw5nBfnm3ljgOFqHumHrPFDm6ZxXUJeVMDbfqtvJspgU/Op+8WC11atxjl34IBhFQ6ebBVPI8tqqrA0+VNeFNQYkmc/Rf6+Rlpg/KboYqqTtymwXjYCEuyESMGbULFRz3/GnOMv3RyFDWEjbT4bFgzx7aRzryMZen+MJt9tFDxmWquNlzJHL206q3D8bZTJyAgbsz801Ch0vLJREaDySkfJ8lWgW4X1vQaKhVOq6GJKV84RRvMayigEnUHCrIs7k7ax90d8Pjl+Myvr7xVd7Nbv/D5HIwpX1Z0+11+JPjboKmYyyBeDxLCz793gpbgLD/5VfmtGelOIX6POC0PUALbNaOqj1/qpNAZi6afcZTV7M5H5ma6oa1kbeIgagFGinuyWD7BEKcR5g6xPGb9+KZDZ6661UvQPsoqjEsfdYTQlWJKafEFcSf+ZpnN9jLBvuTQQDSaRs8andrs7kOE0BBtMJ6xL6g++7DaDeTnVl2oRNsDgMjiAqxjeyF4MdRxXlhSkMk5EpSlE3or7uRCJeeOaBd5D/7Nf1kLk1j5reRrgE0dfi8qXlplqK9FqbwZs7Xlqj1q88eHm2xR+fPW1GCZ7Y/1fdfyu5BjF9cuh2JzSa3wIWDJenyhNOoXzKjAwMF7L/0frJ1ggMedsLqZHlgFM/NTscxQzp5e/M/vi5BILjZUipRo/AdOpChWNHS69u4y8a5PumwDouhZr/dbL5SptPXFgWooyaGVHalJjtrh1XCl1QJ8O322/dLVQue7p3A7FTpdoQg1H/gvl1Vd8Al01EJV57Q34xzA6c6MfwUA4fX/6X97kdbINbF30TYgwlikm0RvhCBHwoyzuScP83JRCpkVUPRe5sNpM4ExlrsTYw4DOMvrws0YQH95Gk/fJmgrqK+/+XQWKPOuWHNQabNRW0yS4SoVdI603vcdvfto4EVgQ7luyDRMCEWbMMnxCSkJem2J0T88otOS5hSkDANd5AuxgoeOweJYXRVcrdfG5+8qEro+FBTxLPWP89J+C3/YHnyugSZeNgFHB1RGbFsjblNxTC98z2Vrr3IOCBnDIEynVVcvK9zAgCYOqXXYMb34ueSuHgyjewIFVAVFoB8giG4fkkqZDzzD2d7hmlqRlbns6nKkDnM5GfGKJ51eUEVlK+1j+MS8sJZDaKbvHNODKb5+A529nwhAtMjNj6WI1zack+NKJlTCAKSqnE+AljsIs0kSJ/6Xn9OxXA5a9zExzXZPjzkI/e6GrsUwlHbUJ3j+gx/fP2Ka85atdbOmqZ/q/8OXiCFnh4+Yppd/dT3y2iRMlJaN7RAJdyjTU3Vobd2EH5+s+yDWEODwxkRZwEHicF0grMJNm7MX0zT2JDYmgI=#3333.33#pc#VKo6c9wIpCg5xdJlmaCXTQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"3333.33","priceMoney":"333333"},"quantityDisplayValue":1,"quantityText":"有货"},"5720393496318":{"moreQuantity":"false","quantity":4,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#DCWN/HcYJllCBCS8xTQDvfziUciwH7MqOzZ0EsjPpY6VN5iK+qIH7LBYLX7QY/DpcWFdrto73DKHjUj/s4cVmqVScqDWwR1ilCx7+Yqyy09zLJJTBYEz/L+IequxPdVeyrWswJxh8eCZQFVVQF193wDkjBdm/npFLWKzcTjlx3FFk4cwcGVQNRQQOTDcuBwdzfSrf6E/iS29bz2ONhy3+wm05P/e95VGmeT59SQuLcJKQPdXDVxnsT4AW0DtIdqxU0A1zynr384fGUkqUVTE14TiVtpp2MEEfJYyn0zZPxGWKA7DHhVF4YtSsObQvC9ZEUxVbzWatpjbD8wIfIuVmMtE1vNRRX6BTems34feLvfBh7+7KLs4UeAYoLN38T5IXPW+1vU5bFtUvflqeqEY7xizBeHEi883oNIOyCyHDnRS3hSwGph1Io7YJhJxvUsqVQKS/G8rGUUDUXyPZtZEgcya8LtCjgYBiLbw7Jzv743l4I/ZtC6GRY4G60PK16mYsXFXErmL01ihsJhsYObiC/3/po4iH/kNHbA+znXnTjOGZ/q5E0CETNizSbv/4lEZrTvq9jqXLg4vRf2fG26XLow77DLgFzPk0BTVNqWqXLHcuRyvYJawXj6yPUDkeppM6XA1Ud1FgMMV7kkPjEVmmbq2N/gDjkNxDDho8OsqVM38bGVERPG+BeOqAM/lF0kNVbSLN4+SouY2ybPOeyqOizEtbWEyKp0dqKRZLFxzoPr2iQJMSeCAC3x74XZ1TXhy92UWPN1tH9uMi68FwDOV2z2zv+wIa+7V1Oh2eRJYNysJAw6wSafbzEeP7WHmGZZYMU07K8NKwadF/xjguDLmdcSE6ZKTRX2Pse0xw2MEzul5oJW37uVS2YDcKEuiJUQf6ZctGv7u0XgWeL1JV/z2K9jlAYSeFBelQzrRKZOzDjdW0TI2mqPRYzopaCO4RaI3RsJM7dKIg9e6agFu6zyH/MuIgUhP2LwqdGdvZatvn7Rg0zFHbmtzVdY12jOBl8QY5qS6nH2j7XwGETa3cBY1swnfV+86e+4PLfNbDnXn4mYLQ+i4BqBwlGuJe74oASf2PWqy/JkcNjx4gDrt2nM9bRlLGd4o8+QKmSvS5/oc4h5fqJ9qD10YAs80o//9jD72EmLPOLW52oSUzBHWx23XIKTetr4t7vms2ogyOHeLBKGAe7hUOTuhwctb10ytyVSKiZAEdqzULwbYjnu+NKgNWnjsMQ6sVCPElkchpiiJb4nK6nSLC/8w3GzefS/AWLxK/iTU+61BFY2LC53pdsUI+RcNipcfUijAFsfuQiPtjMwhB0r/w7SeCrJ2Oi0Eu0MmlkXrpoSkhNyOpCaTmZha8OTS6MQ08A2lskfF8wcWSvxBC1AACfHKNxFauqHwzHad0Z92L+eca63GHAK9Xr/QrCiwI7FOCVm8DukiBjUBxJnVwfqKGCEsr63rt/fZ5N7f#3333.33#pc#VKo6c9wIpCg5xdJlmaCXTQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"3333.33","priceMoney":"333333"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"},"5720393496316":{"moreQuantity":"false","quantity":61,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#vuQ+/3LEUElOP6ZfoscBUPTJquEfzjOcOpTJvX/Ds9ch7LcNWcfYNNUB04rCdLAJMY6cv7i3Js6PdQfo3wPANQa5qKCui0laC2jLFJc1ZXTuDxYbgSh5WBERy8irrggUz4c16AVfI1rrSAAX5vH6UC9Q3MDh6JUR7Y/N1nn7JeWIHl1LDShJUizw5tPHPMW0+2zic73jDu1B3Ue2LPjM2LeMZHw5UhEEfy7rbq5WbaCSIgh6R7GpbDQ+VL/VAm2auWkmZDskmjOY6ONIhAnjeQSAKaYn099EU9UvUa0MqdvO3CRq0Yuxx7Hqk+QJJyZB8/+tRI6D/VzKyMhi3V00W5LC0zxuj7B91SHwruOwlAFYCayPAHe3uL0wLbhYb2LFFu3hEACJQw55V8fiyPs64plUPmvnGYG7fRGWONWnM/Ursm0lAydVO7wx7asglb7BdjVvimwg1VKmD05KnExMlWndKDt2h/BfideReFaFiKEfnssZGgb/dLvZqtj2qMNwIQullKBusvxRVZHHn/peJb3lUdbJx26h0X41Sl3pVk8Sqo3v68jdZGvgKM6iJAChv+t8R21FMtg1DJbRfiOk93ualn1H6UrguAlI1yL50erh5hv8u2wEOgO53RliL3ng/Ol03UbhOjCGHQ1HSg8+9TJGkosqeB+FRibdXtUfHhuSuNiR+NYP37rNq1GSKPLSkjfaAQGYdyFxZU+yfOElfkbFHsc32HPFBQKYTB+tLVQ14MBh5T3E0SyxiEQYvkS2HmoGW8O5FHxv7Bf06322UoVYVSEgQ5cseg8+GGB2Jm2sFFVKN5tMXlUg4KmIhW3Gq0DFHXFKyyKshEKnulkS9uaUNIZPCT/g+erVgkW0ukd3pCpXdqMpj+BLVJo1B0actLOtGuhV90M7VLSA9mE6zw4Ow5BKpY0tZJ8aIs3GrNcTECnVtoUvhAIU1zy9fymUot/FM8vv+QUpVM9yjczfbh/64iKc64+B9BVDQ2znmda7wu2qUpmL/lxKRxmMYoWbQl+YT9q2sLolapxkhPeU1U4bOkYOpm8U6V0xiTDfkHsH33VNiuDZ9IHUz8bqIVLLfzHGqpIdMg0a01Siv0jDsU/ugA3vFlZ7G+VhlsSXsWMgHmPkz72P2cjsBUlfZIrrMlPH7huRIXuE7LmpB3JKWb7JMYqK7X3ZKxeC9pNNzXBn2UzmglN8Hheosxat3GQSanAOwhoHB4JLuo9m6TAto6tlukbak8rifuOEG/oVznHWOkGpyEzYlgwz+PiOrWwCMkdEBgKDno5SiVtA0XimdMRNS0JBrtCZzH2hQlHPu3x16ZVETmSi83zBZhJO3i85IyQHz2JJdUndXguKpoip21rRdDe6lIzWH+ydGrMbGNBJGVNghlEdKWARwyrz196XUl2TAlfktQ0dlsa+0nmLNcVWG/9pS033sw1ULqBrCaE=#3333.33#pc#VKo6c9wIpCg5xdJlmaCXTQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"3333.33","priceMoney":"333333"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"有货"},"5720393496317":{"moreQuantity":"false","quantity":0,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#/Dn4puppytItQh9YDxvgH5P91Jqy2dHMRkE4FIOI7fZiGWp/rxprSZBCe4pYGwxobv7lSBX4XJh+6JpOvuWNGD/ZQLNIrP/GDjb8/x+aoDpqS75q7VsZkHnD1sw2yBEsx19DwiLsHSXyiJewax1ImnJ/xIA7k2gnZpkT8qWmJ10VMm15nIjq7f+B2nERcjJMAQXWykgXFElHrQLwqHc6PYPbs2M4HsnyRYivBhOYOhQ8O08CnTJPta+29lq2qK2ig6uxRuhvt8dq2YvdH4Tr0w0voIneA8hA1HIb1b/g92gRxsfEx9ePzqU9GtS7M8+iIoeBACtapEBryXUZRkpx3M8y2Gr5JtWettSIs5liRLeGBS9l1LdIHuxpUvfHMebIWO3dDJno88Y9QIXyS5bMhnCHdViGpQy3vnZUwkTcNPHjljfWcj4PVM4MKcD8tDQ62pySoLZK02jnR+daWQzuXtvnPXAUKCfxc2WS690KRnJT5IwHse0LWmZIgSxFTnkNg8mciWm/G7gdO4eDnRDjQmo8FbsKFydt+ksCKfmrjWSo2wFJKbjpEODPvjjqzeqBqR1p5w7+/9//Tb39I3t145O+KYFWXoN8I+8qvNKTKjL0YovaC0C5W9yQVbe8C+MJDr1kSyKnL+grA1OMi4nPt7+OPMAdareWxoebFqDkvq2mAeiQ9+O4N7hbFFHgEB+rOHphGR/RVyAuBHR+zltlMkC7fbFu/NsiM9/qxeqPLx11GdkN/ktqv4RzfsSALG+PuYX/NBITvAGiOGIt9dARGnfd32nkJ0wg6qzq/w+7EGG7+hrlIi1jRVh7Cp+x2kMJLBoQQ+ZI3+omKIY8vuBwPcQ0yqW4o2tUciVKeer26QZg33aEK7Ft57QXRrAMy9si6wF3+aWhwJw7xL2MK4RsvHsvuIHFqCzK+BTCifQm2W/qJuBTXAxUIcM48LP3Cs0fdm9FDE4uXEv1ddBjkKbSRY6FxNpRJg52+ad5GriZ2IZhqhLEPVQkMxzAaon6pVaa8bm/YpY9hDG3z7oOPMG7Z9rAeunVzE72aoIdY+vrskWytKs3ZqTIgiisBcEYtb4QnYxY4K8mALqh1ykIWnqlYVf+/g5EhbxN0nQlPttMxFhrKv3C1Jj5x8uSkpUmWAqcO90n7g6+SAdn5ubFzrLm9eZ4v2XJC7MhvRD/IW7CyW6PheUlWCNvH5sz1XnJ6h06Os7Zv0hsEdQrqpZplzDfycTWzcPegNKv9uBEyTV3p9Vo7ZIPbvZnQx7iXOiLnukZSt3EOryiYdj5k0ZatkCHzp4QsYUXpwJwedMV6OZOA5sy6+nwSCBd/AN0T6fg9aL+#2222.22#pc#PSKLA8RBNCA5wfX8CUmELA==]"}],"price":{"priceColorNew":"#FF5000","priceText":"2222.22","priceMoney":"222222"},"quantityErrorMsg":"超出商品库存限制","quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"无货"}}},"services":{},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:26916974130","skuId":"5720393496316"},{"propPath":"1627207:1416051297","skuId":"5720393496317"},{"propPath":"1627207:22012197679","skuId":"5720393496318"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"26916974130","image":"https://gw.alicdn.com/bao/uploaded/i1/2207644932146/O1CN01jJaAGi1RiuzHe0xTY_!!2207644932146.jpg","name":"LH/象牙色"},{"comboPropertyValue":"false","vid":"1416051297","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01WwkIJ21RiuzFJRYHH_!!2207644932146.jpg","name":"B4/黑色"},{"comboPropertyValue":"false","vid":"22012197679","image":"https://gw.alicdn.com/bao/uploaded/i1/2207644932146/O1CN01mr44Cp1RiuzJAspI2_!!2207644932146.jpg","name":"B4/深石灰色"}],"pid":"1627207","hasImage":"true","nameDesc":"（3）","name":"颜色分类","valueMap":{"1416051297":{"comboPropertyValue":"false","vid":"1416051297","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01WwkIJ21RiuzFJRYHH_!!2207644932146.jpg","name":"B4/黑色"},"26916974130":{"comboPropertyValue":"false","vid":"26916974130","image":"https://gw.alicdn.com/bao/uploaded/i1/2207644932146/O1CN01jJaAGi1RiuzHe0xTY_!!2207644932146.jpg","name":"LH/象牙色"},"22012197679":{"comboPropertyValue":"false","vid":"22012197679","image":"https://gw.alicdn.com/bao/uploaded/i1/2207644932146/O1CN01mr44Cp1RiuzJAspI2_!!2207644932146.jpg","name":"B4/深石灰色"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"5950.00","auction_type":"b","x-uid":"","title":"COACH/蔻驰奥莱女士IDOL 23号简约斜挎包单肩包通勤","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"COACH蔻驰奥莱官方旗舰店","photo_url":"i3/2207644932146/O1CN01dK0wvy1Riv46TS1Qx_!!2207644932146.jpg","current_price":"5950.00","region":"江苏苏州","seller_id":"4f1e5faea51a5939932b2d01ad2af408","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.tmall.com","mallLogo":"https://img.alicdn.com/imgextra/i2/O1CN01a69z6z1hJklCkBqOU_!!6000000004257-2-tps-174-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop229342273.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01dK0wvy1Riv46TS1Qx_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01J2n9O21RiuzETdV7z_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01z31hrZ1RiuzHG4Pix_!!2207644932146.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop229342273.taobao.com"}}]}],"overallScore":"4.7","shopIcon":"//img.alicdn.com/imgextra//i1/2207644932146/O1CN015nqRsv1Riuf1RtBeq_!!2207644932146.jpg","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.4","title":"宝贝质量"},{"score":"5.0","title":"物流速度"},{"score":"4.6","title":"服务保障"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","shopUrl":"//shop229342273.taobao.com","labelList":[{"contentDesc":"88VIP好评率96%"},{"contentDesc":"平均10小时发货"},{"contentDesc":"平均6小时退款"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.5"},"titleVO":{"subTitles":[{"title":"可开发票"},{"titleDesc":"如需定制服务，请至手淘下单","titleAfterIcon":"icon-taobaoxinxishuoming","title":"定制服务"}],"title":{"title":"COACH/蔻驰奥莱女士IDOL 23号简约斜挎包单肩包通勤"}},"debugVO":{"traceId":"7d27672117647323923603485e","host":"taodetail033061038034.center.na610@33.61.38.34"},"rateVO":{"totalCount":"1","favorableRate":{}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"江苏苏州","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"预计5小时内发货，后天送达","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["奢礼定制","假一赔四","极速退款","7天无理由退换"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["由品牌官方提供的礼品镌刻、礼品包装、礼品卡片等奢品定制服务"],"title":"奢礼定制"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["若消费者收到商品非“正品”，商家需额外向消费者支付商品实际成交金额的四倍作为赔偿"],"title":"假一赔四","actionLink":"https://rulechannel.tmall.com/tmall?type=detail&amp;ruleId=4400&amp;cId=391#/rule/detail?ruleId=4400&amp;cId=391"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["支持7天无理由退换(定制下单除外)"],"title":"7天无理由退换"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=880364206406","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=880364206406","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=880364206406&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=880364206406","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=880364206406&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#EL9yzkIGkJLu764Oz+K9W2h5jSk0n3TR25taunJwi7CgjlJbsK+xA7DKBcGAZwTJ7dssTZxuMyWsfViymK1Qy/Lj+HL8T2mfwEouPA6oGjKTGzX9LFBWyehJJ2UphP+rZz/yy7jGwL5jdjP7IkG4aTmOMngbi7G3VIRINEnmI9Ipmt6xuQYa287lVQ5Cre/TlJXOQUtg9IW84Aae1gxqcDY8yJ6RU4lNKEFh4Bh19cIFA4ZMOWAEnHMouYtLStJ3q5uvR6vCEyTKdMJgoDyii/6DScd7U6iu/Vh3lQty3fuFAUqKOedudnPSKT8NrYdge9xqrB8X+joMYERBxT+cXWQmdTT1/53wbYMrPGrvSvZtirREvTkeeWtroUKPw2okp/SW5IQj0GZzgYJ1vTmJsr/+IR1mEj00hpsS4Iv9q7yDaRISSKHe/Prrv7VhLWD2wNqU95MDknPiE9k5Ony6CoaIi+7jI6hCBOqmWJF6UXfsVOFY53Sq/Qg+ni+0zjig9fm3eCuEW4X6a13PehUFUzfP9yo2+RRkHK+xltc6SbTGbz7Z17DtQiDXUdG1qXUmZXxzK7x+RHEuZpWz7uvjZuJdmJ8ukAcdHVRyeJSTPHIw8thZDTxDd3f/CvVMAU+IBf6e3ZyPypY1/HbqWO/2w2kzOF3YMjMMiLuVTp0r6QnrsHvNfbKk0NlEnAi7l7oyHLjpyK70qX7B8+lN+wIaU3QxzjSFjH0lPu9qFB/OHY97AAqJqqRxMwzRwDKS62HGFrTg0L9hq5ccxzKNarvnicngwbfvFKEVTTUBmu47oPZDuaJsrbF+tnejiXcnyPGmtkcsmAYyHgApigTJZTgkqARgpLUaK07HmH7JCChi7bA/IKT6KQOERNP4fb+FxepfvgG3urhTTk8MqHq9jcL+cYnvw1U6R5lDa8m3qF7LJY9CfetUX16xOF7Jv7Mz1C3W+u8gAfYlJWKhufqHC++vlTM99zc9zVndGNjPnhlN1g8xvpHbScLuRQ30GIVzehjTOWaOpxaQbyAr/ltWByNgcJ+gy4E7jB/45oZ7Rk2hTAP9o7dqxCw890Z6TwW001drcVA6MR4/1UwyLV9ojQAPSF/zBfC6CPDgcGsk1UGwClQ4epvrUMKUxhsXXCoNqVU+2DoIN1rAi6r5olUKXxADWQ093FLp1jEFznoqLBHOr9ydFwAG4Xypl71QWaHcjvFCuTKl2J5QFYxZxfW3M0kOhi91H534z0TmMxLer42yJybg/rtDP0+VbdiO2dgryXHJ35JVOtKXmwvJ+QL2NS7Vf7+eTDG0xPTfuelqyXq3y5Kzgqv4z8runKDK4iMccKYB3EJNwshq4E1otAVsLRYaqzOSrw4kBwxYlW8nGp3RL15nT7hMlYDRiqgrUAHwkZyE2L6vNmVOgGhGprIBuW3oLMZXeZ+zNSiO+xFAmgsWDxA=#3333.33#pc#VKo6c9wIpCg5xdJlmaCXTQ==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"店铺活动","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"3333.33","priceMoney":"333333","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=981761597951</t>
+  </si>
+  <si>
+    <t>{"seller":{"sellerNick":"coach蔻驰奥莱官方旗舰店","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","pcShopUrl":"//shop229342273.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWKZQJK1kg7h3kwyeRP56ZcUkDair9qMEqJ4oKWpKFzaC3"},"item":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01aqGAWl1Riv46eQnJw_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i1/2207644932146/O1CN01xjEUMS1Riv3C4cLap_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i4/2207644932146/O1CN01HgVWts1Riv3DRWaqv_!!2207644932146.jpg"],"title":"COACH/蔻驰奥莱女士黑色花卉印花CARGO 26号托特包手提包斜挎包","itemId":"981761597951","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=981761597951","spuId":"8695497078","titleIcon":"//img.alicdn.com/tfs/TB1SMG7nnvI8KJjSspjXXcgjXXa-78-36.png?getAvatar=avatar"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35432","timeActionText":"35432"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":4,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#sxTqmBFKuSeCSaw54tckMShJGJWAGLl0AX7KDV+efrMl/EQugrtr1kSxVvKuHC7bY/EfH66QHtwR8GTOqYuJrJUoE2Ew2FH+btM1kmjqmbFnvbihEqUDqotkxocmzd49QIqhCvmISmreWwkbJiqmcojWQ043KncJYqXhEgF5xKCK/k68MWFFh2RqatVdw5RcquKSm/g9quzQz5yoHoCh7J0iiyzhCJFoMoHse418r3GifmML/OaKRreuoIonmdhg05l7cVGUulCHTSgyBPA4NfbGR+XMccy5lKLEasFGixmfV2gspEufiEc9/r4wv2FSEFyr/xqM2Vvnp+p4xPHIQTiAcpXcp6jQQspAc90v4jHYMC4bUTo9SddZ4CjJ6B2Dj+oQPcM03LbgI/AAJ779ah58L/SrkZi4DOfTSrYuW7KA/O95639DW3ANsGhHU+6xjgEvr9ETHXS2piodQalajfu+wiD9BqEeos+2iFOeAJmXAxSh0QgDwblNpC+p1YWPsD4DvW9W1jVtBFvSwNQ2wNWAbQueT+DFogIWPI16xO8CkvledqLgATFDUl1LOsxhnPl6P0RPVYnZ7JGWDaxsygQHmFxn+ThfU60dWqlAKVrwDbeaMHJOGeUlfI+l0bckEWzXdSB1JxQBwLqyLUhPpDI3CXTjDyggrMOV8KBDzZbCepPxvnwS96spiRQzzW5q9Kg9jR7MxmjY8YNPp/ooqRniqCgGqeOwEl90Ey7Sn9pr1yRzFQ9JlCSBZXVRIgwfBT/MAVs2na5EnjdAJ0sNnCpvVqK/OltuKqYOduCcdQmjmX+ajOI/NXTLrg+x+2Y3EYifuB7QExdvRh1rKPVxzgqawdl1KkhGdD7fRSUmFU/nWLLY7nW+T4ZkZ/iYKuH/9+tGaMDNgZcOlihu984GE2D0IIIfutakpwn9WgFDzzjJXxwAduiKNM9SXmFvAttLpiE5gdU0YJJbHDyHumzksLzORP1acl4p8Dqz0waea/x6I4omHs04wzaV7Rgj3kaa31BcWODkQxvzBZQt3+HChIUkjdJVxLYHRwsJn+2QzsQjI5gQ3VwOwc+m4A1q9fc++KLU3DS+KjfGaYVwYBY01am3SqrD6jc3pkOyninPYimWl6uRbpU0CO0thaHfDQsMQtTVF3IFavr3/RdS/E5uF6stC6i/zbYL38pfLN4xWw1z+ViGVvTvuFzNDpPJJmBYPdegdHTfZQfU6QgsXjWp1M98teKsw+4IuVZ98r3UvdH4EWlOnOauz1/fXKM2zCopx/4wLCHU3lUhkhuW0AMcHlh8pBBYGqFr6E3waUR0II1Ll6VzTKmbUotHU4IMa7e+u/xpJa8qEULF4EReunWwx83+pRuSHNHvn+fwXI9PCNs=#2222.22#pc#94Dy4KnQLy58x3q3NLZcgQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"quantityText":"即将售罄"},"6106203919696":{"moreQuantity":"false","quantity":4,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#IulIu4T1OhuEjAuTveRWektGvih8QaQWaek4N1ynnlXE9DpDlK1VBiM0tJIV+F1uhzBKrV/EWNGFkxFEQ2uvy8d4Wg7aibb6LNDLfra0jGceGdCkVWlXnhLl0ROwydihSPsIwx2QP8vi5JqCzAIVXNj03X8Ua6zMHSBLL0ecQ+0k/j/yr9Rbesu3kLB+S5WVV1taCsNIu6PlYYD3QKXoBIJFXFSfZNKMoK0fPaMgm1Mv/8Ze4MuDaIhVo7R7lZ/+wt8paxlnS/B4NYHLr9580Sr55wZQ54njyHwr69jbjtPhRWoBJIRIm+rmAv+PURAsvHOYkBe4bkWFRpmgEC00jZvcgT73A4kW28SWj/vH/FbJ8saga/2RQTptt28p2iUtltDYkI8ZaL1AUux3LoQFYKGdfZS/QpAX1eBB+tezY73LKdsKzMPqIpLDrAIyYEZG6i/elGGLgNNVAGQXFao3M3R3POZckDPXNPlbgAMlY9xYzpa3W4fFkYt2a9YvYcEkNpNoswZpmwRJmtDLvZk2XT/eLICyWSkaxP0Gk8GhEei8wutj8z/QZtFUvzBt0TgrQnrfvDzJVTmR+KRLVWtp0oTdWJBEA2DVlz4e0bK45sZarWlCQwMQGEyMNbTVWC+nqDE0QwYEJJwC+Ua69eqbIupywtPsEQAxMLjdqXxzFx6/ABJpBpHfnL7gNYr7igJRUib9hU+tAVgWPVfNQpQLpO/frEC8jNYSZMPx8BcElEke6vBGmFRqR2lb2J0VmIV6J4v+Mw6B5r6M/ZK0TUyTFsLBjWf6sanh0aD+UromA4gu8YN6zfwKVvHRWKVGK7WfFa2QKt5B0Q6BabkFEfkqOqUhuOzDT+/DDUM4ov4NbN5lwKC9MkXLlFqFaVeneQYJRFKnCjo/GHxczGMvw4DkCd9PNBRCMvGNNx/GGBHyGB7xcdq6PjWwE7dkGqVS7BMsmh1G9W3QPVtPnTaKeE0G7zH5N8LCJGLkdMXJxKaFxS5ecxtzvR0OXZjDmOh7kpCunqNFFG7SvQRfMbsCYTbqgxAjFTIgzObtdLdnFerVBJTWi19u/zce9fJ5SpJA6I3TBeXZ2q3Ue+e/nPin8UGpYLe3fcSzioxFKhFbcw5bcVPfuCDejdlDNVaVDqF7Ef8HiDslv71LRRw5Ds0ueKN0AYz7jmnRqAKA3fctfFIpYKBkhPapQVNJHRdNA+aiZDnyyLMLf+Ao9mNcFnImP+txHAugKI3bqfvnEkSFkxfODNP6+xlzS0iIHRUJNFxt2qdkP4FLWyQPDXtq0vA6pzQDOyLR//vVPHEjdTFyss6xTfyFPGin7ymnIrk8pAMgdVyHX7fDBmn8NA7E1guS6Av2P63pYTWOQy13wC5mkBaRcKuleVxBD5xxCSD/ZpY7S/oR#2222.22#pc#94Dy4KnQLy58x3q3NLZcgQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"}}},"services":{},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:35459144562","skuId":"6106203919696"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"35459144562","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01huoxNz1Riv3CxscrC_!!2207644932146.jpg","name":"LH/黑色 混合色"}],"hasImage":"true","pid":"1627207","nameDesc":"（1）","name":"颜色分类","valueMap":{"35459144562":{"comboPropertyValue":"false","vid":"35459144562","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01huoxNz1Riv3CxscrC_!!2207644932146.jpg","name":"LH/黑色 混合色"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"2600.00","auction_type":"b","x-uid":"","title":"COACH/蔻驰奥莱女士黑色花卉印花CARGO 26号托特包手提包斜挎包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"COACH蔻驰奥莱官方旗舰店","photo_url":"i3/2207644932146/O1CN01aqGAWl1Riv46eQnJw_!!2207644932146.jpg","current_price":"2600.00","region":"江苏苏州","seller_id":"4f1e5faea51a5939932b2d01ad2af408","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.tmall.com","mallLogo":"https://img.alicdn.com/imgextra/i2/O1CN01a69z6z1hJklCkBqOU_!!6000000004257-2-tps-174-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop229342273.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01aqGAWl1Riv46eQnJw_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i1/2207644932146/O1CN01xjEUMS1Riv3C4cLap_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i4/2207644932146/O1CN01HgVWts1Riv3DRWaqv_!!2207644932146.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop229342273.taobao.com"}}]}],"overallScore":"4.7","shopIcon":"//img.alicdn.com/imgextra//i1/2207644932146/O1CN015nqRsv1Riuf1RtBeq_!!2207644932146.jpg","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.4","title":"宝贝质量"},{"score":"5.0","title":"物流速度"},{"score":"4.6","title":"服务保障"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","shopUrl":"//shop229342273.taobao.com","labelList":[{"contentDesc":"88VIP好评率96%"},{"contentDesc":"平均10小时发货"},{"contentDesc":"平均6小时退款"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.5"},"titleVO":{"subTitles":[{"title":"可开发票"},{"titleDesc":"如需定制服务，请至手淘下单","titleAfterIcon":"icon-taobaoxinxishuoming","title":"定制服务"}],"title":{"title":"COACH/蔻驰奥莱女士黑色花卉印花CARGO 26号托特包手提包斜挎包"}},"debugVO":{"traceId":"7d27672117647324221153829e","host":"taodetail033061096130.center.na610@33.61.96.130"},"rateVO":{"totalCount":"1","favorableRate":{}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"江苏苏州","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"预计5小时内发货，后天送达","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["奢礼定制","假一赔四","极速退款","7天无理由退换"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["由品牌官方提供的礼品镌刻、礼品包装、礼品卡片等奢品定制服务"],"title":"奢礼定制"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["若消费者收到商品非“正品”，商家需额外向消费者支付商品实际成交金额的四倍作为赔偿"],"title":"假一赔四","actionLink":"https://rulechannel.tmall.com/tmall?type=detail&amp;ruleId=4400&amp;cId=391#/rule/detail?ruleId=4400&amp;cId=391"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["支持7天无理由退换(定制下单除外)"],"title":"7天无理由退换"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=981761597951","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=981761597951","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=981761597951&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=981761597951","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=981761597951&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#9UUdsuQdiTEyNF/jEuX4A+l4+956zoK7EGy48Dp4pmzgmtJQCmxYLoTAh5mpuD26iE1uYJ8NnrXt0ZQZy5Bv2Nr373w9O4QUdpRmto8/LIdFeDmlbGkOcNGmdcYT5mMsrUa/yH9Y0W9DcQsUAREkS2tZRdsq19PLSteiF1hEffBov4XxobmFGdbxQMgF5paBh72h767BptJNp90qq4GdMSopjaWOwruEXZiW0E3wBHRqc2WanGbZszVX7Nlw6x/T1CMTXzkCAyIVaekfpQyH+TZNXAWHjY+AFPtz4tCI1oP6Oohlb5AQGZT1/ya1jBdR9q6J+G+PnZRoqn6m09BbVhuD8ED/uqTkSKgcKi2n/KBialOg9QYK4Lr2Kco6VwUGw3DVRakUDV17b8912OIgsPqbSJqNBbhkzyp+Ydq2KmUvV0KnGlrahEwCDcOE27nConD9yRT1REIYKSVemM2+kSP4Xk9Ay9wue/I2Nkx+Xne7nlc3IUewqKpdZua2sYnvkNvv0xThgp8snmgKyQlSWGifHrNH5rRhD/CCfC4fa4YOKpADf3EU1TaOAuHKZDKgAN6NzgYBr+6SQQAkZOs3becGD15B/qavz1rwa8+IyDp0qLBNRyXqFs0deaoy4T26UfIqIsvxOumm7vWghVAxE36y0bGjJxC5SKAunzejmG4br3nGxwokLu+t7aEfYMVmP5DrIBTAbv/eKb+ao0/hxDHlc3Fg6A+5HwDTxOgdkV4jJvSrF5w+DEP6n8oKpox5AoMDr0pvGJPaqKe+jvJd7aR9xWkVlkW531aj7ftSyZFgX9sqwPxAXlBNExYepeC5vlgTeBJtnP9K0TCqizA4sV1uhVFjx+hz6I3AEpTj6jZfGU5k+E2DlzK+Y0SKXOG8qTzYgvuI8JmtXrpF5LvaEbf6LCsxO7LQuHbFKVWtS5halFjN2nxD9SF/kTnIjO+R4zXjDhElgZf6WIzCsE82PoMu0Zsmatzd289HcNcvBvuMhfojmraK4XdQbgfGHnek3hZA3xaCmHuwIaTPHwXg9EyqPzoah9VgxWKTw8Kx+9KiMbecGT00bp9JWWAOX45DRstYI6O6kX1yM+hWgZX9N0fUuSQAyi1skwXL6Y+0b/VmAsrZPAoKQVnHT8Edc9ppXcT2tIq7BRPPUUFyEo/0dw/W7Dvfufh+J60ykyEqw4/fo6/rpOVq/8RbDpbraMmhyBntnyVEi3WOeGiQAtzBBheHztEfvnV9epcBKsENiGXmLz1dwns6r1gRYJ7cO8VySMWTjTbe8BrWjcWnOWitbALvIUP46Yj8zcBtA/islOZu7IptuBKmNLKKCX33trLH#2222.22#pc#94Dy4KnQLy58x3q3NLZcgQ==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"店铺活动","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"2222.22","priceMoney":"222222","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=765962701385</t>
+  </si>
+  <si>
+    <t>{"seller":{"sellerNick":"coach蔻驰奥莱官方旗舰店","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","pcShopUrl":"//shop229342273.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWKZQJK1kg7h3kwyeRP56ZcUkDair9qMEqJ4oKWpKFzaC3"},"item":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01UoyQmS1Riv45cUL5Q_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01Wc5mov1RiusbKN80b_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i4/2207644932146/O1CN01Gf2RGj1RiusbP4HWa_!!2207644932146.jpg"],"title":"COACH/蔻驰奥莱女士亮片STUDIO 12号迷你单肩包斜挎包Y2K风格","itemId":"765962701385","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=765962701385","spuId":"6627021372","titleIcon":"//img.alicdn.com/tfs/TB1SMG7nnvI8KJjSspjXXcgjXXa-78-36.png?getAvatar=avatar"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","textColor":"#11192D","bgColors":["#FAEDE1","#FAE7D4"],"valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35411","timeActionText":"35411"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":2,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#A7FmPh8c0scvN3cLJf49SSc5BoSpLzYhTDS4nYTl2GBFDsYitqLn+C/UzV0Rs6z6cUFW+VNLJqDhEEFLZJBCaBI/ow9MGFVCHVGX5d2ZJ+h9TFbY8Pv5D9jZ7QZAjmeCrJ8/PA9Cs+ZAvLokUNQ/JGvAU9DRBx8KLQHViqoUyqWrjoYGQJE2/q4BwTF16d5A6yOC/N77aKhOb3MYgtKS+h60UCWXF1ALJ9q+IeTNB4QMQkyXpYbYVu40XrKm/GTM15wjnBRI2L0bWrtQxs9jrdZgqWGePY9J0OhrgiuBm1vU5JGbRplN7Heh2+rHXiSNjnXFQ60KOc2sxM/4oHBhjdORLJiH4ZCNGyQtg5EakWVvY8Qru9l/zYtT5fT41AoAYi3ACWr+YvEiuKnNgY6BVJEEsSnIxTi465AmOeiIBPB8C9sNAwwuPJdVnemCSKPmYQvD5J3Ons5ydALaVoFzp28lcaac6o9jeWNNgkE+BSAXI6mdTakwEYibf65OLH2v7RF21kNWt8J12oCUl2+9TskAdSlN5Tf+Mbx/LBsoDz23Sdo9Os9lTo2RDtlx5UnbcGANUGxhHezLsY5L4/OMZVIR39zVfSATxnDIN89IBSt5sWPslMTPDbzkuaJnovk9PnjTXifskj5h4SMoo5nXTLv43DVZ3HAD/EJxKMnfd0ZRmw8LMY+DRBk7Nqay8EiTYMOIuO6Q7D4HbZ8b6zUxAPV2IM9F9JoUrYcYKyZVwxPr4olxgOhS0ErQpmyA6Hu5/tM8U9omM+spT5k9XycaWmiYjJpl4nsNwas/AYKDL1ocl+PPZCnc9l9Ys1tGGBq9dzBSJTVBcgkTDpUa8JslmiOgTYvj9QXNHUSmZGXObdUh0qNMg7OuJSJ0Kko78WMWrjKMmGc7Ja1OsF5aDzOgLefq+zyDnVYRFE04ZdjcWtNfYOSqEvf2OpM9f0eXTuGzJsx/AZqWLGcNP5+rvL1yIsx/f7RNhZZ1zyLy+uLrDX0vqQilT1jxzrPEUFtTDHvEsX8q6c3vKCruUQsDind+jX2nEIXtOwhuIVpyBZJoddZq6HQg2QnzFKMMtbZs0QGFKMNZQyEHQlZ7pkdNB9dV+h/Sfh4H99H9t9/TfxYZpoSrJ4iWBp9zpZxlQZZALFX0WG5ms7slkKpzetcVTG8Izg==#888.88#pc#kwdq7Nq0/BboeyMpNxk3Hg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"888.88","priceMoney":"88888"},"quantityDisplayValue":1,"quantityText":"即将售罄"},"5435037958483":{"moreQuantity":"false","quantity":2,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#lfVd6zvxwfUkwJXuM8yBWSCoBCV61f16lWIVM5mxL7cWwv1yPEww2VHPZPY6BDO2SL/xV6L+KKMvbyuYF86bF0YxPHixvi7Z0Jmzbo0tGLOr/gUsT2d5hexjSu55PuKtu1WN0H0cjzyLzary5qMG6GXzrwRX5Bimc1Ic4mxGWXkG9K+T/yZAT6FjR+J5lOObgb7U4Fv3I97DPuJ1Py0pd4UGgxrogBuGHdVo6O1CRGUU85YKb0v9IffVXVVeNOfhY0N96DRjlS9alHYSUhWVnCZrAIQYXi9K0mGnpvtyRXkQmaHkUQ3UDPQ6Y2SKRlD96fLMwsZiXa67TUKuY35Srq0HEIBhNhDEaAIulbvL7UuSqBZRE15INEBtJr/1kdHa9rI+Zp6vDc0XQ13rXg4azY2yJwY9p0PEr873eR6uBvq5xBCeJx/eErMyt3jJExtEoJctenuGmuZ9lacotWOx0Tn0vDDvoYebw+VxHJYuN6TSHAw73SuQkuhzIocATw/R6jrnLUgvWEAn1o7qa1CafzTROQtDbtl2tlQ4z2n/keGYBXAqaSG38817fCmT32CLNhquuFcUEXXM4Ehe94WjhU7bjeEduXIZx7qlAk0Sh2RTB7QF+4oxVv+I+pATCNibHkZOQLxQrkMuu3eIWSrbOvn54kWtSEsfg7Y+mKZKYQ+d6DQ+/2mBxdKLmvDre8c/qp/3YoRNaT4lstlyCVkYS8V3BZarZpNL4WuuQ3t4R2myY0zfNbJ/K7QD5oI9+ZgzUrkwU+aIAUzCf61NXuyzO9IspLYaxCWhKLM4fjOeKSB17HOaPpVapG9fHMkfk0yKaRxF1vQoewkYQKBHk1/gPKibQZLuMmOnPiEVJw14a6X2c0Ny7J6BrwFvu+9BipAOYeeoN/evuIwLzjEmqHR5vqV8EWp/ZpNeN6vAzdB7LnAC60wLvDTUhoaL2XxqmcQvD2vdt/bWEdL2uHOWkMivl8liyIoTwSsz2mlKWsyK9KDUM8wa9gX2cQUDMGR1l9p7uCmnvB3GlmwSDxIG4lBMa6touFhfxKu5fzMXgFZQPU/+npfNByxgWHzb4gi2IEFcQN+0gp/Gh1btwEZPyrHua6mcaxZPF4VVgv2TVV37nW0=#888.88#pc#kwdq7Nq0/BboeyMpNxk3Hg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"888.88","priceMoney":"88888"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"},"5435037958484":{"moreQuantity":"false","quantity":0,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#BegS/EaYLjcICH5O95h8dxjj7X41mPaSinHqxp7evtOD1aOxioY56bCgMVuik0LwgaQQO3jLL9z44f4SBBIMjVaSyPr4TSzEkHvN9HHGkhULx2F3j0PTh7EC1lPb9yLSB76fFCNS4j4+0qxLw7nc3PtihLaJOnc/w6SYkpOre8wXhagsQ4QMe4qajM2TRqPrgHIm/h2tdFeBfbPsK+2SOCd5AK5K+Y+IC4u9upOIFKIiNPY6YghwtS7Au4YlogxWFaKj9k4LA3QDeYPBpg2/gItOX0BCz3ujx0jRFwJWzoxtXFXKAzf0V8zxjUoEr31ozF8pxZU0TVQbtE/DLZnb+9CG+33vkj0M7bf/IEeRHmpBsfu0qB1+NiCp2psD6UxhWhxTBqYsS26/EIov8rPM4zU0pmeqZqtYy8475cp005plRnUkAaRmuKF9oiNoTHZPfH2lxMPypOy4X52mxjod+E2yqEh8ZONgB4T6z3JhKzJ1JQQ9fVTBLFjNCrVP8BfPfwKpCqB8eSb+iXr0N2hh139CP+tpzKVdQSwtMfhJsgtZBTMVHse+1wTkBDN/fb97TPddMTetnbw4nNX62qMAOORRCdZI/w/UuRwU6iG2WGHoKaW/3m5jcd6owRFwLnzX95M7Ki1yZfnpykX46/Cc1L+wtopj09K9JZ2LtRaF5501yIa1XtG/e2iSGXw2+m2xQ0ka97uNOxCWuRAA3IrVL9XTM8S/NBDC25HjO++l3sTX088I2mXpGv86jjE1jL1EHQTz6uOLRMu+Tyi7p0joKepZ9hSpyHkV8BUWXidVGQIrBcT/cw2CSHB+bhkKINe2OpQ1qndWemJ7PwG6NR83FBUHidKIKDZwNNUrTLXspAMoRU/dZvg3WQJEff3i+aSRtCm5iipxMHgje7YimY2QeTQQJshhqBj9NylLjwTK+U+AbfT08X/rJKeXtQklwYEKQM+KO2uDOBOMs+6TC3WN1i0ExOtNWv12renkNuAUf5tNb8snK65Ghv3n2VSAuPt9Lh+bbKl+FEnnrA/677VRpGGF1wJHKYbW+KtJI5fxWCCCPYTlYnZuMp8J3JFFNG3CmK4c0OxVzTCX5R7xpADxIl4UQUjBJRm0NCqFuaH9GpYeHmPHDF/ILavF+m0Mi1+r#888.88#pc#kwdq7Nq0/BboeyMpNxk3Hg==]"}],"price":{"priceColorNew":"#FF5000","priceText":"888.88","priceMoney":"88888"},"quantityErrorMsg":"超出商品库存限制","quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"无货"},"5435037958485":{"moreQuantity":"false","quantity":0,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#Ch5IkpfAJcq9ylGJ2TrB/8uN/2PC1B6JgMeEJEo/M1KWnGkX2TmY9lVY8NYsHVqKI5nQYE32X9f4t+xm+JHyjusxAg4fY/oDRYQV6RwIoIRjp5Rjjq+VqEGRJrVFC3WScPuYyuL0hdkXDbZICyBJiSFBgVJiJegBIpxS9Xat05SZjMrEDsU70PULvQW5sy3WWcQ7CDJhiwCT3THZQhqnyouYCjoxQM+p2IXaT0wliNH9gW4Vj2P9L2B0loVqSdGl4gcd7XodL1TdZkyCK8em7/fRKwkijvlWd84xuQ0ruSdzCAsShWIhdp3OIaEg9DRRwHRvov82lKvfn2bIg8l6fK353qO9SOsXWqAbIr18opSf+Kil/gkOp0IzMSIXlYzpRujr72t8LOxkaMoMfRGww9DFMMKc43BWx7AkQDsEZhCs3AO8WGN7y/DAi26/5ahm3myzlQHEwGo3v4i8Pte4E/o7Uy9yiYNPCQZC60y+KQS+6vKuuN0f87zgABYNP+34jOzWBCzc9LWsPVi0dIgsev6Ext5MyVh1wAsHgqCLPbhdJWPwYV7qp+m8Xf2Y8l9CQetu1XhTiKRb1TMF6MEAk6qevBMUyO71K/3HzQosQZxhweGktfwbvYEZl/ZO36aoXtUk+XmiIFaek5nZ9ZQYMBZ8jXljPwyrn2Fj97so9p5srGNdGptgn7Cm7Jzj9q/CDHusFNwKYQBBWCuQFVGoyek1NFiWeAshUks494wH2JWN1mq8239Po8/u6LE89TJN45/9xOpCMAXvta4wxrOcXmg978ukFY2slovy0FwQqo6Z8EQCbvdBxASd3qTGzv3n+MfuZ5ngoXZvMgQBzXv4tssjruH63/rAZk2Loo/5ib5LNBrQMe574jKXF2hXRqH9ZCnvIaLMPresk0NwYH9P+fOdt+4rtnhwdXCb/tGP+J+uNHoA+d5PXxake1GNRYxU6dV3Ur/iVPsam79wvuhvpRwDpN5m48BJ5c4ltRgB32GLOvtcgHlTLMq2BpPt3SfJpS6ra62FICaXw/zqx0tq4JT4cWjrM5d366tQjiYPqUTMBOhOANbkldrEOK+0RMzf9G0MDV4L3x3KT5qJI8uoN7LOoOgk00JaLyUNJ3ogKM3Bv9a6xUdqGQFHnfs+hivg#888.88#pc#kwdq7Nq0/BboeyMpNxk3Hg==]"}],"price":{"priceColorNew":"#FF5000","priceText":"888.88","priceMoney":"88888"},"quantityErrorMsg":"超出商品库存限制","quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"无货"}}},"services":{},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:22956160586","skuId":"5435037958483"},{"propPath":"1627207:27935878324","skuId":"5435037958484"},{"propPath":"1627207:26859585041","skuId":"5435037958485"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"22956160586","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01a59Av31RiusfrBmad_!!2207644932146.jpg","name":"LH/黑色"},{"comboPropertyValue":"false","vid":"27935878324","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01rrd9SB1RiusU8AhoY_!!2207644932146.jpg","name":"LH/深洋红色"},{"comboPropertyValue":"false","vid":"26859585041","image":"https://gw.alicdn.com/bao/uploaded/i3/2207644932146/O1CN01Hpz6ft1RiusgdUJdY_!!2207644932146.jpg","name":"LH/银色"}],"hasImage":"true","pid":"1627207","nameDesc":"（3）","name":"颜色分类","valueMap":{"22956160586":{"comboPropertyValue":"false","vid":"22956160586","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01a59Av31RiusfrBmad_!!2207644932146.jpg","name":"LH/黑色"},"27935878324":{"comboPropertyValue":"false","vid":"27935878324","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01rrd9SB1RiusU8AhoY_!!2207644932146.jpg","name":"LH/深洋红色"},"26859585041":{"comboPropertyValue":"false","vid":"26859585041","image":"https://gw.alicdn.com/bao/uploaded/i3/2207644932146/O1CN01Hpz6ft1RiusgdUJdY_!!2207644932146.jpg","name":"LH/银色"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"2600.00","auction_type":"b","x-uid":"","title":"COACH/蔻驰奥莱女士亮片STUDIO 12号迷你单肩包斜挎包Y2K风格","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"COACH蔻驰奥莱官方旗舰店","photo_url":"i3/2207644932146/O1CN01UoyQmS1Riv45cUL5Q_!!2207644932146.jpg","current_price":"2600.00","region":"江苏苏州","seller_id":"4f1e5faea51a5939932b2d01ad2af408","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.tmall.com","mallLogo":"https://img.alicdn.com/imgextra/i2/O1CN01a69z6z1hJklCkBqOU_!!6000000004257-2-tps-174-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop229342273.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01UoyQmS1Riv45cUL5Q_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01Wc5mov1RiusbKN80b_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i4/2207644932146/O1CN01Gf2RGj1RiusbP4HWa_!!2207644932146.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop229342273.taobao.com"}}]}],"overallScore":"4.7","shopIcon":"//img.alicdn.com/imgextra//i1/2207644932146/O1CN015nqRsv1Riuf1RtBeq_!!2207644932146.jpg","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.4","title":"宝贝质量"},{"score":"5.0","title":"物流速度"},{"score":"4.6","title":"服务保障"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","shopUrl":"//shop229342273.taobao.com","labelList":[{"contentDesc":"88VIP好评率96%"},{"contentDesc":"平均10小时发货"},{"contentDesc":"平均6小时退款"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.5"},"titleVO":{"subTitles":[{"title":"可开发票"},{"titleDesc":"如需定制服务，请至手淘下单","titleAfterIcon":"icon-taobaoxinxishuoming","title":"定制服务"}],"title":{"title":"COACH/蔻驰奥莱女士亮片STUDIO 12号迷你单肩包斜挎包Y2K风格"}},"debugVO":{"traceId":"7d27672117647324435842661e","host":"taodetail033103002097.center.na610@33.103.2.97"},"rateVO":{"totalCount":"16","favorableRate":{},"group":{"items":[{"dateTime":"2024-06-07","memberLevel":"9","createTimeInterval":"1年前","media":[{"imageUrl":"//gw.alicdn.com/bao/uploaded/i1/O1CN01liO1s32Lc9YNHC6pJ_!!0-tbbala.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i4/O1CN01jJloFM2Lc9YNe84pI_!!0-tbbala.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i3/O1CN0191chU92Lc9YPEpOlW_!!0-tbbala.jpg","type":"image"}],"userName":"匿名买家","headPic":"//gtms03.alicdn.com/tps/i3/TB1yeWeIFXXXXX5XFXXuAZJYXXX-210-210.png_80x80.jpg","content":"小废包就是用来装可爱用的，主要够闪够好看，超适合夏天，出门装个小湿巾+纸巾+唇膏够用了","mediaSize":"3","feedId":"1241386243708","blackCardUserUrl":"//img.alicdn.com/tfs/TB1wrG1elv0gK0jSZKbXXbK2FXa-225-96.png","skuInfo":"颜色分类:LH/银色","tmallMemberLevel":"3"},{"dateTime":"2024-07-29","memberLevel":"9","createTimeInterval":"1年前","media":[{"imageUrl":"//gw.alicdn.com/bao/uploaded/i3/O1CN01JgQ5G81q3ZZdxA37O_!!0-tbbala.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i4/O1CN01HD3hgh1q3ZZdF8Q9x_!!0-tbbala.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i4/O1CN01UrwDV41q3ZZVUGp9m_!!0-tbbala.jpg","type":"image"}],"userName":"QY爱MM","headPic":"//sns.m.taobao.com/avatar/sns/user/flag/sns_logo?type=taobao&amp;kn=wwc_tb_11&amp;bizCode=taobao_avatar&amp;userFlag=RAzN84GK7wS8eNpfxTNrrB34nmukb4TaquSEfWzUPcDYYTWUVQqJoMUhwYv1VMZEvicJHXY9s95EF2emYekRwuq2HLmNeS7EdXZZKDfUYFbpQ8qf3pi2puTH8TcKfnGQMMRFJbqDDH6UmLL1w127s8vpFEcVmZV8fRxGsxM","content":"哈哈 小费包 只能装可爱！一个粉饼口红一包纸！手机📱拿手上呀😎 耐不住布林布林 颜色春夏吸睛！品相也不错满意！","mediaSize":"3","feedId":"1245914958061","blackCardUserUrl":"//img.alicdn.com/tfs/TB1wrG1elv0gK0jSZKbXXbK2FXa-225-96.png","skuInfo":"颜色分类:LH/深洋红色","tmallMemberLevel":"4"}]}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"江苏苏州","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"预计5小时内发货，后天送达","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["奢礼定制","假一赔四","极速退款","7天无理由退换"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["由品牌官方提供的礼品镌刻、礼品包装、礼品卡片等奢品定制服务"],"title":"奢礼定制"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["若消费者收到商品非“正品”，商家需额外向消费者支付商品实际成交金额的四倍作为赔偿"],"title":"假一赔四","actionLink":"https://rulechannel.tmall.com/tmall?type=detail&amp;ruleId=4400&amp;cId=391#/rule/detail?ruleId=4400&amp;cId=391"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["支持7天无理由退换(定制下单除外)"],"title":"7天无理由退换"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=765962701385","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=765962701385","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=765962701385&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=765962701385","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=765962701385&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#GySaJWrtc0OmTqKEFdm6Fr3UWXbonRgM+X2tiCjgd5aJ0zdYdkQxSVlLG0o1F0UIwecGt79Pxq/2pWtdb/XAz0J4TzCUMXW8SFZl52E2cdtKxVPwVGgMsjrFTPqvAaSGF2AGJiwgeDivm72v49QAfiBJWE0fZKvqmH+hHiMJ7QwAnyJw9MK8gLav1157Ek9Mqu9yfHUDa19kqbjrPS8w0hUAvSgdHPMKkpbljXKKbLh9Krdcwqy16fY0ah/Jjef3sp6agj3bW5BN56fMi08il5kFaaxH6IhRS2lTOOoDYvQMzeUnJODgPZpIrj15fE87TxA2bzsj6N6IIdugw12JL6jpYlbuYJTR9zv5LWNrPy0Asb93UYv/dmjxQayOLAuQg2eaczWYav2Jdhba5OZ8HThdxxoaSegzM0z5Jzrl9ZoRrqSi9NOM4lMTh/5VQWQ6Wzio2PyZjYFnbB/HXCSKrH2sTa7O5MWwI6C2dj3ojRkrzVTQszsMhXswQr7j/UEwXtbL1Wu74KtEUZG/NhX9VFQ/5LSi8FehPx6ImkHNnrQOSlIDaIRBJiGN5Gpl/znHrV5+dbfF/9Z35fBv+OAHGCgEpBujT01zNuBGHV3dWFjBSI9ku16l7eoM4BvE+eFZKjh/SxphArArNNQhrxZLaVJ1dcKev8M4MgWhaBEoGHBZgv6ejvdvgaTPJsOxAmPuwALnuLzmOwFPE0tMr4u6wql4cZW9IIUCm1ZdS/F/LdTohCbjyX2V26/gnrfbe375YsYoNVYN0Iy4feque6avYE72E9/AUe6z2ogFpZd9EHGGC06Hn2xqVTBFYAr+PF50YKh+UIvUO7SOTaF/kDNhda8aSgI+K/UkRqPijobVgxyDRtRHLeW5l+Agiv0VZytGK8So0mi2CYZTnU7bXfQ4NjFI+HTTcD+y+MfjhfccvSvfa7JFRzptg2Zacfn5lMfwP9cZhnTXmaQYz1ugX0oLtY1xVX4Zzri7zGbjqHunqzrMk1ID7O/JPLjNgaOJYr9MQAzGhJOza9N81JOHsMRcw1Isueo5sdy1Jdd0scdfeUlwphMOb9DP1OGnLK6XhaeepySC9swCLWH6vVWhuGW5xsRUrw6AmwTzr1lqRG2nHx0=#888.88#pc#kwdq7Nq0/BboeyMpNxk3Hg==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"店铺活动","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"888.88","priceMoney":"88888","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=889279775828</t>
+  </si>
+  <si>
+    <t>{"seller":{"sellerNick":"coach蔻驰奥莱官方旗舰店","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","pcShopUrl":"//shop229342273.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWKZQJK1kg7h3kwyeRP56ZcUkDair9qMEqJ4oKWpKFzaC3"},"item":{"images":["https://img.alicdn.com/imgextra/i4/2207644932146/O1CN01VtBLXZ1Riv45et2K0_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i1/2207644932146/O1CN01Sre7vn1RiuzYqF2ho_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01JIvVcZ1RiuzW63pVL_!!2207644932146.jpg"],"title":"COACH/蔻驰奥莱女士绗缝TABBY 26号斜挎包单肩包","itemId":"889279775828","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=889279775828","spuId":"8175214797","titleIcon":"//img.alicdn.com/tfs/TB1SMG7nnvI8KJjSspjXXcgjXXa-78-36.png?getAvatar=avatar"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true"},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true"},"guessLikeVO":{"hit":"true"},"rankVO":{"spm":"aliabtest723647_830745","hit":"true"},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true"},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35380","timeActionText":"35380"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true"}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":15,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#ItluBkZ9V1GgJqUNcI+AniMYpuHzuyK+W2QSF4g6siGpxPtrupkFFBcXeB/HaHlzhgvj416ijnAs7hfvagfiAha82zbHEy8qTH45jjUSJqHOs0ywDVK0lCb5N6Ris/VjmSQmjBNQFyn/BvWYegOdV0a03tLjaQo+2gFanS6PPE6EEEYxAo5sfLcha7G/ZonvLoWNAGWJtmfcjk3vWXV67ZdSJttTe2SevNOrk4fkP/CSEE9YjsjOs9WOXQJQIZUwStdFU/SIrRzCUDOL9/9hBjyaLMpKxuO21I8Clb/pB886NS7kADYGcf7epObs3JFIIBdKvgxL/w7kmiNOewuI2neQmhEVXjgn8rlIA1k6Fz3yNmAW5If4jB2TnWA7u+RqvUC6yYDE5vMO9QXvXzTMJ1vk93iadSq7i3IRrMc2WQP6RrY8oljGF32ZMY8rkWCw1LS18ygofRALr1af68G8NpxK6uv6McX9RIyhNFuJKQ9jkshHXWR/kS4PMxDstANaXRgfhO9jIqsaSGMttayqyJG3VQHXqXDtEAMcFC/QBnnVtUGYF04ydjTNispxHm+NdTx6yvVjUuT4fGtxLem/zC3TAoTCTCJ9xDT9Ip0uabcZm9fuiXmiuchkzhBgQt7EpMyuSarfJGzPeOxItZdruon6lWMR5bWkiPJ1Mx/C4/xLo9to2BdNy+CkyBAIalEGQipF9M+WljYCViWHGBmHWIVN6kmujiwo8TlXf5+U9qAIOiuK4c8KKxWAeGuvJXSMzMgQes2aHcjb4xbG1RozbY6UWfyHmrptkKe3JiTSELw56/krfimtf8FjKOKMjuyb8WI4xeg+Xm/hANLLynW8HAMyF2uhQux7hk/2r8Ls0QMR89BbxxByOzIB31npfCUiUcxshuz3dzhf/fAA7Q2k480m41x9jiRhUsIlgnPNxMtBdrfEXyzenXJdBSQJEaBkrRbf0Yp6CqWMo7jbqoekTjX8V0ZhMBQgqqvaqiHU68DJ1WlGfUd7630nUj0Wza7ppdv7+QREiSQtyhsWUrAXN7lfcQbbHU/jF/77zkqo5syCVgOCBZKt4TayjwFoBRPNNGjGFbcY6oERMl1fmbp1hLtZyEkzjzWAsq6hBDYmWAhOKgnB3lRbO9Vg5KpqYsaEQDpT4NOfI3/7HykWBL+ypls6OC7c/0I80ha7I7owaxP96RiDC+RVQE4P7O4Ggb3AMS0pdTZQlVikAiWRYrtfl/AP2eqEJU6/8vWr5XZSy2pHa75bBp12AykRO0KN51B/ss/U8bCBnviVm3mNN6TrEG7xIMvY/qMJCyAbmj3rcmYZnJeYKlw+DeARTrxejJor/opDtZKJeAiXt3bws+UrOqx4oL0/dftEDw4fCvjKjgqCWXRnxrV+SLlaxdBkZtmp+1T+6kYK1qjqIhPQTDpXSYtb8VUVfLI8HppCH9Yndqedc0y+71xRIDTGj2GiVpAu#4444.44#pc#AsLfo/tMaDo2/dDUGgHSqg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"quantityText":"有货"},"5903123315961":{"moreQuantity":"false","quantity":15,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#zKsmhGMSmYnSnfWUFwnB74ohUwtXyPyDFda6LzrRJvZ6Sg9c4UeHuyZehyBZEjrkXb92ioswW5KOecULi73c1/OeuqZL2Z7fFzuCHgEnyTpkYU7xLHKFY9853q1G7pACqQjFEATYXg2Jr6xJ2G2zhN30n6mXpI1A3lAuK6A7pmiSB171QUxOL2+d21kAr/CmF0Rwy/sHM0reD4OnwoR644EkMyqixfEHEvw+QkRKqFH9NvQm3QJy0wk1GrJn9M9FxBwGcYkkqC/HewEpVYazE5JAmLWEZTaItE2ufN0mEumt66T51/iuY2TgpU+0P67cO5EpX1rxjCH1Ylt8+0XiFVUS1qFZtrrw3pWcRn3QjmaHHEMEiCJQfoBUMOAjlk2xiyvKJzsC7wSnFiGAlbENDdxCSA7+pKYWu1NQPlYXcoZDE9qcFGGnsWXBZiXAj5MNT7SWEVrHzpg4XM+GRlpD4sxBIjZXylFE2VuqJ1ggMRSnrPHjFvt0XO76lNliNq+X5N19yXimCn/GT5+KddKOw1pv/F6op1UZpx+kOsY6NZxZpk8qLVvffyTpoieWesGbSOzqeKnvDprxa+tekFm6VeJKqMheKBJonfH4q1umoVpsXzth629KwJRham7ckXH87KksWAY6SnHA8K3IrlHwyIlxMlBAWO0TfjKcznBHVJdsinJb90s3UYlomw5i+C8yoYR6T8B4gDWSGMcYCFvAFGGjYg5r+LP/lBMRNArhDaJA2ycQYloIiQS4b6CQaYseVnFy1caparsYvzbggApbyEqCLClzrBbLFnnpTTXN1P/te3Iy77YtdftWnQkyQmPHB3Aw+tC7elkLTRPv+DfW0w5hPju2Aj0JvScL/CecQEj9kVIgM6/1t7NBjtGe3pd0khpJK2c1HX691QNoaftlxnn9t/nTZitbhdniEOXaWxUDzWoj/giEoSdBPdb/170DySC2JNzZW45Mv7dkYFD/ePpZIAumTfzBTa4g6laviSp6Khg5NbBtpONonP67CkV5Q/Ylkk1GKzENkKJ+vB6i0uN0+rxXtNFTjrlf1GynY0eev8Hkd/J9lfBjV59fPIxb7get5wQ/1xVrWGH+k8COofGt741/u+vK1iuG7rDuiTXjAPNgJAlsRcSdoFIPP8Jcxo7ySU7/Ry8VQcOZ4gaGFpmx2mEc5mDlQF6VMXMGlnvACUcD8j9GAbo6cPCJk6bPPMObMuETnodT9Ot8vs8ouxR9m7oRrQLK3zsk2FCfHFrRC3rES2BEp6t4VTXOHXzQHUPg/ibaqX84UPElL2I3koompvFVWUQLUGDiGe4CYhuE6Od3HrrklTrmtakdrDT1m4cojfZyDqsU+kAjEsU8yV+WcA3aEHPaozHkbud94AaddB7AiCCg0aoVASxENbt+luLJNz6IyZN3RbT8dSMsq5I8LYRzpnC9/gYfRanWa+s=#4444.44#pc#AsLfo/tMaDo2/dDUGgHSqg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"有货"}}},"services":{},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:10446283934","skuId":"5903123315961"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"10446283934","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01WAryW21RiuzXVaS2y_!!2207644932146.jpg","name":"B4/蓝铃花色"}],"pid":"1627207","hasImage":"true","nameDesc":"（1）","name":"颜色分类","valueMap":{"10446283934":{"comboPropertyValue":"false","vid":"10446283934","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01WAryW21RiuzXVaS2y_!!2207644932146.jpg","name":"B4/蓝铃花色"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"5250.00","auction_type":"b","x-uid":"","title":"COACH/蔻驰奥莱女士绗缝TABBY 26号斜挎包单肩包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"COACH蔻驰奥莱官方旗舰店","photo_url":"i4/2207644932146/O1CN01VtBLXZ1Riv45et2K0_!!2207644932146.jpg","current_price":"5250.00","region":"江苏苏州","seller_id":"4f1e5faea51a5939932b2d01ad2af408","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.tmall.com","mallLogo":"https://img.alicdn.com/imgextra/i2/O1CN01a69z6z1hJklCkBqOU_!!6000000004257-2-tps-174-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop229342273.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i4/2207644932146/O1CN01VtBLXZ1Riv45et2K0_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i1/2207644932146/O1CN01Sre7vn1RiuzYqF2ho_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01JIvVcZ1RiuzW63pVL_!!2207644932146.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进店"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop229342273.taobao.com"}}]}],"overallScore":"4.7","shopIcon":"//img.alicdn.com/imgextra//i1/2207644932146/O1CN015nqRsv1Riuf1RtBeq_!!2207644932146.jpg","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.4","title":"宝贝质量"},{"score":"5.0","title":"物流速度"},{"score":"4.6","title":"服务保障"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","shopUrl":"//shop229342273.taobao.com","labelList":[{"contentDesc":"88VIP好评率96%"},{"contentDesc":"平均10小时发货"},{"contentDesc":"平均6小时退款"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.5"},"titleVO":{"subTitles":[{"title":"可开发票"},{"titleDesc":"如需定制服务，请至手淘下单","titleAfterIcon":"icon-taobaoxinxishuoming","title":"定制服务"}],"title":{"title":"COACH/蔻驰奥莱女士绗缝TABBY 26号斜挎包单肩包"}},"debugVO":{"traceId":"7d27672117647324741378482e","host":"taodetail033005019049.center.na610@33.5.19.49"},"rateVO":{"totalCount":"0","favorableRate":{}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"江苏苏州","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"48小时内发货，预计后天送达","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["奢礼定制","假一赔四","极速退款","7天无理由退换"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["由品牌官方提供的礼品镌刻、礼品包装、礼品卡片等奢品定制服务"],"title":"奢礼定制"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["若消费者收到商品非“正品”，商家需额外向消费者支付商品实际成交金额的四倍作为赔偿"],"title":"假一赔四","actionLink":"https://rulechannel.tmall.com/tmall?type=detail&amp;ruleId=4400&amp;cId=391#/rule/detail?ruleId=4400&amp;cId=391"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["支持7天无理由退换(定制下单除外)"],"title":"7天无理由退换"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=889279775828","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=889279775828","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=889279775828&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=889279775828","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=889279775828&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#ItluBkZ9V1GgJqUNcI+AniMYpuHzuyK+W2QSF4g6siHS22krDgZ09qzusubeQo6zleyJjG1P6LRvvpg4Km9jru800/Uq5Pa8+zWnxujDFM23od4B347QwCyWrg2n8duEbkLf3GBT3pqIVKM7iF++aRh6qQt9nYoWY9DMr+TcHZVhuxfYvnJuMPWfVSCGvW/jHeOIGeGpOzkN7pUV7bLVWScuaeJBQ9z36wPLy/7emMvyHAx7WEGuyrpH2rrlKGSflQ1FW2dBqDlnKfUb7UtoOxnTuhYKrUV/23Jqd/wraUNgz6AXnbhqo+jfMb/A//vwvW6mSnMIpGGpzsM9ZikiQ+hdrc8Z5rc9FBpB7m/czIU9fKjudWcJULX1AbO7ZzHJDbtZztUk7oU8h+iBlSTl2aLR2GcxM5OneRnDnpEikmCn9PDQxjsFKhaRgunquFLvtCU8rBCBEH2JZstP6gtr9PNiEp7gvKGT1oa8G/FhXWCw+pob9QgTdpe0AIIz41Tg6N942Q1rFZqo2q5bYwEIp5bHBMCTks645YQ/d3oWRfdmb6LDWle53Y2EU57NPO6SEtHCUOa7BlfuK/G+ov2SoMNrYV2vznUzOKtsCD0Acpy4RsjPcEdHdeoIjBjngOIbtSr22sIHGgMxH0naUCIr9cJ7hycolLwxkvtIWLje/m7MMUtoJWaoT4SXAl9cuMJen4le4hBfahxXgIcJXQv5YTMPmoLSiPMxWlyIJdJRsa+NfA2PG4gp3XlO9FSLSBJ+fE8rPE4VOgVyhlrPT7ZDE9Z9W8INttiyB+ajhm4TDYwYsfIySm1X+hZShoyYK3QiAthhv8QVJQIpOaZUD8rAa0xnQ+VDv9n9MZBF1nBMbAqjEx/OZIUDlHgz4/Ay0Goewbnvj7FvkJ3ElxpSwxVBbRzFBt/+5KG+2Y1Z0OVm+VNEHSmUVYq2wF9YDPCNCfYWazR2TkpSpIXfSPX+9LJ2VcoOVmBo0HY0Ocp6nPhy8sSO09Otzq9Y5p9ObDcjBaodsKRWxLy6fun6tQpOppPfZrf8ejK0ovJ6Y/TDQ0Dr69si+DI2tutRm5ot3jmJ0Cc721slZMjkhLeJ6rM85hwigVzoj9IJMbUatUSewFYWBN+gbIL3XRogMRBoXK9ShdTbQS2nmXlHXbJ+raIvgvQ84XgQv62HP+vU04YsXODZv9xRaguN9OiWm7hjnw/cpRrpgoTRZAb8vOnLguoh+E2Ma+LcDg2p16RONGqXc9Il+AV1T8j52ZrrokXE+RNo9ekI/Y6NEcMTabcH/d9o7+kIp7gT4yJ9yaMzaMH+zbyCVlsrX9/a1U5yEqr26D9HnKfAzs5Wuti2DUd+AIaxPaaJ7bE7fPRrm2P0AsPZDdl7XEUo8ZiETD/MQnr95klc2+0gn5pYEMZiVxEAjzN+eyG6dxkvtpOoJHUvNtjA7kIt97fnGv59cveH7N5iSYPBoOPl#4444.44#pc#AsLfo/tMaDo2/dDUGgHSqg==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"店铺活动","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"4444.44","priceMoney":"444444","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=989290874017</t>
+  </si>
+  <si>
+    <t>{"seller":{"sellerNick":"fghfgsdgasd","shopName":"翡翠香港代购","evaluates":[{"score":"0.0 ","level":"0","levelText":"平","title":"宝贝描述","type":"desc"},{"score":"0.0 ","level":"0","levelText":"平","title":"卖家服务","type":"serv"},{"score":"0.0 ","level":"0","levelText":"平","title":"物流服务","type":"post"}],"pcShopUrl":"//shop167149675.taobao.com","sellerType":"C","encryptUid":"RAzN8HWTtfCoXqGZCAnN4VUCLcpsu1jgLwuoGF29sZKiThmyo82"},"item":{"images":["https://img.alicdn.com/imgextra/i2/2221000821399/O1CN01FVstXq1MCnCDxuLCx_!!2221000821399.jpg","https://img.alicdn.com/imgextra/i1/2221000821399/O1CN01XmtEeX1MCnCEFyy9C_!!2221000821399.jpg","https://img.alicdn.com/imgextra/i3/2221000821399/O1CN01KT17M31MCnCD2RIPs_!!2221000821399.png"],"title":"COACH/蔻驰女士city33通勤大号老花单肩手提托特包购物袋","itemId":"989290874017","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=989290874017","spuId":"0","titleIcon":""},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35357","timeActionText":"35357"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":45,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#CwK75vaD5WaDeE4rqFIinvePk+4NGT8XU+ABcnbtYxryXImsooIFsSflXli2bLB01S5UJXldBaQVAy8rmmOX5M4ZyXC2LAAkmdwJGIpAogMIxCgECJBg5mDx/cz5Kqy6/0Ffn2HOEjyYYGhuGsVCr9LwI7cenut+XS1qvcfMmMekVbjXXzP7N+k8OwdVzWgaxe+O45uaKG4r5nYkIVM/OR/5oDXPNa9b6MfBH1oYp0mmhZKHTUjR6wRW58vuLli94CJ5E5CxFiUxWv7uRhSGebvPXWf7O6nQ3jzrmV5leaSmtGdzTPX0queZrnOGP3sTlu2rf52XVO9+H4g/Mm88zIhKx2wXQtbVSzMNHD9VzjaFgWbcA3R+XdgtMfi7eDQHoIihAgIiqq+Fa8YJCb8+15VCKup7hF1x3Bx91Aam1K5g6ZpASiIRio/9RfEssK3PS89wFqXquL+IGtEWymVWWMWBuvyQ1DDqgs3gIiX5Yrtz9PEv29dssyeS70owqS2eDVX4AnoapULVaHz2I+UJwjp6nzx098Exn8k3nVZAUzbuK0W4pTRVcV7RjxNdSWBVvqIhSMEZJ/rxe/U3cjL5dogSU8OlbBJ0dfFXHv/zel/kM/A8uG/50aIz9o7AonVTBKv8B5o9n8dDVTqEtWzhm3GF1F46aJJa6ZoPW7cRvt/BKZ2TUhTwOOBf+lXdea0Y5jtSkip9fizE/+uDUI+hedVc3VUpmxpGWYrm1cbdX2TVOZm83745k3+M6Cji2e9yQKTaNKVzYFgi38m4oZhezqTq9nMoacPXDimsdkB8sNXncPeJhWwfAxERNAneHTFASlPU3xaK4LfKm6RghrFtkTkJqkK9J11IF1LZ92kbsRcgR64EifGWuNQw03LXI18HuFEmkuSCYdFHPy1WVXncfbkmm+X9ZNS+5mC9IZaB7JK2k/XuRgiORiZM/DM3cQaUY8PgGCRh4GiqIT0mEnnNxyLKSEiYIccS6ppzO11zjjtzB0t/Xo/LFrHqYl9BmYZSAD5t9ktTlyVxKsGY93zFNUdwQnpMTMT/kiaKCBgPWDZcvUPoQju0zEZlbbE3qEPEghOHaX7mIDwFxarqPZAvNTppakomWzpBRIO+VvLLpHNpnj4F2hC3sTOwUhNTEOukOqAPJD+Ajio8JsXhdbC690r1W6ReODHGZrQeb2vsPCa4YggFRruiSxqsxGyh2DcOKnSV5wSWwknzgNGnGnmc2oI51/Q1H0WLBSUIzDV3/FIt+qQWA4uiwqpnObKHZr5wppH+4c/KmuQ6zxalvF5rfghkfg/XMekBLi3Qh1+yYoY8azckWEa/Bs5c3Tk9tz2hp0pTQOQq8GlDGRDmT/hU/c6Wk53XA/K370JPx4xh5rD3k5/RKqngFWeiskd9z2Xuri+3DbepEgHPiCfu+UMJ9mlMjDfaET3vjBbbcMxYXKw0Yjy9SYmW3/Yiqa+eGRtLb9R64sEncpX8L7J+46EfW2wIK6mKvS9tb6cl/i55Qz1GkDkfRZEblJvb+1iNMOo1oPmecZ38lu+OrfEhGy3RYSPgjXVPRJaBKaG3jonS8SQhXFP6Hhlc0zMAiklShYN+LQoknLvE3Wt/NpdbE4Fpx5LFwjJqY5krj+j1rD1ZAbQbkSoQAFep2Z5OViMaolCMxLmFgPI7spiSKW43N+/Ayd4ggj573c1f5FXBF6xOQtEmE/aqNQefoFSZZli67BBfx/1HmSw9uNsfMmgUdIoY+y997spHS90ySzKd/uY1aVpLxZHaKdSh0x5Z0obQ7Yelr1RcLiz5kegzgFkCHuRGJ93x/w/f71Kxt1fkuRABHZj6pbU7u0jVx4QZVRUujHJ9keTKLuc4erBf/WHqf4OZv/ghphlTPUFnU0j7QOZbDAciuMoW4C8deYSfccIIHTCOaEop7qfhbuUsAPrMrUM+Vxqz5T1iWvRRZ+NLUeMQRvrfgLiN6aJTJI6X/h84c1Yt2SiAvhzT8N/acuH4JMZYt8XlnwJxAuVlp3k1R3WrFCByZM3u6zY2C0ltoNyi+Mav9GD59B+/wG8DRaNNXJjPzCqlJtEX0DgcF2XYjXR3lik0KH9XjekPd00tp5AAXezEh6iznWd21Bbgcf+fOSHtzA==#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"quantityText":"有货"},"6122136002927":{"moreQuantity":"false","quantity":4,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#Gbxqf5qxKkaks9yT5ZYWnHw4A1aiI3PGUbGnBt1ACDRTwIrnVHrzijlnOJelajcsK6pQ149M33o9V5RN/D3+I9EEeGL10uf51sTRaloHzHpUS5QgVEnN4DzAf7zNIV6d1p9OfytD01TfUsAOPAk6N5+fDb8GfPwu92tOIwQeTB3ucUMyx7jHS7S01RWEG7ojin2Ist2R2TyhM7VeQ1V2yFwmFhdO5PdXc4lbKFhifjj01ierILXjEA64aJMfNmm/axzNLJfyA1r/3R8sTo4zPAO6auQ95qvw0i5oUFyOD40BKpfQ6rMeOSlRKO3YPeGfS4/g8WbrN0FBq9slajLzGB2NnAPmZND6iXE9PNoe7p6cFxTJfsp2f4oKlC4J7h/Te38JgqwtLLrkc9b9ceABMKLE70Ow2FkE4e8WqFseYCCehLQrJrZIczQxNh/XSWtRHfVjbkceyTAtGSWhPojGkn9iIiFDVtWT6uqk6KuMqn5Ypt29YQJcvRmBK9XVHGNK2/QwoPG2rQiLi9sA/YRvLZyQHv20nh/JqWmsW2hgkROHLc+qdcwDa+eF59Z/9Bat1w9X5UXDNWd4+zi3WyMKBAYX90oW/rzorTN7VxrZFlfXjmWKNF2XdGXJJd8RNR2T3qEJb3Bsh2cjTS5FMhwWLDvI+delbqtBiEnNitGEidcfgcmgTQVorzuu+BJs3wUqH1ne/qqYtD93M5RwlZowNssix182L8Se6jzkv2tu6h6+mCUc+SwI4e2ALnyv4POmizxM1iq+6BBPCcgO3oNrxbRaxVNSa84JJ4YhGwJg0wXBU5+Nj4V3OsxaScuqoLsHPR8ovRFst4LX7iueENGtuPAW3FEtQDCgGcCQKUYnvZ2wSEPJyk1DOgmtfgKsVp9xxjQgsuik2Ps1eqcN2iz8HlkqHXJFGRCUYmuJacI4kqGvbMIT+jeqOYGU1ZmF2B8RAljY3GLGMWAgCaFfe1GhM4bOR08Ouph7wwXOk7Lh+7TRvhgY7oCaYnMjOaBC8bpnmFz7R6Cl6OsuAARVQfjRn5q6ZRsjMooBcMp4EZGI/Afq2MZdwcynBrew2K7KzUFm2UsHpIsdD8tKTipmU4olBYlLXUmckYLCRR4NCm7WETuQWpPAw9PEtfzSrL42iLNQDG7+s/OD56Ca9IpEybW2fO/Pbrg3DcbhvTB5wYf2vaY3//M3rmoeN30kh4ClS8HJ4zBbD29cYDbh+JLdr14jQydBCyku3eCa6o7rubfE159tcWqWTspWP4lJEknh3C2tNKXF0HFO0Xp0X9XcvMJ3oac9UURSc2y7qJwushlpX3fXgjlelqLIcOYrPMm9DWUEpIetoQ3W2QKFS2ujY9VleE54qGY0+mEFJVrxo2GvLRlV/NlBcanBkKe5PC+dndjbwxRbOyQ8r19yTSnOYDGZh1S1ylPCskN/Xfj3n+fxuPizIdzTrnLGDDMv5wMiZ6bVoDM8A6kyUN+QyOR/7AapqDOxF49OAQz2fWaNP+Ernm9nPrKW8CyfDwFW2bmm69xKveB2nl7tmTs0fUHwW91a+YD1DJ2q9shxyeMuRKViv1OCYhWdX6ddp8FPSDd2UdV4ecD8EWNgmGpKhAKDdFERDjDnnImdKam4tBXvluf8b0H4vXzms7MGT5aQNHzg4ebOXDLa6dXlRGgq07Jc5y8lRcjNZN0XD8rJnVsRD+y/CHtdqcCUV6ddbIKAnQYdz1AZ9HnPzyF8sMKdri527cvqSMstcLXw61aUZWRgun39wCVy4xLaXZV4+o7pxOBvTURgKcaIO+MixhTJ66brhl0rVB53yeSsO4LU5lgu/aT4pnhYjxdCVhuxwpzLaMIhDtEN/QVYoIYMRxaYPW+QG5kcssixD0yDgIZtTJU8yBzNaZwT9cDiCJcWY9213K/LX0Mk3fLeoNV6w7GULrtpMHo57yjloDr4Pi2k/gfOae5ZttRJ1tmuauSq3wDJuu808Na7P+Inoc3CGZSj1X73hOXGyNBoauKs29djTQjhdCIojOJU4Y01UWNHOFd8Jk00gP9QvuT0z5U/SSKHTPgY5UqAeOBuDP2YQ5u8sVmjXnSvYh4=#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"},"6122136002928":{"moreQuantity":"false","quantity":10,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#gBchaAAUA8PsiTk515zVCTzeiUw+pKtfMEibsg0Bkmz2I5dA6FC0CipRun3In45Sn1XrCMfrOFfQEYRYKbt6b5WzzqJ3WPfXmpmalJvpQZ5uqOHz9a6pYp+10OcLNAKq9RQjFSfRkF8Y8DnAjMjaQojzh8h01OxsI5ejSubPPciiiUZVUXiEuekC4vNPuAcfF5cJa3ASvzGYG8bhotLskPyGFqdCZEEFT6KW/pNYSfe2xi4tVHKb4Fc5dv2ccuIPTL2FMsXe67Mo/oBFH51KKiOXBTnakRpbHKQ+pgaxAgf44tGli8hsbEmripG+zC/rDr0i5hePIhCtYJXoAkcRJtz4af0v3Thr74t8qkOdj8Hu5PeU1gokzstYKklsREvghy4PLLGCKkbiXqeXvo8iowvPlbEpYajRwmlv9BSHHXVqRFpk8YBiVaU0bZvTu6c/7Sk9FwNQNLnnFSw/PAgcMFlAoHE8FlbUTt9AHZX7DA6M24/2UJWY4nqkkeCc3wwtkl2kjzf1x7hvx6HHZObWGAPypM8cNXTdx3zf1QAEd9VNo539RMRsFWsRJa4bmlZa0uOv4oYJ3uwObOt5MuA2qeTW4qyujUl3tseu18DFQH94xbMfHf5v/vv7dObQiJVWnK54UjUC0qIRnMzNxX+Leh/hiMxkToEv2A0YelMQLEeegULs1rLb6I7yHP87Ez6LOx8F7WNxRma3HsdgE6kpV5Tml0RMCiYd0AuDeyl9dJ1fNi2Joq4XogpoLKVTiAmNDzRDj0hV5zt7E10h/6scHb0DfzpTQh7qoZpYPOPZTcl5SC4QyTmY7hm1EHYMlhc6YWPHIPsj4h3DUBLCnU/TREihxRMND/a7uOllY1FVoeyggGqWkibg75n4bt8yVMUscnIpd276qnRIrpLobcayNT1CTx+E3PIA+TJ9VHLGJTx//IGBCCAA/FTK3t3yuzMsUCRa4n/OVsrpBZjZVjKPi6eXdwm6DIQjyZK/TPJWfSegSZsLCzqSJUfUiKmCwee2/1owgoWuwKmyzCjd0N2T0dKsyPnYUZfQHnE4MrZdhPNjznEZ4TFanNLBgt38/ddz7d11qCoUsmtkYZI17EP8uFAC93PskTP4doQ1BEAyiMiOe63jl4r4C5HlkZrUT4WQCxWM8GTH7/QsYDgsPYTKHBVWkk+1Xy6rgAqXZVm8rJMk9CuTuNa6cZu9j0ta3YsveI4K8nZjAqDjaIONEtB0zYD9UZxm1003mxeNLtCdmfRqHblkYw3QDyCBHNisj8NknVl90rzwWTRvE7p6Y7vzstv5Zxho7XHNdSC+68bYAk2cP0oZ+/H/AAieE500gvueun8LDW6i5X1h36zWse4+2CbkJ3JqZIwVAe70EtKmPXhC2CR8czwDX298wK3gcu4+Fp+BUS516CKze1+3lh3xzuPly2h3CvB9bKyAe1TiDhuIWpeKaQdnbepfuhbl3bx1xR2yovEmLU2Mj7iMiAqaY916INTepm/7NpHK3eT1iyLeX6HiJrBR6G7w2n1SAoOdSgBRatTBiYOUKOeuZFetJJtsXt7aV+G9KTJ6NhVJx0UzNx0zeRZQE0uOUtIJFkr3toSZzWuTWqk3qt+t3A/zCe023jtOYekP7KFslfhzYfFSB751KVbjtZpBO8Bts2klqlSAe+NV/9+wNoIYJQMUrBOTzzjztpT/mlroRzx9wHEzofoPE6JTzwF98ZIPmLXP7neoG56MdVD/YelPzs3qcowmY0eLPBqbTnhfLbwpaJPpzlcTQCOs/dXGhGbZSKp1WVRjp9E+QZx06Ok6DVJ2WZccFlF3x1nxE3Pf225hUxISMHQ+pN1FKM0m/ZjuYlpIrbzO1BSTFGINIxZ0Z+4SuYDMyAD3rGE4JeQw2hq3z+CwpoNTyNpWGuhWO35BdpYJOJjnyr+JyAAfU6sdG7Qw1XOQ1s4aJuPWq5AWJXryMugI+RxvRSjStoFbgfS7GxvDyeltjN+IpYP9k5U78QH8XxmFe56OSLvo0ptYDpyj37eV11qe5KezUSTGOlDcn1zRHXl2VoOKe5/qX1Gnbnt98BjbXXCeOvQNW+RI/Bxd4kPz0bMNUzhqmKNZB3N5SYySHyU+lstijbl4RlJHeFAh2g==#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"},"6122136002929":{"moreQuantity":"false","quantity":10,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#UwY5aloJsSnIqxhT3ZMtNCINHDY2wP/8Vshx2E8flueFOxT0Vd2weGLrE3AsBXzMKzaRcuTadedOTg3BpROG8Zd3dG6Uh0YlYiliYv0cCHQU44pY/t6+4Ex09PU6neMgDP7RRCgjd6gKlNpHe6Fdnc+rMCeIqVdRfk7M9ywF2fRoGdnLUgECi2V7eV89h7QlsbcJMeOME98sOM8UDwYu1L/hdwAn0B9sUfzfyfIFBty/VPFFkUSXI4FGKmgE4UWhZGuoPufJ23p7bYvXZi/mO6Nkw04oDBM4vDcyKLEDb6+ScXx5510LqB0zYQL5WS/j4KnxMT2dyVoCKoicTEh4SBUcvE8ctq2ML1RutevTKrhJwLm5IAzkWU22t6/u0boBjD1qB6BxPGNXwN0qMKHpaRHAHbME/DoUaB/WgpC/e5Svu2ie4qnpZp3haTQdUjuzWPJrXw2V+Iw5vvtzIaAf2KyeRcqatCnpKlGUy24cSLtZEXXTw/6QOic3c/Zs6N4rLXXSjpAZMpjz6uNHtySuGETqb42qIHrMReQXEUc5GcmEOyD9xXNVucovL0vOk/QKNyLOnF2BJmyGQsaO5S1pYQ3cK/pMM5mfR+f8OXjQq9QJcshYHNL6/p7Lp43gqY5vDKb2IETxe7cyKohQP58yEtZOyY1DV16wjF87A19qzJ6xsozI3Kk9FNb3skuhnEIsu9sdQBlqJWgvZubRibu6KnpJUnCUNXxdIYdzgEi9DWur4P/OK+I7LQEtk/dfN19p3WipShySJjZJRSYqRxs0BjUUUHWRsqmTSJxbsdO4QgvIs5FS/QXKO07yOZMtSEQGe1o+R1zSXAsEOjHPI3D15ZFPP74fjNzGjVWZHLavV2jRsaaB8nBkhOsbBxQmVfUsCVNtJXfinff/fyLjgfzW6YY4t2GSsPxhf0sSQLkdXZy2scmOTGGpf8sE3dcDYwtwQKuAu14umeupfAdumBUgc2Z3AE53thspYH/nTkBF+3diyBmuyjcwzi/M9PpV/RkDjbKIQV/Y8QIDvjjruaprxo4rSxniJA7sqdakUPmFCP5u6lOGGb9ChDZbnJkWuFbmakjXfl3IaPfHDcO9PP3GN+Hehx1qE6sO3Utqs/TFbnfQJmD0MOrWOpWyWjCCb8QgyW6Kpxg+b5MhMMNVhLfQvqVq0e4IPChwaHl+70YviWgUoUAW6VeG132mJuW8LOHGzw8mcKujF5Mmx9ZGrCkIt83Qz1B4eH8X9+6JqRHJxOCqXDDHttDoUI3D9hcizekav8MRtkO/FbN41mvxunr/IADL10kp5qXNCvSaMoY8uZm2Q0WryLBkLIflTqUebUbQh3oEFZDWzSllovtSm8/BB8CDvGl3E/NccubSP6JJzhyXeovNTT3bG3if3rVCweweaA49kmY8Y/uclIzNon9wgAj0dpgzn6LXUYHvJSac1MTd+sOUidahF60Y8aFoizndcxF0cw/Pm0nd8yHSJbGqGJZEUx1tEzFDg96u8Cu2VoUtLpWJ2OewwGiZh8G2dQ3hbugnOgBjjVlYkob9r4yyPxOTrJlqoG3M/EUJTOzbkuquVVkRHfSan15sm+a8s+/x6YNdlxjOK/56o5+amRuUB4/iGQLlorXNTHsuxQ8ciJcocdsAbMgn2iTOAxx/i+pVyZk140Bi27lPdu+sVohb8yn4t0QxWI8VX+1sd7n4yQhsd7eVddizPxCQ85YaRznUpUQ43ZluLK9ADnoOHDKQL//EVe9wgS3UDTqJfjjWXiwsgbcGd9KURL8GMDRaS8+azBDzWH7zc76sUcbEfEOgMUsl5MYFHjLWGAJLF7XBx+pCqBqvWBTV1K/VB60ok1OCtMry8xxLCALSs24aEZIWx+FW8IHbrvxONz49+MJG+gOHJNAdIK4s3LtUJ6Q3II2N2cVTR8yUzFBV1S+RBcEPOxKZqOgdk8MIK0SaJV9hLQWIgqXsW28fz0nTaMVyAEMNEhpmOia96W9S4DJAwUJnXUKGRxlanJX1hPiYP7GLLd3lcmYcINBuJQlkDueq7gQy8JMuQarn2w+wpWx72NX9cA==#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"},"6122136002930":{"moreQuantity":"false","quantity":10,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#piehXWzIAR4/KTaB9NGFxMI20KJrkKvYupm8Lm/saMQbXbva6RJ+Uk9GlR686MiMe8TnbonZ1bm9PkscZFr0AWv6KN3KRR3ltCUXGQTLEVWsMHvr2n6gHOfKUW+ZaBIFCVQnFRWwquGgyRpYxMqcP5vXJCKFAmkqWKmkAtXrI2MHWTx4cbzIwShobVoNJgrdlnJ++DN1lqHd1aNbntYRurwJIyykF1PC1+t6ztPY5Fu0gGjHV24/2xXc2UPXdu2gt8B7U8mbfbm1uK6kiDbB/ffA2uK86nNwchu+tGsG+viznywtyS9imIFkr3CHq0j2Rm533HzjFY4XbWTEUEKgWy0zFWE/xj3m6ri0Phfq4FYBtxX6eAv1vHeGaevcfz0P5+PVRlrNSJvVtYDdBixA9pnlg6WBRCYFYqPyq3iWYU+K254PSa7bFPxoCyevBjc/DN9Bm9rN+YKn5brNzpxdz0aKRwhl2nsFOykyCOvN1KHr0xwwmGMyX0XwJtI6EuiTJXbrsCcczJQKJ8G7Xkdv9kgfYXHjUPO5vR7waWWlSvmzjuJtkFVicDfZox1Qh/7EpKPwBzDlQ6YQRxyef6exGXeRO4wXaDMjc6/O2bhInXEWEhidsj2tyuO6/tQZZexc0EkykDL9EueIPI6ygDtLnCjR5ZicRopXGDop5ZiWcWUVA9u/1B23F1Ky6xflEw2y/LigqRwFl7MjCqXzpd8iQpe/1YXSnb1zcq37XpYIHuq2gY1+0xi5jnhbB98ECR3+jW/ESgAphxa0UMAV7vt4TznHaDlv+v/MoqxDD1Y1k+qOiYCCoGylrranL/+QS7EGwqwwR89XwqDh80RTw3H+aemQPlxrQ/2+cOT3RPHkdtnVU9yxxXSnZE3DzLoYHLetsLBVeerbjtoQZCqzG339x01VqQZe04r3Q0iYy7J3L+UQs/3fDI6BTsYIFVGLXwvh/yJl4HljrFfJ3dTTQBVb1/vwBvm5Q8j2n5f4ML5EPa8cYfKvqk8ya2KUeVKPBy13H5PpIs0qr5zVPd3HyZ2B3ej6diRrnAl8S8r5zdYyt+hAYd7KNxPbtB2XcYjM3faYJRSYVjsqg7VKqaE09wrkprC434bRLuxED6PEfSLab/igbH1Nk4y2Vj9On5JS8xIjfClb52wFe4ADjCW7RiLB8st880Tc84MH/JfUGEQrelRyQF4sdlJd3C1WX4CrJ4YQFz/B/PaoUhUq6kRdA7PozSZfmsKcVM00Exq6VBaF6ebndRQO6tojuDNDE5mjJ/2Vbdzfy6JhW+lz2OFmqb/M52g+Klv8qNhSLA+aiQtt336MQiXaN/WbH/8Y5+Het9852aTO+UK3JTrhMT7uyP2+w0VShWCawGkrlzKI78IWGfD4jgUsWf68NcxqGCnP8I6UWz47DpjoXiwnNt+jt/iEaybt2GxlvArgirx52j0hUwUk3WmozZz2x4sRhH/crkm6KBcOZD7beIJUORUfdMQoPvfUonfNgAE76ZMoTXgQ2Tyid+LkcV2CCaYElSDtJprGmXKc0kBjSoBW1awRGRCang4YCG5Avtox3xpij8GTKRLJgSC5TyV4hXh6fJE4ZOk4jpovTBQrsAqyOdQ7Ua/aSXlJdXf3QV+k00IOThPq3VauZ3Mw9ab60N//ohHHGnY1sWu6PGm0mzNp32ESKsBrq+COFR+aHxMkmowhlBNOSvEpkB2EUD1/l3RFNaAJUT8QXhxQzqgv6Kwn11XM2CzApHp5eS0cqx4xh72LtZk99ngqrMS4B3EFspXxpF7/2l90ZDMHBmm3OiNMu6N6gRQ8nk4vxKkcVlB0QVKybP/CqHgxZlLVso0Va2qADhrIx/TjOq4yws6sgSrYkU2NOKt1ROjVEuSk5QU2qhKSJYQ3FFbemADfpugNkYDcQ9zjrc25Mh/C+sZ2oY4ckJ7+ugcd3s2IAfPWWVRi89paZNXNX5c9Xf+f23nPAixlhG5jQTMqbwefz9QuMrI5KGWslJHCLj/B3RlLHw+q6MjCByxM50JJhpQpYRvzjztf7Hq3B47i89mkednnmeVN2yqYLyPaxdpbvuQJelyQbw+d9QE4JYA=#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"},"6122136002931":{"moreQuantity":"false","quantity":11,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#jJ3TkwW42HYg/sNJGj0EVWAmsxBdVLJ8s2ZMI/f4na+WOnpX5Dp9x4fmKz/IL5WFUmp8l91CxC4Fzb51E5c+hS6Hp/6TEI7CRkhKFGi+T6ULLz/JczOtWAiminiRvBXSnOmj5qrzWwYobcKjq0oo741/424nbSoD3w39SlflFnNPiXrmtgbCQ3YZLU3rTHpUhxSKNQbJ0oWswB/2WSXz7aPS18lKq2Je8vK01gn+3VrXt/ZZLpUtpE6ETkN+1wJNVQBgW0zicZLR0PPms1YXPYOscrOcAIdzlpaZR/xTBeyAqkZ5f90za6vtdSEVGw3/CrzDIhKNObZAlko2OWtH9H3IutFlm/FVXD/pEyFrG4Mhc5uFIBpBL/xt4nrQmQPnfCaFdUdPHEeg3lxG58KhEwdpkWXLOIJHtwCqVP1B9WM2xtXz7e7gCEkkUTRUCnL+wzs+gRr73VM/ZFjc5+pYJSsghdCxlUxVuw0KHN1LRD6NYNKBESDZfEPb4uctRl2tl+gEIAVF3W3M0c2AFrxJeMeuMzn4LvFr5X3Z3KSOFFq1gU0aAm6WNRs1NoBsYWjPPEv5mfkqWz+8JLYgXQxMXslOB69+2Q2AUbSlDLILEOmGK8EjfjNinT/KtZwdZ/9Q5E0IKmkpfFDu9bf1wKFWzsMcLbRitrT0d4J/mU4YAt3fX8BOr1RlyTr6Z1kGVlbp9Te+Rd/3/srwnFlhG6/cdELuGDqjJaTCn3mpJDy0YRd+FJM6GvN/FUolWx7WeNOTVVrNAxLmTRUMO5vqGjCE7HvozKcY7c4nhiRDE8IUJkbozk/yLkhM2Bcvma/HUVQN6NLLsrY4oSp+9QQICVadJ3Y7Ou5ozW+yu25v8+YA7ArCrm62xySXxnXPcSDgeNByljqsGrwW9poH9McLWXORos3XSrqCRtZPwt70h2THT7ATDKEVstwHS5QsZZenV6QCM94X9SK2or9HkmYiSb1XMozi5YyzoeSEqGM8Xallad7Mo++lNjty8jclMwg8h9QE3CvvHvvloND753/1iWOZkv7FUVnxlf5q7clcUwmN2dJ7z6F4ajhSEZ1UcRXAzDSANT93xaF68qlR23c7abUUm0KcbtrliAP/3FmQD8vUUArRjp0aTUUjJl18mTJN8lLt2SVLLWaYKUZyIeZ04LO7HgEHxHPz5TOB8iit9hfUb35FfJ24/bezebfRlPkLIbLCBiiu0KeSK65viv/aLmSWjQ/17ZFXXYUcOi4NpaUuKq9JhLVsKIwKzZxttyLU54NolwrLR59byYDUNgZ/hdlPneI5/QvHhjIxHTiMDn0gBZg7lFfxBi+RoUizMz6I6q8TlkqOax9IkhclR+liweF3tcqCnixsvGiCdHugWu5xUeHDCnLDZ+0g8pIi0y5haGujUYwkqqq01Jx2yXHSvVPb8l9IUOUTZ1XyMw5qbspOHH+gA0JDC/uCisbye1B3bKg2qLvXoHQk6emt4XiPeoQQjN8LR3ZpdEZMXag/lWfEnXESLR1KiZVwD7AN3s5dXBGxKR8mOWcvCSD8jcrW9JYR+w/5pfgvvE+g1ayuMjrTgpjZ7v1vNpSxltOPNkCoE9B6EKR54SPeesaH9a4SP1jA7t040FutZ0zoBQBFlcZfQ7aB1hyDaadtstUP+FddJaA5C37IcQ5vZdH1Pi/wCPdEHnFti6miXoI3x5ccYwsnilNoO4fRysJ1YaLsu3pe9YYCgIjK9CZmTylb7uqfbPVYeK86oYE9OXcYNh4VAUkFyp38aTgq7gWYxC0eZDetmhioHPa8cs9aN6SuzZXqFTz6gK4eepM0tUJLYeRZ0Ko22AXdCd0N59XfSgoTWmell6sGaIM9ZAxtrj3wo6jcNJ/hQm063IQJ02UCXftokLeUUWLR8s7AfL8u0hCm4U8mMSSWfq1YruErxlIXnbd+j/iMgUwZ0LxG4zjge5Cw55TCAaUUFRvXi92XigeSxe5J/uxO+Wy/TkuR7kEiflsKU8OkR8JG04OoHYO3XpJ/sg92ipPv5IGufW9Dj8F+iR82bpRxxnpRcsalluxBjYo4iMlIkUpkV2G5ea6sd884sQxtnVd+wQAiR9nbUW1GU1Pjo3fP#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"有货"}}},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:37738462410","skuId":"6122136002927"},{"propPath":"1627207:35223734696","skuId":"6122136002928"},{"propPath":"1627207:37738462411","skuId":"6122136002929"},{"propPath":"1627207:506357130","skuId":"6122136002930"},{"propPath":"1627207:754354423","skuId":"6122136002931"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"37738462410","image":"https://gw.alicdn.com/bao/uploaded/i2/2221000821399/O1CN01FVstXq1MCnCDxuLCx_!!2221000821399.jpg","name":"新款炭黑色（国内现货）"},{"comboPropertyValue":"false","vid":"35223734696","image":"https://gw.alicdn.com/bao/uploaded/i2/2221000821399/O1CN01D7tTbT1MCnCEvIcl4_!!2221000821399.png","name":"蜜棕色（国内现货）"},{"comboPropertyValue":"false","vid":"37738462411","image":"https://gw.alicdn.com/bao/uploaded/i3/2221000821399/O1CN01KT17M31MCnCD2RIPs_!!2221000821399.png","name":"旧款炭黑色（国内现货）"},{"comboPropertyValue":"false","vid":"506357130","image":"https://gw.alicdn.com/bao/uploaded/i1/2221000821399/O1CN01MC12nk1MCnCDPOHQL_!!2221000821399.png","name":"黑棕色（国内现货）"},{"comboPropertyValue":"false","vid":"754354423","image":"https://gw.alicdn.com/bao/uploaded/i1/2221000821399/O1CN01xgubWf1MCnCDxvcFr_!!2221000821399.png","name":"棕色（国内现货）"}],"hasImage":"true","pid":"1627207","nameDesc":"（5）","name":"颜色分类","valueMap":{"506357130":{"comboPropertyValue":"false","vid":"506357130","image":"https://gw.alicdn.com/bao/uploaded/i1/2221000821399/O1CN01MC12nk1MCnCDPOHQL_!!2221000821399.png","name":"黑棕色（国内现货）"},"754354423":{"comboPropertyValue":"false","vid":"754354423","image":"https://gw.alicdn.com/bao/uploaded/i1/2221000821399/O1CN01xgubWf1MCnCDxvcFr_!!2221000821399.png","name":"棕色（国内现货）"},"37738462410":{"comboPropertyValue":"false","vid":"37738462410","image":"https://gw.alicdn.com/bao/uploaded/i2/2221000821399/O1CN01FVstXq1MCnCDxuLCx_!!2221000821399.jpg","name":"新款炭黑色（国内现货）"},"35223734696":{"comboPropertyValue":"false","vid":"35223734696","image":"https://gw.alicdn.com/bao/uploaded/i2/2221000821399/O1CN01D7tTbT1MCnCEvIcl4_!!2221000821399.png","name":"蜜棕色（国内现货）"},"37738462411":{"comboPropertyValue":"false","vid":"37738462411","image":"https://gw.alicdn.com/bao/uploaded/i3/2221000821399/O1CN01KT17M31MCnCD2RIPs_!!2221000821399.png","name":"旧款炭黑色（国内现货）"}}}]},"pcTrade":{"buyNowUrl":"//buy.taobao.com/auction/buy_now.jhtml","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"3709.99","auction_type":"b","x-uid":"","title":"COACH/蔻驰女士city33通勤大号老花单肩手提托特包购物袋","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"翡翠香港代购","photo_url":"i2/2221000821399/O1CN01FVstXq1MCnCDxuLCx_!!2221000821399.jpg","current_price":"3709.99","region":"北京","seller_id":"f5bd2e5df369ab9a1e920fe7bf0f2703","etm":""},"tradeType":1},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.taobao.com","mallLogo":"https://gw.alicdn.com/imgextra/i1/O1CN01z163bz1lHF5yQ50CC_!!6000000004793-2-tps-172-108.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop167149675.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/2221000821399/O1CN01FVstXq1MCnCDxuLCx_!!2221000821399.jpg","https://img.alicdn.com/imgextra/i1/2221000821399/O1CN01XmtEeX1MCnCEFyy9C_!!2221000821399.jpg","https://img.alicdn.com/imgextra/i3/2221000821399/O1CN01KT17M31MCnCD2RIPs_!!2221000821399.png"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop167149675.taobao.com"}}]}],"shopIcon":"https://img.alicdn.com/imgextra/i1/O1CN01pz5irY1bhDKceJor2_!!6000000003496-2-tps-144-144.png","shopName":"翡翠香港代购","evaluates":[{"score":"-","title":"宝贝质量"},{"score":"-","title":"物流速度"},{"score":"-","title":"服务保障"}],"shopUrl":"//shop167149675.taobao.com","creditLevel":"0","creditLevelIcon":"//gw.alicdn.com/tps/TB1hbG6PpXXXXauapXXXXXXXXXX-88-24.png","sellerType":"C"},"titleVO":{"subTitles":[],"title":{"title":"COACH/蔻驰女士city33通勤大号老花单肩手提托特包购物袋"}},"debugVO":{"traceId":"7d27672b17647324977303688e","host":"taodetail033004158254.center.na610@33.4.158.254"},"rateVO":{"totalCount":"0","favorableRate":{}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"北京","addressId":"7689479327","deliverToCity":"北京","areaId":110108,"deliveryToAddr":"北京 海淀 西三旗","agingDesc":"48小时内发货","deliveryToDistrict":"海淀"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["退货宝","7天无理由退货","极速退款"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["满足相应条件（剪标/使用/洗涤后不支持）时，消费者可申请 “7天无理由退货”"],"title":"7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=989290874017","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=989290874017","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=989290874017&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=989290874017","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=989290874017&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#piehXWzIAR4/KTaB9NGFxMI20KJrkKvYupm8Lm/saMSO6TxBGqBzp/RyCtWqfwkY+MgivoPFaiHJJZVxbPSDzJvnkYDeJ9ohprACkW4c7f+iOiq5aRNvrc6rfeaQeakLZRtNqiHkgJCVkZLyD2t7wtPhmjGzs/nEkQ6goVa2bHYq3goRb6iYm3F54PUK65Me8RuSQrUmVEd41k8/GWAciXv1jeAV5l4cNwQy2VD6Tsy8AeqaHunmGEkk5XK0DSJk0n5wmmJvmbf0QwEo62kFSEROuMa8jydclA7IrwqaQKd9vlOkP+kJzjdbwEwLaN0Y6VKvk66A2mbIhlNeA8jD4cQD/cTdXhVC4mexw+E9qqEM/XC+ylLe1mirYJ+bgrcMXuvdygZZVI0Dn5DuDrWPTXqmlOjGbgGtPhqbnbzgpP8Y5iQLcBMB22y/iMWojaNZFxpCob/AM1p6rvcPiDtYblwHPCDzGVTWcZ8Su+0zsRm1slQ5tjiRvQIFHSbAT4aAXJHAq3l/n8awDnwpeLKWQUYFwfyUYJs44vu2SpbIEpWLc6b49FBVmNKMggCugaQbzCjT3bavtqkQE+Hw8u3CzI8dJyWG/C5uo3nH11oEqthZoU4OkKwKrFwJg3y9dB5dCXx2/XxNY7cyOa6nEAaUH6VlH0cr5XFIy3zyMuNJezu5SYh5mDWXbZ7adKRcWGq/b2z8tGa0a7SdfHXsjMtck8J/GUu6tHlti8qJRlb8e0UZz2EBm7lAWm4A8ORibyfYyevIi1mZ2t+EJD97t3226MRdE/2ZPn5o+5fDTnneWKB7LauBDTG4yc/az4b8eYtcICzqSNlhjqtsWmXB7g8wmZUlP5qrH0g5mwlVuNq8BQFkyPQ6SHDwDUFONHNSwtVqYtoJwTlbcP/zK9kKAP0EKO7RkaKJsh3FMPbAEXxHqM/2S1eHKU0jtlGA8i1IhAHJU2pK5xsFwxkGTa/tgTxaCyS+im4inYrhoF51Holm11O/Yz35UUjPaAlmArjeXCG1IcBJVhKgKrRRycsoVmVsjg6PPhXildme+hDaCZ07CXO/nuXNpJvB38hmPRYOcbqCIBzdKq+V+Por5L5eVrjin01/K7HF9YcuZumCW5RpiMN1noyFM5Cu6zMWDN3Hf38yGlcVd95n6PZKtjv2Akppa+4HYUrhh2N9OhKtu5qNETclyEGiKweber3rPXq2mMu1bVNxMXaQc1l5V3Wwbhk/3bUbB+PhXlWmAYH+0TCHQEnhIKeM8emiZLcYI0Hs+qAQe1I6U6ktCldrc+cJJuWQaB0RTsM47RURsxaGYyATKAJWB1tupZXxJtc6aFXWPB1w3Ii9yP19zLO2jCBAXK75zrPZ4HBT+34BauGgiCD2qrzbJfaIPM2AhO6IjzJ19TUui4G2LN4KQUEY9/PQx3b6gTfMYA5N1YgMqJbL598wLI/qRFInChfH89Xwl2Q/zd74i0S4ksR465jTTRLBe+1ogif7m0MIe4YJ5/5AJlOh0PRFxhiIi2SBSRCurVTVP2orET2nBKAuY3wTOzFyKAMgIw8NW3t/krClfJbZEKNXLQaj8FwfWOBcbt+vUjjXWysqCXIxCDV53BSCs7aFi2USBSexKUZHTAEJyay+rAp2MoYcrO+wDk+y7CX2V50GkIAFYXHRc9eo6mFKxkXAIpVmBHWhYHt6wYP3K9/aUNCe6g80FopjWGrpWHMlAsLGHpf1Q3rHJ9YNVdAF5R7OGRn0AGpj8MG/FAp4gpoJJXHHZJPMIlMiV6fOGjU7MPNDpUA376F/LJg1aa9KDdEp1k81ZWV/F00/4/+RnVfBWw35X3miJr1l8trQlTVYrAkbSv9IzIUXCYtGSAAVODsRdkHIK0O0AzvEcLWjJ3I7+4qYmZ3nY63pD513ZNboodlyKSbnKFYa10WYuHNCXVShCalL1vdPQWBQLWK589tKehvuzP7ZNAnXmuFbGBYh+bfDZmgZF4VRS02AAuvmofbVYeCm2AdVZayv953GlfP1HG7gqhwM2BUVC/12fSTeA2kwu7Qx8GM7ccpYdbPBX7eWDY+muDGAMBnnEgDrv5XObP+xkLU=#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"4444.44","priceMoney":"444444","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=919624931776</t>
+  </si>
+  <si>
+    <t>{"seller":{"sellerNick":"coach蔻驰奥莱官方旗舰店","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","pcShopUrl":"//shop229342273.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWKZQJK1kg7h3kwyeRP56ZcUkDair9qMEqJ4oKWpKFzaC3"},"item":{"images":["https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01P3DPvO1Riv466fzQX_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i1/2207644932146/O1CN010cFisr1Riv3qw4yQT_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01elKvCQ1Riv3qP6tLd_!!2207644932146.jpg"],"title":"【新品】COACH/蔻驰奥莱女士星星印花MOLLIE 25号托特包斜挎包","itemId":"919624931776","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=919624931776","spuId":"8672608865","titleIcon":"//img.alicdn.com/tfs/TB1SMG7nnvI8KJjSspjXXcgjXXa-78-36.png?getAvatar=avatar"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35331","timeActionText":"35331"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":158,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#xnq96PqfCtJkhBArTjKNFpbuRq1vjVXTJNLaacv9t4ytC573apXcbo4aItuHngUE7B+iD55E4zhjf3Ludrc8O+v8PHdEN2jV4mKBApcftehCuwBT8eM1XdlthrkUEU8+ATDwwRBk/nonfmAr0Gf3SK2QRO56Hr76FiZoM13f4PVpbV0M6uJKvYO7jvnLHT1TZy/6hrlg/VyUSosQNcMVZx5TisGePBp8PuNVPRWsMBUgLqY1mvCvA/seuTV6XQQHu8W4k0zahNGZlHYCLytkBWx00rpT/aNq6M0y+Q1dNzx+uMYnnc5EBwZl/Pm+CeBvm4asDaEUDvCF9CNeEAOL3z6/W/f8uZm/Z7l6LR+A0479Pvfb2dIjo0vE/zUK78cM9DpEN0b9+8qguUi8BmJHbQRlI2Cf0AzSoL3c0J2fHqUHhnOhBUg+xYmC60HAlPNJvHGhtlIbmSB6lBhV3Rhc75kXSq42eaqm7iUiUx4seKV3wUw/0i6y4rv+94gOOvpQF/RjCMcSMuczwlwJ68M8UAi8RW5OGUCrfj/2ysqfU3X3cO9Iek7yKLYyyZXWcSRsMSeCqpnChs2CZz5Hv5Ga1TQ17XeAv1MPxYU0dBm0pUmBk/b0f1161OwsWC/Ngm30eVw/2Ts5bF60bgaYcW37tCb+c4pDQcC7F0QopD/xZyAXOtPjGCIq3PZAHovFef/v5u+IGYUW8TlPh5ECB4CZQe90oeJeMcNE0gyb9L/MnbAnPE+Js0TYGI84+OD5QgC9oIRNqgW467AM+w1CgaIe160q3CyPsVhH+uGf6MhFebg7YdTsps13S5vuopFurx+fmXrIrn0zOrvV/owG+pJ9J2/YojnJd+u2nQnr2ZyLmenQOrujGs1h4EJ2Q/P1ZH71aYGUPIVzyycJptPSshYcp6LDWBYi1GWk1uLOfSNBxLecHytNM088r6W50S6yzvq4U7YfQjrbrXNeOGcs1KrIJ15iHlAAqcH1ywOWzIzH8KhdvWN/C5uzAmVMDeCBSZnrwp/KJ8jgFq7xW6VWQsQDXhMzD8+TRYpc93qT/PCtZAj5ZfTX9XX+omhFmGdhRrUCTsTZDGqGewm2xmolb2NjPUu5mnTwr1sIwmBvkDFLksBpyEUhFNzw8k3Smfh4TUtn3r1fzEqJSRZb0CWuAdBE3JrA/bDfoRd6DchqU3winLG9ZBOph4jZcMX7fiB/RYPncbwb1uwQ0f0oBkhwsBgWjjs5pOJ4u/zR4hjDG7ENsjN18oi2zuSqoGm1tfZCSUS2PVRrjVL2hKreVGiHDRUILOuBvu+199MUBXsKXoqKYHI=#2222.22#pc#hj7nKRFdvn4Y1WcXDztlvA==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"quantityText":"有货"},"5968707573889":{"moreQuantity":"false","quantity":48,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#f18nt6aLttbdiI+6GXVuXM8Qmq2FynYEeo3FHVeTxMDTNOQtSwVqvyg/xDRTr8AJHi6S0ArGWBoUPgb3BDvSqpKyuUM1hDpCB1e8SLsNotSJ/8BrT2wKv7erjVylmFTkCd0vlB8foqJGeQTdDsEVQXytusVvd0pSBz737LLTUltN2Z8DddgFAW+SR0CUZ4QByHHz7AO7Kkq9SaIMNZNKA9mEw3x5H2TYFb7RN3vzJqyeMe02sucGuETBnYHMtFJeDxRDzpkljfHQmjjcy7yt+FkLNuFjtHNUL9Dc/fczcjmWOctjbdOIZROIaK7mweq6FJJaRRfy6gDDyJrqDxhm+T2ih6bb/c7Fxv/PVfWmkKESzb62lHVCTKULoJ40tC3CEPc0NAt2qwBy2TXLEuAf7I/bJ8NivaxWTInJxBuI/fPTwm+tW8oKGgMTdn6x9foGALeoEAXMhGFCC38kegRs+tTc/SVOW+eVfnEPPZKvuoF4cTR/zaLRltSNVH8QcIOym2dCjefzTG3FDwKT3+tId4XgKpxXVUaqsYHPLQ0RNZ6uPtHNmTq7I2Zgu8MfT0ODCacU5uMBiJIVuNJy3Z70AGh8GaVQH/zwc4lpUKmP7DAOVUMT8ZSwKioRlngwf+52eibYY5pGxhn2z0tLUg8PxJ4CfHcSFZCKkSnl+F78uZYnf4JFLwKuOMwBKuhIgqMfdu07bZqqVvPzEJX27oqulgGVCk2LsoQiRjzeushLxNjlBtq6IngMnyiq2Hipel9motQnNTqa933xyYrzOTazj5Z9he6bMheZ7jZJpLJIK9UhqMqow6SFUZmJ5SYASCrwgLspeO6TU+1Iur/z2TOOYepjzPLST4ES7GVMlFGXt42gegyozmsnN+8LkK2+W5FNLTz/1+cQfs395SW8e97uO0AkPFblA5hJKCvPh+J8ZQOQDU9mVYjKJRdWvIMGZbEKHP++HmxwASdca8D1s69nkg32FcT0SQnWbjy+RsssTpYqHON6y0bYa9g8c9KJPHcR8XpiCEJF6DGwPebFGBM/Pg81pzSp4NTB+FTZT+3uJFA1YxO26KDJ4yGRLRu+vocGGGKSE0OtQkAhi/eohpHAbznLDWVBpxDOxxPHfIl6cIkEG7hwW8Pmr15MTRm4Af8hvPfetVVC/lgNYg7eqdGaBX8Ydc5M53hTlgntfmDgFgoNFSMFM3AiQQnGCbOm+wWyVokL7rLA/eOi3EnxxweoiXa/yP4dQmTK+T520/9eD6xOCCZ8X9/Abe5dI50KnBGbwTQ+wASU6xazHFQEVF+nHBRqr+dS/b0S4n+Z/aRVXzB7QvEja4pyH9w5j8gST9d1#2222.22#pc#hj7nKRFdvn4Y1WcXDztlvA==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"cartParam":{"addCartCheck":"true"},"quantityDisplayValue":1,"quantityText":"有货"},"5968707573890":{"moreQuantity":"false","quantity":110,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#v8ctQJx0AyPBLF+Fy2hy7vn+xF5RjWZgbe5wTEDQfx8QCq9WMbAN3si289PH7FHpSuO9C7wxk4qDPWGsa3/a3bFUJV6BXI0qbZaxPaF+wqVIfeFUv062BfqAQMX/3o+v3e5Wn2Yq9DGBmjiAVd3LiTMvdPjIbsGrfBoqAsaQ4qTrv3N2UaKdM58dJNzsyyYHhSHZPT+NRnh+Dsl9otBR3IHl2ktJ95izceC3Hz0QqFoEO2dwrTA6vjNqX1c/S0tCGKGw0a06MAO+qveCMjWazihwAIVennTwN9fu/7DJnFe1HI3TUEJQIUVR0RMeuv/64qIXcrw9D8N/7RK8qpOzIRGJZgH/LvxAY6vZl7+BEtNuuy7kdBfprTfQ5BUQSB6XKruL9AXeE2RQ4WM+qVqZXMQeu7UDelrwgcAzVXE9wk1wHWD3LbjJVNF8mnDJlTLdl4f65FJ+TULSIkbMJPEcoIHoHaIyF/R/89mW7JQvcveoryxhY4og+vXDeu5NIbuNmog05kTtF3ukfsk0VkFYeOVz9BbIcTeePuAS8i94JO8rJ7bmP4ng/QZdXo1bZ9EXo4eoLC8KnkgKUpYdEqMfEh1WYxdZUnw7jQ6Rd6I4eNYYEVR4okWr2sIP5M3+HysiCXM8V6iiR61D+G3q6gyGGAxK/cCPW1oUNN5Vb3OMU5q9UrwkAi4Yoi1wrywK830tTqE09XtyKC/s5KnChgpASdNvU4SmPyKdpGTx1PlCmT4naNo8ag++TRcOVtgnN8xaT6mUK1zu6LGLm0CtcscefpaeZKQVru4MW4fOsaVSlfmmLPIenqmPf7JFJLH6LEKa8Zv2GVueQWBklGsnfMi5K6s4/oD23HM2+A3QgOa1Fi0baPQHi8eNkBvLr8wNS3pRn5SdeYrwWvlP/XeLG+sIznYC77aOnKnF6fQp8JIlzCUEHvbIO88cmHnmvLt5TxKZH0zE/kc5zBHZWH7eA0wP23mwgUvtWxMa0ynebSnRvJoip0cT9aSEf8c79CJ7Lf/11XyHNx1VCYnp8SHziEcvcslgbs8Rmj1I6ji50MafumreWYsff/hGr1vujlCWqpjUCPiEiU4ScWUM7LPY5VoehL+9cdn/IB0l4kBddFIh5YXCYlWhjBlQFXPueF/J/2X58zgYJqrasbLOCqoCHTDjknXAcU8ININ0qBneG7MDhEdmVCNCHeCJIjrkehgtDl7zJqkhFpf8wHH4A+zUZQU99tS8ZbpjWjvCBFhlnfqJtW8ANUX1wuFUmfnxhSRnHtFlROc7Xg2VEYcXJylkSrCMJTfYeWpP/49zu7EgFlowvWeJ3aZtuGi3cMejUW6Pu1pd#2222.22#pc#hj7nKRFdvn4Y1WcXDztlvA==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"cartParam":{"addCartCheck":"true"},"quantityDisplayValue":1,"quantityText":"有货"}}},"services":{},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:1324835947","skuId":"5968707573889"},{"propPath":"1627207:41291352230","skuId":"5968707573890"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"1324835947","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01okkRBG1Riv3pGg6gn_!!2207644932146.jpg","name":"银色硬件/白垩彩"},{"comboPropertyValue":"false","vid":"41291352230","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01LMo94K1Riv3otGS7A_!!2207644932146.jpg","name":"SV/灰粉色 混合色"}],"pid":"1627207","hasImage":"true","nameDesc":"（2）","name":"颜色分类","valueMap":{"1324835947":{"comboPropertyValue":"false","vid":"1324835947","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01okkRBG1Riv3pGg6gn_!!2207644932146.jpg","name":"银色硬件/白垩彩"},"41291352230":{"comboPropertyValue":"false","vid":"41291352230","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01LMo94K1Riv3otGS7A_!!2207644932146.jpg","name":"SV/灰粉色 混合色"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"3600.00","auction_type":"b","x-uid":"","title":"【新品】COACH/蔻驰奥莱女士星星印花MOLLIE 25号托特包斜挎包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"COACH蔻驰奥莱官方旗舰店","photo_url":"i2/2207644932146/O1CN01P3DPvO1Riv466fzQX_!!2207644932146.jpg","current_price":"3600.00","region":"江苏苏州","seller_id":"4f1e5faea51a5939932b2d01ad2af408","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.tmall.com","mallLogo":"https://img.alicdn.com/imgextra/i2/O1CN01a69z6z1hJklCkBqOU_!!6000000004257-2-tps-174-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop229342273.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01P3DPvO1Riv466fzQX_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i1/2207644932146/O1CN010cFisr1Riv3qw4yQT_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01elKvCQ1Riv3qP6tLd_!!2207644932146.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop229342273.taobao.com"}}]}],"overallScore":"4.7","shopIcon":"//img.alicdn.com/imgextra//i1/2207644932146/O1CN015nqRsv1Riuf1RtBeq_!!2207644932146.jpg","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.4","title":"宝贝质量"},{"score":"5.0","title":"物流速度"},{"score":"4.6","title":"服务保障"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","shopUrl":"//shop229342273.taobao.com","labelList":[{"contentDesc":"88VIP好评率96%"},{"contentDesc":"平均10小时发货"},{"contentDesc":"平均6小时退款"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.5"},"titleVO":{"subTitles":[{"title":"可开发票"},{"titleDesc":"如需定制服务，请至手淘下单","titleAfterIcon":"icon-taobaoxinxishuoming","title":"定制服务"}],"title":{"title":"【新品】COACH/蔻驰奥莱女士星星印花MOLLIE 25号托特包斜挎包"}},"debugVO":{"traceId":"7d27672117647325232374019e","host":"taodetail033051076099.center.na610@33.51.76.99"},"rateVO":{"totalCount":"1","favorableRate":{},"group":{"items":[{"dateTime":"2025-11-29","memberLevel":"6","createTimeInterval":"4天前","media":[{"imageUrl":"//gw.alicdn.com/bao/uploaded/i3/O1CN01p9aRT423lAPKWkd2c_!!4611686018427387119-0-rate.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i2/O1CN017wVMso23lAPKGMGYb_!!4611686018427387119-0-rate.jpg","type":"image"}],"userName":"小丸子=)","headPic":"//sns.m.taobao.com/avatar/sns/user/flag/sns_logo?type=taobao&amp;kn=wwc_tb_11&amp;bizCode=taobao_avatar&amp;userFlag=RAzN84GK7wS8eNcHU1zKCA4yTEqvSJqt66AnHqfBBMhGqVNToMLFZNFMwem3dp98XtKNwcfmB2jnn5KUueQfWW9dGak36PwM58HkPG2eqw4wM9budeLX2gndxLbgmq1nnE6G4MTwKm6jRspYZNfYqDGwici6D9GZZa5eS6D","content":"长度，冬天穿厚的衣服被比较合适，夏天可能会有点长，买来当婚包用的","mediaSize":"2","feedId":"1290763889076","skuInfo":"颜色分类:SV/灰粉色 混合色","tmallMemberLevel":"0"}]}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"江苏苏州","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"48小时内发货，预计后天送达","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["奢礼定制","假一赔四","极速退款","7天无理由退换"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["由品牌官方提供的礼品镌刻、礼品包装、礼品卡片等奢品定制服务"],"title":"奢礼定制"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["若消费者收到商品非“正品”，商家需额外向消费者支付商品实际成交金额的四倍作为赔偿"],"title":"假一赔四","actionLink":"https://rulechannel.tmall.com/tmall?type=detail&amp;ruleId=4400&amp;cId=391#/rule/detail?ruleId=4400&amp;cId=391"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["支持7天无理由退换(定制下单除外)"],"title":"7天无理由退换"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=919624931776","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=919624931776","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=919624931776&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=919624931776","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=919624931776&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#kt+u8S7FXdY4wUfNhpaU9iT7PuWtPmzIhkw8soh5HaONE5MK/dPMO5o3j4CouNlFsfxrvKXwKG1sev26ep62iW+akiAHe6EegqTJFojjgaHbXpt6A786FDxbF3GBWeRAPOPimnDcUc0ISII+QgsCDmZ2Dd/Pj7SNbuRfaks1YMD9GHpO4Eq9i1zwIig+9HEZWa8c02ioZekg/eVLOBFOP6qNEo/L38/EhMiZj0Ewtz7Jgv2CagscgG6GWGTyR9zGjw3iD4raBOrPxU22+f5VnLGsgEQQaXMfY+PRNuFKSsFKPROkqyniOFyINgkjbPEbQpSz9rl+WzgjKF5kqVxMcro/6kP/QsZvpPNwtmrQN/OuumpQCjbdINwg3ddqDDtBh27GQuM8uGGacpixCzL+/0iRAFe4Nj/1M+lQHi4i8ulLm2a4FLL0yUNU3x5nFXqhhPnZsdbWef/gfppU0N6dUADtw5GcCn2jnKertb8VXea2pRjqne4wuMc7AiiRfM3FA2Im5+saqvbvBW5dy7gVLvMDz75en23eiIyCOkoNKtP2eQrxvO/MjnZMAKqZNjEvau3df64vRt69QyHH61BH4U0tB5J1YDBGXAEnCSt22nGgP86oYizdtKjldJW6FIyTFGsuCegr0CT0F+xrWLE7RuGZbfkjwMhaYWdhEJYHHUqHbJFuYV07aVqsLIEMEiNEmMAwgkhyvBkHe330KZFday/P66t+SvZK5X8erQfN3jH92Z3mJWZY7P8RMMvVsNdCUMQ+dBmZBuP9FT6gb2q8IdPQStekMpCfZR6A5dGuFwt7urPonOlXiN98bw7UZ2UA4r4z1KsGeCNH1bSKxNgciwGIkcd0IKVoz+GMP9SP47JKjHn7l4HwaB+jq8SPoFRuIkdfYQFcAl64gwivr3lfH9GfipMHKyZLkqPgS2TSaGQtofurT+BYTU5pXIkKSgjGxjfEtTOHJxLmt6NQW18kpUm+hk5EmgoXy1O0XO+vA9h1HNr+jhpl5w0uM4X8QcIVyyrLXMAr9kR+z0YuHnt08wUz5gmJMNPry5s5g3sM7qgsu1Jk8ihKjiScpS4CUTVdazTLxTCOvGxxp7r3TrqcY8IxOTFT78rs72l7XSzIRgRFV39BeUYUc5k6jVmh3jBRQ7gN/0kSDQmNuVEXEvsY61f9Lae8xUCTTTDQWj59vhZQ0geZ8HEW6/SAxq0nd63nYIY3j2pS3oNKwMNr7+fZKXb4ztRoBeLorozbTjTT4ynjtTYvSs2uxgDVRZGrEeBRo/lsBDO51VcGC8nNeiuvJj3s4GYmQj/X0QxWjnuHHQs=#2222.22#pc#hj7nKRFdvn4Y1WcXDztlvA==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"店铺活动","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"2222.22","priceMoney":"222222","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=995004731158</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWTVTsqr2badXB4jEUKtqdUqGoszBshQcy7iEjVTa48vgu","evaluates":[{"level":"1","levelText":"高","score":"4.8 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.8 ","title":"卖家服务","type":"serv"},{"level":"-1","levelText":"低","score":"4.8 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop181050038.taobao.com","sellerId":"2206385531048","sellerNick":"天猫国际香港直购","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000000553/O1CN011Y03oz1FxJmDFqEYb_!!6000000000553-2-shopmanager.png","shopId":"181050038","shopName":"天猫国际探物中国香港","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2206385531048"},"item":{"bottomIcons":[],"images":["https://gw.alicdn.com/imgextra/O1CN01jASp8z1Jc2BV0IOS8_!!2206385531048-0-tmg_sticker.jpg","https://gw.alicdn.com/imgextra/O1CN01yLXaov1Jc2BPRlq9v_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01KcR0v11Jc2BOyRn0O_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01rYohp11Jc2BPaU2T1_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01lA6JFG1Jc2BP5BtJ5_!!2206385531048.jpg"],"itemId":"995004731158","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=995004731158&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0995004731158!1834236855&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=995004731158","spuId":"0","title":"COACH蔲驰 Juliet 28 经典标志拉链开合 织物手提斜挎单肩包 大号","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"bizCode":"","ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"bizCode":"","hit":"true"},"rankVO":{"bizCode":"","hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"bizCode":"","hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"颜色分类","valueName":"深蓝色"}],"bizCode":"","enhanceParamList":[{"propertyName":"品牌","valueName":"COACH/蔻驰"}],"hit":"true"},"headAtmosphereBeltVO":{"actionParam":{"leftTime":"35293","timeActionText":"35293","timeActionType":"countdown"},"actionType":"timeAction","bgColors":["#FAEDE1","#FAE7D4"],"bizCode":"","eventParam":{"code":"dp-PCFenQi-*-online"},"hit":"true","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","text":"您有5元红包待使用","textColor":"#11192D","valid":"true"},"commentListVO":{"bizCode":"","ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"bizCode":"","hit":"true"},"buyParamVO":{"bizCode":"","ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"logisticsTime":"24:00前付款,承诺7天内送达,晚到必赔","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"297900","priceText":"2979","priceTitle":"优惠前"},"quantity":"20","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"222925","priceText":"2229.25","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"5975596872690":{"logisticsTime":"24:00前付款,承诺7天内送达,晚到必赔","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"297900","priceText":"2979","priceTitle":"优惠前"},"quantity":"20","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"222925","priceText":"2229.25","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"false","name":"规格","packProp":"false","pid":"-1","shouldGroup":"false","values":[{"comboPropertyValue":"false","name":"none","vid":"-1"}]},{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（1）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i2/2206385531048/O1CN01u9fLlC1Jc2BPFRFwA_!!2206385531048.jpg","name":"深蓝色","vid":"28340"}]}],"skus":[{"propPath":"-1:-1;1627207:28340","skuId":"5975596872690"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.hk/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"5979.00","auction_type":"b","x-uid":"","title":"COACH蔲驰 Juliet 28 经典标志拉链开合 织物手提斜挎单肩包 大号","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"天猫国际探物中国香港","photo_url":"i1/2206385531048/O1CN018Rlrcp1Jc2BV3MnVZ_!!2206385531048-0-tmg_sticker.jpg","current_price":"5979.00","region":"香港","seller_id":"699fe88c18ef92e25fdd2b3cb08aeb5a","etm":""},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"8"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop181050038.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://gw.alicdn.com/imgextra/O1CN01jASp8z1Jc2BV0IOS8_!!2206385531048-0-tmg_sticker.jpg","https://gw.alicdn.com/imgextra/O1CN01yLXaov1Jc2BPRlq9v_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01KcR0v11Jc2BOyRn0O_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01rYohp11Jc2BPaU2T1_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01lA6JFG1Jc2BP5BtJ5_!!2206385531048.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"联系客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop181050038.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进入店铺"},"type":"enter_shop"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"4.3","title":"宝贝质量"},{"score":"4.8","title":"物流速度"},{"score":"4.4","title":"服务保障"}],"labelList":[],"overallScore":"4.5","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000000553/O1CN011Y03oz1FxJmDFqEYb_!!6000000000553-2-shopmanager.png","shopName":"天猫国际探物中国香港","shopUrl":"//shop181050038.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"COACH蔲驰 Juliet 28 经典标志拉链开合 织物手提斜挎单肩包 大号"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033008186147.center.na620@33.8.186.147","traceId":"215041e017647325611598591e0ea1"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{5975596872690:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"2979.00\",\"price2\":\"2229.25\",\"price3\":\"5979.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"gsp_74475^24_300000^5_500\",\"utcDPre\":\"noProm\"}}","sellerId":"2206385531048","sid":"5975596872690","traceId":"215041e017647325611598591e0ea1","type":"99","umpCreateTime":"2025-12-03 11:29:21","version":"2.1","xobjectId":"995004731158"},"deliveryVO":{"addressId":"7689479327","agingDesc":"24:00前付款,承诺7天内送达,晚到必赔","agingDescColor":"#1F1F1F","agingDescIcon":"//gw.alicdn.com/imgextra/i1/O1CN01Fxu3xo1wMFV3UA1xl_!!6000000006293-2-tps-616-144.png","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"香港","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["红包减5元"]},{"text":["每件直降25%"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN017ZsqJR1wHCv11V4bP_!!6000000006282-2-tps-269-54.png","text":["0元入会，抢限量好券"]},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01rH1w2t1muuzylT92V_!!6000000005015-2-tps-268-53.png","text":["进补贴会场，抢真5折好货"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","退货宝","正品保障","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["COACH/蔻驰"],"title":"品牌"},{"text":["深蓝色"],"title":"颜色分类"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=699fe88c18ef92e25fdd2b3cb08aeb5a","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=995004731158","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"222925","priceText":"2229.25","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"297900","priceText":"2979","priceTitle":"初冬狂欢","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E6%82%A8%E6%89%80%E8%B4%AD%E4%B9%B0%E7%9A%84%E5%95%86%E5%93%81%E5%B7%B2%E5%8C%85%E5%90%AB%E8%B7%A8%E5%A2%83%E7%94%B5%E5%95%86%E8%BF%9B%E5%8F%A3%E7%A8%8E%EF%BC%8C%E4%B8%AA%E5%88%AB%E5%95%86%E5%93%81%E7%A8%8E%E8%B4%B9%E7%94%B1%E5%95%86%E5%AE%B6%E6%89%BF%E6%8B%85%EF%BC%8C%E6%82%A8%E6%97%A0%E9%9C%80%E5%86%8D%E8%A1%8C%E6%94%AF%E4%BB%98%E3%80%82%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%229.1%25%22%3A%22%E4%B8%AD%E5%9B%BD%E6%B5%B7%E5%85%B3%E8%A7%84%E5%AE%9A%EF%BC%8C%E4%B8%8D%E5%90%8C%E7%B1%BB%E7%9B%AE%E7%9A%84%E5%95%86%E5%93%81%E5%BE%81%E6%94%B6%E7%A8%8E%E7%8E%87%E4%B8%8D%E5%90%8C%EF%BC%8C%E8%AF%A5%E5%95%86%E5%93%81%E7%9A%84%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%8E%87%E4%B8%BA9.1%25%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E5%95%86%E5%93%81%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%28%E5%8C%85%E6%8B%AC%E8%BF%90%E8%B4%B9%29+*+%E7%A8%8E%E7%8E%87%22%3A%22%28%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%E7%94%B1%E6%B5%B7%E5%85%B3%E6%9C%80%E7%BB%88%E8%AE%A4%E5%AE%9A%29%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","5975596872690":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,15 +115,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,142 +584,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1019,20 +1035,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="51.875" customWidth="1"/>
-    <col min="3" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1045,74 +1060,145 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>357.08</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3">
+        <v>357.08</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>134.86</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C4">
+        <v>357.08</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5">
+        <v>357.08</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>134.86</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C6">
+        <v>357.08</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C7">
+        <v>357.08</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
-        <v>134.86</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C8">
+        <v>357.08</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>357.08</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://item.taobao.com/item.htm?id=857834525119"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://item.taobao.com/item.htm?id=880364206406"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://item.taobao.com/item.htm?id=981761597951"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://item.taobao.com/item.htm?id=765962701385"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://item.taobao.com/item.htm?id=889279775828"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://item.taobao.com/item.htm?id=989290874017"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://item.taobao.com/item.htm?id=919624931776"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://item.taobao.com/item.htm?id=995004731158"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/WebApplication1/WebApplication1/示例测试目录/莫莫/专题-淘宝数据收集.xlsx
+++ b/WebApplication1/WebApplication1/示例测试目录/莫莫/专题-淘宝数据收集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="17640" windowHeight="10410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>专题</t>
   </si>
@@ -92,6 +92,60 @@
   </si>
   <si>
     <t>{"seller":{"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWTVTsqr2badXB4jEUKtqdUqGoszBshQcy7iEjVTa48vgu","evaluates":[{"level":"1","levelText":"高","score":"4.8 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.8 ","title":"卖家服务","type":"serv"},{"level":"-1","levelText":"低","score":"4.8 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop181050038.taobao.com","sellerId":"2206385531048","sellerNick":"天猫国际香港直购","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000000553/O1CN011Y03oz1FxJmDFqEYb_!!6000000000553-2-shopmanager.png","shopId":"181050038","shopName":"天猫国际探物中国香港","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2206385531048"},"item":{"bottomIcons":[],"images":["https://gw.alicdn.com/imgextra/O1CN01jASp8z1Jc2BV0IOS8_!!2206385531048-0-tmg_sticker.jpg","https://gw.alicdn.com/imgextra/O1CN01yLXaov1Jc2BPRlq9v_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01KcR0v11Jc2BOyRn0O_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01rYohp11Jc2BPaU2T1_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01lA6JFG1Jc2BP5BtJ5_!!2206385531048.jpg"],"itemId":"995004731158","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=995004731158&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0995004731158!1834236855&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=995004731158","spuId":"0","title":"COACH蔲驰 Juliet 28 经典标志拉链开合 织物手提斜挎单肩包 大号","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"bizCode":"","ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"bizCode":"","hit":"true"},"rankVO":{"bizCode":"","hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"bizCode":"","hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"颜色分类","valueName":"深蓝色"}],"bizCode":"","enhanceParamList":[{"propertyName":"品牌","valueName":"COACH/蔻驰"}],"hit":"true"},"headAtmosphereBeltVO":{"actionParam":{"leftTime":"35293","timeActionText":"35293","timeActionType":"countdown"},"actionType":"timeAction","bgColors":["#FAEDE1","#FAE7D4"],"bizCode":"","eventParam":{"code":"dp-PCFenQi-*-online"},"hit":"true","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","text":"您有5元红包待使用","textColor":"#11192D","valid":"true"},"commentListVO":{"bizCode":"","ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"bizCode":"","hit":"true"},"buyParamVO":{"bizCode":"","ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"logisticsTime":"24:00前付款,承诺7天内送达,晚到必赔","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"297900","priceText":"2979","priceTitle":"优惠前"},"quantity":"20","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"222925","priceText":"2229.25","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"5975596872690":{"logisticsTime":"24:00前付款,承诺7天内送达,晚到必赔","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"297900","priceText":"2979","priceTitle":"优惠前"},"quantity":"20","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"222925","priceText":"2229.25","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"false","name":"规格","packProp":"false","pid":"-1","shouldGroup":"false","values":[{"comboPropertyValue":"false","name":"none","vid":"-1"}]},{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（1）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i2/2206385531048/O1CN01u9fLlC1Jc2BPFRFwA_!!2206385531048.jpg","name":"深蓝色","vid":"28340"}]}],"skus":[{"propPath":"-1:-1;1627207:28340","skuId":"5975596872690"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.hk/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"5979.00","auction_type":"b","x-uid":"","title":"COACH蔲驰 Juliet 28 经典标志拉链开合 织物手提斜挎单肩包 大号","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"天猫国际探物中国香港","photo_url":"i1/2206385531048/O1CN018Rlrcp1Jc2BV3MnVZ_!!2206385531048-0-tmg_sticker.jpg","current_price":"5979.00","region":"香港","seller_id":"699fe88c18ef92e25fdd2b3cb08aeb5a","etm":""},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"8"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop181050038.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://gw.alicdn.com/imgextra/O1CN01jASp8z1Jc2BV0IOS8_!!2206385531048-0-tmg_sticker.jpg","https://gw.alicdn.com/imgextra/O1CN01yLXaov1Jc2BPRlq9v_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01KcR0v11Jc2BOyRn0O_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01rYohp11Jc2BPaU2T1_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01lA6JFG1Jc2BP5BtJ5_!!2206385531048.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"联系客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop181050038.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进入店铺"},"type":"enter_shop"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"4.3","title":"宝贝质量"},{"score":"4.8","title":"物流速度"},{"score":"4.4","title":"服务保障"}],"labelList":[],"overallScore":"4.5","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000000553/O1CN011Y03oz1FxJmDFqEYb_!!6000000000553-2-shopmanager.png","shopName":"天猫国际探物中国香港","shopUrl":"//shop181050038.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"COACH蔲驰 Juliet 28 经典标志拉链开合 织物手提斜挎单肩包 大号"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033008186147.center.na620@33.8.186.147","traceId":"215041e017647325611598591e0ea1"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{5975596872690:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"2979.00\",\"price2\":\"2229.25\",\"price3\":\"5979.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"gsp_74475^24_300000^5_500\",\"utcDPre\":\"noProm\"}}","sellerId":"2206385531048","sid":"5975596872690","traceId":"215041e017647325611598591e0ea1","type":"99","umpCreateTime":"2025-12-03 11:29:21","version":"2.1","xobjectId":"995004731158"},"deliveryVO":{"addressId":"7689479327","agingDesc":"24:00前付款,承诺7天内送达,晚到必赔","agingDescColor":"#1F1F1F","agingDescIcon":"//gw.alicdn.com/imgextra/i1/O1CN01Fxu3xo1wMFV3UA1xl_!!6000000006293-2-tps-616-144.png","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"香港","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["红包减5元"]},{"text":["每件直降25%"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN017ZsqJR1wHCv11V4bP_!!6000000006282-2-tps-269-54.png","text":["0元入会，抢限量好券"]},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01rH1w2t1muuzylT92V_!!6000000005015-2-tps-268-53.png","text":["进补贴会场，抢真5折好货"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","退货宝","正品保障","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["COACH/蔻驰"],"title":"品牌"},{"text":["深蓝色"],"title":"颜色分类"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=699fe88c18ef92e25fdd2b3cb08aeb5a","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=995004731158","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"222925","priceText":"2229.25","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"297900","priceText":"2979","priceTitle":"初冬狂欢","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E6%82%A8%E6%89%80%E8%B4%AD%E4%B9%B0%E7%9A%84%E5%95%86%E5%93%81%E5%B7%B2%E5%8C%85%E5%90%AB%E8%B7%A8%E5%A2%83%E7%94%B5%E5%95%86%E8%BF%9B%E5%8F%A3%E7%A8%8E%EF%BC%8C%E4%B8%AA%E5%88%AB%E5%95%86%E5%93%81%E7%A8%8E%E8%B4%B9%E7%94%B1%E5%95%86%E5%AE%B6%E6%89%BF%E6%8B%85%EF%BC%8C%E6%82%A8%E6%97%A0%E9%9C%80%E5%86%8D%E8%A1%8C%E6%94%AF%E4%BB%98%E3%80%82%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%229.1%25%22%3A%22%E4%B8%AD%E5%9B%BD%E6%B5%B7%E5%85%B3%E8%A7%84%E5%AE%9A%EF%BC%8C%E4%B8%8D%E5%90%8C%E7%B1%BB%E7%9B%AE%E7%9A%84%E5%95%86%E5%93%81%E5%BE%81%E6%94%B6%E7%A8%8E%E7%8E%87%E4%B8%8D%E5%90%8C%EF%BC%8C%E8%AF%A5%E5%95%86%E5%93%81%E7%9A%84%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%8E%87%E4%B8%BA9.1%25%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E5%95%86%E5%93%81%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%28%E5%8C%85%E6%8B%AC%E8%BF%90%E8%B4%B9%29+*+%E7%A8%8E%E7%8E%87%22%3A%22%28%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%E7%94%B1%E6%B5%B7%E5%85%B3%E6%9C%80%E7%BB%88%E8%AE%A4%E5%AE%9A%29%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","5975596872690":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+  </si>
+  <si>
+    <t>Flashsale</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=990910984659</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"1","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWQeC2Vay1GfvYdA4nhPoJsZF4CAFgHrJTfznt5FRFwvSe","evaluates":[{"level":"1","levelText":"高","score":"5.0 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"5.0 ","title":"卖家服务","type":"serv"},{"level":"1","levelText":"高","score":"5.0 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop306692563.taobao.com","sellerId":"2219526418370","sellerNick":"吉象箱包海外专营店","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01yMHmey2BhW7mG9Ho6_!!2219526418370.jpg","shopId":"306692563","shopName":"吉象箱包海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2219526418370"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i1/2219526418370/O1CN018UvCIg2BhWAey0Igg_!!4611686018427383746-0-item_pic.jpg","https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01m4a9m82BhWAdnHaPu~crop,100,0,600,800~_!!2219526418370.jpg","https://img.alicdn.com/imgextra/i1/2219526418370/O1CN01d0xat52BhWAeb57sR~crop,100,0,600,800~_!!2219526418370.jpg","https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01q5wcz92BhWAeiudIX~crop,163,0,600,800~_!!2219526418370.jpg","https://img.alicdn.com/imgextra/i3/2219526418370/O1CN01XK4xmH2BhWAfOV5k8_!!2219526418370.jpg"],"itemId":"990910984659","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=990910984659&amp;descVersion=7.0&amp;type=1&amp;f=desc/icoss2762854105f77b025d7864d7e1&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=990910984659","spuId":"8727953300","title":"Louis Vuitton/路易威登2025新款女包Victorine钱包钱夹M80968","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"适用性别","valueName":"女"},{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"颜色分类","valueName":"黑色 杏色"}],"enhanceParamList":[{"propertyName":"货号","valueName":"M80968"},{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"适用场景","valueName":"日常"},{"propertyName":"上市年份季节","valueName":"2025年秋季"},{"propertyName":"里料材质","valueName":"牛皮"},{"propertyName":"适用人群","valueName":"通用"},{"propertyName":"是否商场同款","valueName":"否"},{"propertyName":"款式名称","valueName":"钱包"},{"propertyName":"风格","valueName":"休闲简约风"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"moreQuantity":"false","price":{"priceColorNew":"#FF5000","priceMoney":"685000","priceText":"6850"},"quantity":"100","quantityDisplayValue":"1","quantityText":"有货"},"5956697740227":{"moreQuantity":"false","price":{"priceColorNew":"#FF5000","priceMoney":"685000","priceText":"6850"},"quantity":"50","quantityDisplayValue":"1","quantityText":"有货"},"5956697740228":{"moreQuantity":"false","price":{"priceColorNew":"#FF5000","priceMoney":"685000","priceText":"6850"},"quantity":"50","quantityDisplayValue":"1","quantityText":"有货"}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（2）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i4/2219526418370/O1CN01CBMK812BhWAeB7cvr_!!2219526418370.jpg","name":"杏色","vid":"30155"},{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i4/2219526418370/O1CN01m4a9m82BhWAdnHaPu_!!2219526418370.jpg","name":"黑色","vid":"28341"}]}],"skus":[{"propPath":"1627207:30155","skuId":"5956697740227"},{"propPath":"1627207:28341","skuId":"5956697740228"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"6850.00","auction_type":"b","x-uid":"","title":"Louis Vuitton/路易威登2025新款女包Victorine钱包钱夹M80968","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"吉象箱包海外专营店","photo_url":"i4/2219526418370/O1CN015mraGH2BhWAf2knme_!!4611686018427383746-0-item_pic.jpg","current_price":"6850.00","region":"香港香港岛","seller_id":"3b63117b3b3b2991ace29443882b8e2f","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop306692563.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i4/2219526418370/O1CN015mraGH2BhWAf2knme_!!4611686018427383746-0-item_pic.jpg","https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01m4a9m82BhWAdnHaPu_!!2219526418370.jpg","https://img.alicdn.com/imgextra/i1/2219526418370/O1CN01d0xat52BhWAeb57sR_!!2219526418370.jpg","https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01q5wcz92BhWAeiudIX_!!2219526418370.jpg","https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01jb9Zni2BhWAe9xBdK_!!2219526418370.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop306692563.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"1","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"-","title":"宝贝质量"},{"score":"-","title":"物流速度"},{"score":"4.7","title":"服务保障"}],"labelList":[],"overallScore":"4.7","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01yMHmey2BhW7mG9Ho6_!!2219526418370.jpg","shopName":"吉象箱包海外专营店","shopUrl":"//shop306692563.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"Louis Vuitton/路易威登2025新款女包Victorine钱包钱夹M80968"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033007086055.center.na620@33.7.86.55","traceId":"213e09ba17648289678917882e1798"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{}","sellerId":"2219526418370","sid":"0","traceId":"213e09ba17648289678917882e1798","type":"99","umpCreateTime":"2025-12-04 14:16:08","version":"2.1","xobjectId":"990910984659"},"deliveryVO":{"addressId":"7689479327","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"意大利","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"立即购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["店铺券满10000减800"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","正品保障","品质严保","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["女"],"title":"适用性别"},{"text":["休闲简约风"],"title":"风格"},{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["M80968"],"title":"货号"},{"text":["钱包"],"title":"款式名称"},{"text":["牛皮"],"title":"里料材质"},{"text":["2025年秋季"],"title":"上市年份季节"},{"text":["否"],"title":"是否商场同款"},{"text":["通用"],"title":"适用人群"},{"text":["日常"],"title":"适用场景"},{"text":["黑色 杏色"],"title":"颜色分类"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=3b63117b3b3b2991ace29443882b8e2f","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=990910984659","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#FF5000","priceMoney":"685000","priceText":"6850","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","5956697740227":"进口税 价格已含税 ","5956697740228":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=697797565154</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"15","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWWPqBZ5UDVb84G2cdcpZKsFAr3AYdWBR1YBMuAiBsQ7x1","evaluates":[{"level":"1","levelText":"高","score":"4.8 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.8 ","title":"卖家服务","type":"serv"},{"level":"-1","levelText":"低","score":"4.8 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop305429533.taobao.com","sellerId":"2201196294013","sellerNick":"天猫国际欧洲直购","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i2/6000000000410/O1CN01zU7mpY1Etp9meUwqS_!!6000000000410-2-shopmanager.png","shopId":"305429533","shopName":"天猫国际探物欧洲","startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN01Z8Xo0V1vJCxVltJIB_!!6000000006151-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2201196294013"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01FrYcYp1fW0W6l9rou_!!2201196294013-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01dEwNLF1fW0HdVWUqG_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i1/2201196294013/O1CN01rzw88R1fW0HY23EUX_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i1/2201196294013/O1CN015Cxunc1fW0HcSuiNA_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01mquJLL1fW0Hd7V7Nn_!!2201196294013.jpg"],"itemId":"697797565154","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=697797565154&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0697797565154!13263687141&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=697797565154","spuId":"0","title":"1h可退 欧洲直邮LouisVuitton路易威登女士蓝色白色帆布棋盘格三","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"颜色分类","valueName":"蓝色/白色"}],"enhanceParamList":[{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"limit":"5","logisticsTime":"预售，付款后10天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"487600","priceText":"4876","priceTitle":"优惠前"},"quantity":"9","quantityDisplayValue":"1","quantityText":"即将售罄(限购5件)","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"427600","priceText":"4276","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"5112287798774":{"limit":"5","logisticsTime":"预售，付款后10天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"487600","priceText":"4876","priceTitle":"优惠前"},"quantity":"9","quantityDisplayValue":"1","quantityText":"即将售罄(限购5件)","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"427600","priceText":"4276","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"false","name":"规格","packProp":"false","pid":"-1","shouldGroup":"false","values":[{"comboPropertyValue":"false","name":"12x9.5x2.5CM","vid":"-1"}]},{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（1）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i4/2201196294013/O1CN01dEwNLF1fW0HdVWUqG_!!2201196294013.jpg","name":"蓝色/白色","vid":"56770038"}]}],"skus":[{"propPath":"-1:-1;1627207:56770038","skuId":"5112287798774"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.hk/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"11899.00","auction_type":"b","x-uid":"","title":"1h可退 欧洲直邮LouisVuitton路易威登女士蓝色白色帆布棋盘格三","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"天猫国际探物欧洲","photo_url":"i4/2201196294013/O1CN01FrYcYp1fW0W6l9rou_!!2201196294013-0-tmg_sticker_daily.jpg","current_price":"11899.00","region":"法国","seller_id":"7e76103382bdbe8c9a6e6bed3d428bb6","etm":""},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"8"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop305429533.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01FrYcYp1fW0W6l9rou_!!2201196294013-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01dEwNLF1fW0HdVWUqG_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i1/2201196294013/O1CN01rzw88R1fW0HY23EUX_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i1/2201196294013/O1CN015Cxunc1fW0HcSuiNA_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01mquJLL1fW0Hd7V7Nn_!!2201196294013.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop305429533.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"15","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"4.6","title":"宝贝质量"},{"score":"4.6","title":"物流速度"},{"score":"4.3","title":"服务保障"}],"labelList":[],"overallScore":"4.4","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i2/6000000000410/O1CN01zU7mpY1Etp9meUwqS_!!6000000000410-2-shopmanager.png","shopName":"天猫国际探物欧洲","shopUrl":"//shop305429533.taobao.com","starNum":"3.5","startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN01Z8Xo0V1vJCxVltJIB_!!6000000006151-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"1h可退 欧洲直邮LouisVuitton路易威登女士蓝色白色帆布棋盘格三"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033070159057.center.na620@33.70.159.57","traceId":"213e09ba17648290298034492e1798"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{5112287798774:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"4876.00\",\"price2\":\"4276.00\",\"price3\":\"11899.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"gsp_60000^24_702300\",\"utcDPre\":\"noProm\"}}","sellerId":"2201196294013","sid":"5112287798774","traceId":"213e09ba17648290298034492e1798","type":"99","umpCreateTime":"2025-12-04 14:17:09","version":"2.1","xobjectId":"697797565154"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预售，付款后10天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"法国","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["每件直降600元"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN017ZsqJR1wHCv11V4bP_!!6000000006282-2-tps-269-54.png","text":["0元入会，抢限量好券"]},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01rH1w2t1muuzylT92V_!!6000000005015-2-tps-268-53.png","text":["进补贴会场，抢真5折好货"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","退货宝","1小时内可退","正品保障","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["蓝色/白色"],"title":"颜色分类"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"action":"查看","actionLink":"https://rule.tmall.hk/rule/rule_detail?spm=a2o8rj.import_rules_portal.0.0.19da6f0clOc4T0&amp;id=2916","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["买家拍下【1小时内可退】标识的商品，付款成功后1小时内可申请退款，享受极速退。1小时后订单开始寻货，若因寻货失败交易将自动退款，寻货失败交易不支持缺货赔付。"],"title":"1小时内可退"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=7e76103382bdbe8c9a6e6bed3d428bb6","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=697797565154","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"427600","priceText":"4276","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"487600","priceText":"4876","priceTitle":"探物专享","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E6%82%A8%E6%89%80%E8%B4%AD%E4%B9%B0%E7%9A%84%E5%95%86%E5%93%81%E5%B7%B2%E5%8C%85%E5%90%AB%E8%B7%A8%E5%A2%83%E7%94%B5%E5%95%86%E8%BF%9B%E5%8F%A3%E7%A8%8E%EF%BC%8C%E4%B8%AA%E5%88%AB%E5%95%86%E5%93%81%E7%A8%8E%E8%B4%B9%E7%94%B1%E5%95%86%E5%AE%B6%E6%89%BF%E6%8B%85%EF%BC%8C%E6%82%A8%E6%97%A0%E9%9C%80%E5%86%8D%E8%A1%8C%E6%94%AF%E4%BB%98%E3%80%82%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%229.1%25%22%3A%22%E4%B8%AD%E5%9B%BD%E6%B5%B7%E5%85%B3%E8%A7%84%E5%AE%9A%EF%BC%8C%E4%B8%8D%E5%90%8C%E7%B1%BB%E7%9B%AE%E7%9A%84%E5%95%86%E5%93%81%E5%BE%81%E6%94%B6%E7%A8%8E%E7%8E%87%E4%B8%8D%E5%90%8C%EF%BC%8C%E8%AF%A5%E5%95%86%E5%93%81%E7%9A%84%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%8E%87%E4%B8%BA9.1%25%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E5%95%86%E5%93%81%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%28%E5%8C%85%E6%8B%AC%E8%BF%90%E8%B4%B9%29+*+%E7%A8%8E%E7%8E%87%22%3A%22%28%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%E7%94%B1%E6%B5%B7%E5%85%B3%E6%9C%80%E7%BB%88%E8%AE%A4%E5%AE%9A%29%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","5112287798774":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=697797209606</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"17","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWNgDpTJX75KSyYFuAQSBw4kCebDyyLTeCQmSiiyE7rqM7","evaluates":[{"level":"1","levelText":"高","score":"4.8 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.8 ","title":"卖家服务","type":"serv"},{"level":"-1","levelText":"低","score":"4.8 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop479456214.taobao.com","sellerId":"4066234693","sellerNick":"天猫国际海外直购","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000003216/O1CN01iQgDcv1ZcyWMeVMRD_!!6000000003216-2-shopmanager.png","shopId":"479456214","shopName":"天猫国际全球探物","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"4066234693"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i3/4066234693/O1CN01W8loKY1kXRqEXVonu_!!4066234693-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i1/4066234693/O1CN01JntE8f1kXRXsWAkah_!!4066234693.jpg","https://img.alicdn.com/imgextra/i4/4066234693/O1CN01UIZZ8U1kXRXsW9bvU_!!4066234693.jpg","https://img.alicdn.com/imgextra/i4/4066234693/O1CN015w32B21kXRXhlOpmp_!!4066234693.jpg","https://img.alicdn.com/imgextra/i1/4066234693/O1CN01tZgTro1kXRXrr7t2u_!!4066234693.jpg"],"itemId":"697797209606","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=697797209606&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0697797209606!13824807709&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=697797209606","spuId":"0","title":"自营1h可退 欧洲直邮LV/路易威登 女士棕色驼色老花帆布卡包","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"面料功能","valueName":"耐磨"},{"propertyName":"系列","valueName":"主题系列"},{"propertyName":"颜色分类","valueName":"棕色/驼色"}],"enhanceParamList":[{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"款式名称","valueName":"零钱包"},{"propertyName":"成色","valueName":"全新"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"limit":"5","logisticsTime":"预售，付款后10天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"237200","priceText":"2372","priceTitle":"优惠前"},"quantity":"10","quantityDisplayValue":"1","quantityText":"即将售罄(限购5件)","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"208400","priceText":"2084","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4944173365059":{"limit":"5","logisticsTime":"预售，付款后10天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"237200","priceText":"2372","priceTitle":"优惠前"},"quantity":"10","quantityDisplayValue":"1","quantityText":"即将售罄(限购5件)","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"208400","priceText":"2084","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"false","name":"规格","packProp":"false","pid":"-1","shouldGroup":"false","values":[{"comboPropertyValue":"false","name":"11x7x0.5CM","vid":"-1"}]},{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（1）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i3/4066234693/O1CN01NBHMi81kXRXo45omx_!!4066234693.jpg","name":"棕色/驼色","vid":"447218982"}]}],"skus":[{"propPath":"-1:-1;1627207:447218982","skuId":"4944173365059"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.hk/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"5599.00","auction_type":"b","x-uid":"","title":"自营1h可退 欧洲直邮LV/路易威登 女士棕色驼色老花帆布卡包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"天猫国际全球探物","photo_url":"i3/4066234693/O1CN01W8loKY1kXRqEXVonu_!!4066234693-0-tmg_sticker_daily.jpg","current_price":"5599.00","region":"法国","seller_id":"c52d0c6969556ae2b2e7b004865a7f14","etm":""},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"8"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop479456214.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/4066234693/O1CN01W8loKY1kXRqEXVonu_!!4066234693-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i1/4066234693/O1CN01JntE8f1kXRXsWAkah_!!4066234693.jpg","https://img.alicdn.com/imgextra/i4/4066234693/O1CN01UIZZ8U1kXRXsW9bvU_!!4066234693.jpg","https://img.alicdn.com/imgextra/i4/4066234693/O1CN015w32B21kXRXhlOpmp_!!4066234693.jpg","https://img.alicdn.com/imgextra/i1/4066234693/O1CN01tZgTro1kXRXrr7t2u_!!4066234693.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop479456214.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"17","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"4.6","title":"宝贝质量"},{"score":"4.8","title":"物流速度"},{"score":"4.4","title":"服务保障"}],"labelList":[],"overallScore":"4.4","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000003216/O1CN01iQgDcv1ZcyWMeVMRD_!!6000000003216-2-shopmanager.png","shopName":"天猫国际全球探物","shopUrl":"//shop479456214.taobao.com","starNum":"3.5"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"自营1h可退 欧洲直邮LV/路易威登 女士棕色驼色老花帆布卡包"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033007001061.center.na620@33.7.1.61","traceId":"213e09ba17648290776388388e1798"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{4944173365059:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"2372.00\",\"price2\":\"2084.00\",\"price3\":\"5599.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"gsp_28800^24_322700\",\"utcDPre\":\"noProm\"}}","sellerId":"4066234693","sid":"4944173365059","traceId":"213e09ba17648290776388388e1798","type":"99","umpCreateTime":"2025-12-04 14:17:57","version":"2.1","xobjectId":"697797209606"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预售，付款后10天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"法国","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["每件直降288元"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN017ZsqJR1wHCv11V4bP_!!6000000006282-2-tps-269-54.png","text":["0元入会，抢限量好券"]},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01rH1w2t1muuzylT92V_!!6000000005015-2-tps-268-53.png","text":["进补贴会场，抢真5折好货"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","退货宝","1小时内可退","正品保障","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["耐磨"],"title":"面料功能"},{"text":["零钱包"],"title":"款式名称"},{"text":["主题系列"],"title":"系列"},{"text":["全新"],"title":"成色"},{"text":["棕色/驼色"],"title":"颜色分类"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"action":"查看","actionLink":"https://rule.tmall.hk/rule/rule_detail?spm=a2o8rj.import_rules_portal.0.0.19da6f0clOc4T0&amp;id=2916","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["买家拍下【1小时内可退】标识的商品，付款成功后1小时内可申请退款，享受极速退。1小时后订单开始寻货，若因寻货失败交易将自动退款，寻货失败交易不支持缺货赔付。"],"title":"1小时内可退"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=c52d0c6969556ae2b2e7b004865a7f14","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=697797209606","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"208400","priceText":"2084","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"237200","priceText":"2372","priceTitle":"探物专享","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E6%82%A8%E6%89%80%E8%B4%AD%E4%B9%B0%E7%9A%84%E5%95%86%E5%93%81%E5%B7%B2%E5%8C%85%E5%90%AB%E8%B7%A8%E5%A2%83%E7%94%B5%E5%95%86%E8%BF%9B%E5%8F%A3%E7%A8%8E%EF%BC%8C%E4%B8%AA%E5%88%AB%E5%95%86%E5%93%81%E7%A8%8E%E8%B4%B9%E7%94%B1%E5%95%86%E5%AE%B6%E6%89%BF%E6%8B%85%EF%BC%8C%E6%82%A8%E6%97%A0%E9%9C%80%E5%86%8D%E8%A1%8C%E6%94%AF%E4%BB%98%E3%80%82%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%229.1%25%22%3A%22%E4%B8%AD%E5%9B%BD%E6%B5%B7%E5%85%B3%E8%A7%84%E5%AE%9A%EF%BC%8C%E4%B8%8D%E5%90%8C%E7%B1%BB%E7%9B%AE%E7%9A%84%E5%95%86%E5%93%81%E5%BE%81%E6%94%B6%E7%A8%8E%E7%8E%87%E4%B8%8D%E5%90%8C%EF%BC%8C%E8%AF%A5%E5%95%86%E5%93%81%E7%9A%84%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%8E%87%E4%B8%BA9.1%25%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E5%95%86%E5%93%81%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%28%E5%8C%85%E6%8B%AC%E8%BF%90%E8%B4%B9%29+*+%E7%A8%8E%E7%8E%87%22%3A%22%28%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%E7%94%B1%E6%B5%B7%E5%85%B3%E6%9C%80%E7%BB%88%E8%AE%A4%E5%AE%9A%29%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","4944173365059":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=677845075438</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWQE6aTU17DV9cV5csV7nv9LPgBUNFvu9dmENC4Wm1RghB","evaluates":[{"level":"1","levelText":"高","score":"4.9 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.9 ","title":"卖家服务","type":"serv"},{"level":"1","levelText":"高","score":"4.9 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop299368212.taobao.com","sellerId":"2206906647747","sellerNick":"墨犀海外专营店","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopId":"299368212","shopName":"墨犀海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2206906647747"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01qb8YFt276B5LCqSeF_!!0-item_pic.jpg","https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01jsfOCQ276B4R6XctZ_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN01hn9e0I276AzmJokRw_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01vnR8fg276AzcErAsM_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN01opxYtB276Azgz6PEa_!!2206906647747.jpg"],"itemId":"677845075438","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=677845075438&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0677845075438!12964579979&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=677845075438","spuId":"2531180212","title":"七夕LV路易威登2023新款女士TWIST 钱夹 M68309","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"皮质特征","valueName":"头层牛皮"},{"propertyName":"颜色分类","valueName":"黑色 象灰色 罂粟红 芭蕾粉"}],"enhanceParamList":[{"propertyName":"货号","valueName":"XD_4I2Vn_87dteo6d"},{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"上市年份季节","valueName":"2022年夏季"},{"propertyName":"质地","valueName":"牛皮"},{"propertyName":"款式","valueName":"长款钱包"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"itemApplyParams":"[{\"couponName\":\"满6000减100店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7841970673\",\"uuid\":\"32b67bdfe0be4485b76b9dfebf80340f\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"872000","priceText":"8720","priceTitle":"优惠前"},"quantity":"32","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"862000","priceText":"8620","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4866016449360":{"itemApplyParams":"[{\"couponName\":\"满6000减100店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7841970673\",\"uuid\":\"32b67bdfe0be4485b76b9dfebf80340f\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"872000","priceText":"8720","priceTitle":"优惠前"},"quantity":"8","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"862000","priceText":"8620","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4866016449361":{"itemApplyParams":"[{\"couponName\":\"满6000减100店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7841970673\",\"uuid\":\"32b67bdfe0be4485b76b9dfebf80340f\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"872000","priceText":"8720","priceTitle":"优惠前"},"quantity":"8","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"862000","priceText":"8620","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4866016449358":{"itemApplyParams":"[{\"couponName\":\"满6000减100店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7841970673\",\"uuid\":\"32b67bdfe0be4485b76b9dfebf80340f\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"872000","priceText":"8720","priceTitle":"优惠前"},"quantity":"8","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"862000","priceText":"8620","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4866016449359":{"itemApplyParams":"[{\"couponName\":\"满6000减100店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7841970673\",\"uuid\":\"32b67bdfe0be4485b76b9dfebf80340f\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"872000","priceText":"8720","priceTitle":"优惠前"},"quantity":"8","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"862000","priceText":"8620","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（4）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i4/2206906647747/O1CN015mlbbA276AzkskWlG_!!2206906647747.jpg","name":"黑色","vid":"28341"},{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i3/2206906647747/O1CN01FyQV6D276AzqPSFtS_!!2206906647747.jpg","name":"象灰色","vid":"506318162"},{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i1/2206906647747/O1CN01B1ovuj276AzrFWDMo_!!2206906647747.jpg","name":"罂粟红","vid":"45703821"},{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i1/2206906647747/O1CN01CdZ3bU276AzqPTnZr_!!2206906647747.jpg","name":"芭蕾粉","vid":"399030936"}]}],"skus":[{"propPath":"1627207:28341","skuId":"4866016449358"},{"propPath":"1627207:506318162","skuId":"4866016449359"},{"propPath":"1627207:45703821","skuId":"4866016449360"},{"propPath":"1627207:399030936","skuId":"4866016449361"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"8720.00","auction_type":"b","x-uid":"","title":"七夕LV路易威登2023新款女士TWIST 钱夹 M68309","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"墨犀海外专营店","photo_url":"i3/2206906647747/O1CN01qb8YFt276B5LCqSeF_!!0-item_pic.jpg","current_price":"8720.00","region":"北京","seller_id":"31934cb70841307c0cfe27c4cda03122","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01qb8YFt276B5LCqSeF_!!0-item_pic.jpg","https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01jsfOCQ276B4R6XctZ_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN01hn9e0I276AzmJokRw_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01vnR8fg276AzcErAsM_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN01opxYtB276Azgz6PEa_!!2206906647747.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"5.0","title":"宝贝质量"},{"score":"3.4","title":"物流速度"},{"score":"4.7","title":"服务保障"}],"labelList":[],"overallScore":"4.6","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopName":"墨犀海外专营店","shopUrl":"//shop299368212.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"七夕LV路易威登2023新款女士TWIST 钱夹 M68309"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033080054062.center.na610@33.80.54.62","traceId":"213e09ba17648291120123274e1798"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{}","sellerId":"2206906647747","sid":"0","traceId":"213e09ba17648291120123274e1798","type":"99","umpCreateTime":"2025-12-04 14:18:32","version":"2.1","xobjectId":"677845075438"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预计5天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"海外","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["3期免息"]},{"text":["店铺券满6000减100"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["30天价保","不支持7天无理由退货","正品保障","品质严保","证照公示","退货运费险"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["牛皮"],"title":"质地"},{"text":["头层牛皮"],"title":"皮质特征"},{"text":["黑色 象灰色 罂粟红 芭蕾粉"],"title":"颜色分类"},{"text":["2022年夏季"],"title":"上市年份季节"},{"text":["XD_4I2Vn_87dteo6d"],"title":"货号"},{"text":["长款钱包"],"title":"款式"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"action":"更多","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","text":["付款后30天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"30天价保"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=31934cb70841307c0cfe27c4cda03122","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商家赠送运费险，退换货选择上门取件，自动减免首重运费；若选择自寄，参照首重标准赔付，具体以“订单详情-退货运费险”页面为准。"],"title":"退货运费险"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=677845075438","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"862000","priceText":"8620","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"872000","priceText":"8720","priceTitle":"优惠前","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","4866016449360":"进口税 价格已含税 ","4866016449361":"进口税 价格已含税 ","4866016449358":"进口税 价格已含税 ","4866016449359":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=993281691950</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"17","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWNgDpTJX75KSyYFuAQSBw4kCebDyyLTeCQmSiiyE7rqM7","evaluates":[{"level":"1","levelText":"高","score":"4.8 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.8 ","title":"卖家服务","type":"serv"},{"level":"-1","levelText":"低","score":"4.8 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop479456214.taobao.com","sellerId":"4066234693","sellerNick":"天猫国际海外直购","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000003216/O1CN01iQgDcv1ZcyWMeVMRD_!!6000000003216-2-shopmanager.png","shopId":"479456214","shopName":"天猫国际全球探物","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"4066234693"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i3/4066234693/O1CN01M5VTcO1kXRqF1GTgO_!!4066234693-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i2/2201196294013/O1CN01sLhHGY1fW0W6eQMZZ_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i3/2201196294013/O1CN013JSMlZ1fW0W5u1tIy_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01HnCWaL1fW0W5EXQAb_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i1/2201196294013/O1CN01F8gQfL1fW0W5tzsZx_!!2201196294013.jpg"],"itemId":"993281691950","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=993281691950&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0993281691950!1209327331&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=993281691950","spuId":"0","title":"自营1h可退 欧洲直邮LV路易威登 男士海军蓝帆布老花图案卡包","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"1"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"颜色分类","valueName":"海军蓝"}],"enhanceParamList":[{"propertyName":"品牌","valueName":"LV/路易威登"},{"propertyName":"性别","valueName":"男"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"limit":"5","logisticsTime":"预售，付款后10天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"403600","priceText":"4036","priceTitle":"优惠前"},"quantity":"9","quantityDisplayValue":"1","quantityText":"即将售罄(限购5件)","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"354600","priceText":"3546","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"5972193185011":{"limit":"5","logisticsTime":"预售，付款后10天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"403600","priceText":"4036","priceTitle":"优惠前"},"quantity":"9","quantityDisplayValue":"1","quantityText":"即将售罄(限购5件)","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"354600","priceText":"3546","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"false","name":"规格","packProp":"false","pid":"-1","shouldGroup":"false","values":[{"comboPropertyValue":"false","name":"7.5x11.1x1cm","vid":"-1"}]},{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（1）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i2/2201196294013/O1CN01hjEPOz1fW0W6H4Ghf_!!2201196294013.jpg","name":"海军蓝","vid":"3861844"}]}],"skus":[{"propPath":"-1:-1;1627207:3861844","skuId":"5972193185011"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.hk/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"10099.00","auction_type":"b","x-uid":"","title":"自营1h可退 欧洲直邮LV路易威登 男士海军蓝帆布老花图案卡包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"天猫国际全球探物","photo_url":"i3/4066234693/O1CN01M5VTcO1kXRqF1GTgO_!!4066234693-0-tmg_sticker_daily.jpg","current_price":"10099.00","region":"法国","seller_id":"c52d0c6969556ae2b2e7b004865a7f14","etm":""},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"8"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop479456214.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/4066234693/O1CN01M5VTcO1kXRqF1GTgO_!!4066234693-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i2/2201196294013/O1CN01sLhHGY1fW0W6eQMZZ_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i3/2201196294013/O1CN013JSMlZ1fW0W5u1tIy_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01HnCWaL1fW0W5EXQAb_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i1/2201196294013/O1CN01F8gQfL1fW0W5tzsZx_!!2201196294013.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop479456214.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"17","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"4.6","title":"宝贝质量"},{"score":"4.8","title":"物流速度"},{"score":"4.4","title":"服务保障"}],"labelList":[],"overallScore":"4.4","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000003216/O1CN01iQgDcv1ZcyWMeVMRD_!!6000000003216-2-shopmanager.png","shopName":"天猫国际全球探物","shopUrl":"//shop479456214.taobao.com","starNum":"3.5"},"titleVO":{"salesDesc":"已售 1","subTitles":[],"title":{"title":"自营1h可退 欧洲直邮LV路易威登 男士海军蓝帆布老花图案卡包"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033008133248.center.na620@33.8.133.248","traceId":"2150493917648291550014608e19d9"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{5972193185011:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"4036.00\",\"price2\":\"3546.00\",\"price3\":\"10099.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"gsp_49000^24_606300\",\"utcDPre\":\"noProm\"}}","sellerId":"4066234693","sid":"5972193185011","traceId":"2150493917648291550014608e19d9","type":"99","umpCreateTime":"2025-12-04 14:19:15","version":"2.1","xobjectId":"993281691950"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预售，付款后10天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"法国","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["每件直降490元"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN017ZsqJR1wHCv11V4bP_!!6000000006282-2-tps-269-54.png","text":["0元入会，抢限量好券"]},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01rH1w2t1muuzylT92V_!!6000000005015-2-tps-268-53.png","text":["进补贴会场，抢真5折好货"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","退货宝","正品保障","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["LV/路易威登"],"title":"品牌"},{"text":["男"],"title":"性别"},{"text":["海军蓝"],"title":"颜色分类"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=c52d0c6969556ae2b2e7b004865a7f14","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=993281691950","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"354600","priceText":"3546","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"403600","priceText":"4036","priceTitle":"探物专享","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E6%82%A8%E6%89%80%E8%B4%AD%E4%B9%B0%E7%9A%84%E5%95%86%E5%93%81%E5%B7%B2%E5%8C%85%E5%90%AB%E8%B7%A8%E5%A2%83%E7%94%B5%E5%95%86%E8%BF%9B%E5%8F%A3%E7%A8%8E%EF%BC%8C%E4%B8%AA%E5%88%AB%E5%95%86%E5%93%81%E7%A8%8E%E8%B4%B9%E7%94%B1%E5%95%86%E5%AE%B6%E6%89%BF%E6%8B%85%EF%BC%8C%E6%82%A8%E6%97%A0%E9%9C%80%E5%86%8D%E8%A1%8C%E6%94%AF%E4%BB%98%E3%80%82%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%229.1%25%22%3A%22%E4%B8%AD%E5%9B%BD%E6%B5%B7%E5%85%B3%E8%A7%84%E5%AE%9A%EF%BC%8C%E4%B8%8D%E5%90%8C%E7%B1%BB%E7%9B%AE%E7%9A%84%E5%95%86%E5%93%81%E5%BE%81%E6%94%B6%E7%A8%8E%E7%8E%87%E4%B8%8D%E5%90%8C%EF%BC%8C%E8%AF%A5%E5%95%86%E5%93%81%E7%9A%84%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%8E%87%E4%B8%BA9.1%25%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E5%95%86%E5%93%81%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%28%E5%8C%85%E6%8B%AC%E8%BF%90%E8%B4%B9%29+*+%E7%A8%8E%E7%8E%87%22%3A%22%28%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%E7%94%B1%E6%B5%B7%E5%85%B3%E6%9C%80%E7%BB%88%E8%AE%A4%E5%AE%9A%29%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","5972193185011":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+  </si>
+  <si>
+    <t>FlashSale</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=950800064175</t>
+  </si>
+  <si>
+    <t>{"seller":{"sellerNick":"赴家族","shopIcon":"https://img.alicdn.com/imgextra/i2/1731080501/O1CN01s2EiUd1FZVTmcdBzD_!!1731080501.jpg","shopName":"奢店诚品","evaluates":[{"score":"5.0 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"5.0 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"5.0 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"userId":"1731080501","creditLevel":"11","sellerId":"1731080501","tagIcon":"//gtms04.alicdn.com/tps/i4/TB1YE.PHVXXXXb6XXXXSutbFXXX.jpg","pcShopUrl":"//shop261360798.taobao.com","creditLevelIcon":"//gw.alicdn.com/tfs/TB1HfjsiC_I8KJjy0FoXXaFnVXa-132-24.png","shopId":"261360798","sellerType":"C","encryptUid":"RAzN8HWLjRQMqFYGBsg8Z7vAdYV51GZZ7iK5nQv2ebuqs2VhUVo"},"item":{"vagueSellCount":"0","images":["https://img.alicdn.com/imgextra/i3/1731080501/O1CN01rfBHc51FZVWQZrDLA_!!1731080501.jpg","https://img.alicdn.com/imgextra/i2/1731080501/O1CN0115W34X1FZVV7oC3Ll_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01fBlIFR1FZVV6I4xUs_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01vfD6Mv1FZVV6I4l33_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01K8a6qq1FZVV5A7rmw_!!1731080501.png"],"title":"奢店 2025 新款 LV/路易威登 VICTORINE 幻彩短款两折钱包 M25649","itemId":"950800064175","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=950800064175","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=950800064175&amp;descVersion=7.0&amp;type=1&amp;f=desc/icoss142926708865be296519ba5722&amp;sellerType=C","bottomIcons":[],"spuId":"0","titleIcon":""},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"industryParamVO":{"hit":"true","enhanceParamList":[{"valueName":"植物花卉","propertyName":"图案"},{"valueName":"Louis Vuitton/路易威登","propertyName":"品牌"},{"valueName":"2025年夏季","propertyName":"上市年份季节"},{"valueName":"青年","propertyName":"适用对象"},{"valueName":"牛皮革","propertyName":"质地"},{"valueName":"车缝线","propertyName":"流行元素"},{"valueName":"日韩","propertyName":"风格"},{"valueName":"短款钱包","propertyName":"款式"},{"valueName":"横款","propertyName":"形状"}],"bizCode":"","basicParamList":[{"valueName":"其他","propertyName":"Louis Vuitton/路易威登系列"},{"valueName":"女","propertyName":"性别"}]},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"63495","timeActionText":"63495"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"false","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":1,"logisticsTime":"预售，30天内发货","itemApplyParams":"[{\"couponName\":\"满5000减200店铺优惠券\",\"sellerId\":1731080501,\"couponType\":1,\"templateCode\":\"7821036108\",\"uuid\":\"ead341ae7a1f4243bd7929ec623bff0f\"}]","price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"6810","priceMoney":"681000"},"quantityDisplayValue":1,"quantityText":"即将售罄","subPrice":{"priceColor":"#FFFFFF","priceTitle":"券后","priceColorNew":"#FF5000","priceBgColor":"#FF5000","priceTitleColor":"#FFFFFF","priceText":"6579.68","priceMoney":"657968"}}}},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[]},"pcTrade":{"buyNowUrl":"//buy.taobao.com/auction/buy_now.jhtml","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"7100.00","auction_type":"b","x-uid":"","title":"奢店 2025 新款 LV/路易威登 VICTORINE 幻彩短款两折钱包 M25649","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"奢店诚品","photo_url":"i3/1731080501/O1CN01rfBHc51FZVWQZrDLA_!!1731080501.jpg","current_price":"7100.00","region":"广东深圳","seller_id":"bcbc81f74bfab9a942d1b33d1c9c2150","etm":""},"tradeType":1},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.taobao.com","mallLogo":"https://gw.alicdn.com/imgextra/i1/O1CN01z163bz1lHF5yQ50CC_!!6000000004793-2-tps-172-108.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop261360798.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/1731080501/O1CN01rfBHc51FZVWQZrDLA_!!1731080501.jpg","https://img.alicdn.com/imgextra/i2/1731080501/O1CN0115W34X1FZVV7oC3Ll_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01fBlIFR1FZVV6I4xUs_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01vfD6Mv1FZVV6I4l33_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01K8a6qq1FZVV5A7rmw_!!1731080501.png"],"videos":[]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop261360798.taobao.com"}}]}],"shopIcon":"https://img.alicdn.com/imgextra/i2/1731080501/O1CN01s2EiUd1FZVTmcdBzD_!!1731080501.jpg","shopName":"奢店诚品","evaluates":[{"score":"-","title":"宝贝质量"},{"score":"-","title":"物流速度"},{"score":"-","title":"服务保障"}],"shopUrl":"//shop261360798.taobao.com","creditLevel":"11","creditLevelIcon":"//gtms04.alicdn.com/tps/i4/TB1wA25HpXXXXcwXVXXCBGNFFXX-24-24.png","sellerType":"C"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"奢店 2025 新款 LV/路易威登 VICTORINE 幻彩短款两折钱包 M25649"}},"debugVO":{"traceId":"77f9302017645859147757519e","host":"taodetail011128064174.center.na610@11.128.64.174"},"rateVO":{"totalCount":"0","favorableRate":{}},"umpPriceLogVO":{"umpCreateTime":"2025-12-01 18:45:15","traceId":"77f9302017645859147757519e","xObjectId":"950800064175","type":99,"bcType":"c","version":"2.1","sId":"0","bS":"businessScenario","sellerId":"1731080501","dUmpInvoke":0,"map":"{0:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"6810.00\",\"price2\":\"6579.68\",\"price3\":\"7100.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"41_29000^13_20000^12_2532^5_500\",\"utcDPre\":\"noProm\"}}"},"deliveryVO":{"agingDescColor":"#FF5000","freight":"快递: 免运费","deliveryFromAddr":"香港九龙","addressId":"7689479327","deliverToCity":"北京","areaId":110108,"deliveryToAddr":"北京 海淀 西三旗","agingDesc":"预售，30天内发货","deliveryToDistrict":"海淀"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[],"buyInMobile":"true","leftButtons":[]},"extensionInfoVO":{"infos":[{"title":"优惠","type":"DAILY_COUPON","items":[{"text":["红包减5元"]},{"text":["淘金币可抵340.50元"]},{"text":["店铺券满5000减200"]}]},{"title":"保障","type":"GUARANTEE","items":[{"text":["30天价保","不支持7天无理由退货","极速退款"]}]},{"title":"参数","type":"BASE_PROPS","items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["车缝线"],"title":"流行元素"},{"text":["日韩"],"title":"风格"},{"text":["短款钱包"],"title":"款式"},{"text":["2025年夏季"],"title":"上市年份季节"},{"text":["横款"],"title":"形状"},{"text":["牛皮革"],"title":"质地"},{"text":["青年"],"title":"适用对象"},{"text":["植物花卉"],"title":"图案"},{"text":["女"],"title":"性别"}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","action":"更多","text":["付款后30天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"30天价保","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退换"],"title":"不支持7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"}]}]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=950800064175","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=950800064175","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=950800064175&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=950800064175","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=950800064175&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"extraPrice":{"priceUnit":"￥","priceColor":"#FFFFFF","priceTitle":"券后","priceColorNew":"#FF5000","priceBgColor":"#FF5000","priceTitleColor":"#FFFFFF","priceText":"6579.68","priceMoney":"657968","hiddenPrice":"false"},"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"夏季热卖","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceText":"6810","priceMoney":"681000","hiddenPrice":"false"},"isNewStyle":"true"},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=980095910295</t>
+  </si>
+  <si>
+    <t>{"seller":{"sellerNick":"天猫国际时尚范","shopName":"天猫国际自营时尚范","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"-1","levelText":"低","title":"物流服务","type":"post"}],"pcShopUrl":"//shop294622145.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWWVN92mq9oQPK7Q7SqWkhnzoyhqZBzLgYn7ZWPyYuDt3P"},"item":{"images":["https://img.alicdn.com/imgextra/i2/2200657715182/O1CN01kO4Fzu1o9PVaYq0Oa_!!2200657715182-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i1/2200877014436/O1CN01oEnpIe1idk2U3ZLIp_!!2200877014436.jpg","https://img.alicdn.com/imgextra/i4/2200877014436/O1CN01dbE2Ef1idk2UPPnOG_!!2200877014436.jpg"],"title":"【自营】中古95新LV/路易威登钱包黑三彩PVC2008短款钱包","itemId":"980095910295","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=980095910295","spuId":"8682979549","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"61423","timeActionText":"61423"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":1,"logisticsTime":"承诺48小时内发货，晚发必赔","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#/Dn4puppytItQh9YDxvgH5P91Jqy2dHMRkE4FIOI7fZnOQoLsXGTCSR+3E7yOyFMYQqFwCjTx2G5BwEt0GNXFwBuPofAZlWKrcimgNb3EqpH/kV8kUE50xURcu5sjCyHusvgSBC/Frv6h1rQBapPrHiZtU0BeMNrmZI+MO1+KebfOFvozUicwha1npytJXafoMA87gwOM/SuzrCQ3ptpk9L2UXEHnBWmMiTtLK8WWGoQRk9KzbMgFpD7hsN83wECF43U3fw+ROXg6TQFoPApf9RwSzY0zu4jfw/I0KdD8oBbFy+4CJe6khO+flUloCsUGotZvPpQzuslCTIdsfmWEprBW/dG3NumRvKAAorvb43QzdHU83z9z9kljifWAPtB5kTPgQs9droi4CEEMA7V0CE5LE5/Q/aunDJCA2shZmaImkRkXZn+CAoJ5Yir7qxRyzc252itLWNCiJ/FWAlb760mm61Bjgr9SqQeC5IQiEkZL1nY8AorK+J+EMt4pwstnaaoDdTpdV0tOPHM61iQWknk9rOC824MA97rTKjV9tuHQHGlx/IzhIYbsUDOmDHEIKfbzmcVpeycF0KKmKOHzr9MATQkxCtjlkkVJ4FqvvJ0G9vfhTrezgsYDbiAYu1g+7w/KFV/hTRXYKN+HSvvYylmdQp0AOjdkqHwhdWZoGai5m244iTgxQRyFLD1O+lwqjabvS/pUlv2ONmQ9yv4PwjW4Q13t8LgM+4TTPjGzAnnaNRR1MHs4FPbtXqsCi8CkSLJABsH9XmKUWSlSqm9Y0x+4fKkRs7KksIVteJa8oyw8WIxVeK+68TcXIFZ/bgFPlnQzzkPa6VjpLKsPfg3zd2Pdx+oRLo2upfCfsdftBjgJ1IwichbMPHuuZMxJyfkn888PZt9MNX3DpZcy1il2SsDJNSFVmoPHRXMOM1s6XFFmY5xyDqx4FM34flR6kka6xtQ4fLbYVOzEgL+FBA07VBm8vIM3jepbelU+hvsElM0ts3swJKjK0yE/F9+Ck5XJ7EAOnn3GnF70bDFwkyKqkbPssa4UVZ5Cov9z2nbO2bQVXLWj6J4O+KrjMIebdowN0x/ptPLqYehf+9ey7cd1BRbUwC2xJDgbXLJMwc8ryUAeoMe1SZ2QL9+QOmdp2BT3sLggiWw2rZ6wSlLr729V5WH9i70JQesgIkNqyUBba7NSFFC2tKquEwJW5PuIgeCagTi5aU9/jIAz6dH+63nnXirRHv2p82AYsqbChA/WW9/GP+0MLbKs60DJh8aPMyWoqiFsa2094L0ZL92LuAbeveo3LmMVJQXPAShOAJdO8ttZIJaXjpPTyQYl21Dbca/#2222.22#pc#azcApSbLBvbQayH6pWIPuQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"quantityText":"即将售罄"},"6104371459051":{"moreQuantity":"false","quantity":1,"logisticsTime":"承诺48小时内发货，晚发必赔","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#rO5zjImX1ts3YNnGSYTRXLLna7XwfpMKcnhglxPhVb2Kj057PLsw9932Qz3zXbWznBcx4KmJzFibFfjkDqiWes5SoIYJnpBVju4FkcXWX27ZIoJgXfPptHM3VYkUBYfwSms6Bj+sOqVc942WIfcOk68K7ASNzTpvFCmvbrYui1OiGOrpnYpboEjMWZRXGQ0QE8MQanAiaCuPE4lclJGc/WuJIhB6rZBQiYosoYXK6sCJMhDGGEFI8ipLwY1uDCKE/0mdodpRMdUUH9J1J0AWuWOEV+7zW1IsMcw2FvXZns45JaFTyIODY+kbCjU4GxarI7c1dlUBdmFxnsWYtPeYe58fvRN1jK3ng+gH1YtkHMrvta7UvezUcHlRzIbaBKto7Kkmxwy0epbphQ1Vn2EfNXrlH7YKlhWgyYTklqfpGOTLUoNLUV7bFPQxJyhOWTTiopV7ggWKkm1ktMhqGDNssMzx0TDmQS4fPk1/NIU6epx+c3CBtG4JMn3c2ksxm3LMlEwih4R4FzhJkpynxtzG0Wn7EEuRShn8cEHqkueszWfiuYIPpvbXkTfOtrAJMB8x/wSoKAB3u6SAeTJkrJPg8JssiENBiNvtCaz7XTMToGJryNj5I2nfB9RvBAJ2Pj7H4SNPoTcxE7nZU1PAn/nQtGP+LDJSeWBIPs+J/xzhGYQ/ANSFwqcNkmlfcdM3zhHlcBVvPixu39KQQH9AdGwTYf1iWBwsQXII7FLJD28vSQqpE8MQxqVIML8gx5lmG27GM8fgM85J8uOOOJ2gm6cTdxU69S+0Q0gw8GP4pA3WYMDbnrxtRi7DUoD7JLunavNJJEYI6KKfhgFY24tg5QjvsvvbER/jH4C5Q+KfXKZJpSgggdUR5nyw/pUvjoIyRhW3+eRcDHU56xZV2XIl6+rpsorq6b/lk/t/ySoMZnVaPiEzX++e7/COH64ywr+bpGCsKJlWiPAApEGNeVda37hvYfgKTJ7bkvAfSysa06k+knN74dcUNbrpxymdxYJYYuprEuuCtwGy6/SwCySCAvE228G18fIrpS0Fhj4Qk/jehXZc7xYLhSDbbnRlYWlakIVy2UvKZTw5CUiPkX1N3r8STPs4KxJurK8Q2a4AzqmSWFMek5U+eNXb9GZHw8thooLKsPVgJD3SZoCs0I2LxyzNPNHBNXfM+Eh15n+XTNZubvxWzv41w4MKInStdz5V685vvoIWn7j5jiLihz270BzqzRcSfMlskflW77PSqZftGyvPfWnMASOGA6Wch17JFJjIFs8daM8KCp60HWiqFlkl0Q==#2222.22#pc#azcApSbLBvbQayH6pWIPuQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"quantityText":"即将售罄"}}},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:20584532","skuId":"6104371459051"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"20584532","name":"黑三彩"}],"hasImage":"false","pid":"1627207","name":"颜色分类","valueMap":{"20584532":{"comboPropertyValue":"false","vid":"20584532","name":"黑三彩"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"1819.00","auction_type":"b","x-uid":"","title":"【自营】中古95新LV/路易威登钱包黑三彩PVC2008短款钱包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"天猫国际自营时尚范","photo_url":"i2/2200657715182/O1CN01kO4Fzu1o9PVaYq0Oa_!!2200657715182-0-tmg_sticker_daily.jpg","current_price":"1819.00","region":"上海","seller_id":"46526e208dadd4ea07f0403b0d210860","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"gradientColor":["#7A3BE7","#B948F1"],"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜天猫国际"},"type":"search_in_tmallhk","events":[{"type":"onClick","fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"}}]},{"subTitle":{},"background":{"gradientColor":["#343434"],"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop294622145.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/2200657715182/O1CN01kO4Fzu1o9PVaYq0Oa_!!2200657715182-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i1/2200877014436/O1CN01oEnpIe1idk2U3ZLIp_!!2200877014436.jpg","https://img.alicdn.com/imgextra/i4/2200877014436/O1CN01dbE2Ef1idk2UPPnOG_!!2200877014436.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop294622145.taobao.com"}}]}],"overallScore":"4.6","shopIcon":"https://img.alicdn.com/imgextra/i2/6000000006602/O1CN016UeCPL1ydlbF07FTo_!!6000000006602-2-shopmanager.png","shopName":"天猫国际自营时尚范","evaluates":[{"score":"3.9","title":"宝贝质量"},{"score":"4.7","title":"物流速度"},{"score":"4.5","title":"服务保障"}],"shopUrl":"//shop294622145.taobao.com","labelList":[],"creditLevel":"16","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.0"},"titleVO":{"subTitles":[{"title":"可开发票"}],"title":{"title":"【自营】中古95新LV/路易威登钱包黑三彩PVC2008短款钱包"}},"debugVO":{"traceId":"ddcc178f17645879870351499e","host":"taodetail033008174047.center.na620@33.8.174.47"},"rateVO":{"totalCount":"0","favorableRate":{}},"deliveryVO":{"agingDescColor":"#1F1F1F","freight":"快递: 免运费","deliveryFromAddr":"直营指定","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"承诺48小时内发货，晚发必赔","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#9D6FFA","#8B24DC"],"alpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#FB49CE","#FF2B6C"],"alpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["7天价保","破损包退","7天无理由退换","退货宝","正品保障","极速退款"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","action":"更多","text":["付款后7天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"7天价保","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01niXnN41rrmdFJM1Wk_!!6000000005685-2-tps-88-88.png","text":["在签收之时起的72小时内(食品类如：零食、酒类、咖啡冲饮等需24小时内)，发现商品破损或商品破损导致漏液/变形等并提供有效凭证的，商家24小时内响应并提供退款服务"],"title":"破损包退"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["满足相应条件（剪标/使用/洗涤后不支持）时，消费者可申请 “7天无理由退换货”"],"title":"7天无理由退换"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["100%正品，假一赔十"],"title":"正品保障","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=980095910295","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=980095910295","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=980095910295&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=980095910295","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=980095910295&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#QblTnijDGTJ2I6p6MqBRb/oC8AvZN6jf/ea07OACJ/HJFqig/N3pmnNTytglut5iwxP9Q4JZ3BWPjfIJI6JQ98M6+Swu4vYox661xCwrJNdtG9KR48ZVfpw+guyjwv0gCqezcs9N9YgkmnQHoJFfoPGjJ4RYvmveV2zYh06eUIqCzfVvD99NLKQ2faA7ZKsKsEvnKm9YY8oVecIZhjVw3LH0w3sw3t6p9Je/bH0aQVFf1vO4SYp3G+oesGxhi6qVA2sU5IMQJMrTkaCSitORajSvUOOsdKMxzuLXTCXaKuBPv7U1QOyqmdoPsoymZnQ+52S5xbk83YLCvVjwlxzKEWNCCjmNgCuqqaEk0wjUXOOL92EFn5zvA5rd03+TwTsF8iCaB9FQOje2PEElYybC5sOsVAJIAKjaVXt4fie2061THgVquyRLNHTXBVHzYhijBMNALUXDcxcUw0e/RK5DI7fqqqyY1RlrPpCVMOS06mYyWn1zdXiYP2Tl4fDyEr0Dq+7PjgW9cQ3DFMS2i4ZXz2o+6RWQG5i1mhO2bdOt96mFTAIn0PU5JRFYVpCf+rWzixN+r6occMtwEOGiwj71Tzbbo4ssZBMKkGuWSXCdjmHkrosHciReVeR8crnnZuyjXDckMT+jPfLQQbiEKuHNl/bpFseozzkZy0UzLcXLe1n+K/RR7QC9xAjy0UknaHAGt9Ww2xER5/pl+zxzaz2cAitV3Sb8EOSyF5dQzHtynCUsCV3PaPeLf2zAamPU48wkaTzVfSxyvsacEjQ5xsQ/B6ELUHkiVgNSPLH98yGHnycuQ3sda+2xKm2wnfzLGdMPDIDwFqD2wWm/EZi/SQlM5l8iGlCg+Q8uuszaCmQPFNGqy43Qyu2a11umJ9SlfB9ihDpF4MAFFD1REDsOD926i9Yf+T7owLN9VXK7urjbvNPOrjbJJX5KaM++ctJoXIndCsZ86B748V19oBfUre9dyS7hksGbOxtvJbRjcy7uNSxblpYL9Le1riGdd+UkJP7ci1GWYjLQa40xoln1P0lYBa5Zymeqo8/9Idkv0ZJGDBVfPD/2vy7WieiJtLL+SRMhlx9spgvgRq+crumdwWmG3cZJg2Os5tDNGbkQFdQEVq/vxR8J7FDrnh/XnNl8uxJGMyAIh3C0WYDQUM81LRm1hCzB2KG0lPTrXkfshJNd9qqIXNk1bA6h+7ru5Ojfvci7jcd+p/6vbLwepEb59wrGnO+v/ZAQoHhbFENuA+438swC7IL915bVGNa7SyteBhRd#2222.22#pc#azcApSbLBvbQayH6pWIPuQ==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"品牌专享","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"2222.22","priceMoney":"222222","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=644724442369</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWQE6aTU17DV9cV5csV7nv9LPgBUNFvu9dmENC4Wm1RghB","evaluates":[{"level":"1","levelText":"高","score":"4.9 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.9 ","title":"卖家服务","type":"serv"},{"level":"1","levelText":"高","score":"4.9 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop299368212.taobao.com","sellerId":"2206906647747","sellerNick":"墨犀海外专营店","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopId":"299368212","shopName":"墨犀海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2206906647747"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i2/2206906647747/O1CN016RUhRn276B6BXfwwp_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01qL3U5K276B6GL1Kny_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN010vqSz5276B69Np7ux_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01NCbVQM276B6CMEvYn_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN016qII7y276B67AXgPi_!!2206906647747.jpg"],"itemId":"644724442369","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=644724442369&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0644724442369!11762255140&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=644724442369","spuId":"2024162644","title":"LV路易威登2023新款女士ROSALIE 零钱包 M41939","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"1"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"bizCode":"","ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"bizCode":"","hit":"true"},"rankVO":{"bizCode":"","hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"bizCode":"","hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"皮质特征","valueName":"牛皮"},{"propertyName":"颜色分类","valueName":"玫红色 芭蕾粉"},{"propertyName":"款式","valueName":"其他"}],"bizCode":"","enhanceParamList":[{"propertyName":"货号","valueName":"M41939"},{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"上市年份季节","valueName":"2021年春季"},{"propertyName":"质地","valueName":"牛皮"}],"hit":"true"},"headAtmosphereBeltVO":{"actionParam":{"leftTime":"61331","timeActionText":"61331","timeActionType":"countdown"},"actionType":"timeAction","bgColors":["#FAEDE1","#FAE7D4"],"bizCode":"","eventParam":{"code":"dp-PCFenQi-*-online"},"hit":"true","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","text":"您有5元红包待使用","textColor":"#11192D","valid":"true"},"commentListVO":{"bizCode":"","ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"bizCode":"","hit":"true"},"buyParamVO":{"bizCode":"","ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"itemApplyParams":"[{\"couponName\":\"满51减50店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7774605122\",\"uuid\":\"b5395b837dcc4241bb882a91feadfa56\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前"},"quantity":"12","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4642225309770":{"itemApplyParams":"[{\"couponName\":\"满51减50店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7774605122\",\"uuid\":\"b5395b837dcc4241bb882a91feadfa56\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前"},"quantity":"7","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4642225309771":{"itemApplyParams":"[{\"couponName\":\"满51减50店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7774605122\",\"uuid\":\"b5395b837dcc4241bb882a91feadfa56\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前"},"quantity":"5","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（2）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i2/2206906647747/O1CN01MI300x276B6CMDW6r_!!2206906647747.jpg","name":"玫红色","vid":"3594022"},{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i1/2206906647747/O1CN01CCUKbo276B6BXefrL_!!2206906647747.jpg","name":"芭蕾粉","vid":"399030936"}]}],"skus":[{"propPath":"1627207:3594022","skuId":"4642225309770"},{"propPath":"1627207:399030936","skuId":"4642225309771"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"3470.00","auction_type":"b","x-uid":"","title":"LV路易威登2023新款女士ROSALIE 零钱包 M41939","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"墨犀海外专营店","photo_url":"i2/2206906647747/O1CN0118yomo276B67AebCz_!!0-item_pic.jpg","current_price":"3470.00","region":"意大利","seller_id":"31934cb70841307c0cfe27c4cda03122","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/2206906647747/O1CN0118yomo276B67AebCz_!!0-item_pic.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01qL3U5K276B6GL1Kny_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN010vqSz5276B69Np7ux_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01NCbVQM276B6CMEvYn_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN016qII7y276B67AXgPi_!!2206906647747.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"联系客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进入店铺"},"type":"enter_shop"}],"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"5.0","title":"宝贝质量"},{"score":"3.4","title":"物流速度"},{"score":"4.7","title":"服务保障"}],"labelList":[],"overallScore":"4.6","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopName":"墨犀海外专营店","shopUrl":"//shop299368212.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 1","subTitles":[],"title":{"title":"LV路易威登2023新款女士ROSALIE 零钱包 M41939"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033008057036.center.na620@33.8.57.36","traceId":"21504a3417645880790613893e180e"},"rateVO":{"favorableRate":{},"totalCount":"1"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{}","sellerId":"2206906647747","sid":"0","traceId":"21504a3417645880790613893e180e","type":"99","umpCreateTime":"2025-12-01 19:21:19","version":"2.1","xobjectId":"644724442369"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预计5天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"意大利","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["红包减5元"]},{"text":["3期免息"]},{"text":["店铺券满51减50"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["30天价保","不支持7天无理由退货","正品保障","品质严保","证照公示","退货运费险"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["牛皮"],"title":"质地"},{"text":["牛皮"],"title":"皮质特征"},{"text":["玫红色 芭蕾粉"],"title":"颜色分类"},{"text":["2021年春季"],"title":"上市年份季节"},{"text":["M41939"],"title":"货号"},{"text":["其他"],"title":"款式"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"action":"更多","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","text":["付款后30天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"30天价保"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=31934cb70841307c0cfe27c4cda03122","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商家赠送运费险，退换货选择上门取件，自动减免首重运费；若选择自寄，参照首重标准赔付，具体以“订单详情-退货运费险”页面为准。"],"title":"退货运费险"}],"title":"保障","type":"GUARANTEE_NEW"}]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=644724442369","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","4642225309770":"进口税 价格已含税 ","4642225309771":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
   </si>
 </sst>
 </file>
@@ -104,7 +158,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,11 +175,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -584,7 +644,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -593,136 +653,153 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1035,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1174,19 +1251,116 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>134.86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>134.86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>134.86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>134.86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>134.86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>134.86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>134.86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>134.86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1198,6 +1372,14 @@
     <hyperlink ref="B7" r:id="rId6" display="https://item.taobao.com/item.htm?id=989290874017"/>
     <hyperlink ref="B8" r:id="rId7" display="https://item.taobao.com/item.htm?id=919624931776"/>
     <hyperlink ref="B9" r:id="rId8" display="https://item.taobao.com/item.htm?id=995004731158"/>
+    <hyperlink ref="B15" r:id="rId9" display="https://item.taobao.com/item.htm?id=950800064175"/>
+    <hyperlink ref="B16" r:id="rId10" display="https://item.taobao.com/item.htm?id=980095910295"/>
+    <hyperlink ref="B17" r:id="rId11" display="https://item.taobao.com/item.htm?id=644724442369"/>
+    <hyperlink ref="B10" r:id="rId12" display="https://item.taobao.com/item.htm?id=990910984659" tooltip="https://item.taobao.com/item.htm?id=990910984659"/>
+    <hyperlink ref="B11" r:id="rId13" display="https://item.taobao.com/item.htm?id=697797565154" tooltip="https://item.taobao.com/item.htm?id=697797565154"/>
+    <hyperlink ref="B12" r:id="rId14" display="https://item.taobao.com/item.htm?id=697797209606" tooltip="https://item.taobao.com/item.htm?id=697797209606"/>
+    <hyperlink ref="B13" r:id="rId15" display="https://item.taobao.com/item.htm?id=677845075438" tooltip="https://item.taobao.com/item.htm?id=677845075438"/>
+    <hyperlink ref="B14" r:id="rId16" display="https://item.taobao.com/item.htm?id=993281691950" tooltip="https://item.taobao.com/item.htm?id=993281691950"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/WebApplication1/WebApplication1/示例测试目录/莫莫/专题-淘宝数据收集.xlsx
+++ b/WebApplication1/WebApplication1/示例测试目录/莫莫/专题-淘宝数据收集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17640" windowHeight="10410"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>专题</t>
   </si>
@@ -43,109 +43,49 @@
     <t>原始数据</t>
   </si>
   <si>
-    <t>discountCobags</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=857834525119</t>
-  </si>
-  <si>
-    <t>{"seller":{"sellerNick":"coach蔻驰奥莱官方旗舰店","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","pcShopUrl":"//shop229342273.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWKZQJK1kg7h3kwyeRP56ZcUkDair9qMEqJ4oKWpKFzaC3"},"item":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01kH5qOw1Riv46aKIM4_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01gkcDaA1RiuyAOWDKH_!!4611686018427385906-0-item_pic.jpg","https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01GB5DGX1RiuyHDdL7u_!!2207644932146.jpg"],"title":"COACH/蔻驰奥莱女士经典标志老花MAGGIE小号托特包手提包斜挎包","itemId":"857834525119","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=857834525119","spuId":"7869454619","titleIcon":"//img.alicdn.com/tfs/TB1SMG7nnvI8KJjSspjXXcgjXXa-78-36.png?getAvatar=avatar"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35499","timeActionText":"35499"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"true","quantity":200,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#vuQ+/3LEUElOP6ZfoscBUPTJquEfzjOcOpTJvX/Ds9cXjwnBdk5gKuReGEPjxiOISV0DgAvPZUZ9clPnIgba9E8i/0V419Awy/aOO6m6OuvxVkrRMAE6suU3tKl0KD2GD0HcUuMIvu1bRZdfFIiH1lLrMdYcS9+RLSI6qN7edrBenR8RIKDr6LkbunfaNxGXNzTzp5AXRyyjCt3m9W7l0MsmmLRjFwjrvdNHJpd9ZqMwd/FIm6xsPvXauZ9qHPv35m0NkDqqWaBVcIElFkdFFIKhZB07bgiGCeBFiSY6kwyXTyorbQZMNYJ77o5q8zDLQ+ywR7J/1zDuEFfzWgejoT67j2J7sACS5Uo0q8rrEQaJLXN8SwMpFTuJygzEjqb8cizhcXck9fxktCKfBFJcHCrKmDgvozFBEtPNdP4MseFfhBbBtQA8HnJlrrl7AgpfQ+ANkeBKzX50S0Az21yZul+F3qwhVK2qMU9/C3CpbHrFdNvT0Z7ggwTMqVdJLWcAyyP22TOUidlTu70+4bCjPLtTjm4JQXZodiB04U3gHddnvgmEQqXGEwvS6bCILiWuavusS/TTyVBY3XQHmdvN3IfgDYg0AhJnL8YyFIjU4GluHCsRPNLhbWJhDor9cTKePYc+NSLRc3a4PdpgcSpICNf7Z+Wi7WsLDGtImoA8+h7xdHP/VKUK882z1+bfktv4IaEOTEYXbtSl+JaFqtMh34TcuCwNth/Yb/9LRU48fmQOPV5poe3mwM4cwG6W6DkMlFYoaPfZsRk5fZ1Q08yazT53WtT6eUdkxKnqS0caqm0i+q5ahyYti/fOSG4+a1OJOlPoejY9oMqtu9qB5mlq6GXBCi/I1yR4gdvXMCohmuQEFAUnPTf9asOQZBuemi7HTmh+K3vbZ8plJn/GMHynxVGsRGiGBXI/CFUfdStKophf+sXNBucIB9oCe+1XGGBBaFz+dSWxVq4G0k7bhpNO/D91FWRnI4qVodB+C3NncnrBENIk29SYZoaIQI56p2/MQycnptJUl8EgPtC11kIZ+Bs8l/cc7NmK/pNMlvOS26HovDCX/Cz40WFG/o4448SCAQBmcWUQXDo8pKlo9vQToP0mwBSspkvh5/ssbkJ0iSztRO43BUd2QkDpUHPxHos9Vm6J1PahouFSVY6KZDJ9/NAbiFHuw2BLKTUDx6lESdme6Pwc11RgBy93ubRxvLfsLUdv4rNBqJi9iHgW8N4PQLnz6L0PHJi8SAjnV4mbrOKz4gw9+t/MzVojbajqiHT8msDKSWMWSGefXbET1HfOqG3MprTuBMwZtBIIlFwo0caQtJ/P62s53kr4dvanHtnUYOYhBylQ8sQrCv3q8Tz9m/7b8OF8YDlu1o0KfWsPbODN+BBVQNsXL4ryN/wZXnJ1BSY2Fg65EdgjeeuV0CYwQwNvFWOG837Ili57MaB9gqk=#3333.33#pc#YLZ4wIKVDsWvokYTkjqWtg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"3333.33","priceMoney":"333333"},"quantityDisplayValue":1,"quantityText":"有货"},"5666151264237":{"moreQuantity":"true","quantity":200,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#DVWxXsqtivWchWdX1s9SLKamfNqhMh0YYG37Se0NqK0CJMYDq38Rh1fjco0K80OexhE67P6ne/hNXPJvwu/VhGXTohPK1hdg+o9o3ngp/PSyPsDrTJtrEqQSjT/MuRuXDslLH3zB4li7IXDoFRw1SRmp4lFtr4dCE+3rVwtc6s0wBKjvwjrUrJRPllyhgMFHSthcAvltyEWYuy9XDs3fvqcJvqcn/qZbIjI0JJ4HH8pBtW8YYrsbcrIH9ZZAArTbwdoQ6eoOwtjB5YSQbxykY/rtUDDlUA0DNffycqMISMd06UQR3RaP2SbLn4LtifT7jPsBXlFMwZ0na9bPNMj2eH3vjyNXOWLscc4T+wwkxazipb7nIz1yiDcxGfd8q9gWBh7zqirW2fkPD3xujXKEFsQvjKL7k3iV/AUzuaLtAU8vjSwsy87UN2HAllnNKMp0Z0r8huuIupDBrEyEkJ8bAeP/G3qCFm3+rD4rApXXh67EnYnAv8Ox4MmCkA+sU90dVsg97P9gM33FeUa6gcewrNnVQcsepTylp0XcSk6F3zoMfexLCctWGnBRDZa3fgB+Hga+DRu800/lH5U2lWVy20ydaIcrTrabW4LTThwuxjTv5g05Bat6GgSD2PNPqX+LF3V4XWWp0xE+cUxAsq3wwqY6Io2xw8IMxDm8OBzSkOsPp/iblJb9BMJwkjInzk/AV9CZTAgXfXMbiN9/rVYz1Gi9CbCfDuzl2RMkYfby4Wj9FzPNIvQi9JkFwLs5Zi/uHQjrnajXZuxpzclJAR/EK1Aow/a1bMFJjNy63n0JIHsE7743Uo6fy39T0ecBdN0KSFfm7wx7m9a2W5PYb/esFiLKjl5jyQBPicN2ShIdzc+9KEABFR3ccFgqL/701rUZHTEhOFcxtx9H4JrIGc3zGQmKOSM3uAuStgNbn1p1gQNkEunwn7OgFv8duBbYwugVd4gwBOCo1zVDNnnxiEFbGRT68vxLdlva0ncMokSuQZwha8SE7tPyUZW0AH73mdCNOakAWZ2siPpr+KX+Q/8OKQ9qKSs87ZUwXZiNUytwUFxzZwSXN8V18/iOINQdRaixhytOq+GQUFsLPwpB5kq7m9YEpAsyFxSbeM4xcSywkiJmpVyDZP8WrIYMbrPrCnPR0ZNuj/Ign5wZ4xV1N/7lWZcxGUfN9Rse+Y7LqAsvrHrpLDPO+DtidLboRksN+lPztKlhxAWW7hy47AzhyQIfwHIKuNpZduHYNMNHCQHv2eqNzsq/wq/6RpLgOdstzc+MYYKE6lUNL3YHLFJPnZdoNnbzvs7hC0aGsxASaNNyF//p08/itOKM+Miv11j33yreJwSEeNUT4s9JD6fON755wlMqOSitjjT895M3tnLpTWQ=#3333.33#pc#YLZ4wIKVDsWvokYTkjqWtg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"3333.33","priceMoney":"333333"},"cartParam":{"addCartCheck":"true"},"quantityDisplayValue":1,"quantityText":"有货"},"5666151264238":{"moreQuantity":"true","quantity":200,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#t4mF4xNsLez4VMDCC7yL1iNWUN2Xh/4A6Lmo1fItaJkwgLgR+Du6oXWhoCf1m/nd2S0FPT1iV/nk8bAvUlfwvoWpDnNGacNqVWCXQotlaSqK/FMmDg5ZbMYZNeFhqrHyP2jnYKIMcOVToJnE1Y8CntGmaRqI9AXSG7fI2MYFWjzwz8e2LgMaXpLXAB/Kj3WY5yvKwAd75qg28ymN6fvrPKSPMDUpVCAHuLWSVcWMGU/KTarvYRtsLcAZbAv3WEuEkRWryyQhw10SU14EhYYVo/V3jwKX9dqZu4vZZk2/nMoI6L+i/YhlF2UhGnOU0fT7oGqwqTA4vUJvdzvgxcPtdhznOCGMEUoAXeqnUqjK6XiuKPGMCe3N/xSMDIAH8jYI+A5AeCB7/WvVX2xrkVAaq4Z8jKhvkh9YDOWRmhJztYMu6PKGPXFRM4OMGlPdZRP9+DALnb80bcv3jounaEDAuIjcadKPPLRozG9ujy6sYN4vAIUdoqjOWCkrtfEA2tH65DB3BRQRD0C9mFcNio5dxuSFfwvRJBHJ7eAh870JoIl7B/SUONYgSzjuoChC/M/3/FNdZKc7l9KPyjtOqRztIhGj/E3ipgWGjyd+XovV5kpYwSFVnKMZv3Xe9RcaLolTX82OYdHhCKBajjrHV81XB5Fm9CCj0Smw8mTbIDIgFIZLeaJvGoeR9uO5uMTF8tTcN8KWFnOZmltMMovkmXTHd3aqMfTrYT56WsRJO5e2ClYOGTNG3eXu5x2TjCO7+wjEjOenM/+xVctC6z5Tpk5E7DVTF5vs3BlChAndmCyI3PDQ0xz7sdWA1s+WNeLxknHC7BbtLIcUqNPVxou2TfmnmPN1nKTXKKpU9vR6Hzi9MrTtVUuj/ltuz6FpdN12Kls2h0riWcUAzdM9AK9bHoBuo8cHrqyjVBiKr13tVZYOAAU+jgW15qqIVgxK2C+IbI4CSlHfbPI7rSLkuE2LqKMxVJguBfN/iSt+6zYKP9VzRboPU2wMeOQs7NAPXzlEWVsWTbb1SermeOYukk55rGY+4yePzYE5X5iAj8GWeKhXo1v0jbhCkaCxqD5YXR5dxFq55OBWXYeWIKZJ069i+fh752vg08lPu7SuSuqQ7zY/on04DxtVkSRtCcctoThdRTBtm95IZCYQh3mtjq+0w1EF0KT9wQ9wRSJblY+394sVFqLV7mtCAesDJMWiMLzhbtgM8TZqvTMY/KaTy4FNGbyEKr2NU3wyqpQt7oVncBcTGlcuD55blauVxe81cqzvHJwOxoiBx/qbgVbEygn0DSXevG068BsLRlTJZO5V6F2SAD5hS/R563mPlXhenxmU5unG1x66bZFvWwOG574DH131k5v+Zukh9qX/8ALQVNO5RgXKsSv0vY4sNXnllopW7Ggvsj61tPruu+hu0UfH4q7YAQ==#3333.33#pc#YLZ4wIKVDsWvokYTkjqWtg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"3333.33","priceMoney":"333333"},"cartParam":{"addCartCheck":"true"},"quantityDisplayValue":1,"quantityText":"有货"}}},"services":{},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:35457490002","skuId":"5666151264238"},{"propPath":"1627207:35457490001","skuId":"5666151264237"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"35457490002","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01CX4oA81RiuyFfKaXP_!!2207644932146.jpg","name":"IM/沙黄色/棕黄色"},{"comboPropertyValue":"false","vid":"35457490001","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01N2YfiE1RiuyGmqQVN_!!2207644932146.jpg","name":"IM/胡桃木色/棕黄色"}],"hasImage":"true","pid":"1627207","nameDesc":"（2）","name":"颜色分类","valueMap":{"35457490002":{"comboPropertyValue":"false","vid":"35457490002","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01CX4oA81RiuyFfKaXP_!!2207644932146.jpg","name":"IM/沙黄色/棕黄色"},"35457490001":{"comboPropertyValue":"false","vid":"35457490001","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01N2YfiE1RiuyGmqQVN_!!2207644932146.jpg","name":"IM/胡桃木色/棕黄色"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"6900.00","auction_type":"b","x-uid":"","title":"COACH/蔻驰奥莱女士经典标志老花MAGGIE小号托特包手提包斜挎包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"COACH蔻驰奥莱官方旗舰店","photo_url":"i3/2207644932146/O1CN01kH5qOw1Riv46aKIM4_!!2207644932146.jpg","current_price":"6900.00","region":"江苏苏州","seller_id":"4f1e5faea51a5939932b2d01ad2af408","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.tmall.com","mallLogo":"https://img.alicdn.com/imgextra/i2/O1CN01a69z6z1hJklCkBqOU_!!6000000004257-2-tps-174-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop229342273.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01kH5qOw1Riv46aKIM4_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01gkcDaA1RiuyAOWDKH_!!4611686018427385906-0-item_pic.jpg","https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01GB5DGX1RiuyHDdL7u_!!2207644932146.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop229342273.taobao.com"}}]}],"overallScore":"4.7","shopIcon":"//img.alicdn.com/imgextra//i1/2207644932146/O1CN015nqRsv1Riuf1RtBeq_!!2207644932146.jpg","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.4","title":"宝贝质量"},{"score":"5.0","title":"物流速度"},{"score":"4.6","title":"服务保障"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","shopUrl":"//shop229342273.taobao.com","labelList":[{"contentDesc":"88VIP好评率96%"},{"contentDesc":"平均10小时发货"},{"contentDesc":"平均6小时退款"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.5"},"titleVO":{"subTitles":[{"title":"可开发票"},{"titleDesc":"如需定制服务，请至手淘下单","titleAfterIcon":"icon-taobaoxinxishuoming","title":"定制服务"}],"title":{"title":"COACH/蔻驰奥莱女士经典标志老花MAGGIE小号托特包手提包斜挎包"}},"debugVO":{"traceId":"7d27672117647323550995325e","host":"taodetail011187008221.center.na610@11.187.8.221"},"rateVO":{"keywords":[{"labelId":"300151007-11","count":"11","title":"形状很好看","status":"1"},{"labelId":"300151001-11","count":"2","title":"喜欢图片颜色","status":"1"},{"labelId":"300131000-11","count":"5","title":"性价比很高","status":"1"},{"labelId":"300041008-11","count":"2","title":"客服态度很好","status":"1"},{"labelId":"300021037-11","count":"2","title":"款式非常时尚","status":"1"},{"labelId":"300051000-11","count":"3","title":"尺寸大小刚好","status":"1"},{"labelId":"300051002-11","count":"2","title":"房间空间很大","status":"1"},{"labelId":"300021029-11","count":"4","title":"质感很好","status":"1"}],"totalCount":"100+","favorableRate":{},"group":{"items":[{"dateTime":"2025-10-11","highLightPositions":[{"start":"22","end":"28"}],"memberLevel":"10","createTimeInterval":"1个月前","media":[{"imageUrl":"//gw.alicdn.com/bao/uploaded/i1/O1CN01zBLCRL2IkuPRB8WwZ_!!4611686018427380989-0-rate.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i4/O1CN01JDxhbj2IkuPRXNcwM_!!4611686018427380989-0-rate.jpg","type":"image"}],"userName":"^O^睿★雪","headPic":"//sns.m.taobao.com/avatar/sns/user/flag/sns_logo?type=taobao&amp;kn=wwc_tb_11&amp;bizCode=taobao_avatar&amp;userFlag=RAzN83923zmuym9sArAaE2wBXbA23mX1cB3zvzecKgizMfyNScn6368zgqXpcBErSFMHuy4ga4LeYmDqkchtN85YM79ZHsq8wySXFrBUNUVAT9nnBycngtSUPaY9","content":"很满意，我本就爱蔻驰包，轻奢，款式也高大上，价格也能接受，曾经也背了上万多包包，都差不多的","mediaSize":"2","feedId":"1286020708014","blackCardUserUrl":"//img.alicdn.com/tfs/TB1wrG1elv0gK0jSZKbXXbK2FXa-225-96.png","skuInfo":"颜色分类:IM/胡桃木色/棕黄色","tmallMemberLevel":"3"},{"dateTime":"2025-10-13","highLightPositions":[{"start":"61","end":"70"}],"memberLevel":"6","createTimeInterval":"1个月前","media":[{"imageUrl":"//gw.alicdn.com/bao/uploaded/i3/O1CN0136sy0F1TccqJ7uWTI_!!4611686018427387523-0-tbbala.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i2/O1CN01eVoaqq1TccqJaZB4O_!!4611686018427387523-0-tbbala.jpg","type":"image"}],"userName":"隋朝女皇","headPic":"//sns.m.taobao.com/avatar/sns/user/flag/sns_logo?type=taobao&amp;kn=wwc_tb_11&amp;bizCode=taobao_avatar&amp;userFlag=RAzN83923zmuym9sArAaE2wBXbA23mX1cB3zuybuXoLMj2ZmQFoQ4TsxT9uWUuWyLbw2DSrcRqGERtmmgvT9tqRH4oUo2pgYy7kDJc1gfcedvnVBrUG5ziw14RxM","content":"尺寸属于小号，其实很大空间， 能满足职场和日常工作需要！长肩带165净身高表示很合适！手提带子也方便，常常需要跨在胳膊上。 奥莱款性价比很高，耐磨！不会很娇贵，不怕到处放","mediaSize":"2","feedId":"1286280359365","blackCardUserUrl":"//img.alicdn.com/tfs/TB1wrG1elv0gK0jSZKbXXbK2FXa-225-96.png","skuInfo":"颜色分类:IM/沙黄色/棕黄色","tmallMemberLevel":"2"}]}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"江苏苏州","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"48小时内发货，预计后天送达","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["奢礼定制","假一赔四","极速退款","7天无理由退换"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["由品牌官方提供的礼品镌刻、礼品包装、礼品卡片等奢品定制服务"],"title":"奢礼定制"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["若消费者收到商品非“正品”，商家需额外向消费者支付商品实际成交金额的四倍作为赔偿"],"title":"假一赔四","actionLink":"https://rulechannel.tmall.com/tmall?type=detail&amp;ruleId=4400&amp;cId=391#/rule/detail?ruleId=4400&amp;cId=391"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["支持7天无理由退换(定制下单除外)"],"title":"7天无理由退换"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=857834525119","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=857834525119","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=857834525119&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=857834525119","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=857834525119&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#1hR/RsqT7oUnbyTQ9O/hVcycAcFkMdCDWl3sWEFW2lJez4Kl1PAuQ/djEgxUpExDfAx4jPNPrrjjglLm8nbK5hR/dB8vmN1Y2+bLJRZw15z0jUphxxRmb4VloOqM53Ox48NljIUH02o3is5ZQa9VLDaZZpJu1imghWAsEenc/goQol/Y4qPxwa2cmGzLy/hILoPoACoZC0M9PjdMqPgnLObo7O85cjo1k5U20g0VVc2dgu+5SOVc8i/JZlid9zNp4XTn7IQ4haEI4UBIvH/w/n4WymSggFEkYsXMR2Cq7YRhq9otS9rj5lqbAnhmVtRKDiMRy9FHf+WNVBaXHVunfp9mr6f3Br56WhPUSHQFEbfqlbLqEg8AlkRKC5B1uC4mH2EAm+ifa/wuJn0/dKA0KHPBhH5DeA5tKbQIpY5A3AHg5IWUrV9Lgwtfgs4UXQxpzxLWM1iM7mJOS6mEH0fqcOXxxRvflSWDi/rQoZFsbTLP7yD9AOMOUdPrv9sJeKxH/NfUrwnupwOjLiuqX1zLPJnZRsa8abGh+qwJYqaC6QSmKSxfas2o5l3lcU3JKT3B7LThLXf8DCSIB9nmG/10NLoBL5OOVKtoA8e2yZc127BnDgqyVSuhlNLx9rOYDXGTzMZgsKgNNYDzcSxi4ODmsYRdwGAaTikRn3ggSTvuTDh7K8WQBzWhm1PPCZmThjwarBXoctGgKvtzO0GD6r9bdWPUhM0F2LHFP4n5HYnYVRwNswDlHSwK1qR+596Tmb3moIsImvQ1kLcJ60KJQ1WDuDE5Ok3AnxUvWJr//LqGOnu6S5J2qbzLUDVlL6v4gk/3EfGVAxE66/3pQNXtdhb6TWFs34bkEfU8xzakIxniGMaVmNxn1J0RprNLJvnrVBEygm9mCPvKZfr8aBl1YuPk6XfbSFXI0Nox3tDXf+UYQ+mktw5O4KwZhbJc7V5Q8ZuMOCkqdap2FNRum1Ulzj/bbjsVRUls1Yo4XgwEfx7lUydBje7tBlv5+GRBeh9LN8piAV2z8TQ0fGDxrjuO24rSuei5UtcUJyJUjY4ThLrhm1ahf9cBomQB4yqYuwn8rlZ8mJUF03DC8+TZIUKcTflHS2ZT1p8eGuSBV6bdCZfBOoMoWwjklAdNkNnFhJ8g3jTg43ADn19o/d3TmYJ1jJ1dBJKhRoycXuCa3h4HwC6E1iPCpNF+4HEtQNenUDz1QgNhAdnPW4iZayb2y0jCdSXY8dYz7kNRODzxkRnYQl0YH7DzTqfuPnChVhzciWHnY6eyhss6YSwC7df27dQ5kfNjcDq7u/gBHFhnhb8KzzEr+j20aWdmEC6NxYWzcQR6prg0nA9HrucOCsH32zFaK/jE44M/SkGO5vaaG0hRjEqUyX9HgVAI9ktlE3mrIjyXlaLSJwPzkrLpLHhPnmyxf3koAg==#3333.33#pc#YLZ4wIKVDsWvokYTkjqWtg==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"店铺活动","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"3333.33","priceMoney":"333333","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=880364206406</t>
-  </si>
-  <si>
-    <t>{"seller":{"sellerNick":"coach蔻驰奥莱官方旗舰店","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","pcShopUrl":"//shop229342273.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWKZQJK1kg7h3kwyeRP56ZcUkDair9qMEqJ4oKWpKFzaC3"},"item":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01dK0wvy1Riv46TS1Qx_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01J2n9O21RiuzETdV7z_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01z31hrZ1RiuzHG4Pix_!!2207644932146.jpg"],"title":"COACH/蔻驰奥莱女士IDOL 23号简约斜挎包单肩包通勤","itemId":"880364206406","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=880364206406","spuId":"5993808085","titleIcon":"//img.alicdn.com/tfs/TB1SMG7nnvI8KJjSspjXXcgjXXa-78-36.png?getAvatar=avatar"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35462","timeActionText":"35462"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":65,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#lhb9NIik+sQUoHYLWs5sn7ncynYsAV9mMqDVaQlJ38GADwfyt6UNErxs/Houg0QgUVWQV9+SwOQ73Uz0mjMPw5nBfnm3ljgOFqHumHrPFDm6ZxXUJeVMDbfqtvJspgU/Op+8WC11atxjl34IBhFQ6ebBVPI8tqqrA0+VNeFNQYkmc/Rf6+Rlpg/KboYqqTtymwXjYCEuyESMGbULFRz3/GnOMv3RyFDWEjbT4bFgzx7aRzryMZen+MJt9tFDxmWquNlzJHL206q3D8bZTJyAgbsz801Ch0vLJREaDySkfJ8lWgW4X1vQaKhVOq6GJKV84RRvMayigEnUHCrIs7k7ax90d8Pjl+Myvr7xVd7Nbv/D5HIwpX1Z0+11+JPjboKmYyyBeDxLCz793gpbgLD/5VfmtGelOIX6POC0PUALbNaOqj1/qpNAZi6afcZTV7M5H5ma6oa1kbeIgagFGinuyWD7BEKcR5g6xPGb9+KZDZ6661UvQPsoqjEsfdYTQlWJKafEFcSf+ZpnN9jLBvuTQQDSaRs8andrs7kOE0BBtMJ6xL6g++7DaDeTnVl2oRNsDgMjiAqxjeyF4MdRxXlhSkMk5EpSlE3or7uRCJeeOaBd5D/7Nf1kLk1j5reRrgE0dfi8qXlplqK9FqbwZs7Xlqj1q88eHm2xR+fPW1GCZ7Y/1fdfyu5BjF9cuh2JzSa3wIWDJenyhNOoXzKjAwMF7L/0frJ1ggMedsLqZHlgFM/NTscxQzp5e/M/vi5BILjZUipRo/AdOpChWNHS69u4y8a5PumwDouhZr/dbL5SptPXFgWooyaGVHalJjtrh1XCl1QJ8O322/dLVQue7p3A7FTpdoQg1H/gvl1Vd8Al01EJV57Q34xzA6c6MfwUA4fX/6X97kdbINbF30TYgwlikm0RvhCBHwoyzuScP83JRCpkVUPRe5sNpM4ExlrsTYw4DOMvrws0YQH95Gk/fJmgrqK+/+XQWKPOuWHNQabNRW0yS4SoVdI603vcdvfto4EVgQ7luyDRMCEWbMMnxCSkJem2J0T88otOS5hSkDANd5AuxgoeOweJYXRVcrdfG5+8qEro+FBTxLPWP89J+C3/YHnyugSZeNgFHB1RGbFsjblNxTC98z2Vrr3IOCBnDIEynVVcvK9zAgCYOqXXYMb34ueSuHgyjewIFVAVFoB8giG4fkkqZDzzD2d7hmlqRlbns6nKkDnM5GfGKJ51eUEVlK+1j+MS8sJZDaKbvHNODKb5+A529nwhAtMjNj6WI1zack+NKJlTCAKSqnE+AljsIs0kSJ/6Xn9OxXA5a9zExzXZPjzkI/e6GrsUwlHbUJ3j+gx/fP2Ka85atdbOmqZ/q/8OXiCFnh4+Yppd/dT3y2iRMlJaN7RAJdyjTU3Vobd2EH5+s+yDWEODwxkRZwEHicF0grMJNm7MX0zT2JDYmgI=#3333.33#pc#VKo6c9wIpCg5xdJlmaCXTQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"3333.33","priceMoney":"333333"},"quantityDisplayValue":1,"quantityText":"有货"},"5720393496318":{"moreQuantity":"false","quantity":4,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#DCWN/HcYJllCBCS8xTQDvfziUciwH7MqOzZ0EsjPpY6VN5iK+qIH7LBYLX7QY/DpcWFdrto73DKHjUj/s4cVmqVScqDWwR1ilCx7+Yqyy09zLJJTBYEz/L+IequxPdVeyrWswJxh8eCZQFVVQF193wDkjBdm/npFLWKzcTjlx3FFk4cwcGVQNRQQOTDcuBwdzfSrf6E/iS29bz2ONhy3+wm05P/e95VGmeT59SQuLcJKQPdXDVxnsT4AW0DtIdqxU0A1zynr384fGUkqUVTE14TiVtpp2MEEfJYyn0zZPxGWKA7DHhVF4YtSsObQvC9ZEUxVbzWatpjbD8wIfIuVmMtE1vNRRX6BTems34feLvfBh7+7KLs4UeAYoLN38T5IXPW+1vU5bFtUvflqeqEY7xizBeHEi883oNIOyCyHDnRS3hSwGph1Io7YJhJxvUsqVQKS/G8rGUUDUXyPZtZEgcya8LtCjgYBiLbw7Jzv743l4I/ZtC6GRY4G60PK16mYsXFXErmL01ihsJhsYObiC/3/po4iH/kNHbA+znXnTjOGZ/q5E0CETNizSbv/4lEZrTvq9jqXLg4vRf2fG26XLow77DLgFzPk0BTVNqWqXLHcuRyvYJawXj6yPUDkeppM6XA1Ud1FgMMV7kkPjEVmmbq2N/gDjkNxDDho8OsqVM38bGVERPG+BeOqAM/lF0kNVbSLN4+SouY2ybPOeyqOizEtbWEyKp0dqKRZLFxzoPr2iQJMSeCAC3x74XZ1TXhy92UWPN1tH9uMi68FwDOV2z2zv+wIa+7V1Oh2eRJYNysJAw6wSafbzEeP7WHmGZZYMU07K8NKwadF/xjguDLmdcSE6ZKTRX2Pse0xw2MEzul5oJW37uVS2YDcKEuiJUQf6ZctGv7u0XgWeL1JV/z2K9jlAYSeFBelQzrRKZOzDjdW0TI2mqPRYzopaCO4RaI3RsJM7dKIg9e6agFu6zyH/MuIgUhP2LwqdGdvZatvn7Rg0zFHbmtzVdY12jOBl8QY5qS6nH2j7XwGETa3cBY1swnfV+86e+4PLfNbDnXn4mYLQ+i4BqBwlGuJe74oASf2PWqy/JkcNjx4gDrt2nM9bRlLGd4o8+QKmSvS5/oc4h5fqJ9qD10YAs80o//9jD72EmLPOLW52oSUzBHWx23XIKTetr4t7vms2ogyOHeLBKGAe7hUOTuhwctb10ytyVSKiZAEdqzULwbYjnu+NKgNWnjsMQ6sVCPElkchpiiJb4nK6nSLC/8w3GzefS/AWLxK/iTU+61BFY2LC53pdsUI+RcNipcfUijAFsfuQiPtjMwhB0r/w7SeCrJ2Oi0Eu0MmlkXrpoSkhNyOpCaTmZha8OTS6MQ08A2lskfF8wcWSvxBC1AACfHKNxFauqHwzHad0Z92L+eca63GHAK9Xr/QrCiwI7FOCVm8DukiBjUBxJnVwfqKGCEsr63rt/fZ5N7f#3333.33#pc#VKo6c9wIpCg5xdJlmaCXTQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"3333.33","priceMoney":"333333"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"},"5720393496316":{"moreQuantity":"false","quantity":61,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#vuQ+/3LEUElOP6ZfoscBUPTJquEfzjOcOpTJvX/Ds9ch7LcNWcfYNNUB04rCdLAJMY6cv7i3Js6PdQfo3wPANQa5qKCui0laC2jLFJc1ZXTuDxYbgSh5WBERy8irrggUz4c16AVfI1rrSAAX5vH6UC9Q3MDh6JUR7Y/N1nn7JeWIHl1LDShJUizw5tPHPMW0+2zic73jDu1B3Ue2LPjM2LeMZHw5UhEEfy7rbq5WbaCSIgh6R7GpbDQ+VL/VAm2auWkmZDskmjOY6ONIhAnjeQSAKaYn099EU9UvUa0MqdvO3CRq0Yuxx7Hqk+QJJyZB8/+tRI6D/VzKyMhi3V00W5LC0zxuj7B91SHwruOwlAFYCayPAHe3uL0wLbhYb2LFFu3hEACJQw55V8fiyPs64plUPmvnGYG7fRGWONWnM/Ursm0lAydVO7wx7asglb7BdjVvimwg1VKmD05KnExMlWndKDt2h/BfideReFaFiKEfnssZGgb/dLvZqtj2qMNwIQullKBusvxRVZHHn/peJb3lUdbJx26h0X41Sl3pVk8Sqo3v68jdZGvgKM6iJAChv+t8R21FMtg1DJbRfiOk93ualn1H6UrguAlI1yL50erh5hv8u2wEOgO53RliL3ng/Ol03UbhOjCGHQ1HSg8+9TJGkosqeB+FRibdXtUfHhuSuNiR+NYP37rNq1GSKPLSkjfaAQGYdyFxZU+yfOElfkbFHsc32HPFBQKYTB+tLVQ14MBh5T3E0SyxiEQYvkS2HmoGW8O5FHxv7Bf06322UoVYVSEgQ5cseg8+GGB2Jm2sFFVKN5tMXlUg4KmIhW3Gq0DFHXFKyyKshEKnulkS9uaUNIZPCT/g+erVgkW0ukd3pCpXdqMpj+BLVJo1B0actLOtGuhV90M7VLSA9mE6zw4Ow5BKpY0tZJ8aIs3GrNcTECnVtoUvhAIU1zy9fymUot/FM8vv+QUpVM9yjczfbh/64iKc64+B9BVDQ2znmda7wu2qUpmL/lxKRxmMYoWbQl+YT9q2sLolapxkhPeU1U4bOkYOpm8U6V0xiTDfkHsH33VNiuDZ9IHUz8bqIVLLfzHGqpIdMg0a01Siv0jDsU/ugA3vFlZ7G+VhlsSXsWMgHmPkz72P2cjsBUlfZIrrMlPH7huRIXuE7LmpB3JKWb7JMYqK7X3ZKxeC9pNNzXBn2UzmglN8Hheosxat3GQSanAOwhoHB4JLuo9m6TAto6tlukbak8rifuOEG/oVznHWOkGpyEzYlgwz+PiOrWwCMkdEBgKDno5SiVtA0XimdMRNS0JBrtCZzH2hQlHPu3x16ZVETmSi83zBZhJO3i85IyQHz2JJdUndXguKpoip21rRdDe6lIzWH+ydGrMbGNBJGVNghlEdKWARwyrz196XUl2TAlfktQ0dlsa+0nmLNcVWG/9pS033sw1ULqBrCaE=#3333.33#pc#VKo6c9wIpCg5xdJlmaCXTQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"3333.33","priceMoney":"333333"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"有货"},"5720393496317":{"moreQuantity":"false","quantity":0,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#/Dn4puppytItQh9YDxvgH5P91Jqy2dHMRkE4FIOI7fZiGWp/rxprSZBCe4pYGwxobv7lSBX4XJh+6JpOvuWNGD/ZQLNIrP/GDjb8/x+aoDpqS75q7VsZkHnD1sw2yBEsx19DwiLsHSXyiJewax1ImnJ/xIA7k2gnZpkT8qWmJ10VMm15nIjq7f+B2nERcjJMAQXWykgXFElHrQLwqHc6PYPbs2M4HsnyRYivBhOYOhQ8O08CnTJPta+29lq2qK2ig6uxRuhvt8dq2YvdH4Tr0w0voIneA8hA1HIb1b/g92gRxsfEx9ePzqU9GtS7M8+iIoeBACtapEBryXUZRkpx3M8y2Gr5JtWettSIs5liRLeGBS9l1LdIHuxpUvfHMebIWO3dDJno88Y9QIXyS5bMhnCHdViGpQy3vnZUwkTcNPHjljfWcj4PVM4MKcD8tDQ62pySoLZK02jnR+daWQzuXtvnPXAUKCfxc2WS690KRnJT5IwHse0LWmZIgSxFTnkNg8mciWm/G7gdO4eDnRDjQmo8FbsKFydt+ksCKfmrjWSo2wFJKbjpEODPvjjqzeqBqR1p5w7+/9//Tb39I3t145O+KYFWXoN8I+8qvNKTKjL0YovaC0C5W9yQVbe8C+MJDr1kSyKnL+grA1OMi4nPt7+OPMAdareWxoebFqDkvq2mAeiQ9+O4N7hbFFHgEB+rOHphGR/RVyAuBHR+zltlMkC7fbFu/NsiM9/qxeqPLx11GdkN/ktqv4RzfsSALG+PuYX/NBITvAGiOGIt9dARGnfd32nkJ0wg6qzq/w+7EGG7+hrlIi1jRVh7Cp+x2kMJLBoQQ+ZI3+omKIY8vuBwPcQ0yqW4o2tUciVKeer26QZg33aEK7Ft57QXRrAMy9si6wF3+aWhwJw7xL2MK4RsvHsvuIHFqCzK+BTCifQm2W/qJuBTXAxUIcM48LP3Cs0fdm9FDE4uXEv1ddBjkKbSRY6FxNpRJg52+ad5GriZ2IZhqhLEPVQkMxzAaon6pVaa8bm/YpY9hDG3z7oOPMG7Z9rAeunVzE72aoIdY+vrskWytKs3ZqTIgiisBcEYtb4QnYxY4K8mALqh1ykIWnqlYVf+/g5EhbxN0nQlPttMxFhrKv3C1Jj5x8uSkpUmWAqcO90n7g6+SAdn5ubFzrLm9eZ4v2XJC7MhvRD/IW7CyW6PheUlWCNvH5sz1XnJ6h06Os7Zv0hsEdQrqpZplzDfycTWzcPegNKv9uBEyTV3p9Vo7ZIPbvZnQx7iXOiLnukZSt3EOryiYdj5k0ZatkCHzp4QsYUXpwJwedMV6OZOA5sy6+nwSCBd/AN0T6fg9aL+#2222.22#pc#PSKLA8RBNCA5wfX8CUmELA==]"}],"price":{"priceColorNew":"#FF5000","priceText":"2222.22","priceMoney":"222222"},"quantityErrorMsg":"超出商品库存限制","quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"无货"}}},"services":{},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:26916974130","skuId":"5720393496316"},{"propPath":"1627207:1416051297","skuId":"5720393496317"},{"propPath":"1627207:22012197679","skuId":"5720393496318"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"26916974130","image":"https://gw.alicdn.com/bao/uploaded/i1/2207644932146/O1CN01jJaAGi1RiuzHe0xTY_!!2207644932146.jpg","name":"LH/象牙色"},{"comboPropertyValue":"false","vid":"1416051297","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01WwkIJ21RiuzFJRYHH_!!2207644932146.jpg","name":"B4/黑色"},{"comboPropertyValue":"false","vid":"22012197679","image":"https://gw.alicdn.com/bao/uploaded/i1/2207644932146/O1CN01mr44Cp1RiuzJAspI2_!!2207644932146.jpg","name":"B4/深石灰色"}],"pid":"1627207","hasImage":"true","nameDesc":"（3）","name":"颜色分类","valueMap":{"1416051297":{"comboPropertyValue":"false","vid":"1416051297","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01WwkIJ21RiuzFJRYHH_!!2207644932146.jpg","name":"B4/黑色"},"26916974130":{"comboPropertyValue":"false","vid":"26916974130","image":"https://gw.alicdn.com/bao/uploaded/i1/2207644932146/O1CN01jJaAGi1RiuzHe0xTY_!!2207644932146.jpg","name":"LH/象牙色"},"22012197679":{"comboPropertyValue":"false","vid":"22012197679","image":"https://gw.alicdn.com/bao/uploaded/i1/2207644932146/O1CN01mr44Cp1RiuzJAspI2_!!2207644932146.jpg","name":"B4/深石灰色"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"5950.00","auction_type":"b","x-uid":"","title":"COACH/蔻驰奥莱女士IDOL 23号简约斜挎包单肩包通勤","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"COACH蔻驰奥莱官方旗舰店","photo_url":"i3/2207644932146/O1CN01dK0wvy1Riv46TS1Qx_!!2207644932146.jpg","current_price":"5950.00","region":"江苏苏州","seller_id":"4f1e5faea51a5939932b2d01ad2af408","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.tmall.com","mallLogo":"https://img.alicdn.com/imgextra/i2/O1CN01a69z6z1hJklCkBqOU_!!6000000004257-2-tps-174-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop229342273.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01dK0wvy1Riv46TS1Qx_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01J2n9O21RiuzETdV7z_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01z31hrZ1RiuzHG4Pix_!!2207644932146.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop229342273.taobao.com"}}]}],"overallScore":"4.7","shopIcon":"//img.alicdn.com/imgextra//i1/2207644932146/O1CN015nqRsv1Riuf1RtBeq_!!2207644932146.jpg","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.4","title":"宝贝质量"},{"score":"5.0","title":"物流速度"},{"score":"4.6","title":"服务保障"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","shopUrl":"//shop229342273.taobao.com","labelList":[{"contentDesc":"88VIP好评率96%"},{"contentDesc":"平均10小时发货"},{"contentDesc":"平均6小时退款"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.5"},"titleVO":{"subTitles":[{"title":"可开发票"},{"titleDesc":"如需定制服务，请至手淘下单","titleAfterIcon":"icon-taobaoxinxishuoming","title":"定制服务"}],"title":{"title":"COACH/蔻驰奥莱女士IDOL 23号简约斜挎包单肩包通勤"}},"debugVO":{"traceId":"7d27672117647323923603485e","host":"taodetail033061038034.center.na610@33.61.38.34"},"rateVO":{"totalCount":"1","favorableRate":{}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"江苏苏州","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"预计5小时内发货，后天送达","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["奢礼定制","假一赔四","极速退款","7天无理由退换"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["由品牌官方提供的礼品镌刻、礼品包装、礼品卡片等奢品定制服务"],"title":"奢礼定制"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["若消费者收到商品非“正品”，商家需额外向消费者支付商品实际成交金额的四倍作为赔偿"],"title":"假一赔四","actionLink":"https://rulechannel.tmall.com/tmall?type=detail&amp;ruleId=4400&amp;cId=391#/rule/detail?ruleId=4400&amp;cId=391"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["支持7天无理由退换(定制下单除外)"],"title":"7天无理由退换"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=880364206406","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=880364206406","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=880364206406&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=880364206406","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=880364206406&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#EL9yzkIGkJLu764Oz+K9W2h5jSk0n3TR25taunJwi7CgjlJbsK+xA7DKBcGAZwTJ7dssTZxuMyWsfViymK1Qy/Lj+HL8T2mfwEouPA6oGjKTGzX9LFBWyehJJ2UphP+rZz/yy7jGwL5jdjP7IkG4aTmOMngbi7G3VIRINEnmI9Ipmt6xuQYa287lVQ5Cre/TlJXOQUtg9IW84Aae1gxqcDY8yJ6RU4lNKEFh4Bh19cIFA4ZMOWAEnHMouYtLStJ3q5uvR6vCEyTKdMJgoDyii/6DScd7U6iu/Vh3lQty3fuFAUqKOedudnPSKT8NrYdge9xqrB8X+joMYERBxT+cXWQmdTT1/53wbYMrPGrvSvZtirREvTkeeWtroUKPw2okp/SW5IQj0GZzgYJ1vTmJsr/+IR1mEj00hpsS4Iv9q7yDaRISSKHe/Prrv7VhLWD2wNqU95MDknPiE9k5Ony6CoaIi+7jI6hCBOqmWJF6UXfsVOFY53Sq/Qg+ni+0zjig9fm3eCuEW4X6a13PehUFUzfP9yo2+RRkHK+xltc6SbTGbz7Z17DtQiDXUdG1qXUmZXxzK7x+RHEuZpWz7uvjZuJdmJ8ukAcdHVRyeJSTPHIw8thZDTxDd3f/CvVMAU+IBf6e3ZyPypY1/HbqWO/2w2kzOF3YMjMMiLuVTp0r6QnrsHvNfbKk0NlEnAi7l7oyHLjpyK70qX7B8+lN+wIaU3QxzjSFjH0lPu9qFB/OHY97AAqJqqRxMwzRwDKS62HGFrTg0L9hq5ccxzKNarvnicngwbfvFKEVTTUBmu47oPZDuaJsrbF+tnejiXcnyPGmtkcsmAYyHgApigTJZTgkqARgpLUaK07HmH7JCChi7bA/IKT6KQOERNP4fb+FxepfvgG3urhTTk8MqHq9jcL+cYnvw1U6R5lDa8m3qF7LJY9CfetUX16xOF7Jv7Mz1C3W+u8gAfYlJWKhufqHC++vlTM99zc9zVndGNjPnhlN1g8xvpHbScLuRQ30GIVzehjTOWaOpxaQbyAr/ltWByNgcJ+gy4E7jB/45oZ7Rk2hTAP9o7dqxCw890Z6TwW001drcVA6MR4/1UwyLV9ojQAPSF/zBfC6CPDgcGsk1UGwClQ4epvrUMKUxhsXXCoNqVU+2DoIN1rAi6r5olUKXxADWQ093FLp1jEFznoqLBHOr9ydFwAG4Xypl71QWaHcjvFCuTKl2J5QFYxZxfW3M0kOhi91H534z0TmMxLer42yJybg/rtDP0+VbdiO2dgryXHJ35JVOtKXmwvJ+QL2NS7Vf7+eTDG0xPTfuelqyXq3y5Kzgqv4z8runKDK4iMccKYB3EJNwshq4E1otAVsLRYaqzOSrw4kBwxYlW8nGp3RL15nT7hMlYDRiqgrUAHwkZyE2L6vNmVOgGhGprIBuW3oLMZXeZ+zNSiO+xFAmgsWDxA=#3333.33#pc#VKo6c9wIpCg5xdJlmaCXTQ==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"店铺活动","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"3333.33","priceMoney":"333333","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=981761597951</t>
-  </si>
-  <si>
-    <t>{"seller":{"sellerNick":"coach蔻驰奥莱官方旗舰店","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","pcShopUrl":"//shop229342273.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWKZQJK1kg7h3kwyeRP56ZcUkDair9qMEqJ4oKWpKFzaC3"},"item":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01aqGAWl1Riv46eQnJw_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i1/2207644932146/O1CN01xjEUMS1Riv3C4cLap_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i4/2207644932146/O1CN01HgVWts1Riv3DRWaqv_!!2207644932146.jpg"],"title":"COACH/蔻驰奥莱女士黑色花卉印花CARGO 26号托特包手提包斜挎包","itemId":"981761597951","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=981761597951","spuId":"8695497078","titleIcon":"//img.alicdn.com/tfs/TB1SMG7nnvI8KJjSspjXXcgjXXa-78-36.png?getAvatar=avatar"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35432","timeActionText":"35432"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":4,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#sxTqmBFKuSeCSaw54tckMShJGJWAGLl0AX7KDV+efrMl/EQugrtr1kSxVvKuHC7bY/EfH66QHtwR8GTOqYuJrJUoE2Ew2FH+btM1kmjqmbFnvbihEqUDqotkxocmzd49QIqhCvmISmreWwkbJiqmcojWQ043KncJYqXhEgF5xKCK/k68MWFFh2RqatVdw5RcquKSm/g9quzQz5yoHoCh7J0iiyzhCJFoMoHse418r3GifmML/OaKRreuoIonmdhg05l7cVGUulCHTSgyBPA4NfbGR+XMccy5lKLEasFGixmfV2gspEufiEc9/r4wv2FSEFyr/xqM2Vvnp+p4xPHIQTiAcpXcp6jQQspAc90v4jHYMC4bUTo9SddZ4CjJ6B2Dj+oQPcM03LbgI/AAJ779ah58L/SrkZi4DOfTSrYuW7KA/O95639DW3ANsGhHU+6xjgEvr9ETHXS2piodQalajfu+wiD9BqEeos+2iFOeAJmXAxSh0QgDwblNpC+p1YWPsD4DvW9W1jVtBFvSwNQ2wNWAbQueT+DFogIWPI16xO8CkvledqLgATFDUl1LOsxhnPl6P0RPVYnZ7JGWDaxsygQHmFxn+ThfU60dWqlAKVrwDbeaMHJOGeUlfI+l0bckEWzXdSB1JxQBwLqyLUhPpDI3CXTjDyggrMOV8KBDzZbCepPxvnwS96spiRQzzW5q9Kg9jR7MxmjY8YNPp/ooqRniqCgGqeOwEl90Ey7Sn9pr1yRzFQ9JlCSBZXVRIgwfBT/MAVs2na5EnjdAJ0sNnCpvVqK/OltuKqYOduCcdQmjmX+ajOI/NXTLrg+x+2Y3EYifuB7QExdvRh1rKPVxzgqawdl1KkhGdD7fRSUmFU/nWLLY7nW+T4ZkZ/iYKuH/9+tGaMDNgZcOlihu984GE2D0IIIfutakpwn9WgFDzzjJXxwAduiKNM9SXmFvAttLpiE5gdU0YJJbHDyHumzksLzORP1acl4p8Dqz0waea/x6I4omHs04wzaV7Rgj3kaa31BcWODkQxvzBZQt3+HChIUkjdJVxLYHRwsJn+2QzsQjI5gQ3VwOwc+m4A1q9fc++KLU3DS+KjfGaYVwYBY01am3SqrD6jc3pkOyninPYimWl6uRbpU0CO0thaHfDQsMQtTVF3IFavr3/RdS/E5uF6stC6i/zbYL38pfLN4xWw1z+ViGVvTvuFzNDpPJJmBYPdegdHTfZQfU6QgsXjWp1M98teKsw+4IuVZ98r3UvdH4EWlOnOauz1/fXKM2zCopx/4wLCHU3lUhkhuW0AMcHlh8pBBYGqFr6E3waUR0II1Ll6VzTKmbUotHU4IMa7e+u/xpJa8qEULF4EReunWwx83+pRuSHNHvn+fwXI9PCNs=#2222.22#pc#94Dy4KnQLy58x3q3NLZcgQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"quantityText":"即将售罄"},"6106203919696":{"moreQuantity":"false","quantity":4,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#IulIu4T1OhuEjAuTveRWektGvih8QaQWaek4N1ynnlXE9DpDlK1VBiM0tJIV+F1uhzBKrV/EWNGFkxFEQ2uvy8d4Wg7aibb6LNDLfra0jGceGdCkVWlXnhLl0ROwydihSPsIwx2QP8vi5JqCzAIVXNj03X8Ua6zMHSBLL0ecQ+0k/j/yr9Rbesu3kLB+S5WVV1taCsNIu6PlYYD3QKXoBIJFXFSfZNKMoK0fPaMgm1Mv/8Ze4MuDaIhVo7R7lZ/+wt8paxlnS/B4NYHLr9580Sr55wZQ54njyHwr69jbjtPhRWoBJIRIm+rmAv+PURAsvHOYkBe4bkWFRpmgEC00jZvcgT73A4kW28SWj/vH/FbJ8saga/2RQTptt28p2iUtltDYkI8ZaL1AUux3LoQFYKGdfZS/QpAX1eBB+tezY73LKdsKzMPqIpLDrAIyYEZG6i/elGGLgNNVAGQXFao3M3R3POZckDPXNPlbgAMlY9xYzpa3W4fFkYt2a9YvYcEkNpNoswZpmwRJmtDLvZk2XT/eLICyWSkaxP0Gk8GhEei8wutj8z/QZtFUvzBt0TgrQnrfvDzJVTmR+KRLVWtp0oTdWJBEA2DVlz4e0bK45sZarWlCQwMQGEyMNbTVWC+nqDE0QwYEJJwC+Ua69eqbIupywtPsEQAxMLjdqXxzFx6/ABJpBpHfnL7gNYr7igJRUib9hU+tAVgWPVfNQpQLpO/frEC8jNYSZMPx8BcElEke6vBGmFRqR2lb2J0VmIV6J4v+Mw6B5r6M/ZK0TUyTFsLBjWf6sanh0aD+UromA4gu8YN6zfwKVvHRWKVGK7WfFa2QKt5B0Q6BabkFEfkqOqUhuOzDT+/DDUM4ov4NbN5lwKC9MkXLlFqFaVeneQYJRFKnCjo/GHxczGMvw4DkCd9PNBRCMvGNNx/GGBHyGB7xcdq6PjWwE7dkGqVS7BMsmh1G9W3QPVtPnTaKeE0G7zH5N8LCJGLkdMXJxKaFxS5ecxtzvR0OXZjDmOh7kpCunqNFFG7SvQRfMbsCYTbqgxAjFTIgzObtdLdnFerVBJTWi19u/zce9fJ5SpJA6I3TBeXZ2q3Ue+e/nPin8UGpYLe3fcSzioxFKhFbcw5bcVPfuCDejdlDNVaVDqF7Ef8HiDslv71LRRw5Ds0ueKN0AYz7jmnRqAKA3fctfFIpYKBkhPapQVNJHRdNA+aiZDnyyLMLf+Ao9mNcFnImP+txHAugKI3bqfvnEkSFkxfODNP6+xlzS0iIHRUJNFxt2qdkP4FLWyQPDXtq0vA6pzQDOyLR//vVPHEjdTFyss6xTfyFPGin7ymnIrk8pAMgdVyHX7fDBmn8NA7E1guS6Av2P63pYTWOQy13wC5mkBaRcKuleVxBD5xxCSD/ZpY7S/oR#2222.22#pc#94Dy4KnQLy58x3q3NLZcgQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"}}},"services":{},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:35459144562","skuId":"6106203919696"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"35459144562","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01huoxNz1Riv3CxscrC_!!2207644932146.jpg","name":"LH/黑色 混合色"}],"hasImage":"true","pid":"1627207","nameDesc":"（1）","name":"颜色分类","valueMap":{"35459144562":{"comboPropertyValue":"false","vid":"35459144562","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01huoxNz1Riv3CxscrC_!!2207644932146.jpg","name":"LH/黑色 混合色"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"2600.00","auction_type":"b","x-uid":"","title":"COACH/蔻驰奥莱女士黑色花卉印花CARGO 26号托特包手提包斜挎包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"COACH蔻驰奥莱官方旗舰店","photo_url":"i3/2207644932146/O1CN01aqGAWl1Riv46eQnJw_!!2207644932146.jpg","current_price":"2600.00","region":"江苏苏州","seller_id":"4f1e5faea51a5939932b2d01ad2af408","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.tmall.com","mallLogo":"https://img.alicdn.com/imgextra/i2/O1CN01a69z6z1hJklCkBqOU_!!6000000004257-2-tps-174-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop229342273.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01aqGAWl1Riv46eQnJw_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i1/2207644932146/O1CN01xjEUMS1Riv3C4cLap_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i4/2207644932146/O1CN01HgVWts1Riv3DRWaqv_!!2207644932146.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop229342273.taobao.com"}}]}],"overallScore":"4.7","shopIcon":"//img.alicdn.com/imgextra//i1/2207644932146/O1CN015nqRsv1Riuf1RtBeq_!!2207644932146.jpg","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.4","title":"宝贝质量"},{"score":"5.0","title":"物流速度"},{"score":"4.6","title":"服务保障"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","shopUrl":"//shop229342273.taobao.com","labelList":[{"contentDesc":"88VIP好评率96%"},{"contentDesc":"平均10小时发货"},{"contentDesc":"平均6小时退款"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.5"},"titleVO":{"subTitles":[{"title":"可开发票"},{"titleDesc":"如需定制服务，请至手淘下单","titleAfterIcon":"icon-taobaoxinxishuoming","title":"定制服务"}],"title":{"title":"COACH/蔻驰奥莱女士黑色花卉印花CARGO 26号托特包手提包斜挎包"}},"debugVO":{"traceId":"7d27672117647324221153829e","host":"taodetail033061096130.center.na610@33.61.96.130"},"rateVO":{"totalCount":"1","favorableRate":{}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"江苏苏州","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"预计5小时内发货，后天送达","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["奢礼定制","假一赔四","极速退款","7天无理由退换"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["由品牌官方提供的礼品镌刻、礼品包装、礼品卡片等奢品定制服务"],"title":"奢礼定制"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["若消费者收到商品非“正品”，商家需额外向消费者支付商品实际成交金额的四倍作为赔偿"],"title":"假一赔四","actionLink":"https://rulechannel.tmall.com/tmall?type=detail&amp;ruleId=4400&amp;cId=391#/rule/detail?ruleId=4400&amp;cId=391"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["支持7天无理由退换(定制下单除外)"],"title":"7天无理由退换"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=981761597951","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=981761597951","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=981761597951&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=981761597951","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=981761597951&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#9UUdsuQdiTEyNF/jEuX4A+l4+956zoK7EGy48Dp4pmzgmtJQCmxYLoTAh5mpuD26iE1uYJ8NnrXt0ZQZy5Bv2Nr373w9O4QUdpRmto8/LIdFeDmlbGkOcNGmdcYT5mMsrUa/yH9Y0W9DcQsUAREkS2tZRdsq19PLSteiF1hEffBov4XxobmFGdbxQMgF5paBh72h767BptJNp90qq4GdMSopjaWOwruEXZiW0E3wBHRqc2WanGbZszVX7Nlw6x/T1CMTXzkCAyIVaekfpQyH+TZNXAWHjY+AFPtz4tCI1oP6Oohlb5AQGZT1/ya1jBdR9q6J+G+PnZRoqn6m09BbVhuD8ED/uqTkSKgcKi2n/KBialOg9QYK4Lr2Kco6VwUGw3DVRakUDV17b8912OIgsPqbSJqNBbhkzyp+Ydq2KmUvV0KnGlrahEwCDcOE27nConD9yRT1REIYKSVemM2+kSP4Xk9Ay9wue/I2Nkx+Xne7nlc3IUewqKpdZua2sYnvkNvv0xThgp8snmgKyQlSWGifHrNH5rRhD/CCfC4fa4YOKpADf3EU1TaOAuHKZDKgAN6NzgYBr+6SQQAkZOs3becGD15B/qavz1rwa8+IyDp0qLBNRyXqFs0deaoy4T26UfIqIsvxOumm7vWghVAxE36y0bGjJxC5SKAunzejmG4br3nGxwokLu+t7aEfYMVmP5DrIBTAbv/eKb+ao0/hxDHlc3Fg6A+5HwDTxOgdkV4jJvSrF5w+DEP6n8oKpox5AoMDr0pvGJPaqKe+jvJd7aR9xWkVlkW531aj7ftSyZFgX9sqwPxAXlBNExYepeC5vlgTeBJtnP9K0TCqizA4sV1uhVFjx+hz6I3AEpTj6jZfGU5k+E2DlzK+Y0SKXOG8qTzYgvuI8JmtXrpF5LvaEbf6LCsxO7LQuHbFKVWtS5halFjN2nxD9SF/kTnIjO+R4zXjDhElgZf6WIzCsE82PoMu0Zsmatzd289HcNcvBvuMhfojmraK4XdQbgfGHnek3hZA3xaCmHuwIaTPHwXg9EyqPzoah9VgxWKTw8Kx+9KiMbecGT00bp9JWWAOX45DRstYI6O6kX1yM+hWgZX9N0fUuSQAyi1skwXL6Y+0b/VmAsrZPAoKQVnHT8Edc9ppXcT2tIq7BRPPUUFyEo/0dw/W7Dvfufh+J60ykyEqw4/fo6/rpOVq/8RbDpbraMmhyBntnyVEi3WOeGiQAtzBBheHztEfvnV9epcBKsENiGXmLz1dwns6r1gRYJ7cO8VySMWTjTbe8BrWjcWnOWitbALvIUP46Yj8zcBtA/islOZu7IptuBKmNLKKCX33trLH#2222.22#pc#94Dy4KnQLy58x3q3NLZcgQ==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"店铺活动","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"2222.22","priceMoney":"222222","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=765962701385</t>
-  </si>
-  <si>
-    <t>{"seller":{"sellerNick":"coach蔻驰奥莱官方旗舰店","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","pcShopUrl":"//shop229342273.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWKZQJK1kg7h3kwyeRP56ZcUkDair9qMEqJ4oKWpKFzaC3"},"item":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01UoyQmS1Riv45cUL5Q_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01Wc5mov1RiusbKN80b_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i4/2207644932146/O1CN01Gf2RGj1RiusbP4HWa_!!2207644932146.jpg"],"title":"COACH/蔻驰奥莱女士亮片STUDIO 12号迷你单肩包斜挎包Y2K风格","itemId":"765962701385","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=765962701385","spuId":"6627021372","titleIcon":"//img.alicdn.com/tfs/TB1SMG7nnvI8KJjSspjXXcgjXXa-78-36.png?getAvatar=avatar"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","textColor":"#11192D","bgColors":["#FAEDE1","#FAE7D4"],"valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35411","timeActionText":"35411"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":2,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#A7FmPh8c0scvN3cLJf49SSc5BoSpLzYhTDS4nYTl2GBFDsYitqLn+C/UzV0Rs6z6cUFW+VNLJqDhEEFLZJBCaBI/ow9MGFVCHVGX5d2ZJ+h9TFbY8Pv5D9jZ7QZAjmeCrJ8/PA9Cs+ZAvLokUNQ/JGvAU9DRBx8KLQHViqoUyqWrjoYGQJE2/q4BwTF16d5A6yOC/N77aKhOb3MYgtKS+h60UCWXF1ALJ9q+IeTNB4QMQkyXpYbYVu40XrKm/GTM15wjnBRI2L0bWrtQxs9jrdZgqWGePY9J0OhrgiuBm1vU5JGbRplN7Heh2+rHXiSNjnXFQ60KOc2sxM/4oHBhjdORLJiH4ZCNGyQtg5EakWVvY8Qru9l/zYtT5fT41AoAYi3ACWr+YvEiuKnNgY6BVJEEsSnIxTi465AmOeiIBPB8C9sNAwwuPJdVnemCSKPmYQvD5J3Ons5ydALaVoFzp28lcaac6o9jeWNNgkE+BSAXI6mdTakwEYibf65OLH2v7RF21kNWt8J12oCUl2+9TskAdSlN5Tf+Mbx/LBsoDz23Sdo9Os9lTo2RDtlx5UnbcGANUGxhHezLsY5L4/OMZVIR39zVfSATxnDIN89IBSt5sWPslMTPDbzkuaJnovk9PnjTXifskj5h4SMoo5nXTLv43DVZ3HAD/EJxKMnfd0ZRmw8LMY+DRBk7Nqay8EiTYMOIuO6Q7D4HbZ8b6zUxAPV2IM9F9JoUrYcYKyZVwxPr4olxgOhS0ErQpmyA6Hu5/tM8U9omM+spT5k9XycaWmiYjJpl4nsNwas/AYKDL1ocl+PPZCnc9l9Ys1tGGBq9dzBSJTVBcgkTDpUa8JslmiOgTYvj9QXNHUSmZGXObdUh0qNMg7OuJSJ0Kko78WMWrjKMmGc7Ja1OsF5aDzOgLefq+zyDnVYRFE04ZdjcWtNfYOSqEvf2OpM9f0eXTuGzJsx/AZqWLGcNP5+rvL1yIsx/f7RNhZZ1zyLy+uLrDX0vqQilT1jxzrPEUFtTDHvEsX8q6c3vKCruUQsDind+jX2nEIXtOwhuIVpyBZJoddZq6HQg2QnzFKMMtbZs0QGFKMNZQyEHQlZ7pkdNB9dV+h/Sfh4H99H9t9/TfxYZpoSrJ4iWBp9zpZxlQZZALFX0WG5ms7slkKpzetcVTG8Izg==#888.88#pc#kwdq7Nq0/BboeyMpNxk3Hg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"888.88","priceMoney":"88888"},"quantityDisplayValue":1,"quantityText":"即将售罄"},"5435037958483":{"moreQuantity":"false","quantity":2,"logisticsTime":"预计5小时内发货，后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#lfVd6zvxwfUkwJXuM8yBWSCoBCV61f16lWIVM5mxL7cWwv1yPEww2VHPZPY6BDO2SL/xV6L+KKMvbyuYF86bF0YxPHixvi7Z0Jmzbo0tGLOr/gUsT2d5hexjSu55PuKtu1WN0H0cjzyLzary5qMG6GXzrwRX5Bimc1Ic4mxGWXkG9K+T/yZAT6FjR+J5lOObgb7U4Fv3I97DPuJ1Py0pd4UGgxrogBuGHdVo6O1CRGUU85YKb0v9IffVXVVeNOfhY0N96DRjlS9alHYSUhWVnCZrAIQYXi9K0mGnpvtyRXkQmaHkUQ3UDPQ6Y2SKRlD96fLMwsZiXa67TUKuY35Srq0HEIBhNhDEaAIulbvL7UuSqBZRE15INEBtJr/1kdHa9rI+Zp6vDc0XQ13rXg4azY2yJwY9p0PEr873eR6uBvq5xBCeJx/eErMyt3jJExtEoJctenuGmuZ9lacotWOx0Tn0vDDvoYebw+VxHJYuN6TSHAw73SuQkuhzIocATw/R6jrnLUgvWEAn1o7qa1CafzTROQtDbtl2tlQ4z2n/keGYBXAqaSG38817fCmT32CLNhquuFcUEXXM4Ehe94WjhU7bjeEduXIZx7qlAk0Sh2RTB7QF+4oxVv+I+pATCNibHkZOQLxQrkMuu3eIWSrbOvn54kWtSEsfg7Y+mKZKYQ+d6DQ+/2mBxdKLmvDre8c/qp/3YoRNaT4lstlyCVkYS8V3BZarZpNL4WuuQ3t4R2myY0zfNbJ/K7QD5oI9+ZgzUrkwU+aIAUzCf61NXuyzO9IspLYaxCWhKLM4fjOeKSB17HOaPpVapG9fHMkfk0yKaRxF1vQoewkYQKBHk1/gPKibQZLuMmOnPiEVJw14a6X2c0Ny7J6BrwFvu+9BipAOYeeoN/evuIwLzjEmqHR5vqV8EWp/ZpNeN6vAzdB7LnAC60wLvDTUhoaL2XxqmcQvD2vdt/bWEdL2uHOWkMivl8liyIoTwSsz2mlKWsyK9KDUM8wa9gX2cQUDMGR1l9p7uCmnvB3GlmwSDxIG4lBMa6touFhfxKu5fzMXgFZQPU/+npfNByxgWHzb4gi2IEFcQN+0gp/Gh1btwEZPyrHua6mcaxZPF4VVgv2TVV37nW0=#888.88#pc#kwdq7Nq0/BboeyMpNxk3Hg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"888.88","priceMoney":"88888"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"},"5435037958484":{"moreQuantity":"false","quantity":0,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#BegS/EaYLjcICH5O95h8dxjj7X41mPaSinHqxp7evtOD1aOxioY56bCgMVuik0LwgaQQO3jLL9z44f4SBBIMjVaSyPr4TSzEkHvN9HHGkhULx2F3j0PTh7EC1lPb9yLSB76fFCNS4j4+0qxLw7nc3PtihLaJOnc/w6SYkpOre8wXhagsQ4QMe4qajM2TRqPrgHIm/h2tdFeBfbPsK+2SOCd5AK5K+Y+IC4u9upOIFKIiNPY6YghwtS7Au4YlogxWFaKj9k4LA3QDeYPBpg2/gItOX0BCz3ujx0jRFwJWzoxtXFXKAzf0V8zxjUoEr31ozF8pxZU0TVQbtE/DLZnb+9CG+33vkj0M7bf/IEeRHmpBsfu0qB1+NiCp2psD6UxhWhxTBqYsS26/EIov8rPM4zU0pmeqZqtYy8475cp005plRnUkAaRmuKF9oiNoTHZPfH2lxMPypOy4X52mxjod+E2yqEh8ZONgB4T6z3JhKzJ1JQQ9fVTBLFjNCrVP8BfPfwKpCqB8eSb+iXr0N2hh139CP+tpzKVdQSwtMfhJsgtZBTMVHse+1wTkBDN/fb97TPddMTetnbw4nNX62qMAOORRCdZI/w/UuRwU6iG2WGHoKaW/3m5jcd6owRFwLnzX95M7Ki1yZfnpykX46/Cc1L+wtopj09K9JZ2LtRaF5501yIa1XtG/e2iSGXw2+m2xQ0ka97uNOxCWuRAA3IrVL9XTM8S/NBDC25HjO++l3sTX088I2mXpGv86jjE1jL1EHQTz6uOLRMu+Tyi7p0joKepZ9hSpyHkV8BUWXidVGQIrBcT/cw2CSHB+bhkKINe2OpQ1qndWemJ7PwG6NR83FBUHidKIKDZwNNUrTLXspAMoRU/dZvg3WQJEff3i+aSRtCm5iipxMHgje7YimY2QeTQQJshhqBj9NylLjwTK+U+AbfT08X/rJKeXtQklwYEKQM+KO2uDOBOMs+6TC3WN1i0ExOtNWv12renkNuAUf5tNb8snK65Ghv3n2VSAuPt9Lh+bbKl+FEnnrA/677VRpGGF1wJHKYbW+KtJI5fxWCCCPYTlYnZuMp8J3JFFNG3CmK4c0OxVzTCX5R7xpADxIl4UQUjBJRm0NCqFuaH9GpYeHmPHDF/ILavF+m0Mi1+r#888.88#pc#kwdq7Nq0/BboeyMpNxk3Hg==]"}],"price":{"priceColorNew":"#FF5000","priceText":"888.88","priceMoney":"88888"},"quantityErrorMsg":"超出商品库存限制","quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"无货"},"5435037958485":{"moreQuantity":"false","quantity":0,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#Ch5IkpfAJcq9ylGJ2TrB/8uN/2PC1B6JgMeEJEo/M1KWnGkX2TmY9lVY8NYsHVqKI5nQYE32X9f4t+xm+JHyjusxAg4fY/oDRYQV6RwIoIRjp5Rjjq+VqEGRJrVFC3WScPuYyuL0hdkXDbZICyBJiSFBgVJiJegBIpxS9Xat05SZjMrEDsU70PULvQW5sy3WWcQ7CDJhiwCT3THZQhqnyouYCjoxQM+p2IXaT0wliNH9gW4Vj2P9L2B0loVqSdGl4gcd7XodL1TdZkyCK8em7/fRKwkijvlWd84xuQ0ruSdzCAsShWIhdp3OIaEg9DRRwHRvov82lKvfn2bIg8l6fK353qO9SOsXWqAbIr18opSf+Kil/gkOp0IzMSIXlYzpRujr72t8LOxkaMoMfRGww9DFMMKc43BWx7AkQDsEZhCs3AO8WGN7y/DAi26/5ahm3myzlQHEwGo3v4i8Pte4E/o7Uy9yiYNPCQZC60y+KQS+6vKuuN0f87zgABYNP+34jOzWBCzc9LWsPVi0dIgsev6Ext5MyVh1wAsHgqCLPbhdJWPwYV7qp+m8Xf2Y8l9CQetu1XhTiKRb1TMF6MEAk6qevBMUyO71K/3HzQosQZxhweGktfwbvYEZl/ZO36aoXtUk+XmiIFaek5nZ9ZQYMBZ8jXljPwyrn2Fj97so9p5srGNdGptgn7Cm7Jzj9q/CDHusFNwKYQBBWCuQFVGoyek1NFiWeAshUks494wH2JWN1mq8239Po8/u6LE89TJN45/9xOpCMAXvta4wxrOcXmg978ukFY2slovy0FwQqo6Z8EQCbvdBxASd3qTGzv3n+MfuZ5ngoXZvMgQBzXv4tssjruH63/rAZk2Loo/5ib5LNBrQMe574jKXF2hXRqH9ZCnvIaLMPresk0NwYH9P+fOdt+4rtnhwdXCb/tGP+J+uNHoA+d5PXxake1GNRYxU6dV3Ur/iVPsam79wvuhvpRwDpN5m48BJ5c4ltRgB32GLOvtcgHlTLMq2BpPt3SfJpS6ra62FICaXw/zqx0tq4JT4cWjrM5d366tQjiYPqUTMBOhOANbkldrEOK+0RMzf9G0MDV4L3x3KT5qJI8uoN7LOoOgk00JaLyUNJ3ogKM3Bv9a6xUdqGQFHnfs+hivg#888.88#pc#kwdq7Nq0/BboeyMpNxk3Hg==]"}],"price":{"priceColorNew":"#FF5000","priceText":"888.88","priceMoney":"88888"},"quantityErrorMsg":"超出商品库存限制","quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"无货"}}},"services":{},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:22956160586","skuId":"5435037958483"},{"propPath":"1627207:27935878324","skuId":"5435037958484"},{"propPath":"1627207:26859585041","skuId":"5435037958485"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"22956160586","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01a59Av31RiusfrBmad_!!2207644932146.jpg","name":"LH/黑色"},{"comboPropertyValue":"false","vid":"27935878324","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01rrd9SB1RiusU8AhoY_!!2207644932146.jpg","name":"LH/深洋红色"},{"comboPropertyValue":"false","vid":"26859585041","image":"https://gw.alicdn.com/bao/uploaded/i3/2207644932146/O1CN01Hpz6ft1RiusgdUJdY_!!2207644932146.jpg","name":"LH/银色"}],"hasImage":"true","pid":"1627207","nameDesc":"（3）","name":"颜色分类","valueMap":{"22956160586":{"comboPropertyValue":"false","vid":"22956160586","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01a59Av31RiusfrBmad_!!2207644932146.jpg","name":"LH/黑色"},"27935878324":{"comboPropertyValue":"false","vid":"27935878324","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01rrd9SB1RiusU8AhoY_!!2207644932146.jpg","name":"LH/深洋红色"},"26859585041":{"comboPropertyValue":"false","vid":"26859585041","image":"https://gw.alicdn.com/bao/uploaded/i3/2207644932146/O1CN01Hpz6ft1RiusgdUJdY_!!2207644932146.jpg","name":"LH/银色"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"2600.00","auction_type":"b","x-uid":"","title":"COACH/蔻驰奥莱女士亮片STUDIO 12号迷你单肩包斜挎包Y2K风格","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"COACH蔻驰奥莱官方旗舰店","photo_url":"i3/2207644932146/O1CN01UoyQmS1Riv45cUL5Q_!!2207644932146.jpg","current_price":"2600.00","region":"江苏苏州","seller_id":"4f1e5faea51a5939932b2d01ad2af408","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.tmall.com","mallLogo":"https://img.alicdn.com/imgextra/i2/O1CN01a69z6z1hJklCkBqOU_!!6000000004257-2-tps-174-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop229342273.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01UoyQmS1Riv45cUL5Q_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01Wc5mov1RiusbKN80b_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i4/2207644932146/O1CN01Gf2RGj1RiusbP4HWa_!!2207644932146.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop229342273.taobao.com"}}]}],"overallScore":"4.7","shopIcon":"//img.alicdn.com/imgextra//i1/2207644932146/O1CN015nqRsv1Riuf1RtBeq_!!2207644932146.jpg","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.4","title":"宝贝质量"},{"score":"5.0","title":"物流速度"},{"score":"4.6","title":"服务保障"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","shopUrl":"//shop229342273.taobao.com","labelList":[{"contentDesc":"88VIP好评率96%"},{"contentDesc":"平均10小时发货"},{"contentDesc":"平均6小时退款"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.5"},"titleVO":{"subTitles":[{"title":"可开发票"},{"titleDesc":"如需定制服务，请至手淘下单","titleAfterIcon":"icon-taobaoxinxishuoming","title":"定制服务"}],"title":{"title":"COACH/蔻驰奥莱女士亮片STUDIO 12号迷你单肩包斜挎包Y2K风格"}},"debugVO":{"traceId":"7d27672117647324435842661e","host":"taodetail033103002097.center.na610@33.103.2.97"},"rateVO":{"totalCount":"16","favorableRate":{},"group":{"items":[{"dateTime":"2024-06-07","memberLevel":"9","createTimeInterval":"1年前","media":[{"imageUrl":"//gw.alicdn.com/bao/uploaded/i1/O1CN01liO1s32Lc9YNHC6pJ_!!0-tbbala.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i4/O1CN01jJloFM2Lc9YNe84pI_!!0-tbbala.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i3/O1CN0191chU92Lc9YPEpOlW_!!0-tbbala.jpg","type":"image"}],"userName":"匿名买家","headPic":"//gtms03.alicdn.com/tps/i3/TB1yeWeIFXXXXX5XFXXuAZJYXXX-210-210.png_80x80.jpg","content":"小废包就是用来装可爱用的，主要够闪够好看，超适合夏天，出门装个小湿巾+纸巾+唇膏够用了","mediaSize":"3","feedId":"1241386243708","blackCardUserUrl":"//img.alicdn.com/tfs/TB1wrG1elv0gK0jSZKbXXbK2FXa-225-96.png","skuInfo":"颜色分类:LH/银色","tmallMemberLevel":"3"},{"dateTime":"2024-07-29","memberLevel":"9","createTimeInterval":"1年前","media":[{"imageUrl":"//gw.alicdn.com/bao/uploaded/i3/O1CN01JgQ5G81q3ZZdxA37O_!!0-tbbala.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i4/O1CN01HD3hgh1q3ZZdF8Q9x_!!0-tbbala.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i4/O1CN01UrwDV41q3ZZVUGp9m_!!0-tbbala.jpg","type":"image"}],"userName":"QY爱MM","headPic":"//sns.m.taobao.com/avatar/sns/user/flag/sns_logo?type=taobao&amp;kn=wwc_tb_11&amp;bizCode=taobao_avatar&amp;userFlag=RAzN84GK7wS8eNpfxTNrrB34nmukb4TaquSEfWzUPcDYYTWUVQqJoMUhwYv1VMZEvicJHXY9s95EF2emYekRwuq2HLmNeS7EdXZZKDfUYFbpQ8qf3pi2puTH8TcKfnGQMMRFJbqDDH6UmLL1w127s8vpFEcVmZV8fRxGsxM","content":"哈哈 小费包 只能装可爱！一个粉饼口红一包纸！手机📱拿手上呀😎 耐不住布林布林 颜色春夏吸睛！品相也不错满意！","mediaSize":"3","feedId":"1245914958061","blackCardUserUrl":"//img.alicdn.com/tfs/TB1wrG1elv0gK0jSZKbXXbK2FXa-225-96.png","skuInfo":"颜色分类:LH/深洋红色","tmallMemberLevel":"4"}]}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"江苏苏州","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"预计5小时内发货，后天送达","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["奢礼定制","假一赔四","极速退款","7天无理由退换"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["由品牌官方提供的礼品镌刻、礼品包装、礼品卡片等奢品定制服务"],"title":"奢礼定制"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["若消费者收到商品非“正品”，商家需额外向消费者支付商品实际成交金额的四倍作为赔偿"],"title":"假一赔四","actionLink":"https://rulechannel.tmall.com/tmall?type=detail&amp;ruleId=4400&amp;cId=391#/rule/detail?ruleId=4400&amp;cId=391"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["支持7天无理由退换(定制下单除外)"],"title":"7天无理由退换"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=765962701385","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=765962701385","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=765962701385&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=765962701385","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=765962701385&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#GySaJWrtc0OmTqKEFdm6Fr3UWXbonRgM+X2tiCjgd5aJ0zdYdkQxSVlLG0o1F0UIwecGt79Pxq/2pWtdb/XAz0J4TzCUMXW8SFZl52E2cdtKxVPwVGgMsjrFTPqvAaSGF2AGJiwgeDivm72v49QAfiBJWE0fZKvqmH+hHiMJ7QwAnyJw9MK8gLav1157Ek9Mqu9yfHUDa19kqbjrPS8w0hUAvSgdHPMKkpbljXKKbLh9Krdcwqy16fY0ah/Jjef3sp6agj3bW5BN56fMi08il5kFaaxH6IhRS2lTOOoDYvQMzeUnJODgPZpIrj15fE87TxA2bzsj6N6IIdugw12JL6jpYlbuYJTR9zv5LWNrPy0Asb93UYv/dmjxQayOLAuQg2eaczWYav2Jdhba5OZ8HThdxxoaSegzM0z5Jzrl9ZoRrqSi9NOM4lMTh/5VQWQ6Wzio2PyZjYFnbB/HXCSKrH2sTa7O5MWwI6C2dj3ojRkrzVTQszsMhXswQr7j/UEwXtbL1Wu74KtEUZG/NhX9VFQ/5LSi8FehPx6ImkHNnrQOSlIDaIRBJiGN5Gpl/znHrV5+dbfF/9Z35fBv+OAHGCgEpBujT01zNuBGHV3dWFjBSI9ku16l7eoM4BvE+eFZKjh/SxphArArNNQhrxZLaVJ1dcKev8M4MgWhaBEoGHBZgv6ejvdvgaTPJsOxAmPuwALnuLzmOwFPE0tMr4u6wql4cZW9IIUCm1ZdS/F/LdTohCbjyX2V26/gnrfbe375YsYoNVYN0Iy4feque6avYE72E9/AUe6z2ogFpZd9EHGGC06Hn2xqVTBFYAr+PF50YKh+UIvUO7SOTaF/kDNhda8aSgI+K/UkRqPijobVgxyDRtRHLeW5l+Agiv0VZytGK8So0mi2CYZTnU7bXfQ4NjFI+HTTcD+y+MfjhfccvSvfa7JFRzptg2Zacfn5lMfwP9cZhnTXmaQYz1ugX0oLtY1xVX4Zzri7zGbjqHunqzrMk1ID7O/JPLjNgaOJYr9MQAzGhJOza9N81JOHsMRcw1Isueo5sdy1Jdd0scdfeUlwphMOb9DP1OGnLK6XhaeepySC9swCLWH6vVWhuGW5xsRUrw6AmwTzr1lqRG2nHx0=#888.88#pc#kwdq7Nq0/BboeyMpNxk3Hg==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"店铺活动","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"888.88","priceMoney":"88888","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=889279775828</t>
-  </si>
-  <si>
-    <t>{"seller":{"sellerNick":"coach蔻驰奥莱官方旗舰店","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","pcShopUrl":"//shop229342273.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWKZQJK1kg7h3kwyeRP56ZcUkDair9qMEqJ4oKWpKFzaC3"},"item":{"images":["https://img.alicdn.com/imgextra/i4/2207644932146/O1CN01VtBLXZ1Riv45et2K0_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i1/2207644932146/O1CN01Sre7vn1RiuzYqF2ho_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01JIvVcZ1RiuzW63pVL_!!2207644932146.jpg"],"title":"COACH/蔻驰奥莱女士绗缝TABBY 26号斜挎包单肩包","itemId":"889279775828","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=889279775828","spuId":"8175214797","titleIcon":"//img.alicdn.com/tfs/TB1SMG7nnvI8KJjSspjXXcgjXXa-78-36.png?getAvatar=avatar"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true"},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true"},"guessLikeVO":{"hit":"true"},"rankVO":{"spm":"aliabtest723647_830745","hit":"true"},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true"},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35380","timeActionText":"35380"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true"}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":15,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#ItluBkZ9V1GgJqUNcI+AniMYpuHzuyK+W2QSF4g6siGpxPtrupkFFBcXeB/HaHlzhgvj416ijnAs7hfvagfiAha82zbHEy8qTH45jjUSJqHOs0ywDVK0lCb5N6Ris/VjmSQmjBNQFyn/BvWYegOdV0a03tLjaQo+2gFanS6PPE6EEEYxAo5sfLcha7G/ZonvLoWNAGWJtmfcjk3vWXV67ZdSJttTe2SevNOrk4fkP/CSEE9YjsjOs9WOXQJQIZUwStdFU/SIrRzCUDOL9/9hBjyaLMpKxuO21I8Clb/pB886NS7kADYGcf7epObs3JFIIBdKvgxL/w7kmiNOewuI2neQmhEVXjgn8rlIA1k6Fz3yNmAW5If4jB2TnWA7u+RqvUC6yYDE5vMO9QXvXzTMJ1vk93iadSq7i3IRrMc2WQP6RrY8oljGF32ZMY8rkWCw1LS18ygofRALr1af68G8NpxK6uv6McX9RIyhNFuJKQ9jkshHXWR/kS4PMxDstANaXRgfhO9jIqsaSGMttayqyJG3VQHXqXDtEAMcFC/QBnnVtUGYF04ydjTNispxHm+NdTx6yvVjUuT4fGtxLem/zC3TAoTCTCJ9xDT9Ip0uabcZm9fuiXmiuchkzhBgQt7EpMyuSarfJGzPeOxItZdruon6lWMR5bWkiPJ1Mx/C4/xLo9to2BdNy+CkyBAIalEGQipF9M+WljYCViWHGBmHWIVN6kmujiwo8TlXf5+U9qAIOiuK4c8KKxWAeGuvJXSMzMgQes2aHcjb4xbG1RozbY6UWfyHmrptkKe3JiTSELw56/krfimtf8FjKOKMjuyb8WI4xeg+Xm/hANLLynW8HAMyF2uhQux7hk/2r8Ls0QMR89BbxxByOzIB31npfCUiUcxshuz3dzhf/fAA7Q2k480m41x9jiRhUsIlgnPNxMtBdrfEXyzenXJdBSQJEaBkrRbf0Yp6CqWMo7jbqoekTjX8V0ZhMBQgqqvaqiHU68DJ1WlGfUd7630nUj0Wza7ppdv7+QREiSQtyhsWUrAXN7lfcQbbHU/jF/77zkqo5syCVgOCBZKt4TayjwFoBRPNNGjGFbcY6oERMl1fmbp1hLtZyEkzjzWAsq6hBDYmWAhOKgnB3lRbO9Vg5KpqYsaEQDpT4NOfI3/7HykWBL+ypls6OC7c/0I80ha7I7owaxP96RiDC+RVQE4P7O4Ggb3AMS0pdTZQlVikAiWRYrtfl/AP2eqEJU6/8vWr5XZSy2pHa75bBp12AykRO0KN51B/ss/U8bCBnviVm3mNN6TrEG7xIMvY/qMJCyAbmj3rcmYZnJeYKlw+DeARTrxejJor/opDtZKJeAiXt3bws+UrOqx4oL0/dftEDw4fCvjKjgqCWXRnxrV+SLlaxdBkZtmp+1T+6kYK1qjqIhPQTDpXSYtb8VUVfLI8HppCH9Yndqedc0y+71xRIDTGj2GiVpAu#4444.44#pc#AsLfo/tMaDo2/dDUGgHSqg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"quantityText":"有货"},"5903123315961":{"moreQuantity":"false","quantity":15,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#zKsmhGMSmYnSnfWUFwnB74ohUwtXyPyDFda6LzrRJvZ6Sg9c4UeHuyZehyBZEjrkXb92ioswW5KOecULi73c1/OeuqZL2Z7fFzuCHgEnyTpkYU7xLHKFY9853q1G7pACqQjFEATYXg2Jr6xJ2G2zhN30n6mXpI1A3lAuK6A7pmiSB171QUxOL2+d21kAr/CmF0Rwy/sHM0reD4OnwoR644EkMyqixfEHEvw+QkRKqFH9NvQm3QJy0wk1GrJn9M9FxBwGcYkkqC/HewEpVYazE5JAmLWEZTaItE2ufN0mEumt66T51/iuY2TgpU+0P67cO5EpX1rxjCH1Ylt8+0XiFVUS1qFZtrrw3pWcRn3QjmaHHEMEiCJQfoBUMOAjlk2xiyvKJzsC7wSnFiGAlbENDdxCSA7+pKYWu1NQPlYXcoZDE9qcFGGnsWXBZiXAj5MNT7SWEVrHzpg4XM+GRlpD4sxBIjZXylFE2VuqJ1ggMRSnrPHjFvt0XO76lNliNq+X5N19yXimCn/GT5+KddKOw1pv/F6op1UZpx+kOsY6NZxZpk8qLVvffyTpoieWesGbSOzqeKnvDprxa+tekFm6VeJKqMheKBJonfH4q1umoVpsXzth629KwJRham7ckXH87KksWAY6SnHA8K3IrlHwyIlxMlBAWO0TfjKcznBHVJdsinJb90s3UYlomw5i+C8yoYR6T8B4gDWSGMcYCFvAFGGjYg5r+LP/lBMRNArhDaJA2ycQYloIiQS4b6CQaYseVnFy1caparsYvzbggApbyEqCLClzrBbLFnnpTTXN1P/te3Iy77YtdftWnQkyQmPHB3Aw+tC7elkLTRPv+DfW0w5hPju2Aj0JvScL/CecQEj9kVIgM6/1t7NBjtGe3pd0khpJK2c1HX691QNoaftlxnn9t/nTZitbhdniEOXaWxUDzWoj/giEoSdBPdb/170DySC2JNzZW45Mv7dkYFD/ePpZIAumTfzBTa4g6laviSp6Khg5NbBtpONonP67CkV5Q/Ylkk1GKzENkKJ+vB6i0uN0+rxXtNFTjrlf1GynY0eev8Hkd/J9lfBjV59fPIxb7get5wQ/1xVrWGH+k8COofGt741/u+vK1iuG7rDuiTXjAPNgJAlsRcSdoFIPP8Jcxo7ySU7/Ry8VQcOZ4gaGFpmx2mEc5mDlQF6VMXMGlnvACUcD8j9GAbo6cPCJk6bPPMObMuETnodT9Ot8vs8ouxR9m7oRrQLK3zsk2FCfHFrRC3rES2BEp6t4VTXOHXzQHUPg/ibaqX84UPElL2I3koompvFVWUQLUGDiGe4CYhuE6Od3HrrklTrmtakdrDT1m4cojfZyDqsU+kAjEsU8yV+WcA3aEHPaozHkbud94AaddB7AiCCg0aoVASxENbt+luLJNz6IyZN3RbT8dSMsq5I8LYRzpnC9/gYfRanWa+s=#4444.44#pc#AsLfo/tMaDo2/dDUGgHSqg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"有货"}}},"services":{},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:10446283934","skuId":"5903123315961"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"10446283934","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01WAryW21RiuzXVaS2y_!!2207644932146.jpg","name":"B4/蓝铃花色"}],"pid":"1627207","hasImage":"true","nameDesc":"（1）","name":"颜色分类","valueMap":{"10446283934":{"comboPropertyValue":"false","vid":"10446283934","image":"https://gw.alicdn.com/bao/uploaded/i4/2207644932146/O1CN01WAryW21RiuzXVaS2y_!!2207644932146.jpg","name":"B4/蓝铃花色"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"5250.00","auction_type":"b","x-uid":"","title":"COACH/蔻驰奥莱女士绗缝TABBY 26号斜挎包单肩包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"COACH蔻驰奥莱官方旗舰店","photo_url":"i4/2207644932146/O1CN01VtBLXZ1Riv45et2K0_!!2207644932146.jpg","current_price":"5250.00","region":"江苏苏州","seller_id":"4f1e5faea51a5939932b2d01ad2af408","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.tmall.com","mallLogo":"https://img.alicdn.com/imgextra/i2/O1CN01a69z6z1hJklCkBqOU_!!6000000004257-2-tps-174-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop229342273.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i4/2207644932146/O1CN01VtBLXZ1Riv45et2K0_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i1/2207644932146/O1CN01Sre7vn1RiuzYqF2ho_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i3/2207644932146/O1CN01JIvVcZ1RiuzW63pVL_!!2207644932146.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进店"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop229342273.taobao.com"}}]}],"overallScore":"4.7","shopIcon":"//img.alicdn.com/imgextra//i1/2207644932146/O1CN015nqRsv1Riuf1RtBeq_!!2207644932146.jpg","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.4","title":"宝贝质量"},{"score":"5.0","title":"物流速度"},{"score":"4.6","title":"服务保障"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","shopUrl":"//shop229342273.taobao.com","labelList":[{"contentDesc":"88VIP好评率96%"},{"contentDesc":"平均10小时发货"},{"contentDesc":"平均6小时退款"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.5"},"titleVO":{"subTitles":[{"title":"可开发票"},{"titleDesc":"如需定制服务，请至手淘下单","titleAfterIcon":"icon-taobaoxinxishuoming","title":"定制服务"}],"title":{"title":"COACH/蔻驰奥莱女士绗缝TABBY 26号斜挎包单肩包"}},"debugVO":{"traceId":"7d27672117647324741378482e","host":"taodetail033005019049.center.na610@33.5.19.49"},"rateVO":{"totalCount":"0","favorableRate":{}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"江苏苏州","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"48小时内发货，预计后天送达","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["奢礼定制","假一赔四","极速退款","7天无理由退换"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["由品牌官方提供的礼品镌刻、礼品包装、礼品卡片等奢品定制服务"],"title":"奢礼定制"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["若消费者收到商品非“正品”，商家需额外向消费者支付商品实际成交金额的四倍作为赔偿"],"title":"假一赔四","actionLink":"https://rulechannel.tmall.com/tmall?type=detail&amp;ruleId=4400&amp;cId=391#/rule/detail?ruleId=4400&amp;cId=391"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["支持7天无理由退换(定制下单除外)"],"title":"7天无理由退换"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=889279775828","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=889279775828","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=889279775828&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=889279775828","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=889279775828&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#ItluBkZ9V1GgJqUNcI+AniMYpuHzuyK+W2QSF4g6siHS22krDgZ09qzusubeQo6zleyJjG1P6LRvvpg4Km9jru800/Uq5Pa8+zWnxujDFM23od4B347QwCyWrg2n8duEbkLf3GBT3pqIVKM7iF++aRh6qQt9nYoWY9DMr+TcHZVhuxfYvnJuMPWfVSCGvW/jHeOIGeGpOzkN7pUV7bLVWScuaeJBQ9z36wPLy/7emMvyHAx7WEGuyrpH2rrlKGSflQ1FW2dBqDlnKfUb7UtoOxnTuhYKrUV/23Jqd/wraUNgz6AXnbhqo+jfMb/A//vwvW6mSnMIpGGpzsM9ZikiQ+hdrc8Z5rc9FBpB7m/czIU9fKjudWcJULX1AbO7ZzHJDbtZztUk7oU8h+iBlSTl2aLR2GcxM5OneRnDnpEikmCn9PDQxjsFKhaRgunquFLvtCU8rBCBEH2JZstP6gtr9PNiEp7gvKGT1oa8G/FhXWCw+pob9QgTdpe0AIIz41Tg6N942Q1rFZqo2q5bYwEIp5bHBMCTks645YQ/d3oWRfdmb6LDWle53Y2EU57NPO6SEtHCUOa7BlfuK/G+ov2SoMNrYV2vznUzOKtsCD0Acpy4RsjPcEdHdeoIjBjngOIbtSr22sIHGgMxH0naUCIr9cJ7hycolLwxkvtIWLje/m7MMUtoJWaoT4SXAl9cuMJen4le4hBfahxXgIcJXQv5YTMPmoLSiPMxWlyIJdJRsa+NfA2PG4gp3XlO9FSLSBJ+fE8rPE4VOgVyhlrPT7ZDE9Z9W8INttiyB+ajhm4TDYwYsfIySm1X+hZShoyYK3QiAthhv8QVJQIpOaZUD8rAa0xnQ+VDv9n9MZBF1nBMbAqjEx/OZIUDlHgz4/Ay0Goewbnvj7FvkJ3ElxpSwxVBbRzFBt/+5KG+2Y1Z0OVm+VNEHSmUVYq2wF9YDPCNCfYWazR2TkpSpIXfSPX+9LJ2VcoOVmBo0HY0Ocp6nPhy8sSO09Otzq9Y5p9ObDcjBaodsKRWxLy6fun6tQpOppPfZrf8ejK0ovJ6Y/TDQ0Dr69si+DI2tutRm5ot3jmJ0Cc721slZMjkhLeJ6rM85hwigVzoj9IJMbUatUSewFYWBN+gbIL3XRogMRBoXK9ShdTbQS2nmXlHXbJ+raIvgvQ84XgQv62HP+vU04YsXODZv9xRaguN9OiWm7hjnw/cpRrpgoTRZAb8vOnLguoh+E2Ma+LcDg2p16RONGqXc9Il+AV1T8j52ZrrokXE+RNo9ekI/Y6NEcMTabcH/d9o7+kIp7gT4yJ9yaMzaMH+zbyCVlsrX9/a1U5yEqr26D9HnKfAzs5Wuti2DUd+AIaxPaaJ7bE7fPRrm2P0AsPZDdl7XEUo8ZiETD/MQnr95klc2+0gn5pYEMZiVxEAjzN+eyG6dxkvtpOoJHUvNtjA7kIt97fnGv59cveH7N5iSYPBoOPl#4444.44#pc#AsLfo/tMaDo2/dDUGgHSqg==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"店铺活动","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"4444.44","priceMoney":"444444","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=989290874017</t>
-  </si>
-  <si>
-    <t>{"seller":{"sellerNick":"fghfgsdgasd","shopName":"翡翠香港代购","evaluates":[{"score":"0.0 ","level":"0","levelText":"平","title":"宝贝描述","type":"desc"},{"score":"0.0 ","level":"0","levelText":"平","title":"卖家服务","type":"serv"},{"score":"0.0 ","level":"0","levelText":"平","title":"物流服务","type":"post"}],"pcShopUrl":"//shop167149675.taobao.com","sellerType":"C","encryptUid":"RAzN8HWTtfCoXqGZCAnN4VUCLcpsu1jgLwuoGF29sZKiThmyo82"},"item":{"images":["https://img.alicdn.com/imgextra/i2/2221000821399/O1CN01FVstXq1MCnCDxuLCx_!!2221000821399.jpg","https://img.alicdn.com/imgextra/i1/2221000821399/O1CN01XmtEeX1MCnCEFyy9C_!!2221000821399.jpg","https://img.alicdn.com/imgextra/i3/2221000821399/O1CN01KT17M31MCnCD2RIPs_!!2221000821399.png"],"title":"COACH/蔻驰女士city33通勤大号老花单肩手提托特包购物袋","itemId":"989290874017","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=989290874017","spuId":"0","titleIcon":""},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35357","timeActionText":"35357"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":45,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#CwK75vaD5WaDeE4rqFIinvePk+4NGT8XU+ABcnbtYxryXImsooIFsSflXli2bLB01S5UJXldBaQVAy8rmmOX5M4ZyXC2LAAkmdwJGIpAogMIxCgECJBg5mDx/cz5Kqy6/0Ffn2HOEjyYYGhuGsVCr9LwI7cenut+XS1qvcfMmMekVbjXXzP7N+k8OwdVzWgaxe+O45uaKG4r5nYkIVM/OR/5oDXPNa9b6MfBH1oYp0mmhZKHTUjR6wRW58vuLli94CJ5E5CxFiUxWv7uRhSGebvPXWf7O6nQ3jzrmV5leaSmtGdzTPX0queZrnOGP3sTlu2rf52XVO9+H4g/Mm88zIhKx2wXQtbVSzMNHD9VzjaFgWbcA3R+XdgtMfi7eDQHoIihAgIiqq+Fa8YJCb8+15VCKup7hF1x3Bx91Aam1K5g6ZpASiIRio/9RfEssK3PS89wFqXquL+IGtEWymVWWMWBuvyQ1DDqgs3gIiX5Yrtz9PEv29dssyeS70owqS2eDVX4AnoapULVaHz2I+UJwjp6nzx098Exn8k3nVZAUzbuK0W4pTRVcV7RjxNdSWBVvqIhSMEZJ/rxe/U3cjL5dogSU8OlbBJ0dfFXHv/zel/kM/A8uG/50aIz9o7AonVTBKv8B5o9n8dDVTqEtWzhm3GF1F46aJJa6ZoPW7cRvt/BKZ2TUhTwOOBf+lXdea0Y5jtSkip9fizE/+uDUI+hedVc3VUpmxpGWYrm1cbdX2TVOZm83745k3+M6Cji2e9yQKTaNKVzYFgi38m4oZhezqTq9nMoacPXDimsdkB8sNXncPeJhWwfAxERNAneHTFASlPU3xaK4LfKm6RghrFtkTkJqkK9J11IF1LZ92kbsRcgR64EifGWuNQw03LXI18HuFEmkuSCYdFHPy1WVXncfbkmm+X9ZNS+5mC9IZaB7JK2k/XuRgiORiZM/DM3cQaUY8PgGCRh4GiqIT0mEnnNxyLKSEiYIccS6ppzO11zjjtzB0t/Xo/LFrHqYl9BmYZSAD5t9ktTlyVxKsGY93zFNUdwQnpMTMT/kiaKCBgPWDZcvUPoQju0zEZlbbE3qEPEghOHaX7mIDwFxarqPZAvNTppakomWzpBRIO+VvLLpHNpnj4F2hC3sTOwUhNTEOukOqAPJD+Ajio8JsXhdbC690r1W6ReODHGZrQeb2vsPCa4YggFRruiSxqsxGyh2DcOKnSV5wSWwknzgNGnGnmc2oI51/Q1H0WLBSUIzDV3/FIt+qQWA4uiwqpnObKHZr5wppH+4c/KmuQ6zxalvF5rfghkfg/XMekBLi3Qh1+yYoY8azckWEa/Bs5c3Tk9tz2hp0pTQOQq8GlDGRDmT/hU/c6Wk53XA/K370JPx4xh5rD3k5/RKqngFWeiskd9z2Xuri+3DbepEgHPiCfu+UMJ9mlMjDfaET3vjBbbcMxYXKw0Yjy9SYmW3/Yiqa+eGRtLb9R64sEncpX8L7J+46EfW2wIK6mKvS9tb6cl/i55Qz1GkDkfRZEblJvb+1iNMOo1oPmecZ38lu+OrfEhGy3RYSPgjXVPRJaBKaG3jonS8SQhXFP6Hhlc0zMAiklShYN+LQoknLvE3Wt/NpdbE4Fpx5LFwjJqY5krj+j1rD1ZAbQbkSoQAFep2Z5OViMaolCMxLmFgPI7spiSKW43N+/Ayd4ggj573c1f5FXBF6xOQtEmE/aqNQefoFSZZli67BBfx/1HmSw9uNsfMmgUdIoY+y997spHS90ySzKd/uY1aVpLxZHaKdSh0x5Z0obQ7Yelr1RcLiz5kegzgFkCHuRGJ93x/w/f71Kxt1fkuRABHZj6pbU7u0jVx4QZVRUujHJ9keTKLuc4erBf/WHqf4OZv/ghphlTPUFnU0j7QOZbDAciuMoW4C8deYSfccIIHTCOaEop7qfhbuUsAPrMrUM+Vxqz5T1iWvRRZ+NLUeMQRvrfgLiN6aJTJI6X/h84c1Yt2SiAvhzT8N/acuH4JMZYt8XlnwJxAuVlp3k1R3WrFCByZM3u6zY2C0ltoNyi+Mav9GD59B+/wG8DRaNNXJjPzCqlJtEX0DgcF2XYjXR3lik0KH9XjekPd00tp5AAXezEh6iznWd21Bbgcf+fOSHtzA==#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"quantityText":"有货"},"6122136002927":{"moreQuantity":"false","quantity":4,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#Gbxqf5qxKkaks9yT5ZYWnHw4A1aiI3PGUbGnBt1ACDRTwIrnVHrzijlnOJelajcsK6pQ149M33o9V5RN/D3+I9EEeGL10uf51sTRaloHzHpUS5QgVEnN4DzAf7zNIV6d1p9OfytD01TfUsAOPAk6N5+fDb8GfPwu92tOIwQeTB3ucUMyx7jHS7S01RWEG7ojin2Ist2R2TyhM7VeQ1V2yFwmFhdO5PdXc4lbKFhifjj01ierILXjEA64aJMfNmm/axzNLJfyA1r/3R8sTo4zPAO6auQ95qvw0i5oUFyOD40BKpfQ6rMeOSlRKO3YPeGfS4/g8WbrN0FBq9slajLzGB2NnAPmZND6iXE9PNoe7p6cFxTJfsp2f4oKlC4J7h/Te38JgqwtLLrkc9b9ceABMKLE70Ow2FkE4e8WqFseYCCehLQrJrZIczQxNh/XSWtRHfVjbkceyTAtGSWhPojGkn9iIiFDVtWT6uqk6KuMqn5Ypt29YQJcvRmBK9XVHGNK2/QwoPG2rQiLi9sA/YRvLZyQHv20nh/JqWmsW2hgkROHLc+qdcwDa+eF59Z/9Bat1w9X5UXDNWd4+zi3WyMKBAYX90oW/rzorTN7VxrZFlfXjmWKNF2XdGXJJd8RNR2T3qEJb3Bsh2cjTS5FMhwWLDvI+delbqtBiEnNitGEidcfgcmgTQVorzuu+BJs3wUqH1ne/qqYtD93M5RwlZowNssix182L8Se6jzkv2tu6h6+mCUc+SwI4e2ALnyv4POmizxM1iq+6BBPCcgO3oNrxbRaxVNSa84JJ4YhGwJg0wXBU5+Nj4V3OsxaScuqoLsHPR8ovRFst4LX7iueENGtuPAW3FEtQDCgGcCQKUYnvZ2wSEPJyk1DOgmtfgKsVp9xxjQgsuik2Ps1eqcN2iz8HlkqHXJFGRCUYmuJacI4kqGvbMIT+jeqOYGU1ZmF2B8RAljY3GLGMWAgCaFfe1GhM4bOR08Ouph7wwXOk7Lh+7TRvhgY7oCaYnMjOaBC8bpnmFz7R6Cl6OsuAARVQfjRn5q6ZRsjMooBcMp4EZGI/Afq2MZdwcynBrew2K7KzUFm2UsHpIsdD8tKTipmU4olBYlLXUmckYLCRR4NCm7WETuQWpPAw9PEtfzSrL42iLNQDG7+s/OD56Ca9IpEybW2fO/Pbrg3DcbhvTB5wYf2vaY3//M3rmoeN30kh4ClS8HJ4zBbD29cYDbh+JLdr14jQydBCyku3eCa6o7rubfE159tcWqWTspWP4lJEknh3C2tNKXF0HFO0Xp0X9XcvMJ3oac9UURSc2y7qJwushlpX3fXgjlelqLIcOYrPMm9DWUEpIetoQ3W2QKFS2ujY9VleE54qGY0+mEFJVrxo2GvLRlV/NlBcanBkKe5PC+dndjbwxRbOyQ8r19yTSnOYDGZh1S1ylPCskN/Xfj3n+fxuPizIdzTrnLGDDMv5wMiZ6bVoDM8A6kyUN+QyOR/7AapqDOxF49OAQz2fWaNP+Ernm9nPrKW8CyfDwFW2bmm69xKveB2nl7tmTs0fUHwW91a+YD1DJ2q9shxyeMuRKViv1OCYhWdX6ddp8FPSDd2UdV4ecD8EWNgmGpKhAKDdFERDjDnnImdKam4tBXvluf8b0H4vXzms7MGT5aQNHzg4ebOXDLa6dXlRGgq07Jc5y8lRcjNZN0XD8rJnVsRD+y/CHtdqcCUV6ddbIKAnQYdz1AZ9HnPzyF8sMKdri527cvqSMstcLXw61aUZWRgun39wCVy4xLaXZV4+o7pxOBvTURgKcaIO+MixhTJ66brhl0rVB53yeSsO4LU5lgu/aT4pnhYjxdCVhuxwpzLaMIhDtEN/QVYoIYMRxaYPW+QG5kcssixD0yDgIZtTJU8yBzNaZwT9cDiCJcWY9213K/LX0Mk3fLeoNV6w7GULrtpMHo57yjloDr4Pi2k/gfOae5ZttRJ1tmuauSq3wDJuu808Na7P+Inoc3CGZSj1X73hOXGyNBoauKs29djTQjhdCIojOJU4Y01UWNHOFd8Jk00gP9QvuT0z5U/SSKHTPgY5UqAeOBuDP2YQ5u8sVmjXnSvYh4=#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"},"6122136002928":{"moreQuantity":"false","quantity":10,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#gBchaAAUA8PsiTk515zVCTzeiUw+pKtfMEibsg0Bkmz2I5dA6FC0CipRun3In45Sn1XrCMfrOFfQEYRYKbt6b5WzzqJ3WPfXmpmalJvpQZ5uqOHz9a6pYp+10OcLNAKq9RQjFSfRkF8Y8DnAjMjaQojzh8h01OxsI5ejSubPPciiiUZVUXiEuekC4vNPuAcfF5cJa3ASvzGYG8bhotLskPyGFqdCZEEFT6KW/pNYSfe2xi4tVHKb4Fc5dv2ccuIPTL2FMsXe67Mo/oBFH51KKiOXBTnakRpbHKQ+pgaxAgf44tGli8hsbEmripG+zC/rDr0i5hePIhCtYJXoAkcRJtz4af0v3Thr74t8qkOdj8Hu5PeU1gokzstYKklsREvghy4PLLGCKkbiXqeXvo8iowvPlbEpYajRwmlv9BSHHXVqRFpk8YBiVaU0bZvTu6c/7Sk9FwNQNLnnFSw/PAgcMFlAoHE8FlbUTt9AHZX7DA6M24/2UJWY4nqkkeCc3wwtkl2kjzf1x7hvx6HHZObWGAPypM8cNXTdx3zf1QAEd9VNo539RMRsFWsRJa4bmlZa0uOv4oYJ3uwObOt5MuA2qeTW4qyujUl3tseu18DFQH94xbMfHf5v/vv7dObQiJVWnK54UjUC0qIRnMzNxX+Leh/hiMxkToEv2A0YelMQLEeegULs1rLb6I7yHP87Ez6LOx8F7WNxRma3HsdgE6kpV5Tml0RMCiYd0AuDeyl9dJ1fNi2Joq4XogpoLKVTiAmNDzRDj0hV5zt7E10h/6scHb0DfzpTQh7qoZpYPOPZTcl5SC4QyTmY7hm1EHYMlhc6YWPHIPsj4h3DUBLCnU/TREihxRMND/a7uOllY1FVoeyggGqWkibg75n4bt8yVMUscnIpd276qnRIrpLobcayNT1CTx+E3PIA+TJ9VHLGJTx//IGBCCAA/FTK3t3yuzMsUCRa4n/OVsrpBZjZVjKPi6eXdwm6DIQjyZK/TPJWfSegSZsLCzqSJUfUiKmCwee2/1owgoWuwKmyzCjd0N2T0dKsyPnYUZfQHnE4MrZdhPNjznEZ4TFanNLBgt38/ddz7d11qCoUsmtkYZI17EP8uFAC93PskTP4doQ1BEAyiMiOe63jl4r4C5HlkZrUT4WQCxWM8GTH7/QsYDgsPYTKHBVWkk+1Xy6rgAqXZVm8rJMk9CuTuNa6cZu9j0ta3YsveI4K8nZjAqDjaIONEtB0zYD9UZxm1003mxeNLtCdmfRqHblkYw3QDyCBHNisj8NknVl90rzwWTRvE7p6Y7vzstv5Zxho7XHNdSC+68bYAk2cP0oZ+/H/AAieE500gvueun8LDW6i5X1h36zWse4+2CbkJ3JqZIwVAe70EtKmPXhC2CR8czwDX298wK3gcu4+Fp+BUS516CKze1+3lh3xzuPly2h3CvB9bKyAe1TiDhuIWpeKaQdnbepfuhbl3bx1xR2yovEmLU2Mj7iMiAqaY916INTepm/7NpHK3eT1iyLeX6HiJrBR6G7w2n1SAoOdSgBRatTBiYOUKOeuZFetJJtsXt7aV+G9KTJ6NhVJx0UzNx0zeRZQE0uOUtIJFkr3toSZzWuTWqk3qt+t3A/zCe023jtOYekP7KFslfhzYfFSB751KVbjtZpBO8Bts2klqlSAe+NV/9+wNoIYJQMUrBOTzzjztpT/mlroRzx9wHEzofoPE6JTzwF98ZIPmLXP7neoG56MdVD/YelPzs3qcowmY0eLPBqbTnhfLbwpaJPpzlcTQCOs/dXGhGbZSKp1WVRjp9E+QZx06Ok6DVJ2WZccFlF3x1nxE3Pf225hUxISMHQ+pN1FKM0m/ZjuYlpIrbzO1BSTFGINIxZ0Z+4SuYDMyAD3rGE4JeQw2hq3z+CwpoNTyNpWGuhWO35BdpYJOJjnyr+JyAAfU6sdG7Qw1XOQ1s4aJuPWq5AWJXryMugI+RxvRSjStoFbgfS7GxvDyeltjN+IpYP9k5U78QH8XxmFe56OSLvo0ptYDpyj37eV11qe5KezUSTGOlDcn1zRHXl2VoOKe5/qX1Gnbnt98BjbXXCeOvQNW+RI/Bxd4kPz0bMNUzhqmKNZB3N5SYySHyU+lstijbl4RlJHeFAh2g==#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"},"6122136002929":{"moreQuantity":"false","quantity":10,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#UwY5aloJsSnIqxhT3ZMtNCINHDY2wP/8Vshx2E8flueFOxT0Vd2weGLrE3AsBXzMKzaRcuTadedOTg3BpROG8Zd3dG6Uh0YlYiliYv0cCHQU44pY/t6+4Ex09PU6neMgDP7RRCgjd6gKlNpHe6Fdnc+rMCeIqVdRfk7M9ywF2fRoGdnLUgECi2V7eV89h7QlsbcJMeOME98sOM8UDwYu1L/hdwAn0B9sUfzfyfIFBty/VPFFkUSXI4FGKmgE4UWhZGuoPufJ23p7bYvXZi/mO6Nkw04oDBM4vDcyKLEDb6+ScXx5510LqB0zYQL5WS/j4KnxMT2dyVoCKoicTEh4SBUcvE8ctq2ML1RutevTKrhJwLm5IAzkWU22t6/u0boBjD1qB6BxPGNXwN0qMKHpaRHAHbME/DoUaB/WgpC/e5Svu2ie4qnpZp3haTQdUjuzWPJrXw2V+Iw5vvtzIaAf2KyeRcqatCnpKlGUy24cSLtZEXXTw/6QOic3c/Zs6N4rLXXSjpAZMpjz6uNHtySuGETqb42qIHrMReQXEUc5GcmEOyD9xXNVucovL0vOk/QKNyLOnF2BJmyGQsaO5S1pYQ3cK/pMM5mfR+f8OXjQq9QJcshYHNL6/p7Lp43gqY5vDKb2IETxe7cyKohQP58yEtZOyY1DV16wjF87A19qzJ6xsozI3Kk9FNb3skuhnEIsu9sdQBlqJWgvZubRibu6KnpJUnCUNXxdIYdzgEi9DWur4P/OK+I7LQEtk/dfN19p3WipShySJjZJRSYqRxs0BjUUUHWRsqmTSJxbsdO4QgvIs5FS/QXKO07yOZMtSEQGe1o+R1zSXAsEOjHPI3D15ZFPP74fjNzGjVWZHLavV2jRsaaB8nBkhOsbBxQmVfUsCVNtJXfinff/fyLjgfzW6YY4t2GSsPxhf0sSQLkdXZy2scmOTGGpf8sE3dcDYwtwQKuAu14umeupfAdumBUgc2Z3AE53thspYH/nTkBF+3diyBmuyjcwzi/M9PpV/RkDjbKIQV/Y8QIDvjjruaprxo4rSxniJA7sqdakUPmFCP5u6lOGGb9ChDZbnJkWuFbmakjXfl3IaPfHDcO9PP3GN+Hehx1qE6sO3Utqs/TFbnfQJmD0MOrWOpWyWjCCb8QgyW6Kpxg+b5MhMMNVhLfQvqVq0e4IPChwaHl+70YviWgUoUAW6VeG132mJuW8LOHGzw8mcKujF5Mmx9ZGrCkIt83Qz1B4eH8X9+6JqRHJxOCqXDDHttDoUI3D9hcizekav8MRtkO/FbN41mvxunr/IADL10kp5qXNCvSaMoY8uZm2Q0WryLBkLIflTqUebUbQh3oEFZDWzSllovtSm8/BB8CDvGl3E/NccubSP6JJzhyXeovNTT3bG3if3rVCweweaA49kmY8Y/uclIzNon9wgAj0dpgzn6LXUYHvJSac1MTd+sOUidahF60Y8aFoizndcxF0cw/Pm0nd8yHSJbGqGJZEUx1tEzFDg96u8Cu2VoUtLpWJ2OewwGiZh8G2dQ3hbugnOgBjjVlYkob9r4yyPxOTrJlqoG3M/EUJTOzbkuquVVkRHfSan15sm+a8s+/x6YNdlxjOK/56o5+amRuUB4/iGQLlorXNTHsuxQ8ciJcocdsAbMgn2iTOAxx/i+pVyZk140Bi27lPdu+sVohb8yn4t0QxWI8VX+1sd7n4yQhsd7eVddizPxCQ85YaRznUpUQ43ZluLK9ADnoOHDKQL//EVe9wgS3UDTqJfjjWXiwsgbcGd9KURL8GMDRaS8+azBDzWH7zc76sUcbEfEOgMUsl5MYFHjLWGAJLF7XBx+pCqBqvWBTV1K/VB60ok1OCtMry8xxLCALSs24aEZIWx+FW8IHbrvxONz49+MJG+gOHJNAdIK4s3LtUJ6Q3II2N2cVTR8yUzFBV1S+RBcEPOxKZqOgdk8MIK0SaJV9hLQWIgqXsW28fz0nTaMVyAEMNEhpmOia96W9S4DJAwUJnXUKGRxlanJX1hPiYP7GLLd3lcmYcINBuJQlkDueq7gQy8JMuQarn2w+wpWx72NX9cA==#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"},"6122136002930":{"moreQuantity":"false","quantity":10,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#piehXWzIAR4/KTaB9NGFxMI20KJrkKvYupm8Lm/saMQbXbva6RJ+Uk9GlR686MiMe8TnbonZ1bm9PkscZFr0AWv6KN3KRR3ltCUXGQTLEVWsMHvr2n6gHOfKUW+ZaBIFCVQnFRWwquGgyRpYxMqcP5vXJCKFAmkqWKmkAtXrI2MHWTx4cbzIwShobVoNJgrdlnJ++DN1lqHd1aNbntYRurwJIyykF1PC1+t6ztPY5Fu0gGjHV24/2xXc2UPXdu2gt8B7U8mbfbm1uK6kiDbB/ffA2uK86nNwchu+tGsG+viznywtyS9imIFkr3CHq0j2Rm533HzjFY4XbWTEUEKgWy0zFWE/xj3m6ri0Phfq4FYBtxX6eAv1vHeGaevcfz0P5+PVRlrNSJvVtYDdBixA9pnlg6WBRCYFYqPyq3iWYU+K254PSa7bFPxoCyevBjc/DN9Bm9rN+YKn5brNzpxdz0aKRwhl2nsFOykyCOvN1KHr0xwwmGMyX0XwJtI6EuiTJXbrsCcczJQKJ8G7Xkdv9kgfYXHjUPO5vR7waWWlSvmzjuJtkFVicDfZox1Qh/7EpKPwBzDlQ6YQRxyef6exGXeRO4wXaDMjc6/O2bhInXEWEhidsj2tyuO6/tQZZexc0EkykDL9EueIPI6ygDtLnCjR5ZicRopXGDop5ZiWcWUVA9u/1B23F1Ky6xflEw2y/LigqRwFl7MjCqXzpd8iQpe/1YXSnb1zcq37XpYIHuq2gY1+0xi5jnhbB98ECR3+jW/ESgAphxa0UMAV7vt4TznHaDlv+v/MoqxDD1Y1k+qOiYCCoGylrranL/+QS7EGwqwwR89XwqDh80RTw3H+aemQPlxrQ/2+cOT3RPHkdtnVU9yxxXSnZE3DzLoYHLetsLBVeerbjtoQZCqzG339x01VqQZe04r3Q0iYy7J3L+UQs/3fDI6BTsYIFVGLXwvh/yJl4HljrFfJ3dTTQBVb1/vwBvm5Q8j2n5f4ML5EPa8cYfKvqk8ya2KUeVKPBy13H5PpIs0qr5zVPd3HyZ2B3ej6diRrnAl8S8r5zdYyt+hAYd7KNxPbtB2XcYjM3faYJRSYVjsqg7VKqaE09wrkprC434bRLuxED6PEfSLab/igbH1Nk4y2Vj9On5JS8xIjfClb52wFe4ADjCW7RiLB8st880Tc84MH/JfUGEQrelRyQF4sdlJd3C1WX4CrJ4YQFz/B/PaoUhUq6kRdA7PozSZfmsKcVM00Exq6VBaF6ebndRQO6tojuDNDE5mjJ/2Vbdzfy6JhW+lz2OFmqb/M52g+Klv8qNhSLA+aiQtt336MQiXaN/WbH/8Y5+Het9852aTO+UK3JTrhMT7uyP2+w0VShWCawGkrlzKI78IWGfD4jgUsWf68NcxqGCnP8I6UWz47DpjoXiwnNt+jt/iEaybt2GxlvArgirx52j0hUwUk3WmozZz2x4sRhH/crkm6KBcOZD7beIJUORUfdMQoPvfUonfNgAE76ZMoTXgQ2Tyid+LkcV2CCaYElSDtJprGmXKc0kBjSoBW1awRGRCang4YCG5Avtox3xpij8GTKRLJgSC5TyV4hXh6fJE4ZOk4jpovTBQrsAqyOdQ7Ua/aSXlJdXf3QV+k00IOThPq3VauZ3Mw9ab60N//ohHHGnY1sWu6PGm0mzNp32ESKsBrq+COFR+aHxMkmowhlBNOSvEpkB2EUD1/l3RFNaAJUT8QXhxQzqgv6Kwn11XM2CzApHp5eS0cqx4xh72LtZk99ngqrMS4B3EFspXxpF7/2l90ZDMHBmm3OiNMu6N6gRQ8nk4vxKkcVlB0QVKybP/CqHgxZlLVso0Va2qADhrIx/TjOq4yws6sgSrYkU2NOKt1ROjVEuSk5QU2qhKSJYQ3FFbemADfpugNkYDcQ9zjrc25Mh/C+sZ2oY4ckJ7+ugcd3s2IAfPWWVRi89paZNXNX5c9Xf+f23nPAixlhG5jQTMqbwefz9QuMrI5KGWslJHCLj/B3RlLHw+q6MjCByxM50JJhpQpYRvzjztf7Hq3B47i89mkednnmeVN2yqYLyPaxdpbvuQJelyQbw+d9QE4JYA=#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"即将售罄"},"6122136002931":{"moreQuantity":"false","quantity":11,"logisticsTime":"48小时内发货","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#jJ3TkwW42HYg/sNJGj0EVWAmsxBdVLJ8s2ZMI/f4na+WOnpX5Dp9x4fmKz/IL5WFUmp8l91CxC4Fzb51E5c+hS6Hp/6TEI7CRkhKFGi+T6ULLz/JczOtWAiminiRvBXSnOmj5qrzWwYobcKjq0oo741/424nbSoD3w39SlflFnNPiXrmtgbCQ3YZLU3rTHpUhxSKNQbJ0oWswB/2WSXz7aPS18lKq2Je8vK01gn+3VrXt/ZZLpUtpE6ETkN+1wJNVQBgW0zicZLR0PPms1YXPYOscrOcAIdzlpaZR/xTBeyAqkZ5f90za6vtdSEVGw3/CrzDIhKNObZAlko2OWtH9H3IutFlm/FVXD/pEyFrG4Mhc5uFIBpBL/xt4nrQmQPnfCaFdUdPHEeg3lxG58KhEwdpkWXLOIJHtwCqVP1B9WM2xtXz7e7gCEkkUTRUCnL+wzs+gRr73VM/ZFjc5+pYJSsghdCxlUxVuw0KHN1LRD6NYNKBESDZfEPb4uctRl2tl+gEIAVF3W3M0c2AFrxJeMeuMzn4LvFr5X3Z3KSOFFq1gU0aAm6WNRs1NoBsYWjPPEv5mfkqWz+8JLYgXQxMXslOB69+2Q2AUbSlDLILEOmGK8EjfjNinT/KtZwdZ/9Q5E0IKmkpfFDu9bf1wKFWzsMcLbRitrT0d4J/mU4YAt3fX8BOr1RlyTr6Z1kGVlbp9Te+Rd/3/srwnFlhG6/cdELuGDqjJaTCn3mpJDy0YRd+FJM6GvN/FUolWx7WeNOTVVrNAxLmTRUMO5vqGjCE7HvozKcY7c4nhiRDE8IUJkbozk/yLkhM2Bcvma/HUVQN6NLLsrY4oSp+9QQICVadJ3Y7Ou5ozW+yu25v8+YA7ArCrm62xySXxnXPcSDgeNByljqsGrwW9poH9McLWXORos3XSrqCRtZPwt70h2THT7ATDKEVstwHS5QsZZenV6QCM94X9SK2or9HkmYiSb1XMozi5YyzoeSEqGM8Xallad7Mo++lNjty8jclMwg8h9QE3CvvHvvloND753/1iWOZkv7FUVnxlf5q7clcUwmN2dJ7z6F4ajhSEZ1UcRXAzDSANT93xaF68qlR23c7abUUm0KcbtrliAP/3FmQD8vUUArRjp0aTUUjJl18mTJN8lLt2SVLLWaYKUZyIeZ04LO7HgEHxHPz5TOB8iit9hfUb35FfJ24/bezebfRlPkLIbLCBiiu0KeSK65viv/aLmSWjQ/17ZFXXYUcOi4NpaUuKq9JhLVsKIwKzZxttyLU54NolwrLR59byYDUNgZ/hdlPneI5/QvHhjIxHTiMDn0gBZg7lFfxBi+RoUizMz6I6q8TlkqOax9IkhclR+liweF3tcqCnixsvGiCdHugWu5xUeHDCnLDZ+0g8pIi0y5haGujUYwkqqq01Jx2yXHSvVPb8l9IUOUTZ1XyMw5qbspOHH+gA0JDC/uCisbye1B3bKg2qLvXoHQk6emt4XiPeoQQjN8LR3ZpdEZMXag/lWfEnXESLR1KiZVwD7AN3s5dXBGxKR8mOWcvCSD8jcrW9JYR+w/5pfgvvE+g1ayuMjrTgpjZ7v1vNpSxltOPNkCoE9B6EKR54SPeesaH9a4SP1jA7t040FutZ0zoBQBFlcZfQ7aB1hyDaadtstUP+FddJaA5C37IcQ5vZdH1Pi/wCPdEHnFti6miXoI3x5ccYwsnilNoO4fRysJ1YaLsu3pe9YYCgIjK9CZmTylb7uqfbPVYeK86oYE9OXcYNh4VAUkFyp38aTgq7gWYxC0eZDetmhioHPa8cs9aN6SuzZXqFTz6gK4eepM0tUJLYeRZ0Ko22AXdCd0N59XfSgoTWmell6sGaIM9ZAxtrj3wo6jcNJ/hQm063IQJ02UCXftokLeUUWLR8s7AfL8u0hCm4U8mMSSWfq1YruErxlIXnbd+j/iMgUwZ0LxG4zjge5Cw55TCAaUUFRvXi92XigeSxe5J/uxO+Wy/TkuR7kEiflsKU8OkR8JG04OoHYO3XpJ/sg92ipPv5IGufW9Dj8F+iR82bpRxxnpRcsalluxBjYo4iMlIkUpkV2G5ea6sd884sQxtnVd+wQAiR9nbUW1GU1Pjo3fP#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"4444.44","priceMoney":"444444"},"quantityDisplayValue":1,"cartParam":{"addCartCheck":"true"},"quantityText":"有货"}}},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:37738462410","skuId":"6122136002927"},{"propPath":"1627207:35223734696","skuId":"6122136002928"},{"propPath":"1627207:37738462411","skuId":"6122136002929"},{"propPath":"1627207:506357130","skuId":"6122136002930"},{"propPath":"1627207:754354423","skuId":"6122136002931"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"37738462410","image":"https://gw.alicdn.com/bao/uploaded/i2/2221000821399/O1CN01FVstXq1MCnCDxuLCx_!!2221000821399.jpg","name":"新款炭黑色（国内现货）"},{"comboPropertyValue":"false","vid":"35223734696","image":"https://gw.alicdn.com/bao/uploaded/i2/2221000821399/O1CN01D7tTbT1MCnCEvIcl4_!!2221000821399.png","name":"蜜棕色（国内现货）"},{"comboPropertyValue":"false","vid":"37738462411","image":"https://gw.alicdn.com/bao/uploaded/i3/2221000821399/O1CN01KT17M31MCnCD2RIPs_!!2221000821399.png","name":"旧款炭黑色（国内现货）"},{"comboPropertyValue":"false","vid":"506357130","image":"https://gw.alicdn.com/bao/uploaded/i1/2221000821399/O1CN01MC12nk1MCnCDPOHQL_!!2221000821399.png","name":"黑棕色（国内现货）"},{"comboPropertyValue":"false","vid":"754354423","image":"https://gw.alicdn.com/bao/uploaded/i1/2221000821399/O1CN01xgubWf1MCnCDxvcFr_!!2221000821399.png","name":"棕色（国内现货）"}],"hasImage":"true","pid":"1627207","nameDesc":"（5）","name":"颜色分类","valueMap":{"506357130":{"comboPropertyValue":"false","vid":"506357130","image":"https://gw.alicdn.com/bao/uploaded/i1/2221000821399/O1CN01MC12nk1MCnCDPOHQL_!!2221000821399.png","name":"黑棕色（国内现货）"},"754354423":{"comboPropertyValue":"false","vid":"754354423","image":"https://gw.alicdn.com/bao/uploaded/i1/2221000821399/O1CN01xgubWf1MCnCDxvcFr_!!2221000821399.png","name":"棕色（国内现货）"},"37738462410":{"comboPropertyValue":"false","vid":"37738462410","image":"https://gw.alicdn.com/bao/uploaded/i2/2221000821399/O1CN01FVstXq1MCnCDxuLCx_!!2221000821399.jpg","name":"新款炭黑色（国内现货）"},"35223734696":{"comboPropertyValue":"false","vid":"35223734696","image":"https://gw.alicdn.com/bao/uploaded/i2/2221000821399/O1CN01D7tTbT1MCnCEvIcl4_!!2221000821399.png","name":"蜜棕色（国内现货）"},"37738462411":{"comboPropertyValue":"false","vid":"37738462411","image":"https://gw.alicdn.com/bao/uploaded/i3/2221000821399/O1CN01KT17M31MCnCD2RIPs_!!2221000821399.png","name":"旧款炭黑色（国内现货）"}}}]},"pcTrade":{"buyNowUrl":"//buy.taobao.com/auction/buy_now.jhtml","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"3709.99","auction_type":"b","x-uid":"","title":"COACH/蔻驰女士city33通勤大号老花单肩手提托特包购物袋","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"翡翠香港代购","photo_url":"i2/2221000821399/O1CN01FVstXq1MCnCDxuLCx_!!2221000821399.jpg","current_price":"3709.99","region":"北京","seller_id":"f5bd2e5df369ab9a1e920fe7bf0f2703","etm":""},"tradeType":1},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.taobao.com","mallLogo":"https://gw.alicdn.com/imgextra/i1/O1CN01z163bz1lHF5yQ50CC_!!6000000004793-2-tps-172-108.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop167149675.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/2221000821399/O1CN01FVstXq1MCnCDxuLCx_!!2221000821399.jpg","https://img.alicdn.com/imgextra/i1/2221000821399/O1CN01XmtEeX1MCnCEFyy9C_!!2221000821399.jpg","https://img.alicdn.com/imgextra/i3/2221000821399/O1CN01KT17M31MCnCD2RIPs_!!2221000821399.png"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop167149675.taobao.com"}}]}],"shopIcon":"https://img.alicdn.com/imgextra/i1/O1CN01pz5irY1bhDKceJor2_!!6000000003496-2-tps-144-144.png","shopName":"翡翠香港代购","evaluates":[{"score":"-","title":"宝贝质量"},{"score":"-","title":"物流速度"},{"score":"-","title":"服务保障"}],"shopUrl":"//shop167149675.taobao.com","creditLevel":"0","creditLevelIcon":"//gw.alicdn.com/tps/TB1hbG6PpXXXXauapXXXXXXXXXX-88-24.png","sellerType":"C"},"titleVO":{"subTitles":[],"title":{"title":"COACH/蔻驰女士city33通勤大号老花单肩手提托特包购物袋"}},"debugVO":{"traceId":"7d27672b17647324977303688e","host":"taodetail033004158254.center.na610@33.4.158.254"},"rateVO":{"totalCount":"0","favorableRate":{}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"北京","addressId":"7689479327","deliverToCity":"北京","areaId":110108,"deliveryToAddr":"北京 海淀 西三旗","agingDesc":"48小时内发货","deliveryToDistrict":"海淀"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["退货宝","7天无理由退货","极速退款"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["满足相应条件（剪标/使用/洗涤后不支持）时，消费者可申请 “7天无理由退货”"],"title":"7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=989290874017","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=989290874017","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=989290874017&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=989290874017","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=989290874017&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#piehXWzIAR4/KTaB9NGFxMI20KJrkKvYupm8Lm/saMSO6TxBGqBzp/RyCtWqfwkY+MgivoPFaiHJJZVxbPSDzJvnkYDeJ9ohprACkW4c7f+iOiq5aRNvrc6rfeaQeakLZRtNqiHkgJCVkZLyD2t7wtPhmjGzs/nEkQ6goVa2bHYq3goRb6iYm3F54PUK65Me8RuSQrUmVEd41k8/GWAciXv1jeAV5l4cNwQy2VD6Tsy8AeqaHunmGEkk5XK0DSJk0n5wmmJvmbf0QwEo62kFSEROuMa8jydclA7IrwqaQKd9vlOkP+kJzjdbwEwLaN0Y6VKvk66A2mbIhlNeA8jD4cQD/cTdXhVC4mexw+E9qqEM/XC+ylLe1mirYJ+bgrcMXuvdygZZVI0Dn5DuDrWPTXqmlOjGbgGtPhqbnbzgpP8Y5iQLcBMB22y/iMWojaNZFxpCob/AM1p6rvcPiDtYblwHPCDzGVTWcZ8Su+0zsRm1slQ5tjiRvQIFHSbAT4aAXJHAq3l/n8awDnwpeLKWQUYFwfyUYJs44vu2SpbIEpWLc6b49FBVmNKMggCugaQbzCjT3bavtqkQE+Hw8u3CzI8dJyWG/C5uo3nH11oEqthZoU4OkKwKrFwJg3y9dB5dCXx2/XxNY7cyOa6nEAaUH6VlH0cr5XFIy3zyMuNJezu5SYh5mDWXbZ7adKRcWGq/b2z8tGa0a7SdfHXsjMtck8J/GUu6tHlti8qJRlb8e0UZz2EBm7lAWm4A8ORibyfYyevIi1mZ2t+EJD97t3226MRdE/2ZPn5o+5fDTnneWKB7LauBDTG4yc/az4b8eYtcICzqSNlhjqtsWmXB7g8wmZUlP5qrH0g5mwlVuNq8BQFkyPQ6SHDwDUFONHNSwtVqYtoJwTlbcP/zK9kKAP0EKO7RkaKJsh3FMPbAEXxHqM/2S1eHKU0jtlGA8i1IhAHJU2pK5xsFwxkGTa/tgTxaCyS+im4inYrhoF51Holm11O/Yz35UUjPaAlmArjeXCG1IcBJVhKgKrRRycsoVmVsjg6PPhXildme+hDaCZ07CXO/nuXNpJvB38hmPRYOcbqCIBzdKq+V+Por5L5eVrjin01/K7HF9YcuZumCW5RpiMN1noyFM5Cu6zMWDN3Hf38yGlcVd95n6PZKtjv2Akppa+4HYUrhh2N9OhKtu5qNETclyEGiKweber3rPXq2mMu1bVNxMXaQc1l5V3Wwbhk/3bUbB+PhXlWmAYH+0TCHQEnhIKeM8emiZLcYI0Hs+qAQe1I6U6ktCldrc+cJJuWQaB0RTsM47RURsxaGYyATKAJWB1tupZXxJtc6aFXWPB1w3Ii9yP19zLO2jCBAXK75zrPZ4HBT+34BauGgiCD2qrzbJfaIPM2AhO6IjzJ19TUui4G2LN4KQUEY9/PQx3b6gTfMYA5N1YgMqJbL598wLI/qRFInChfH89Xwl2Q/zd74i0S4ksR465jTTRLBe+1ogif7m0MIe4YJ5/5AJlOh0PRFxhiIi2SBSRCurVTVP2orET2nBKAuY3wTOzFyKAMgIw8NW3t/krClfJbZEKNXLQaj8FwfWOBcbt+vUjjXWysqCXIxCDV53BSCs7aFi2USBSexKUZHTAEJyay+rAp2MoYcrO+wDk+y7CX2V50GkIAFYXHRc9eo6mFKxkXAIpVmBHWhYHt6wYP3K9/aUNCe6g80FopjWGrpWHMlAsLGHpf1Q3rHJ9YNVdAF5R7OGRn0AGpj8MG/FAp4gpoJJXHHZJPMIlMiV6fOGjU7MPNDpUA376F/LJg1aa9KDdEp1k81ZWV/F00/4/+RnVfBWw35X3miJr1l8trQlTVYrAkbSv9IzIUXCYtGSAAVODsRdkHIK0O0AzvEcLWjJ3I7+4qYmZ3nY63pD513ZNboodlyKSbnKFYa10WYuHNCXVShCalL1vdPQWBQLWK589tKehvuzP7ZNAnXmuFbGBYh+bfDZmgZF4VRS02AAuvmofbVYeCm2AdVZayv953GlfP1HG7gqhwM2BUVC/12fSTeA2kwu7Qx8GM7ccpYdbPBX7eWDY+muDGAMBnnEgDrv5XObP+xkLU=#4444.44#pc#UiPXHeh9K9ITk2m2m47HYg==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"4444.44","priceMoney":"444444","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=919624931776</t>
-  </si>
-  <si>
-    <t>{"seller":{"sellerNick":"coach蔻驰奥莱官方旗舰店","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","pcShopUrl":"//shop229342273.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWKZQJK1kg7h3kwyeRP56ZcUkDair9qMEqJ4oKWpKFzaC3"},"item":{"images":["https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01P3DPvO1Riv466fzQX_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i1/2207644932146/O1CN010cFisr1Riv3qw4yQT_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01elKvCQ1Riv3qP6tLd_!!2207644932146.jpg"],"title":"【新品】COACH/蔻驰奥莱女士星星印花MOLLIE 25号托特包斜挎包","itemId":"919624931776","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=919624931776","spuId":"8672608865","titleIcon":"//img.alicdn.com/tfs/TB1SMG7nnvI8KJjSspjXXcgjXXa-78-36.png?getAvatar=avatar"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"35331","timeActionText":"35331"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":158,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#xnq96PqfCtJkhBArTjKNFpbuRq1vjVXTJNLaacv9t4ytC573apXcbo4aItuHngUE7B+iD55E4zhjf3Ludrc8O+v8PHdEN2jV4mKBApcftehCuwBT8eM1XdlthrkUEU8+ATDwwRBk/nonfmAr0Gf3SK2QRO56Hr76FiZoM13f4PVpbV0M6uJKvYO7jvnLHT1TZy/6hrlg/VyUSosQNcMVZx5TisGePBp8PuNVPRWsMBUgLqY1mvCvA/seuTV6XQQHu8W4k0zahNGZlHYCLytkBWx00rpT/aNq6M0y+Q1dNzx+uMYnnc5EBwZl/Pm+CeBvm4asDaEUDvCF9CNeEAOL3z6/W/f8uZm/Z7l6LR+A0479Pvfb2dIjo0vE/zUK78cM9DpEN0b9+8qguUi8BmJHbQRlI2Cf0AzSoL3c0J2fHqUHhnOhBUg+xYmC60HAlPNJvHGhtlIbmSB6lBhV3Rhc75kXSq42eaqm7iUiUx4seKV3wUw/0i6y4rv+94gOOvpQF/RjCMcSMuczwlwJ68M8UAi8RW5OGUCrfj/2ysqfU3X3cO9Iek7yKLYyyZXWcSRsMSeCqpnChs2CZz5Hv5Ga1TQ17XeAv1MPxYU0dBm0pUmBk/b0f1161OwsWC/Ngm30eVw/2Ts5bF60bgaYcW37tCb+c4pDQcC7F0QopD/xZyAXOtPjGCIq3PZAHovFef/v5u+IGYUW8TlPh5ECB4CZQe90oeJeMcNE0gyb9L/MnbAnPE+Js0TYGI84+OD5QgC9oIRNqgW467AM+w1CgaIe160q3CyPsVhH+uGf6MhFebg7YdTsps13S5vuopFurx+fmXrIrn0zOrvV/owG+pJ9J2/YojnJd+u2nQnr2ZyLmenQOrujGs1h4EJ2Q/P1ZH71aYGUPIVzyycJptPSshYcp6LDWBYi1GWk1uLOfSNBxLecHytNM088r6W50S6yzvq4U7YfQjrbrXNeOGcs1KrIJ15iHlAAqcH1ywOWzIzH8KhdvWN/C5uzAmVMDeCBSZnrwp/KJ8jgFq7xW6VWQsQDXhMzD8+TRYpc93qT/PCtZAj5ZfTX9XX+omhFmGdhRrUCTsTZDGqGewm2xmolb2NjPUu5mnTwr1sIwmBvkDFLksBpyEUhFNzw8k3Smfh4TUtn3r1fzEqJSRZb0CWuAdBE3JrA/bDfoRd6DchqU3winLG9ZBOph4jZcMX7fiB/RYPncbwb1uwQ0f0oBkhwsBgWjjs5pOJ4u/zR4hjDG7ENsjN18oi2zuSqoGm1tfZCSUS2PVRrjVL2hKreVGiHDRUILOuBvu+199MUBXsKXoqKYHI=#2222.22#pc#hj7nKRFdvn4Y1WcXDztlvA==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"quantityText":"有货"},"5968707573889":{"moreQuantity":"false","quantity":48,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#f18nt6aLttbdiI+6GXVuXM8Qmq2FynYEeo3FHVeTxMDTNOQtSwVqvyg/xDRTr8AJHi6S0ArGWBoUPgb3BDvSqpKyuUM1hDpCB1e8SLsNotSJ/8BrT2wKv7erjVylmFTkCd0vlB8foqJGeQTdDsEVQXytusVvd0pSBz737LLTUltN2Z8DddgFAW+SR0CUZ4QByHHz7AO7Kkq9SaIMNZNKA9mEw3x5H2TYFb7RN3vzJqyeMe02sucGuETBnYHMtFJeDxRDzpkljfHQmjjcy7yt+FkLNuFjtHNUL9Dc/fczcjmWOctjbdOIZROIaK7mweq6FJJaRRfy6gDDyJrqDxhm+T2ih6bb/c7Fxv/PVfWmkKESzb62lHVCTKULoJ40tC3CEPc0NAt2qwBy2TXLEuAf7I/bJ8NivaxWTInJxBuI/fPTwm+tW8oKGgMTdn6x9foGALeoEAXMhGFCC38kegRs+tTc/SVOW+eVfnEPPZKvuoF4cTR/zaLRltSNVH8QcIOym2dCjefzTG3FDwKT3+tId4XgKpxXVUaqsYHPLQ0RNZ6uPtHNmTq7I2Zgu8MfT0ODCacU5uMBiJIVuNJy3Z70AGh8GaVQH/zwc4lpUKmP7DAOVUMT8ZSwKioRlngwf+52eibYY5pGxhn2z0tLUg8PxJ4CfHcSFZCKkSnl+F78uZYnf4JFLwKuOMwBKuhIgqMfdu07bZqqVvPzEJX27oqulgGVCk2LsoQiRjzeushLxNjlBtq6IngMnyiq2Hipel9motQnNTqa933xyYrzOTazj5Z9he6bMheZ7jZJpLJIK9UhqMqow6SFUZmJ5SYASCrwgLspeO6TU+1Iur/z2TOOYepjzPLST4ES7GVMlFGXt42gegyozmsnN+8LkK2+W5FNLTz/1+cQfs395SW8e97uO0AkPFblA5hJKCvPh+J8ZQOQDU9mVYjKJRdWvIMGZbEKHP++HmxwASdca8D1s69nkg32FcT0SQnWbjy+RsssTpYqHON6y0bYa9g8c9KJPHcR8XpiCEJF6DGwPebFGBM/Pg81pzSp4NTB+FTZT+3uJFA1YxO26KDJ4yGRLRu+vocGGGKSE0OtQkAhi/eohpHAbznLDWVBpxDOxxPHfIl6cIkEG7hwW8Pmr15MTRm4Af8hvPfetVVC/lgNYg7eqdGaBX8Ydc5M53hTlgntfmDgFgoNFSMFM3AiQQnGCbOm+wWyVokL7rLA/eOi3EnxxweoiXa/yP4dQmTK+T520/9eD6xOCCZ8X9/Abe5dI50KnBGbwTQ+wASU6xazHFQEVF+nHBRqr+dS/b0S4n+Z/aRVXzB7QvEja4pyH9w5j8gST9d1#2222.22#pc#hj7nKRFdvn4Y1WcXDztlvA==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"cartParam":{"addCartCheck":"true"},"quantityDisplayValue":1,"quantityText":"有货"},"5968707573890":{"moreQuantity":"false","quantity":110,"logisticsTime":"48小时内发货，预计后天送达","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#v8ctQJx0AyPBLF+Fy2hy7vn+xF5RjWZgbe5wTEDQfx8QCq9WMbAN3si289PH7FHpSuO9C7wxk4qDPWGsa3/a3bFUJV6BXI0qbZaxPaF+wqVIfeFUv062BfqAQMX/3o+v3e5Wn2Yq9DGBmjiAVd3LiTMvdPjIbsGrfBoqAsaQ4qTrv3N2UaKdM58dJNzsyyYHhSHZPT+NRnh+Dsl9otBR3IHl2ktJ95izceC3Hz0QqFoEO2dwrTA6vjNqX1c/S0tCGKGw0a06MAO+qveCMjWazihwAIVennTwN9fu/7DJnFe1HI3TUEJQIUVR0RMeuv/64qIXcrw9D8N/7RK8qpOzIRGJZgH/LvxAY6vZl7+BEtNuuy7kdBfprTfQ5BUQSB6XKruL9AXeE2RQ4WM+qVqZXMQeu7UDelrwgcAzVXE9wk1wHWD3LbjJVNF8mnDJlTLdl4f65FJ+TULSIkbMJPEcoIHoHaIyF/R/89mW7JQvcveoryxhY4og+vXDeu5NIbuNmog05kTtF3ukfsk0VkFYeOVz9BbIcTeePuAS8i94JO8rJ7bmP4ng/QZdXo1bZ9EXo4eoLC8KnkgKUpYdEqMfEh1WYxdZUnw7jQ6Rd6I4eNYYEVR4okWr2sIP5M3+HysiCXM8V6iiR61D+G3q6gyGGAxK/cCPW1oUNN5Vb3OMU5q9UrwkAi4Yoi1wrywK830tTqE09XtyKC/s5KnChgpASdNvU4SmPyKdpGTx1PlCmT4naNo8ag++TRcOVtgnN8xaT6mUK1zu6LGLm0CtcscefpaeZKQVru4MW4fOsaVSlfmmLPIenqmPf7JFJLH6LEKa8Zv2GVueQWBklGsnfMi5K6s4/oD23HM2+A3QgOa1Fi0baPQHi8eNkBvLr8wNS3pRn5SdeYrwWvlP/XeLG+sIznYC77aOnKnF6fQp8JIlzCUEHvbIO88cmHnmvLt5TxKZH0zE/kc5zBHZWH7eA0wP23mwgUvtWxMa0ynebSnRvJoip0cT9aSEf8c79CJ7Lf/11XyHNx1VCYnp8SHziEcvcslgbs8Rmj1I6ji50MafumreWYsff/hGr1vujlCWqpjUCPiEiU4ScWUM7LPY5VoehL+9cdn/IB0l4kBddFIh5YXCYlWhjBlQFXPueF/J/2X58zgYJqrasbLOCqoCHTDjknXAcU8ININ0qBneG7MDhEdmVCNCHeCJIjrkehgtDl7zJqkhFpf8wHH4A+zUZQU99tS8ZbpjWjvCBFhlnfqJtW8ANUX1wuFUmfnxhSRnHtFlROc7Xg2VEYcXJylkSrCMJTfYeWpP/49zu7EgFlowvWeJ3aZtuGi3cMejUW6Pu1pd#2222.22#pc#hj7nKRFdvn4Y1WcXDztlvA==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"cartParam":{"addCartCheck":"true"},"quantityDisplayValue":1,"quantityText":"有货"}}},"services":{},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:1324835947","skuId":"5968707573889"},{"propPath":"1627207:41291352230","skuId":"5968707573890"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"1324835947","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01okkRBG1Riv3pGg6gn_!!2207644932146.jpg","name":"银色硬件/白垩彩"},{"comboPropertyValue":"false","vid":"41291352230","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01LMo94K1Riv3otGS7A_!!2207644932146.jpg","name":"SV/灰粉色 混合色"}],"pid":"1627207","hasImage":"true","nameDesc":"（2）","name":"颜色分类","valueMap":{"1324835947":{"comboPropertyValue":"false","vid":"1324835947","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01okkRBG1Riv3pGg6gn_!!2207644932146.jpg","name":"银色硬件/白垩彩"},"41291352230":{"comboPropertyValue":"false","vid":"41291352230","image":"https://gw.alicdn.com/bao/uploaded/i2/2207644932146/O1CN01LMo94K1Riv3otGS7A_!!2207644932146.jpg","name":"SV/灰粉色 混合色"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"3600.00","auction_type":"b","x-uid":"","title":"【新品】COACH/蔻驰奥莱女士星星印花MOLLIE 25号托特包斜挎包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"COACH蔻驰奥莱官方旗舰店","photo_url":"i2/2207644932146/O1CN01P3DPvO1Riv466fzQX_!!2207644932146.jpg","current_price":"3600.00","region":"江苏苏州","seller_id":"4f1e5faea51a5939932b2d01ad2af408","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.tmall.com","mallLogo":"https://img.alicdn.com/imgextra/i2/O1CN01a69z6z1hJklCkBqOU_!!6000000004257-2-tps-174-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop229342273.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01P3DPvO1Riv466fzQX_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i1/2207644932146/O1CN010cFisr1Riv3qw4yQT_!!2207644932146.jpg","https://img.alicdn.com/imgextra/i2/2207644932146/O1CN01elKvCQ1Riv3qP6tLd_!!2207644932146.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop229342273.taobao.com"}}]}],"overallScore":"4.7","shopIcon":"//img.alicdn.com/imgextra//i1/2207644932146/O1CN015nqRsv1Riuf1RtBeq_!!2207644932146.jpg","shopName":"COACH蔻驰奥莱官方旗舰店","evaluates":[{"score":"4.4","title":"宝贝质量"},{"score":"5.0","title":"物流速度"},{"score":"4.6","title":"服务保障"}],"startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","shopUrl":"//shop229342273.taobao.com","labelList":[{"contentDesc":"88VIP好评率96%"},{"contentDesc":"平均10小时发货"},{"contentDesc":"平均6小时退款"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.5"},"titleVO":{"subTitles":[{"title":"可开发票"},{"titleDesc":"如需定制服务，请至手淘下单","titleAfterIcon":"icon-taobaoxinxishuoming","title":"定制服务"}],"title":{"title":"【新品】COACH/蔻驰奥莱女士星星印花MOLLIE 25号托特包斜挎包"}},"debugVO":{"traceId":"7d27672117647325232374019e","host":"taodetail033051076099.center.na610@33.51.76.99"},"rateVO":{"totalCount":"1","favorableRate":{},"group":{"items":[{"dateTime":"2025-11-29","memberLevel":"6","createTimeInterval":"4天前","media":[{"imageUrl":"//gw.alicdn.com/bao/uploaded/i3/O1CN01p9aRT423lAPKWkd2c_!!4611686018427387119-0-rate.jpg","type":"image"},{"imageUrl":"//gw.alicdn.com/bao/uploaded/i2/O1CN017wVMso23lAPKGMGYb_!!4611686018427387119-0-rate.jpg","type":"image"}],"userName":"小丸子=)","headPic":"//sns.m.taobao.com/avatar/sns/user/flag/sns_logo?type=taobao&amp;kn=wwc_tb_11&amp;bizCode=taobao_avatar&amp;userFlag=RAzN84GK7wS8eNcHU1zKCA4yTEqvSJqt66AnHqfBBMhGqVNToMLFZNFMwem3dp98XtKNwcfmB2jnn5KUueQfWW9dGak36PwM58HkPG2eqw4wM9budeLX2gndxLbgmq1nnE6G4MTwKm6jRspYZNfYqDGwici6D9GZZa5eS6D","content":"长度，冬天穿厚的衣服被比较合适，夏天可能会有点长，买来当婚包用的","mediaSize":"2","feedId":"1290763889076","skuInfo":"颜色分类:SV/灰粉色 混合色","tmallMemberLevel":"0"}]}},"deliveryVO":{"agingDescColor":"#00A67C","freight":"快递: 免运费","deliveryFromAddr":"江苏苏州","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"48小时内发货，预计后天送达","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#ffcb00","#ff9402"],"alpha":"1.0","disabledColor":["#ffcb00","#ff9402"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#ff7700","#ff4900"],"alpha":"1.0","disabledColor":["#ff7700","#ff4900"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["奢礼定制","假一赔四","极速退款","7天无理由退换"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["由品牌官方提供的礼品镌刻、礼品包装、礼品卡片等奢品定制服务"],"title":"奢礼定制"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["若消费者收到商品非“正品”，商家需额外向消费者支付商品实际成交金额的四倍作为赔偿"],"title":"假一赔四","actionLink":"https://rulechannel.tmall.com/tmall?type=detail&amp;ruleId=4400&amp;cId=391#/rule/detail?ruleId=4400&amp;cId=391"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["支持7天无理由退换(定制下单除外)"],"title":"7天无理由退换"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=919624931776","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=919624931776","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=919624931776&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=919624931776","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=919624931776&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#kt+u8S7FXdY4wUfNhpaU9iT7PuWtPmzIhkw8soh5HaONE5MK/dPMO5o3j4CouNlFsfxrvKXwKG1sev26ep62iW+akiAHe6EegqTJFojjgaHbXpt6A786FDxbF3GBWeRAPOPimnDcUc0ISII+QgsCDmZ2Dd/Pj7SNbuRfaks1YMD9GHpO4Eq9i1zwIig+9HEZWa8c02ioZekg/eVLOBFOP6qNEo/L38/EhMiZj0Ewtz7Jgv2CagscgG6GWGTyR9zGjw3iD4raBOrPxU22+f5VnLGsgEQQaXMfY+PRNuFKSsFKPROkqyniOFyINgkjbPEbQpSz9rl+WzgjKF5kqVxMcro/6kP/QsZvpPNwtmrQN/OuumpQCjbdINwg3ddqDDtBh27GQuM8uGGacpixCzL+/0iRAFe4Nj/1M+lQHi4i8ulLm2a4FLL0yUNU3x5nFXqhhPnZsdbWef/gfppU0N6dUADtw5GcCn2jnKertb8VXea2pRjqne4wuMc7AiiRfM3FA2Im5+saqvbvBW5dy7gVLvMDz75en23eiIyCOkoNKtP2eQrxvO/MjnZMAKqZNjEvau3df64vRt69QyHH61BH4U0tB5J1YDBGXAEnCSt22nGgP86oYizdtKjldJW6FIyTFGsuCegr0CT0F+xrWLE7RuGZbfkjwMhaYWdhEJYHHUqHbJFuYV07aVqsLIEMEiNEmMAwgkhyvBkHe330KZFday/P66t+SvZK5X8erQfN3jH92Z3mJWZY7P8RMMvVsNdCUMQ+dBmZBuP9FT6gb2q8IdPQStekMpCfZR6A5dGuFwt7urPonOlXiN98bw7UZ2UA4r4z1KsGeCNH1bSKxNgciwGIkcd0IKVoz+GMP9SP47JKjHn7l4HwaB+jq8SPoFRuIkdfYQFcAl64gwivr3lfH9GfipMHKyZLkqPgS2TSaGQtofurT+BYTU5pXIkKSgjGxjfEtTOHJxLmt6NQW18kpUm+hk5EmgoXy1O0XO+vA9h1HNr+jhpl5w0uM4X8QcIVyyrLXMAr9kR+z0YuHnt08wUz5gmJMNPry5s5g3sM7qgsu1Jk8ihKjiScpS4CUTVdazTLxTCOvGxxp7r3TrqcY8IxOTFT78rs72l7XSzIRgRFV39BeUYUc5k6jVmh3jBRQ7gN/0kSDQmNuVEXEvsY61f9Lae8xUCTTTDQWj59vhZQ0geZ8HEW6/SAxq0nd63nYIY3j2pS3oNKwMNr7+fZKXb4ztRoBeLorozbTjTT4ynjtTYvSs2uxgDVRZGrEeBRo/lsBDO51VcGC8nNeiuvJj3s4GYmQj/X0QxWjnuHHQs=#2222.22#pc#hj7nKRFdvn4Y1WcXDztlvA==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"店铺活动","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"2222.22","priceMoney":"222222","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=995004731158</t>
-  </si>
-  <si>
-    <t>{"seller":{"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWTVTsqr2badXB4jEUKtqdUqGoszBshQcy7iEjVTa48vgu","evaluates":[{"level":"1","levelText":"高","score":"4.8 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.8 ","title":"卖家服务","type":"serv"},{"level":"-1","levelText":"低","score":"4.8 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop181050038.taobao.com","sellerId":"2206385531048","sellerNick":"天猫国际香港直购","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000000553/O1CN011Y03oz1FxJmDFqEYb_!!6000000000553-2-shopmanager.png","shopId":"181050038","shopName":"天猫国际探物中国香港","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2206385531048"},"item":{"bottomIcons":[],"images":["https://gw.alicdn.com/imgextra/O1CN01jASp8z1Jc2BV0IOS8_!!2206385531048-0-tmg_sticker.jpg","https://gw.alicdn.com/imgextra/O1CN01yLXaov1Jc2BPRlq9v_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01KcR0v11Jc2BOyRn0O_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01rYohp11Jc2BPaU2T1_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01lA6JFG1Jc2BP5BtJ5_!!2206385531048.jpg"],"itemId":"995004731158","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=995004731158&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0995004731158!1834236855&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=995004731158","spuId":"0","title":"COACH蔲驰 Juliet 28 经典标志拉链开合 织物手提斜挎单肩包 大号","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"bizCode":"","ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"bizCode":"","hit":"true"},"rankVO":{"bizCode":"","hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"bizCode":"","hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"颜色分类","valueName":"深蓝色"}],"bizCode":"","enhanceParamList":[{"propertyName":"品牌","valueName":"COACH/蔻驰"}],"hit":"true"},"headAtmosphereBeltVO":{"actionParam":{"leftTime":"35293","timeActionText":"35293","timeActionType":"countdown"},"actionType":"timeAction","bgColors":["#FAEDE1","#FAE7D4"],"bizCode":"","eventParam":{"code":"dp-PCFenQi-*-online"},"hit":"true","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","text":"您有5元红包待使用","textColor":"#11192D","valid":"true"},"commentListVO":{"bizCode":"","ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"bizCode":"","hit":"true"},"buyParamVO":{"bizCode":"","ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"logisticsTime":"24:00前付款,承诺7天内送达,晚到必赔","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"297900","priceText":"2979","priceTitle":"优惠前"},"quantity":"20","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"222925","priceText":"2229.25","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"5975596872690":{"logisticsTime":"24:00前付款,承诺7天内送达,晚到必赔","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"297900","priceText":"2979","priceTitle":"优惠前"},"quantity":"20","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"222925","priceText":"2229.25","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"false","name":"规格","packProp":"false","pid":"-1","shouldGroup":"false","values":[{"comboPropertyValue":"false","name":"none","vid":"-1"}]},{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（1）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i2/2206385531048/O1CN01u9fLlC1Jc2BPFRFwA_!!2206385531048.jpg","name":"深蓝色","vid":"28340"}]}],"skus":[{"propPath":"-1:-1;1627207:28340","skuId":"5975596872690"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.hk/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"5979.00","auction_type":"b","x-uid":"","title":"COACH蔲驰 Juliet 28 经典标志拉链开合 织物手提斜挎单肩包 大号","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"天猫国际探物中国香港","photo_url":"i1/2206385531048/O1CN018Rlrcp1Jc2BV3MnVZ_!!2206385531048-0-tmg_sticker.jpg","current_price":"5979.00","region":"香港","seller_id":"699fe88c18ef92e25fdd2b3cb08aeb5a","etm":""},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"8"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop181050038.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://gw.alicdn.com/imgextra/O1CN01jASp8z1Jc2BV0IOS8_!!2206385531048-0-tmg_sticker.jpg","https://gw.alicdn.com/imgextra/O1CN01yLXaov1Jc2BPRlq9v_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01KcR0v11Jc2BOyRn0O_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01rYohp11Jc2BPaU2T1_!!2206385531048.jpg","https://gw.alicdn.com/imgextra/O1CN01lA6JFG1Jc2BP5BtJ5_!!2206385531048.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"联系客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop181050038.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进入店铺"},"type":"enter_shop"}],"creditLevel":"14","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"4.3","title":"宝贝质量"},{"score":"4.8","title":"物流速度"},{"score":"4.4","title":"服务保障"}],"labelList":[],"overallScore":"4.5","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000000553/O1CN011Y03oz1FxJmDFqEYb_!!6000000000553-2-shopmanager.png","shopName":"天猫国际探物中国香港","shopUrl":"//shop181050038.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"COACH蔲驰 Juliet 28 经典标志拉链开合 织物手提斜挎单肩包 大号"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033008186147.center.na620@33.8.186.147","traceId":"215041e017647325611598591e0ea1"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{5975596872690:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"2979.00\",\"price2\":\"2229.25\",\"price3\":\"5979.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"gsp_74475^24_300000^5_500\",\"utcDPre\":\"noProm\"}}","sellerId":"2206385531048","sid":"5975596872690","traceId":"215041e017647325611598591e0ea1","type":"99","umpCreateTime":"2025-12-03 11:29:21","version":"2.1","xobjectId":"995004731158"},"deliveryVO":{"addressId":"7689479327","agingDesc":"24:00前付款,承诺7天内送达,晚到必赔","agingDescColor":"#1F1F1F","agingDescIcon":"//gw.alicdn.com/imgextra/i1/O1CN01Fxu3xo1wMFV3UA1xl_!!6000000006293-2-tps-616-144.png","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"香港","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["红包减5元"]},{"text":["每件直降25%"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN017ZsqJR1wHCv11V4bP_!!6000000006282-2-tps-269-54.png","text":["0元入会，抢限量好券"]},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01rH1w2t1muuzylT92V_!!6000000005015-2-tps-268-53.png","text":["进补贴会场，抢真5折好货"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","退货宝","正品保障","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["COACH/蔻驰"],"title":"品牌"},{"text":["深蓝色"],"title":"颜色分类"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=699fe88c18ef92e25fdd2b3cb08aeb5a","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=995004731158","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"222925","priceText":"2229.25","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"297900","priceText":"2979","priceTitle":"初冬狂欢","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E6%82%A8%E6%89%80%E8%B4%AD%E4%B9%B0%E7%9A%84%E5%95%86%E5%93%81%E5%B7%B2%E5%8C%85%E5%90%AB%E8%B7%A8%E5%A2%83%E7%94%B5%E5%95%86%E8%BF%9B%E5%8F%A3%E7%A8%8E%EF%BC%8C%E4%B8%AA%E5%88%AB%E5%95%86%E5%93%81%E7%A8%8E%E8%B4%B9%E7%94%B1%E5%95%86%E5%AE%B6%E6%89%BF%E6%8B%85%EF%BC%8C%E6%82%A8%E6%97%A0%E9%9C%80%E5%86%8D%E8%A1%8C%E6%94%AF%E4%BB%98%E3%80%82%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%229.1%25%22%3A%22%E4%B8%AD%E5%9B%BD%E6%B5%B7%E5%85%B3%E8%A7%84%E5%AE%9A%EF%BC%8C%E4%B8%8D%E5%90%8C%E7%B1%BB%E7%9B%AE%E7%9A%84%E5%95%86%E5%93%81%E5%BE%81%E6%94%B6%E7%A8%8E%E7%8E%87%E4%B8%8D%E5%90%8C%EF%BC%8C%E8%AF%A5%E5%95%86%E5%93%81%E7%9A%84%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%8E%87%E4%B8%BA9.1%25%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E5%95%86%E5%93%81%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%28%E5%8C%85%E6%8B%AC%E8%BF%90%E8%B4%B9%29+*+%E7%A8%8E%E7%8E%87%22%3A%22%28%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%E7%94%B1%E6%B5%B7%E5%85%B3%E6%9C%80%E7%BB%88%E8%AE%A4%E5%AE%9A%29%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","5975596872690":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
-  </si>
-  <si>
-    <t>Flashsale</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=990910984659</t>
-  </si>
-  <si>
-    <t>{"seller":{"creditLevel":"1","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWQeC2Vay1GfvYdA4nhPoJsZF4CAFgHrJTfznt5FRFwvSe","evaluates":[{"level":"1","levelText":"高","score":"5.0 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"5.0 ","title":"卖家服务","type":"serv"},{"level":"1","levelText":"高","score":"5.0 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop306692563.taobao.com","sellerId":"2219526418370","sellerNick":"吉象箱包海外专营店","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01yMHmey2BhW7mG9Ho6_!!2219526418370.jpg","shopId":"306692563","shopName":"吉象箱包海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2219526418370"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i1/2219526418370/O1CN018UvCIg2BhWAey0Igg_!!4611686018427383746-0-item_pic.jpg","https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01m4a9m82BhWAdnHaPu~crop,100,0,600,800~_!!2219526418370.jpg","https://img.alicdn.com/imgextra/i1/2219526418370/O1CN01d0xat52BhWAeb57sR~crop,100,0,600,800~_!!2219526418370.jpg","https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01q5wcz92BhWAeiudIX~crop,163,0,600,800~_!!2219526418370.jpg","https://img.alicdn.com/imgextra/i3/2219526418370/O1CN01XK4xmH2BhWAfOV5k8_!!2219526418370.jpg"],"itemId":"990910984659","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=990910984659&amp;descVersion=7.0&amp;type=1&amp;f=desc/icoss2762854105f77b025d7864d7e1&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=990910984659","spuId":"8727953300","title":"Louis Vuitton/路易威登2025新款女包Victorine钱包钱夹M80968","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"适用性别","valueName":"女"},{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"颜色分类","valueName":"黑色 杏色"}],"enhanceParamList":[{"propertyName":"货号","valueName":"M80968"},{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"适用场景","valueName":"日常"},{"propertyName":"上市年份季节","valueName":"2025年秋季"},{"propertyName":"里料材质","valueName":"牛皮"},{"propertyName":"适用人群","valueName":"通用"},{"propertyName":"是否商场同款","valueName":"否"},{"propertyName":"款式名称","valueName":"钱包"},{"propertyName":"风格","valueName":"休闲简约风"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"moreQuantity":"false","price":{"priceColorNew":"#FF5000","priceMoney":"685000","priceText":"6850"},"quantity":"100","quantityDisplayValue":"1","quantityText":"有货"},"5956697740227":{"moreQuantity":"false","price":{"priceColorNew":"#FF5000","priceMoney":"685000","priceText":"6850"},"quantity":"50","quantityDisplayValue":"1","quantityText":"有货"},"5956697740228":{"moreQuantity":"false","price":{"priceColorNew":"#FF5000","priceMoney":"685000","priceText":"6850"},"quantity":"50","quantityDisplayValue":"1","quantityText":"有货"}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（2）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i4/2219526418370/O1CN01CBMK812BhWAeB7cvr_!!2219526418370.jpg","name":"杏色","vid":"30155"},{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i4/2219526418370/O1CN01m4a9m82BhWAdnHaPu_!!2219526418370.jpg","name":"黑色","vid":"28341"}]}],"skus":[{"propPath":"1627207:30155","skuId":"5956697740227"},{"propPath":"1627207:28341","skuId":"5956697740228"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"6850.00","auction_type":"b","x-uid":"","title":"Louis Vuitton/路易威登2025新款女包Victorine钱包钱夹M80968","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"吉象箱包海外专营店","photo_url":"i4/2219526418370/O1CN015mraGH2BhWAf2knme_!!4611686018427383746-0-item_pic.jpg","current_price":"6850.00","region":"香港香港岛","seller_id":"3b63117b3b3b2991ace29443882b8e2f","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop306692563.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i4/2219526418370/O1CN015mraGH2BhWAf2knme_!!4611686018427383746-0-item_pic.jpg","https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01m4a9m82BhWAdnHaPu_!!2219526418370.jpg","https://img.alicdn.com/imgextra/i1/2219526418370/O1CN01d0xat52BhWAeb57sR_!!2219526418370.jpg","https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01q5wcz92BhWAeiudIX_!!2219526418370.jpg","https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01jb9Zni2BhWAe9xBdK_!!2219526418370.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop306692563.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"1","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"-","title":"宝贝质量"},{"score":"-","title":"物流速度"},{"score":"4.7","title":"服务保障"}],"labelList":[],"overallScore":"4.7","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/2219526418370/O1CN01yMHmey2BhW7mG9Ho6_!!2219526418370.jpg","shopName":"吉象箱包海外专营店","shopUrl":"//shop306692563.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"Louis Vuitton/路易威登2025新款女包Victorine钱包钱夹M80968"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033007086055.center.na620@33.7.86.55","traceId":"213e09ba17648289678917882e1798"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{}","sellerId":"2219526418370","sid":"0","traceId":"213e09ba17648289678917882e1798","type":"99","umpCreateTime":"2025-12-04 14:16:08","version":"2.1","xobjectId":"990910984659"},"deliveryVO":{"addressId":"7689479327","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"意大利","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"立即购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["店铺券满10000减800"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","正品保障","品质严保","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["女"],"title":"适用性别"},{"text":["休闲简约风"],"title":"风格"},{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["M80968"],"title":"货号"},{"text":["钱包"],"title":"款式名称"},{"text":["牛皮"],"title":"里料材质"},{"text":["2025年秋季"],"title":"上市年份季节"},{"text":["否"],"title":"是否商场同款"},{"text":["通用"],"title":"适用人群"},{"text":["日常"],"title":"适用场景"},{"text":["黑色 杏色"],"title":"颜色分类"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=3b63117b3b3b2991ace29443882b8e2f","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=990910984659","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#FF5000","priceMoney":"685000","priceText":"6850","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","5956697740227":"进口税 价格已含税 ","5956697740228":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=697797565154</t>
-  </si>
-  <si>
-    <t>{"seller":{"creditLevel":"15","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWWPqBZ5UDVb84G2cdcpZKsFAr3AYdWBR1YBMuAiBsQ7x1","evaluates":[{"level":"1","levelText":"高","score":"4.8 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.8 ","title":"卖家服务","type":"serv"},{"level":"-1","levelText":"低","score":"4.8 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop305429533.taobao.com","sellerId":"2201196294013","sellerNick":"天猫国际欧洲直购","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i2/6000000000410/O1CN01zU7mpY1Etp9meUwqS_!!6000000000410-2-shopmanager.png","shopId":"305429533","shopName":"天猫国际探物欧洲","startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN01Z8Xo0V1vJCxVltJIB_!!6000000006151-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2201196294013"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01FrYcYp1fW0W6l9rou_!!2201196294013-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01dEwNLF1fW0HdVWUqG_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i1/2201196294013/O1CN01rzw88R1fW0HY23EUX_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i1/2201196294013/O1CN015Cxunc1fW0HcSuiNA_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01mquJLL1fW0Hd7V7Nn_!!2201196294013.jpg"],"itemId":"697797565154","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=697797565154&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0697797565154!13263687141&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=697797565154","spuId":"0","title":"1h可退 欧洲直邮LouisVuitton路易威登女士蓝色白色帆布棋盘格三","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"颜色分类","valueName":"蓝色/白色"}],"enhanceParamList":[{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"limit":"5","logisticsTime":"预售，付款后10天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"487600","priceText":"4876","priceTitle":"优惠前"},"quantity":"9","quantityDisplayValue":"1","quantityText":"即将售罄(限购5件)","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"427600","priceText":"4276","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"5112287798774":{"limit":"5","logisticsTime":"预售，付款后10天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"487600","priceText":"4876","priceTitle":"优惠前"},"quantity":"9","quantityDisplayValue":"1","quantityText":"即将售罄(限购5件)","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"427600","priceText":"4276","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"false","name":"规格","packProp":"false","pid":"-1","shouldGroup":"false","values":[{"comboPropertyValue":"false","name":"12x9.5x2.5CM","vid":"-1"}]},{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（1）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i4/2201196294013/O1CN01dEwNLF1fW0HdVWUqG_!!2201196294013.jpg","name":"蓝色/白色","vid":"56770038"}]}],"skus":[{"propPath":"-1:-1;1627207:56770038","skuId":"5112287798774"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.hk/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"11899.00","auction_type":"b","x-uid":"","title":"1h可退 欧洲直邮LouisVuitton路易威登女士蓝色白色帆布棋盘格三","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"天猫国际探物欧洲","photo_url":"i4/2201196294013/O1CN01FrYcYp1fW0W6l9rou_!!2201196294013-0-tmg_sticker_daily.jpg","current_price":"11899.00","region":"法国","seller_id":"7e76103382bdbe8c9a6e6bed3d428bb6","etm":""},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"8"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop305429533.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01FrYcYp1fW0W6l9rou_!!2201196294013-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01dEwNLF1fW0HdVWUqG_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i1/2201196294013/O1CN01rzw88R1fW0HY23EUX_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i1/2201196294013/O1CN015Cxunc1fW0HcSuiNA_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01mquJLL1fW0Hd7V7Nn_!!2201196294013.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop305429533.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"15","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"4.6","title":"宝贝质量"},{"score":"4.6","title":"物流速度"},{"score":"4.3","title":"服务保障"}],"labelList":[],"overallScore":"4.4","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i2/6000000000410/O1CN01zU7mpY1Etp9meUwqS_!!6000000000410-2-shopmanager.png","shopName":"天猫国际探物欧洲","shopUrl":"//shop305429533.taobao.com","starNum":"3.5","startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN01Z8Xo0V1vJCxVltJIB_!!6000000006151-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"1h可退 欧洲直邮LouisVuitton路易威登女士蓝色白色帆布棋盘格三"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033070159057.center.na620@33.70.159.57","traceId":"213e09ba17648290298034492e1798"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{5112287798774:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"4876.00\",\"price2\":\"4276.00\",\"price3\":\"11899.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"gsp_60000^24_702300\",\"utcDPre\":\"noProm\"}}","sellerId":"2201196294013","sid":"5112287798774","traceId":"213e09ba17648290298034492e1798","type":"99","umpCreateTime":"2025-12-04 14:17:09","version":"2.1","xobjectId":"697797565154"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预售，付款后10天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"法国","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["每件直降600元"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN017ZsqJR1wHCv11V4bP_!!6000000006282-2-tps-269-54.png","text":["0元入会，抢限量好券"]},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01rH1w2t1muuzylT92V_!!6000000005015-2-tps-268-53.png","text":["进补贴会场，抢真5折好货"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","退货宝","1小时内可退","正品保障","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["蓝色/白色"],"title":"颜色分类"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"action":"查看","actionLink":"https://rule.tmall.hk/rule/rule_detail?spm=a2o8rj.import_rules_portal.0.0.19da6f0clOc4T0&amp;id=2916","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["买家拍下【1小时内可退】标识的商品，付款成功后1小时内可申请退款，享受极速退。1小时后订单开始寻货，若因寻货失败交易将自动退款，寻货失败交易不支持缺货赔付。"],"title":"1小时内可退"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=7e76103382bdbe8c9a6e6bed3d428bb6","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=697797565154","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"427600","priceText":"4276","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"487600","priceText":"4876","priceTitle":"探物专享","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E6%82%A8%E6%89%80%E8%B4%AD%E4%B9%B0%E7%9A%84%E5%95%86%E5%93%81%E5%B7%B2%E5%8C%85%E5%90%AB%E8%B7%A8%E5%A2%83%E7%94%B5%E5%95%86%E8%BF%9B%E5%8F%A3%E7%A8%8E%EF%BC%8C%E4%B8%AA%E5%88%AB%E5%95%86%E5%93%81%E7%A8%8E%E8%B4%B9%E7%94%B1%E5%95%86%E5%AE%B6%E6%89%BF%E6%8B%85%EF%BC%8C%E6%82%A8%E6%97%A0%E9%9C%80%E5%86%8D%E8%A1%8C%E6%94%AF%E4%BB%98%E3%80%82%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%229.1%25%22%3A%22%E4%B8%AD%E5%9B%BD%E6%B5%B7%E5%85%B3%E8%A7%84%E5%AE%9A%EF%BC%8C%E4%B8%8D%E5%90%8C%E7%B1%BB%E7%9B%AE%E7%9A%84%E5%95%86%E5%93%81%E5%BE%81%E6%94%B6%E7%A8%8E%E7%8E%87%E4%B8%8D%E5%90%8C%EF%BC%8C%E8%AF%A5%E5%95%86%E5%93%81%E7%9A%84%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%8E%87%E4%B8%BA9.1%25%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E5%95%86%E5%93%81%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%28%E5%8C%85%E6%8B%AC%E8%BF%90%E8%B4%B9%29+*+%E7%A8%8E%E7%8E%87%22%3A%22%28%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%E7%94%B1%E6%B5%B7%E5%85%B3%E6%9C%80%E7%BB%88%E8%AE%A4%E5%AE%9A%29%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","5112287798774":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=697797209606</t>
-  </si>
-  <si>
-    <t>{"seller":{"creditLevel":"17","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWNgDpTJX75KSyYFuAQSBw4kCebDyyLTeCQmSiiyE7rqM7","evaluates":[{"level":"1","levelText":"高","score":"4.8 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.8 ","title":"卖家服务","type":"serv"},{"level":"-1","levelText":"低","score":"4.8 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop479456214.taobao.com","sellerId":"4066234693","sellerNick":"天猫国际海外直购","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000003216/O1CN01iQgDcv1ZcyWMeVMRD_!!6000000003216-2-shopmanager.png","shopId":"479456214","shopName":"天猫国际全球探物","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"4066234693"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i3/4066234693/O1CN01W8loKY1kXRqEXVonu_!!4066234693-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i1/4066234693/O1CN01JntE8f1kXRXsWAkah_!!4066234693.jpg","https://img.alicdn.com/imgextra/i4/4066234693/O1CN01UIZZ8U1kXRXsW9bvU_!!4066234693.jpg","https://img.alicdn.com/imgextra/i4/4066234693/O1CN015w32B21kXRXhlOpmp_!!4066234693.jpg","https://img.alicdn.com/imgextra/i1/4066234693/O1CN01tZgTro1kXRXrr7t2u_!!4066234693.jpg"],"itemId":"697797209606","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=697797209606&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0697797209606!13824807709&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=697797209606","spuId":"0","title":"自营1h可退 欧洲直邮LV/路易威登 女士棕色驼色老花帆布卡包","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"面料功能","valueName":"耐磨"},{"propertyName":"系列","valueName":"主题系列"},{"propertyName":"颜色分类","valueName":"棕色/驼色"}],"enhanceParamList":[{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"款式名称","valueName":"零钱包"},{"propertyName":"成色","valueName":"全新"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"limit":"5","logisticsTime":"预售，付款后10天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"237200","priceText":"2372","priceTitle":"优惠前"},"quantity":"10","quantityDisplayValue":"1","quantityText":"即将售罄(限购5件)","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"208400","priceText":"2084","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4944173365059":{"limit":"5","logisticsTime":"预售，付款后10天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"237200","priceText":"2372","priceTitle":"优惠前"},"quantity":"10","quantityDisplayValue":"1","quantityText":"即将售罄(限购5件)","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"208400","priceText":"2084","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"false","name":"规格","packProp":"false","pid":"-1","shouldGroup":"false","values":[{"comboPropertyValue":"false","name":"11x7x0.5CM","vid":"-1"}]},{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（1）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i3/4066234693/O1CN01NBHMi81kXRXo45omx_!!4066234693.jpg","name":"棕色/驼色","vid":"447218982"}]}],"skus":[{"propPath":"-1:-1;1627207:447218982","skuId":"4944173365059"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.hk/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"5599.00","auction_type":"b","x-uid":"","title":"自营1h可退 欧洲直邮LV/路易威登 女士棕色驼色老花帆布卡包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"天猫国际全球探物","photo_url":"i3/4066234693/O1CN01W8loKY1kXRqEXVonu_!!4066234693-0-tmg_sticker_daily.jpg","current_price":"5599.00","region":"法国","seller_id":"c52d0c6969556ae2b2e7b004865a7f14","etm":""},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"8"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop479456214.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/4066234693/O1CN01W8loKY1kXRqEXVonu_!!4066234693-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i1/4066234693/O1CN01JntE8f1kXRXsWAkah_!!4066234693.jpg","https://img.alicdn.com/imgextra/i4/4066234693/O1CN01UIZZ8U1kXRXsW9bvU_!!4066234693.jpg","https://img.alicdn.com/imgextra/i4/4066234693/O1CN015w32B21kXRXhlOpmp_!!4066234693.jpg","https://img.alicdn.com/imgextra/i1/4066234693/O1CN01tZgTro1kXRXrr7t2u_!!4066234693.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop479456214.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"17","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"4.6","title":"宝贝质量"},{"score":"4.8","title":"物流速度"},{"score":"4.4","title":"服务保障"}],"labelList":[],"overallScore":"4.4","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000003216/O1CN01iQgDcv1ZcyWMeVMRD_!!6000000003216-2-shopmanager.png","shopName":"天猫国际全球探物","shopUrl":"//shop479456214.taobao.com","starNum":"3.5"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"自营1h可退 欧洲直邮LV/路易威登 女士棕色驼色老花帆布卡包"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033007001061.center.na620@33.7.1.61","traceId":"213e09ba17648290776388388e1798"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{4944173365059:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"2372.00\",\"price2\":\"2084.00\",\"price3\":\"5599.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"gsp_28800^24_322700\",\"utcDPre\":\"noProm\"}}","sellerId":"4066234693","sid":"4944173365059","traceId":"213e09ba17648290776388388e1798","type":"99","umpCreateTime":"2025-12-04 14:17:57","version":"2.1","xobjectId":"697797209606"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预售，付款后10天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"法国","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["每件直降288元"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN017ZsqJR1wHCv11V4bP_!!6000000006282-2-tps-269-54.png","text":["0元入会，抢限量好券"]},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01rH1w2t1muuzylT92V_!!6000000005015-2-tps-268-53.png","text":["进补贴会场，抢真5折好货"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","退货宝","1小时内可退","正品保障","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["耐磨"],"title":"面料功能"},{"text":["零钱包"],"title":"款式名称"},{"text":["主题系列"],"title":"系列"},{"text":["全新"],"title":"成色"},{"text":["棕色/驼色"],"title":"颜色分类"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"action":"查看","actionLink":"https://rule.tmall.hk/rule/rule_detail?spm=a2o8rj.import_rules_portal.0.0.19da6f0clOc4T0&amp;id=2916","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["买家拍下【1小时内可退】标识的商品，付款成功后1小时内可申请退款，享受极速退。1小时后订单开始寻货，若因寻货失败交易将自动退款，寻货失败交易不支持缺货赔付。"],"title":"1小时内可退"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=c52d0c6969556ae2b2e7b004865a7f14","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=697797209606","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"208400","priceText":"2084","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"237200","priceText":"2372","priceTitle":"探物专享","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E6%82%A8%E6%89%80%E8%B4%AD%E4%B9%B0%E7%9A%84%E5%95%86%E5%93%81%E5%B7%B2%E5%8C%85%E5%90%AB%E8%B7%A8%E5%A2%83%E7%94%B5%E5%95%86%E8%BF%9B%E5%8F%A3%E7%A8%8E%EF%BC%8C%E4%B8%AA%E5%88%AB%E5%95%86%E5%93%81%E7%A8%8E%E8%B4%B9%E7%94%B1%E5%95%86%E5%AE%B6%E6%89%BF%E6%8B%85%EF%BC%8C%E6%82%A8%E6%97%A0%E9%9C%80%E5%86%8D%E8%A1%8C%E6%94%AF%E4%BB%98%E3%80%82%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%229.1%25%22%3A%22%E4%B8%AD%E5%9B%BD%E6%B5%B7%E5%85%B3%E8%A7%84%E5%AE%9A%EF%BC%8C%E4%B8%8D%E5%90%8C%E7%B1%BB%E7%9B%AE%E7%9A%84%E5%95%86%E5%93%81%E5%BE%81%E6%94%B6%E7%A8%8E%E7%8E%87%E4%B8%8D%E5%90%8C%EF%BC%8C%E8%AF%A5%E5%95%86%E5%93%81%E7%9A%84%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%8E%87%E4%B8%BA9.1%25%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E5%95%86%E5%93%81%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%28%E5%8C%85%E6%8B%AC%E8%BF%90%E8%B4%B9%29+*+%E7%A8%8E%E7%8E%87%22%3A%22%28%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%E7%94%B1%E6%B5%B7%E5%85%B3%E6%9C%80%E7%BB%88%E8%AE%A4%E5%AE%9A%29%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","4944173365059":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=677845075438</t>
-  </si>
-  <si>
-    <t>{"seller":{"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWQE6aTU17DV9cV5csV7nv9LPgBUNFvu9dmENC4Wm1RghB","evaluates":[{"level":"1","levelText":"高","score":"4.9 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.9 ","title":"卖家服务","type":"serv"},{"level":"1","levelText":"高","score":"4.9 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop299368212.taobao.com","sellerId":"2206906647747","sellerNick":"墨犀海外专营店","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopId":"299368212","shopName":"墨犀海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2206906647747"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01qb8YFt276B5LCqSeF_!!0-item_pic.jpg","https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01jsfOCQ276B4R6XctZ_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN01hn9e0I276AzmJokRw_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01vnR8fg276AzcErAsM_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN01opxYtB276Azgz6PEa_!!2206906647747.jpg"],"itemId":"677845075438","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=677845075438&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0677845075438!12964579979&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=677845075438","spuId":"2531180212","title":"七夕LV路易威登2023新款女士TWIST 钱夹 M68309","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"皮质特征","valueName":"头层牛皮"},{"propertyName":"颜色分类","valueName":"黑色 象灰色 罂粟红 芭蕾粉"}],"enhanceParamList":[{"propertyName":"货号","valueName":"XD_4I2Vn_87dteo6d"},{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"上市年份季节","valueName":"2022年夏季"},{"propertyName":"质地","valueName":"牛皮"},{"propertyName":"款式","valueName":"长款钱包"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"itemApplyParams":"[{\"couponName\":\"满6000减100店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7841970673\",\"uuid\":\"32b67bdfe0be4485b76b9dfebf80340f\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"872000","priceText":"8720","priceTitle":"优惠前"},"quantity":"32","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"862000","priceText":"8620","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4866016449360":{"itemApplyParams":"[{\"couponName\":\"满6000减100店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7841970673\",\"uuid\":\"32b67bdfe0be4485b76b9dfebf80340f\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"872000","priceText":"8720","priceTitle":"优惠前"},"quantity":"8","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"862000","priceText":"8620","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4866016449361":{"itemApplyParams":"[{\"couponName\":\"满6000减100店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7841970673\",\"uuid\":\"32b67bdfe0be4485b76b9dfebf80340f\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"872000","priceText":"8720","priceTitle":"优惠前"},"quantity":"8","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"862000","priceText":"8620","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4866016449358":{"itemApplyParams":"[{\"couponName\":\"满6000减100店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7841970673\",\"uuid\":\"32b67bdfe0be4485b76b9dfebf80340f\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"872000","priceText":"8720","priceTitle":"优惠前"},"quantity":"8","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"862000","priceText":"8620","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4866016449359":{"itemApplyParams":"[{\"couponName\":\"满6000减100店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7841970673\",\"uuid\":\"32b67bdfe0be4485b76b9dfebf80340f\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"872000","priceText":"8720","priceTitle":"优惠前"},"quantity":"8","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"862000","priceText":"8620","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（4）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i4/2206906647747/O1CN015mlbbA276AzkskWlG_!!2206906647747.jpg","name":"黑色","vid":"28341"},{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i3/2206906647747/O1CN01FyQV6D276AzqPSFtS_!!2206906647747.jpg","name":"象灰色","vid":"506318162"},{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i1/2206906647747/O1CN01B1ovuj276AzrFWDMo_!!2206906647747.jpg","name":"罂粟红","vid":"45703821"},{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i1/2206906647747/O1CN01CdZ3bU276AzqPTnZr_!!2206906647747.jpg","name":"芭蕾粉","vid":"399030936"}]}],"skus":[{"propPath":"1627207:28341","skuId":"4866016449358"},{"propPath":"1627207:506318162","skuId":"4866016449359"},{"propPath":"1627207:45703821","skuId":"4866016449360"},{"propPath":"1627207:399030936","skuId":"4866016449361"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"8720.00","auction_type":"b","x-uid":"","title":"七夕LV路易威登2023新款女士TWIST 钱夹 M68309","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"墨犀海外专营店","photo_url":"i3/2206906647747/O1CN01qb8YFt276B5LCqSeF_!!0-item_pic.jpg","current_price":"8720.00","region":"北京","seller_id":"31934cb70841307c0cfe27c4cda03122","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01qb8YFt276B5LCqSeF_!!0-item_pic.jpg","https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01jsfOCQ276B4R6XctZ_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN01hn9e0I276AzmJokRw_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01vnR8fg276AzcErAsM_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN01opxYtB276Azgz6PEa_!!2206906647747.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"5.0","title":"宝贝质量"},{"score":"3.4","title":"物流速度"},{"score":"4.7","title":"服务保障"}],"labelList":[],"overallScore":"4.6","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopName":"墨犀海外专营店","shopUrl":"//shop299368212.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"七夕LV路易威登2023新款女士TWIST 钱夹 M68309"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033080054062.center.na610@33.80.54.62","traceId":"213e09ba17648291120123274e1798"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{}","sellerId":"2206906647747","sid":"0","traceId":"213e09ba17648291120123274e1798","type":"99","umpCreateTime":"2025-12-04 14:18:32","version":"2.1","xobjectId":"677845075438"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预计5天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"海外","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["3期免息"]},{"text":["店铺券满6000减100"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["30天价保","不支持7天无理由退货","正品保障","品质严保","证照公示","退货运费险"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["牛皮"],"title":"质地"},{"text":["头层牛皮"],"title":"皮质特征"},{"text":["黑色 象灰色 罂粟红 芭蕾粉"],"title":"颜色分类"},{"text":["2022年夏季"],"title":"上市年份季节"},{"text":["XD_4I2Vn_87dteo6d"],"title":"货号"},{"text":["长款钱包"],"title":"款式"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"action":"更多","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","text":["付款后30天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"30天价保"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=31934cb70841307c0cfe27c4cda03122","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商家赠送运费险，退换货选择上门取件，自动减免首重运费；若选择自寄，参照首重标准赔付，具体以“订单详情-退货运费险”页面为准。"],"title":"退货运费险"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=677845075438","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"862000","priceText":"8620","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"872000","priceText":"8720","priceTitle":"优惠前","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","4866016449360":"进口税 价格已含税 ","4866016449361":"进口税 价格已含税 ","4866016449358":"进口税 价格已含税 ","4866016449359":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=993281691950</t>
-  </si>
-  <si>
-    <t>{"seller":{"creditLevel":"17","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWNgDpTJX75KSyYFuAQSBw4kCebDyyLTeCQmSiiyE7rqM7","evaluates":[{"level":"1","levelText":"高","score":"4.8 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.8 ","title":"卖家服务","type":"serv"},{"level":"-1","levelText":"低","score":"4.8 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop479456214.taobao.com","sellerId":"4066234693","sellerNick":"天猫国际海外直购","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000003216/O1CN01iQgDcv1ZcyWMeVMRD_!!6000000003216-2-shopmanager.png","shopId":"479456214","shopName":"天猫国际全球探物","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"4066234693"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i3/4066234693/O1CN01M5VTcO1kXRqF1GTgO_!!4066234693-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i2/2201196294013/O1CN01sLhHGY1fW0W6eQMZZ_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i3/2201196294013/O1CN013JSMlZ1fW0W5u1tIy_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01HnCWaL1fW0W5EXQAb_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i1/2201196294013/O1CN01F8gQfL1fW0W5tzsZx_!!2201196294013.jpg"],"itemId":"993281691950","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=993281691950&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0993281691950!1209327331&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=993281691950","spuId":"0","title":"自营1h可退 欧洲直邮LV路易威登 男士海军蓝帆布老花图案卡包","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"1"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"颜色分类","valueName":"海军蓝"}],"enhanceParamList":[{"propertyName":"品牌","valueName":"LV/路易威登"},{"propertyName":"性别","valueName":"男"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"limit":"5","logisticsTime":"预售，付款后10天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"403600","priceText":"4036","priceTitle":"优惠前"},"quantity":"9","quantityDisplayValue":"1","quantityText":"即将售罄(限购5件)","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"354600","priceText":"3546","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"5972193185011":{"limit":"5","logisticsTime":"预售，付款后10天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"403600","priceText":"4036","priceTitle":"优惠前"},"quantity":"9","quantityDisplayValue":"1","quantityText":"即将售罄(限购5件)","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"354600","priceText":"3546","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"false","name":"规格","packProp":"false","pid":"-1","shouldGroup":"false","values":[{"comboPropertyValue":"false","name":"7.5x11.1x1cm","vid":"-1"}]},{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（1）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i2/2201196294013/O1CN01hjEPOz1fW0W6H4Ghf_!!2201196294013.jpg","name":"海军蓝","vid":"3861844"}]}],"skus":[{"propPath":"-1:-1;1627207:3861844","skuId":"5972193185011"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.hk/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"10099.00","auction_type":"b","x-uid":"","title":"自营1h可退 欧洲直邮LV路易威登 男士海军蓝帆布老花图案卡包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"天猫国际全球探物","photo_url":"i3/4066234693/O1CN01M5VTcO1kXRqF1GTgO_!!4066234693-0-tmg_sticker_daily.jpg","current_price":"10099.00","region":"法国","seller_id":"c52d0c6969556ae2b2e7b004865a7f14","etm":""},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"8"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop479456214.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/4066234693/O1CN01M5VTcO1kXRqF1GTgO_!!4066234693-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i2/2201196294013/O1CN01sLhHGY1fW0W6eQMZZ_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i3/2201196294013/O1CN013JSMlZ1fW0W5u1tIy_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i4/2201196294013/O1CN01HnCWaL1fW0W5EXQAb_!!2201196294013.jpg","https://img.alicdn.com/imgextra/i1/2201196294013/O1CN01F8gQfL1fW0W5tzsZx_!!2201196294013.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop479456214.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"17","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"4.6","title":"宝贝质量"},{"score":"4.8","title":"物流速度"},{"score":"4.4","title":"服务保障"}],"labelList":[],"overallScore":"4.4","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i4/6000000003216/O1CN01iQgDcv1ZcyWMeVMRD_!!6000000003216-2-shopmanager.png","shopName":"天猫国际全球探物","shopUrl":"//shop479456214.taobao.com","starNum":"3.5"},"titleVO":{"salesDesc":"已售 1","subTitles":[],"title":{"title":"自营1h可退 欧洲直邮LV路易威登 男士海军蓝帆布老花图案卡包"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033008133248.center.na620@33.8.133.248","traceId":"2150493917648291550014608e19d9"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{5972193185011:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"4036.00\",\"price2\":\"3546.00\",\"price3\":\"10099.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"gsp_49000^24_606300\",\"utcDPre\":\"noProm\"}}","sellerId":"4066234693","sid":"5972193185011","traceId":"2150493917648291550014608e19d9","type":"99","umpCreateTime":"2025-12-04 14:19:15","version":"2.1","xobjectId":"993281691950"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预售，付款后10天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"法国","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["每件直降490元"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN017ZsqJR1wHCv11V4bP_!!6000000006282-2-tps-269-54.png","text":["0元入会，抢限量好券"]},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01rH1w2t1muuzylT92V_!!6000000005015-2-tps-268-53.png","text":["进补贴会场，抢真5折好货"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","退货宝","正品保障","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["LV/路易威登"],"title":"品牌"},{"text":["男"],"title":"性别"},{"text":["海军蓝"],"title":"颜色分类"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=c52d0c6969556ae2b2e7b004865a7f14","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=993281691950","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"354600","priceText":"3546","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"403600","priceText":"4036","priceTitle":"探物专享","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E6%82%A8%E6%89%80%E8%B4%AD%E4%B9%B0%E7%9A%84%E5%95%86%E5%93%81%E5%B7%B2%E5%8C%85%E5%90%AB%E8%B7%A8%E5%A2%83%E7%94%B5%E5%95%86%E8%BF%9B%E5%8F%A3%E7%A8%8E%EF%BC%8C%E4%B8%AA%E5%88%AB%E5%95%86%E5%93%81%E7%A8%8E%E8%B4%B9%E7%94%B1%E5%95%86%E5%AE%B6%E6%89%BF%E6%8B%85%EF%BC%8C%E6%82%A8%E6%97%A0%E9%9C%80%E5%86%8D%E8%A1%8C%E6%94%AF%E4%BB%98%E3%80%82%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%229.1%25%22%3A%22%E4%B8%AD%E5%9B%BD%E6%B5%B7%E5%85%B3%E8%A7%84%E5%AE%9A%EF%BC%8C%E4%B8%8D%E5%90%8C%E7%B1%BB%E7%9B%AE%E7%9A%84%E5%95%86%E5%93%81%E5%BE%81%E6%94%B6%E7%A8%8E%E7%8E%87%E4%B8%8D%E5%90%8C%EF%BC%8C%E8%AF%A5%E5%95%86%E5%93%81%E7%9A%84%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%8E%87%E4%B8%BA9.1%25%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E5%95%86%E5%93%81%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%28%E5%8C%85%E6%8B%AC%E8%BF%90%E8%B4%B9%29+*+%E7%A8%8E%E7%8E%87%22%3A%22%28%E5%AE%8C%E7%A8%8E%E4%BB%B7%E6%A0%BC%E7%94%B1%E6%B5%B7%E5%85%B3%E6%9C%80%E7%BB%88%E8%AE%A4%E5%AE%9A%29%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","5972193185011":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
-  </si>
-  <si>
     <t>FlashSale</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?id=950800064175</t>
-  </si>
-  <si>
-    <t>{"seller":{"sellerNick":"赴家族","shopIcon":"https://img.alicdn.com/imgextra/i2/1731080501/O1CN01s2EiUd1FZVTmcdBzD_!!1731080501.jpg","shopName":"奢店诚品","evaluates":[{"score":"5.0 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"5.0 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"5.0 ","level":"1","levelText":"高","title":"物流服务","type":"post"}],"userId":"1731080501","creditLevel":"11","sellerId":"1731080501","tagIcon":"//gtms04.alicdn.com/tps/i4/TB1YE.PHVXXXXb6XXXXSutbFXXX.jpg","pcShopUrl":"//shop261360798.taobao.com","creditLevelIcon":"//gw.alicdn.com/tfs/TB1HfjsiC_I8KJjy0FoXXaFnVXa-132-24.png","shopId":"261360798","sellerType":"C","encryptUid":"RAzN8HWLjRQMqFYGBsg8Z7vAdYV51GZZ7iK5nQv2ebuqs2VhUVo"},"item":{"vagueSellCount":"0","images":["https://img.alicdn.com/imgextra/i3/1731080501/O1CN01rfBHc51FZVWQZrDLA_!!1731080501.jpg","https://img.alicdn.com/imgextra/i2/1731080501/O1CN0115W34X1FZVV7oC3Ll_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01fBlIFR1FZVV6I4xUs_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01vfD6Mv1FZVV6I4l33_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01K8a6qq1FZVV5A7rmw_!!1731080501.png"],"title":"奢店 2025 新款 LV/路易威登 VICTORINE 幻彩短款两折钱包 M25649","itemId":"950800064175","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=950800064175","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=950800064175&amp;descVersion=7.0&amp;type=1&amp;f=desc/icoss142926708865be296519ba5722&amp;sellerType=C","bottomIcons":[],"spuId":"0","titleIcon":""},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"industryParamVO":{"hit":"true","enhanceParamList":[{"valueName":"植物花卉","propertyName":"图案"},{"valueName":"Louis Vuitton/路易威登","propertyName":"品牌"},{"valueName":"2025年夏季","propertyName":"上市年份季节"},{"valueName":"青年","propertyName":"适用对象"},{"valueName":"牛皮革","propertyName":"质地"},{"valueName":"车缝线","propertyName":"流行元素"},{"valueName":"日韩","propertyName":"风格"},{"valueName":"短款钱包","propertyName":"款式"},{"valueName":"横款","propertyName":"形状"}],"bizCode":"","basicParamList":[{"valueName":"其他","propertyName":"Louis Vuitton/路易威登系列"},{"valueName":"女","propertyName":"性别"}]},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"63495","timeActionText":"63495"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"false","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":1,"logisticsTime":"预售，30天内发货","itemApplyParams":"[{\"couponName\":\"满5000减200店铺优惠券\",\"sellerId\":1731080501,\"couponType\":1,\"templateCode\":\"7821036108\",\"uuid\":\"ead341ae7a1f4243bd7929ec623bff0f\"}]","price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"6810","priceMoney":"681000"},"quantityDisplayValue":1,"quantityText":"即将售罄","subPrice":{"priceColor":"#FFFFFF","priceTitle":"券后","priceColorNew":"#FF5000","priceBgColor":"#FF5000","priceTitleColor":"#FFFFFF","priceText":"6579.68","priceMoney":"657968"}}}},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[]},"pcTrade":{"buyNowUrl":"//buy.taobao.com/auction/buy_now.jhtml","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"7100.00","auction_type":"b","x-uid":"","title":"奢店 2025 新款 LV/路易威登 VICTORINE 幻彩短款两折钱包 M25649","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"奢店诚品","photo_url":"i3/1731080501/O1CN01rfBHc51FZVWQZrDLA_!!1731080501.jpg","current_price":"7100.00","region":"广东深圳","seller_id":"bcbc81f74bfab9a942d1b33d1c9c2150","etm":""},"tradeType":1},"componentsVO":{"headerVO":{"logoJumpUrl":"https://www.taobao.com","mallLogo":"https://gw.alicdn.com/imgextra/i1/O1CN01z163bz1lHF5yQ50CC_!!6000000004793-2-tps-172-108.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜索"},"type":"search_in_taobao","events":[{"type":"onClick","fields":{"url":"//s.taobao.com/search"}}]},{"subTitle":{},"background":{"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop261360798.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i3/1731080501/O1CN01rfBHc51FZVWQZrDLA_!!1731080501.jpg","https://img.alicdn.com/imgextra/i2/1731080501/O1CN0115W34X1FZVV7oC3Ll_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01fBlIFR1FZVV6I4xUs_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01vfD6Mv1FZVV6I4l33_!!1731080501.png","https://img.alicdn.com/imgextra/i3/1731080501/O1CN01K8a6qq1FZVV5A7rmw_!!1731080501.png"],"videos":[]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop261360798.taobao.com"}}]}],"shopIcon":"https://img.alicdn.com/imgextra/i2/1731080501/O1CN01s2EiUd1FZVTmcdBzD_!!1731080501.jpg","shopName":"奢店诚品","evaluates":[{"score":"-","title":"宝贝质量"},{"score":"-","title":"物流速度"},{"score":"-","title":"服务保障"}],"shopUrl":"//shop261360798.taobao.com","creditLevel":"11","creditLevelIcon":"//gtms04.alicdn.com/tps/i4/TB1wA25HpXXXXcwXVXXCBGNFFXX-24-24.png","sellerType":"C"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"奢店 2025 新款 LV/路易威登 VICTORINE 幻彩短款两折钱包 M25649"}},"debugVO":{"traceId":"77f9302017645859147757519e","host":"taodetail011128064174.center.na610@11.128.64.174"},"rateVO":{"totalCount":"0","favorableRate":{}},"umpPriceLogVO":{"umpCreateTime":"2025-12-01 18:45:15","traceId":"77f9302017645859147757519e","xObjectId":"950800064175","type":99,"bcType":"c","version":"2.1","sId":"0","bS":"businessScenario","sellerId":"1731080501","dUmpInvoke":0,"map":"{0:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"6810.00\",\"price2\":\"6579.68\",\"price3\":\"7100.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"41_29000^13_20000^12_2532^5_500\",\"utcDPre\":\"noProm\"}}"},"deliveryVO":{"agingDescColor":"#FF5000","freight":"快递: 免运费","deliveryFromAddr":"香港九龙","addressId":"7689479327","deliverToCity":"北京","areaId":110108,"deliveryToAddr":"北京 海淀 西三旗","agingDesc":"预售，30天内发货","deliveryToDistrict":"海淀"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[],"buyInMobile":"true","leftButtons":[]},"extensionInfoVO":{"infos":[{"title":"优惠","type":"DAILY_COUPON","items":[{"text":["红包减5元"]},{"text":["淘金币可抵340.50元"]},{"text":["店铺券满5000减200"]}]},{"title":"保障","type":"GUARANTEE","items":[{"text":["30天价保","不支持7天无理由退货","极速退款"]}]},{"title":"参数","type":"BASE_PROPS","items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["车缝线"],"title":"流行元素"},{"text":["日韩"],"title":"风格"},{"text":["短款钱包"],"title":"款式"},{"text":["2025年夏季"],"title":"上市年份季节"},{"text":["横款"],"title":"形状"},{"text":["牛皮革"],"title":"质地"},{"text":["青年"],"title":"适用对象"},{"text":["植物花卉"],"title":"图案"},{"text":["女"],"title":"性别"}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","action":"更多","text":["付款后30天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"30天价保","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退换"],"title":"不支持7天无理由退货"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"}]}]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=950800064175","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=950800064175","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=950800064175&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=950800064175","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=950800064175&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"extraPrice":{"priceUnit":"￥","priceColor":"#FFFFFF","priceTitle":"券后","priceColorNew":"#FF5000","priceBgColor":"#FF5000","priceTitleColor":"#FFFFFF","priceText":"6579.68","priceMoney":"657968","hiddenPrice":"false"},"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"夏季热卖","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceText":"6810","priceMoney":"681000","hiddenPrice":"false"},"isNewStyle":"true"},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=980095910295</t>
-  </si>
-  <si>
-    <t>{"seller":{"sellerNick":"天猫国际时尚范","shopName":"天猫国际自营时尚范","evaluates":[{"score":"4.8 ","level":"1","levelText":"高","title":"宝贝描述","type":"desc"},{"score":"4.8 ","level":"1","levelText":"高","title":"卖家服务","type":"serv"},{"score":"4.8 ","level":"-1","levelText":"低","title":"物流服务","type":"post"}],"pcShopUrl":"//shop294622145.taobao.com","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","encryptUid":"RAzN8HWWVN92mq9oQPK7Q7SqWkhnzoyhqZBzLgYn7ZWPyYuDt3P"},"item":{"images":["https://img.alicdn.com/imgextra/i2/2200657715182/O1CN01kO4Fzu1o9PVaYq0Oa_!!2200657715182-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i1/2200877014436/O1CN01oEnpIe1idk2U3ZLIp_!!2200877014436.jpg","https://img.alicdn.com/imgextra/i4/2200877014436/O1CN01dbE2Ef1idk2UPPnOG_!!2200877014436.jpg"],"title":"【自营】中古95新LV/路易威登钱包黑三彩PVC2008短款钱包","itemId":"980095910295","useWirelessDesc":"true","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=980095910295","spuId":"8682979549","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png"},"feature":{"pcResistDetail":"true","tmwOverseasScene":"false","pcIdentityRisk":"true","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"spm":"aliabtest948562_960155","hit":"true","bizCode":""},"addCartActionVO":{"ext":{"type":"dialogWithRecommond_2","frequency":"day:1;repeat:1"},"spm":"aliabtest853889_903547","hit":"true","bizCode":""},"guessLikeVO":{"hit":"true","bizCode":""},"rankVO":{"spm":"aliabtest723647_830745","hit":"true","bizCode":""},"tabPlaceholderVO":{"spm":"aliabtest801234_834392","hit":"true","bizCode":""},"headAtmosphereBeltVO":{"eventParam":{"code":"dp-PCFenQi-*-online"},"bizCode":"","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","bgColors":["#FAEDE1","#FAE7D4"],"textColor":"#11192D","valid":"true","actionType":"timeAction","hit":"true","text":"您有5元红包待使用","actionParam":{"timeActionType":"countdown","leftTime":"61423","timeActionText":"61423"}},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true","bizCode":""},"pcFrontSkuQuantityLimitVO":{"hit":"true","bizCode":""},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"spm":"aliabtest941180_724531","hit":"true","bizCode":""}},"skuCore":{"skuItem":{"renderSku":"true","itemStatus":0,"unitBuy":1},"sku2info":{"0":{"moreQuantity":"false","quantity":1,"logisticsTime":"承诺48小时内发货，晚发必赔","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#/Dn4puppytItQh9YDxvgH5P91Jqy2dHMRkE4FIOI7fZnOQoLsXGTCSR+3E7yOyFMYQqFwCjTx2G5BwEt0GNXFwBuPofAZlWKrcimgNb3EqpH/kV8kUE50xURcu5sjCyHusvgSBC/Frv6h1rQBapPrHiZtU0BeMNrmZI+MO1+KebfOFvozUicwha1npytJXafoMA87gwOM/SuzrCQ3ptpk9L2UXEHnBWmMiTtLK8WWGoQRk9KzbMgFpD7hsN83wECF43U3fw+ROXg6TQFoPApf9RwSzY0zu4jfw/I0KdD8oBbFy+4CJe6khO+flUloCsUGotZvPpQzuslCTIdsfmWEprBW/dG3NumRvKAAorvb43QzdHU83z9z9kljifWAPtB5kTPgQs9droi4CEEMA7V0CE5LE5/Q/aunDJCA2shZmaImkRkXZn+CAoJ5Yir7qxRyzc252itLWNCiJ/FWAlb760mm61Bjgr9SqQeC5IQiEkZL1nY8AorK+J+EMt4pwstnaaoDdTpdV0tOPHM61iQWknk9rOC824MA97rTKjV9tuHQHGlx/IzhIYbsUDOmDHEIKfbzmcVpeycF0KKmKOHzr9MATQkxCtjlkkVJ4FqvvJ0G9vfhTrezgsYDbiAYu1g+7w/KFV/hTRXYKN+HSvvYylmdQp0AOjdkqHwhdWZoGai5m244iTgxQRyFLD1O+lwqjabvS/pUlv2ONmQ9yv4PwjW4Q13t8LgM+4TTPjGzAnnaNRR1MHs4FPbtXqsCi8CkSLJABsH9XmKUWSlSqm9Y0x+4fKkRs7KksIVteJa8oyw8WIxVeK+68TcXIFZ/bgFPlnQzzkPa6VjpLKsPfg3zd2Pdx+oRLo2upfCfsdftBjgJ1IwichbMPHuuZMxJyfkn888PZt9MNX3DpZcy1il2SsDJNSFVmoPHRXMOM1s6XFFmY5xyDqx4FM34flR6kka6xtQ4fLbYVOzEgL+FBA07VBm8vIM3jepbelU+hvsElM0ts3swJKjK0yE/F9+Ck5XJ7EAOnn3GnF70bDFwkyKqkbPssa4UVZ5Cov9z2nbO2bQVXLWj6J4O+KrjMIebdowN0x/ptPLqYehf+9ey7cd1BRbUwC2xJDgbXLJMwc8ryUAeoMe1SZ2QL9+QOmdp2BT3sLggiWw2rZ6wSlLr729V5WH9i70JQesgIkNqyUBba7NSFFC2tKquEwJW5PuIgeCagTi5aU9/jIAz6dH+63nnXirRHv2p82AYsqbChA/WW9/GP+0MLbKs60DJh8aPMyWoqiFsa2094L0ZL92LuAbeveo3LmMVJQXPAShOAJdO8ttZIJaXjpPTyQYl21Dbca/#2222.22#pc#azcApSbLBvbQayH6pWIPuQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"quantityText":"即将售罄"},"6104371459051":{"moreQuantity":"false","quantity":1,"logisticsTime":"承诺48小时内发货，晚发必赔","confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#rO5zjImX1ts3YNnGSYTRXLLna7XwfpMKcnhglxPhVb2Kj057PLsw9932Qz3zXbWznBcx4KmJzFibFfjkDqiWes5SoIYJnpBVju4FkcXWX27ZIoJgXfPptHM3VYkUBYfwSms6Bj+sOqVc942WIfcOk68K7ASNzTpvFCmvbrYui1OiGOrpnYpboEjMWZRXGQ0QE8MQanAiaCuPE4lclJGc/WuJIhB6rZBQiYosoYXK6sCJMhDGGEFI8ipLwY1uDCKE/0mdodpRMdUUH9J1J0AWuWOEV+7zW1IsMcw2FvXZns45JaFTyIODY+kbCjU4GxarI7c1dlUBdmFxnsWYtPeYe58fvRN1jK3ng+gH1YtkHMrvta7UvezUcHlRzIbaBKto7Kkmxwy0epbphQ1Vn2EfNXrlH7YKlhWgyYTklqfpGOTLUoNLUV7bFPQxJyhOWTTiopV7ggWKkm1ktMhqGDNssMzx0TDmQS4fPk1/NIU6epx+c3CBtG4JMn3c2ksxm3LMlEwih4R4FzhJkpynxtzG0Wn7EEuRShn8cEHqkueszWfiuYIPpvbXkTfOtrAJMB8x/wSoKAB3u6SAeTJkrJPg8JssiENBiNvtCaz7XTMToGJryNj5I2nfB9RvBAJ2Pj7H4SNPoTcxE7nZU1PAn/nQtGP+LDJSeWBIPs+J/xzhGYQ/ANSFwqcNkmlfcdM3zhHlcBVvPixu39KQQH9AdGwTYf1iWBwsQXII7FLJD28vSQqpE8MQxqVIML8gx5lmG27GM8fgM85J8uOOOJ2gm6cTdxU69S+0Q0gw8GP4pA3WYMDbnrxtRi7DUoD7JLunavNJJEYI6KKfhgFY24tg5QjvsvvbER/jH4C5Q+KfXKZJpSgggdUR5nyw/pUvjoIyRhW3+eRcDHU56xZV2XIl6+rpsorq6b/lk/t/ySoMZnVaPiEzX++e7/COH64ywr+bpGCsKJlWiPAApEGNeVda37hvYfgKTJ7bkvAfSysa06k+knN74dcUNbrpxymdxYJYYuprEuuCtwGy6/SwCySCAvE228G18fIrpS0Fhj4Qk/jehXZc7xYLhSDbbnRlYWlakIVy2UvKZTw5CUiPkX1N3r8STPs4KxJurK8Q2a4AzqmSWFMek5U+eNXb9GZHw8thooLKsPVgJD3SZoCs0I2LxyzNPNHBNXfM+Eh15n+XTNZubvxWzv41w4MKInStdz5V685vvoIWn7j5jiLihz270BzqzRcSfMlskflW77PSqZftGyvPfWnMASOGA6Wch17JFJjIFs8daM8KCp60HWiqFlkl0Q==#2222.22#pc#azcApSbLBvbQayH6pWIPuQ==]"}],"price":{"priceTitle":"优惠前","priceColorNew":"#7A7A7A","priceText":"2222.22","priceMoney":"222222"},"quantityDisplayValue":1,"quantityText":"即将售罄"}}},"params":{"trackParams":{"detailabtestdetail":""},"aplusParams":"[]"},"skuBase":{"components":[],"skus":[{"propPath":"1627207:20584532","skuId":"6104371459051"}],"props":[{"hasGroupTags":"false","packProp":"false","shouldGroup":"false","comboProperty":"false","values":[{"comboPropertyValue":"false","vid":"20584532","name":"黑三彩"}],"hasImage":"false","pid":"1627207","name":"颜色分类","valueMap":{"20584532":{"comboPropertyValue":"false","vid":"20584532","name":"黑三彩"}}}]},"pcTrade":{"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","bizDataBuyParams":{},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"pcBuyParams":{"virtual":"false","buy_now":"1819.00","auction_type":"b","x-uid":"","title":"【自营】中古95新LV/路易威登钱包黑三彩PVC2008短款钱包","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","routeToNewPc":"1","auto_post":"false","seller_nickname":"天猫国际自营时尚范","photo_url":"i2/2200657715182/O1CN01kO4Fzu1o9PVaYq0Oa_!!2200657715182-0-tmg_sticker_daily.jpg","current_price":"1819.00","region":"上海","seller_id":"46526e208dadd4ea07f0403b0d210860","etm":"post"},"tradeType":2},"componentsVO":{"headerVO":{"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝","buttons":[{"subTitle":{},"background":{"gradientColor":["#7A3BE7","#B948F1"],"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜天猫国际"},"type":"search_in_tmallhk","events":[{"type":"onClick","fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"}}]},{"subTitle":{},"background":{"gradientColor":["#343434"],"alpha":"1.0","disabledAlpha":"1.0"},"disabled":"false","title":{"text":"搜本店"},"type":"search_in_store","events":[{"type":"onClick","fields":{"url":"//shop294622145.taobao.com/search.htm"}}]}]},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/2200657715182/O1CN01kO4Fzu1o9PVaYq0Oa_!!2200657715182-0-tmg_sticker_daily.jpg","https://img.alicdn.com/imgextra/i1/2200877014436/O1CN01oEnpIe1idk2U3ZLIp_!!2200877014436.jpg","https://img.alicdn.com/imgextra/i4/2200877014436/O1CN01dbE2Ef1idk2UPPnOG_!!2200877014436.jpg"]},"storeCardVO":{"buttons":[{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"联系客服"},"type":"customer_service"},{"image":{"imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg","gifAnimated":"false"},"disabled":"false","title":{"text":"进入店铺"},"type":"enter_shop","events":[{"type":"openUrl","fields":{"url":"//shop294622145.taobao.com"}}]}],"overallScore":"4.6","shopIcon":"https://img.alicdn.com/imgextra/i2/6000000006602/O1CN016UeCPL1ydlbF07FTo_!!6000000006602-2-shopmanager.png","shopName":"天猫国际自营时尚范","evaluates":[{"score":"3.9","title":"宝贝质量"},{"score":"4.7","title":"物流速度"},{"score":"4.5","title":"服务保障"}],"shopUrl":"//shop294622145.taobao.com","labelList":[],"creditLevel":"16","creditLevelIcon":"//gw.alicdn.com/imgextra/i1/O1CN01VD9Iap25oweneR31D_!!6000000007574-2-tps-120-60.png","sellerType":"B","starNum":"4.0"},"titleVO":{"subTitles":[{"title":"可开发票"}],"title":{"title":"【自营】中古95新LV/路易威登钱包黑三彩PVC2008短款钱包"}},"debugVO":{"traceId":"ddcc178f17645879870351499e","host":"taodetail033008174047.center.na620@33.8.174.47"},"rateVO":{"totalCount":"0","favorableRate":{}},"deliveryVO":{"agingDescColor":"#1F1F1F","freight":"快递: 免运费","deliveryFromAddr":"直营指定","addressId":"7689479327","deliverToCity":"北京市","areaId":110108,"deliveryToAddr":"北京市 海淀区 西三旗街道","agingDesc":"承诺48小时内发货，晚发必赔","deliveryToDistrict":"海淀区"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"rightButtons":[{"icon":{"iconFontName":"뀚","color":"#666666","size":"14","alpha":"1.0","disabledColor":"#dddddd","disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#666666","alpha":"1.0","fontSize":"14","bold":"false","text":"收藏","disabledColor":"#666666","disabledAlpha":"1.0"},"type":"collect"}],"buyInMobile":"false","leftButtons":[{"background":{"gradientColor":["#9D6FFA","#8B24DC"],"alpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"加入购物车","disabledColor":"#33ffffff","disabledAlpha":"0.2"},"type":"add_cart"},{"background":{"gradientColor":["#FB49CE","#FF2B6C"],"alpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"disabledAlpha":"1.0"},"disabled":"false","title":{"color":"#ffffff","alpha":"1.0","fontSize":"16","bold":"true","text":"立即购买","disabledColor":"#80ffffff","disabledAlpha":"0.2"},"type":"buy_now"}]},"extensionInfoVO":{"infos":[{"title":"保障","type":"GUARANTEE","items":[{"text":["7天价保","破损包退","7天无理由退换","退货宝","正品保障","极速退款"]}]},{"title":"保障","type":"GUARANTEE_NEW","items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","action":"更多","text":["付款后7天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"7天价保","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01niXnN41rrmdFJM1Wk_!!6000000005685-2-tps-88-88.png","text":["在签收之时起的72小时内(食品类如：零食、酒类、咖啡冲饮等需24小时内)，发现商品破损或商品破损导致漏液/变形等并提供有效凭证的，商家24小时内响应并提供退款服务"],"title":"破损包退"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN018OeEm11qBoiyKY6F6_!!6000000005458-2-tps-88-88.png","text":["满足相应条件（剪标/使用/洗涤后不支持）时，消费者可申请 “7天无理由退换货”"],"title":"7天无理由退换"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01ywvaIw1Vf23dTriiP_!!6000000002679-2-tps-88-88.png","text":["退货运费险保障：选择上门取件，自动减免首重运费；若选择自寄，参照首重标准补偿，具体以“订单详情-退货宝”为准"],"title":"退货宝"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","action":"查看","text":["100%正品，假一赔十"],"title":"正品保障","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN017M9n9g24KtBtclhMh_!!6000000007373-2-tps-88-88.png","text":["满足相应条件时，信誉良好的用户在退货寄出后，享受极速退款到账。"],"title":"极速退款"}]}]},"rightBarVO":{"toolkit":{"plugin":{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201},"webww2":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200},"cart2":{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199},"qrcode":{"priority":198,"url":"https://pages-g.m.taobao.com/wow/z/app/detail-next/item/index?fromPc=true&amp;id=980095910295","spm":"0.0.sidebar.qrcode","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=980095910295","label":"商品码"},"survey":{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197},"copyUrl":{"openType":"manual","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196},"feedback":{"priority":195,"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false"},"report":{"priority":99,"href":"//jubao.taobao.com/index.htm?itemId=980095910295&amp;spm=a1z6q.7847058","icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","label":"举报","disabled":"false"},"backTop":{"disabled":"false","priority":1}},"buyerButtons":[{"icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","disabled":"false","href":"https://pc.taobao.com?channel=item","label":"桌面版","priority":201,"type":"plugin"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","disabled":"false","label":"联系客服","priority":200,"type":"webww2"},{"icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","disabled":"false","href":"//cart.taobao.com","label":"购物车","priority":199,"type":"cart2"},{"icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=980095910295","label":"商品码","priority":198,"type":"qrcode"},{"icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","label":"用户调研","priority":197,"type":"survey"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","disabled":"false","label":"复制链接","priority":196,"type":"copyUrl"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","disabled":"false","priority":195,"type":"feedback"},{"icon":"https://img.alicdn.com/imgextra/i2/O1CN01RAWBfz20zsCKuENux_!!6000000006921-2-tps-96-96.png","disabled":"false","href":"//jubao.taobao.com/index.htm?itemId=980095910295&amp;spm=a1z6q.7847058","label":"举报","priority":99,"type":"report"},{"disabled":"false","priority":1,"type":"backTop"}],"sellerButtons":[]},"priceVO":{"confusionPriceList":[{"confusion":"true","priceText":"[2#1_7ij1w4tp#21#QblTnijDGTJ2I6p6MqBRb/oC8AvZN6jf/ea07OACJ/HJFqig/N3pmnNTytglut5iwxP9Q4JZ3BWPjfIJI6JQ98M6+Swu4vYox661xCwrJNdtG9KR48ZVfpw+guyjwv0gCqezcs9N9YgkmnQHoJFfoPGjJ4RYvmveV2zYh06eUIqCzfVvD99NLKQ2faA7ZKsKsEvnKm9YY8oVecIZhjVw3LH0w3sw3t6p9Je/bH0aQVFf1vO4SYp3G+oesGxhi6qVA2sU5IMQJMrTkaCSitORajSvUOOsdKMxzuLXTCXaKuBPv7U1QOyqmdoPsoymZnQ+52S5xbk83YLCvVjwlxzKEWNCCjmNgCuqqaEk0wjUXOOL92EFn5zvA5rd03+TwTsF8iCaB9FQOje2PEElYybC5sOsVAJIAKjaVXt4fie2061THgVquyRLNHTXBVHzYhijBMNALUXDcxcUw0e/RK5DI7fqqqyY1RlrPpCVMOS06mYyWn1zdXiYP2Tl4fDyEr0Dq+7PjgW9cQ3DFMS2i4ZXz2o+6RWQG5i1mhO2bdOt96mFTAIn0PU5JRFYVpCf+rWzixN+r6occMtwEOGiwj71Tzbbo4ssZBMKkGuWSXCdjmHkrosHciReVeR8crnnZuyjXDckMT+jPfLQQbiEKuHNl/bpFseozzkZy0UzLcXLe1n+K/RR7QC9xAjy0UknaHAGt9Ww2xER5/pl+zxzaz2cAitV3Sb8EOSyF5dQzHtynCUsCV3PaPeLf2zAamPU48wkaTzVfSxyvsacEjQ5xsQ/B6ELUHkiVgNSPLH98yGHnycuQ3sda+2xKm2wnfzLGdMPDIDwFqD2wWm/EZi/SQlM5l8iGlCg+Q8uuszaCmQPFNGqy43Qyu2a11umJ9SlfB9ihDpF4MAFFD1REDsOD926i9Yf+T7owLN9VXK7urjbvNPOrjbJJX5KaM++ctJoXIndCsZ86B748V19oBfUre9dyS7hksGbOxtvJbRjcy7uNSxblpYL9Le1riGdd+UkJP7ci1GWYjLQa40xoln1P0lYBa5Zymeqo8/9Idkv0ZJGDBVfPD/2vy7WieiJtLL+SRMhlx9spgvgRq+crumdwWmG3cZJg2Os5tDNGbkQFdQEVq/vxR8J7FDrnh/XnNl8uxJGMyAIh3C0WYDQUM81LRm1hCzB2KG0lPTrXkfshJNd9qqIXNk1bA6h+7ru5Ojfvci7jcd+p/6vbLwepEb59wrGnO+v/ZAQoHhbFENuA+438swC7IL915bVGNa7SyteBhRd#2222.22#pc#azcApSbLBvbQayH6pWIPuQ==]"}],"price":{"priceUnit":"￥","priceColor":"#FF4F00","priceTitle":"品牌专享","priceColorNew":"#7A7A7A","priceTitleColor":"#FF4F00","priceActionText":"登录查看更多优惠","priceActionType":"buy_in_mobile","priceText":"2222.22","priceMoney":"222222","hiddenPrice":"false"}},"webfontVO":{"enableWebfont":"true"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":1,"title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":2,"title":"参数信息"},{"name":"factory_qualification","sort":3,"title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":4,"title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":5,"title":"本店推荐"},{"name":"guessULike","sort":7,"title":"看了又看"}]}},"frontendVO":{"skuImageLayoutMode":"listMode"}}</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=644724442369</t>
-  </si>
-  <si>
-    <t>{"seller":{"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWQE6aTU17DV9cV5csV7nv9LPgBUNFvu9dmENC4Wm1RghB","evaluates":[{"level":"1","levelText":"高","score":"4.9 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.9 ","title":"卖家服务","type":"serv"},{"level":"1","levelText":"高","score":"4.9 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop299368212.taobao.com","sellerId":"2206906647747","sellerNick":"墨犀海外专营店","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopId":"299368212","shopName":"墨犀海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2206906647747"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i2/2206906647747/O1CN016RUhRn276B6BXfwwp_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01qL3U5K276B6GL1Kny_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN010vqSz5276B69Np7ux_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01NCbVQM276B6CMEvYn_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN016qII7y276B67AXgPi_!!2206906647747.jpg"],"itemId":"644724442369","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=644724442369&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0644724442369!11762255140&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=644724442369","spuId":"2024162644","title":"LV路易威登2023新款女士ROSALIE 零钱包 M41939","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"1"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"bizCode":"","ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"bizCode":"","hit":"true"},"rankVO":{"bizCode":"","hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"bizCode":"","hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"皮质特征","valueName":"牛皮"},{"propertyName":"颜色分类","valueName":"玫红色 芭蕾粉"},{"propertyName":"款式","valueName":"其他"}],"bizCode":"","enhanceParamList":[{"propertyName":"货号","valueName":"M41939"},{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"上市年份季节","valueName":"2021年春季"},{"propertyName":"质地","valueName":"牛皮"}],"hit":"true"},"headAtmosphereBeltVO":{"actionParam":{"leftTime":"61331","timeActionText":"61331","timeActionType":"countdown"},"actionType":"timeAction","bgColors":["#FAEDE1","#FAE7D4"],"bizCode":"","eventParam":{"code":"dp-PCFenQi-*-online"},"hit":"true","icon":"https://img.alicdn.com/imgextra/i3/O1CN01GkQpeo1UyRBbSNgoY_!!6000000002586-2-tps-48-48.png","text":"您有5元红包待使用","textColor":"#11192D","valid":"true"},"commentListVO":{"bizCode":"","ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"bizCode":"","hit":"true"},"buyParamVO":{"bizCode":"","ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"itemApplyParams":"[{\"couponName\":\"满51减50店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7774605122\",\"uuid\":\"b5395b837dcc4241bb882a91feadfa56\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前"},"quantity":"12","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4642225309770":{"itemApplyParams":"[{\"couponName\":\"满51减50店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7774605122\",\"uuid\":\"b5395b837dcc4241bb882a91feadfa56\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前"},"quantity":"7","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4642225309771":{"itemApplyParams":"[{\"couponName\":\"满51减50店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7774605122\",\"uuid\":\"b5395b837dcc4241bb882a91feadfa56\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前"},"quantity":"5","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（2）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i2/2206906647747/O1CN01MI300x276B6CMDW6r_!!2206906647747.jpg","name":"玫红色","vid":"3594022"},{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i1/2206906647747/O1CN01CCUKbo276B6BXefrL_!!2206906647747.jpg","name":"芭蕾粉","vid":"399030936"}]}],"skus":[{"propPath":"1627207:3594022","skuId":"4642225309770"},{"propPath":"1627207:399030936","skuId":"4642225309771"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"3470.00","auction_type":"b","x-uid":"","title":"LV路易威登2023新款女士ROSALIE 零钱包 M41939","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"墨犀海外专营店","photo_url":"i2/2206906647747/O1CN0118yomo276B67AebCz_!!0-item_pic.jpg","current_price":"3470.00","region":"意大利","seller_id":"31934cb70841307c0cfe27c4cda03122","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/2206906647747/O1CN0118yomo276B67AebCz_!!0-item_pic.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01qL3U5K276B6GL1Kny_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN010vqSz5276B69Np7ux_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01NCbVQM276B6CMEvYn_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN016qII7y276B67AXgPi_!!2206906647747.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"联系客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进入店铺"},"type":"enter_shop"}],"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"5.0","title":"宝贝质量"},{"score":"3.4","title":"物流速度"},{"score":"4.7","title":"服务保障"}],"labelList":[],"overallScore":"4.6","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopName":"墨犀海外专营店","shopUrl":"//shop299368212.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 1","subTitles":[],"title":{"title":"LV路易威登2023新款女士ROSALIE 零钱包 M41939"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033008057036.center.na620@33.8.57.36","traceId":"21504a3417645880790613893e180e"},"rateVO":{"favorableRate":{},"totalCount":"1"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{}","sellerId":"2206906647747","sid":"0","traceId":"21504a3417645880790613893e180e","type":"99","umpCreateTime":"2025-12-01 19:21:19","version":"2.1","xobjectId":"644724442369"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预计5天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"意大利","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["红包减5元"]},{"text":["3期免息"]},{"text":["店铺券满51减50"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["30天价保","不支持7天无理由退货","正品保障","品质严保","证照公示","退货运费险"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["牛皮"],"title":"质地"},{"text":["牛皮"],"title":"皮质特征"},{"text":["玫红色 芭蕾粉"],"title":"颜色分类"},{"text":["2021年春季"],"title":"上市年份季节"},{"text":["M41939"],"title":"货号"},{"text":["其他"],"title":"款式"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"action":"更多","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","text":["付款后30天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"30天价保"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=31934cb70841307c0cfe27c4cda03122","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商家赠送运费险，退换货选择上门取件，自动减免首重运费；若选择自寄，参照首重标准赔付，具体以“订单详情-退货运费险”页面为准。"],"title":"退货运费险"}],"title":"保障","type":"GUARANTEE_NEW"}]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=644724442369","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"341500","priceText":"3415","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"347000","priceText":"3470","priceTitle":"优惠前","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","4642225309770":"进口税 价格已含税 ","4642225309771":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+    <t>https://item.taobao.com/item.htm?id=803371081651</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWQE6aTU17DV9cV5csV7nv9LPgBUNFvu9dmENC4Wm1RghB","evaluates":[{"level":"1","levelText":"高","score":"4.9 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.9 ","title":"卖家服务","type":"serv"},{"level":"1","levelText":"高","score":"4.9 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop299368212.taobao.com","sellerId":"2206906647747","sellerNick":"墨犀海外专营店","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopId":"299368212","shopName":"墨犀海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2206906647747"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i1/2206906647747/O1CN019kJNbH276BHh4XBes_!!0-item_pic.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN012rHby8276BHf6yf3v_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01P5zhmW276BHi1wzR7_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN01oucuim276BHgdhatR_!!2206906647747.jpg"],"itemId":"803371081651","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=803371081651&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0803371081651!1874903804&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=803371081651","spuId":"7411573312","title":"LV/路易威登新款男士钱包经典休闲袖珍帆布短款折叠钱夹M83498","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"皮革材质","valueName":"牛皮革"},{"propertyName":"背包方式","valueName":"单肩"}],"enhanceParamList":[{"propertyName":"货号","valueName":"M83498_64"},{"propertyName":"品牌","valueName":"LV/路易威登"},{"propertyName":"上市年份季节","valueName":"2023年秋季"},{"propertyName":"质地","valueName":"牛皮"},{"propertyName":"款式","valueName":"单肩包"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"itemApplyParams":"[{\"couponName\":\"满6000减100店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7841970673\",\"uuid\":\"32b67bdfe0be4485b76b9dfebf80340f\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"690000","priceText":"6900","priceTitle":"优惠前"},"quantity":"4","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"680000","priceText":"6800","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"false","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"skus":[]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"6900.00","auction_type":"b","x-uid":"","title":"LV/路易威登新款男士钱包经典休闲袖珍帆布短款折叠钱夹M83498","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"墨犀海外专营店","photo_url":"i1/2206906647747/O1CN019kJNbH276BHh4XBes_!!0-item_pic.jpg","current_price":"6900.00","region":"意大利","seller_id":"31934cb70841307c0cfe27c4cda03122","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i1/2206906647747/O1CN019kJNbH276BHh4XBes_!!0-item_pic.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN012rHby8276BHf6yf3v_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01P5zhmW276BHi1wzR7_!!2206906647747.jpg","https://img.alicdn.com/imgextra/i2/2206906647747/O1CN01oucuim276BHgdhatR_!!2206906647747.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"5.0","title":"宝贝质量"},{"score":"3.4","title":"物流速度"},{"score":"4.7","title":"服务保障"}],"labelList":[],"overallScore":"4.6","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopName":"墨犀海外专营店","shopUrl":"//shop299368212.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"LV/路易威登新款男士钱包经典休闲袖珍帆布短款折叠钱夹M83498"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033060124138.center.na610@33.60.124.138","traceId":"215048ad17648440749158810e0eb7"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{0:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"6900.00\",\"price2\":\"6800.00\",\"price3\":\"6900.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"13_10000\",\"utcDPre\":\"noProm\"}}","sellerId":"2206906647747","sid":"0","traceId":"215048ad17648440749158810e0eb7","type":"99","umpCreateTime":"2025-12-04 18:27:55","version":"2.1","xobjectId":"803371081651"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预计5天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"意大利","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["3期免息"]},{"text":["店铺券满6000减100"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["30天价保","不支持7天无理由退货","正品保障","品质严保","证照公示","退货运费险"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["LV/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["牛皮革"],"title":"皮革材质"},{"text":["M83498_64"],"title":"货号"},{"text":["单肩包"],"title":"款式"},{"text":["单肩"],"title":"背包方式"},{"text":["2023年秋季"],"title":"上市年份季节"},{"text":["牛皮"],"title":"质地"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"action":"更多","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","text":["付款后30天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"30天价保"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=31934cb70841307c0cfe27c4cda03122","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商家赠送运费险，退换货选择上门取件，自动减免首重运费；若选择自寄，参照首重标准赔付，具体以“订单详情-退货运费险”页面为准。"],"title":"退货运费险"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=803371081651","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"680000","priceText":"6800","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"690000","priceText":"6900","priceTitle":"优惠前","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=801554375496</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"11","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWSeg4ZGh1NwDSwPz8XdBwGPmKM9o1QeHNvUn9tniehA8J","evaluates":[{"level":"-1","levelText":"低","score":"4.6 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.8 ","title":"卖家服务","type":"serv"},{"level":"-1","levelText":"低","score":"4.8 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop109123604.taobao.com","sellerId":"2010197355","sellerNick":"孔雀翎海外专营店","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//6c/68/T1Nr8cFFNdXXb1upjX.jpg","shopId":"109123604","shopName":"孔雀翎海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2010197355"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i2/2010197355/O1CN01LOZYr324Ce1snqaHY_!!0-item_pic.jpg","https://img.alicdn.com/imgextra/i2/2010197355/O1CN01eBOuzi24Ce1siGJIQ_!!2010197355.jpg","https://img.alicdn.com/imgextra/i2/2010197355/O1CN01cju4v624Ce1tW4pfU_!!2010197355.jpg","https://img.alicdn.com/imgextra/i1/2010197355/O1CN01ljN5oX24Ce1rzPGCw_!!2010197355.jpg","https://img.alicdn.com/imgextra/i1/2010197355/O1CN01vsf7EH24Ce1pJZwgd_!!2010197355.jpg"],"itemId":"801554375496","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=801554375496&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0801554375496!12820242428&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=801554375496","spuId":"7389545105","title":"LV/路易威登早秋新款女士钱包 Capucines 牛皮短款钱包M83576","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"皮质特征","valueName":"牛皮"},{"propertyName":"颜色分类","valueName":"渐变蓝"}],"enhanceParamList":[{"propertyName":"货号","valueName":"M83576"},{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"上市年份季节","valueName":"2024年夏季"},{"propertyName":"适用对象","valueName":"青年"},{"propertyName":"质地","valueName":"牛皮"},{"propertyName":"风格","valueName":"小清新"},{"propertyName":"款式","valueName":"短款钱包"},{"propertyName":"性别","valueName":"女"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"itemApplyParams":"[{\"couponName\":\"满5000减100店铺优惠券\",\"sellerId\":2010197355,\"couponType\":1,\"templateCode\":\"7831908009\",\"uuid\":\"e6eff49c31b64b52b2804d0e23898b90\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"953600","priceText":"9536","priceTitle":"优惠前"},"quantity":"5","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"943600","priceText":"9436","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"5462015033247":{"itemApplyParams":"[{\"couponName\":\"满5000减100店铺优惠券\",\"sellerId\":2010197355,\"couponType\":1,\"templateCode\":\"7831908009\",\"uuid\":\"e6eff49c31b64b52b2804d0e23898b90\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"953600","priceText":"9536","priceTitle":"优惠前"},"quantity":"5","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"943600","priceText":"9436","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（1）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i1/2010197355/O1CN01noAATV24Ce1ZXj3YV_!!2010197355.jpg","name":"渐变蓝","vid":"33580367"}]}],"skus":[{"propPath":"1627207:33580367","skuId":"5462015033247"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"9536.00","auction_type":"b","x-uid":"","title":"LV/路易威登早秋新款女士钱包 Capucines 牛皮短款钱包M83576","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"孔雀翎海外专营店","photo_url":"i2/2010197355/O1CN014yzJPj24Ce1b3Dv0R_!!0-item_pic.jpg","current_price":"9536.00","region":"意大利","seller_id":"6c68c3c2187cccd2fb1aff9623223bfe","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop109123604.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/2010197355/O1CN014yzJPj24Ce1b3Dv0R_!!0-item_pic.jpg","https://img.alicdn.com/imgextra/i3/2010197355/O1CN01LkEELB24Ce1d3UoQo_!!2010197355.jpg","https://img.alicdn.com/imgextra/i3/2010197355/O1CN0167BGnh24Ce1b35rWZ_!!2010197355.jpg","https://img.alicdn.com/imgextra/i4/2010197355/O1CN01G7CSMS24Ce1TnrvxB_!!2010197355.jpg","https://img.alicdn.com/imgextra/i2/2010197355/O1CN01adztcK24Ce1exlB0B_!!2010197355.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop109123604.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"11","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"5.0","title":"宝贝质量"},{"score":"4.0","title":"物流速度"},{"score":"4.5","title":"服务保障"}],"labelList":[],"overallScore":"4.6","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//6c/68/T1Nr8cFFNdXXb1upjX.jpg","shopName":"孔雀翎海外专营店","shopUrl":"//shop109123604.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"LV/路易威登早秋新款女士钱包 Capucines 牛皮短款钱包M83576"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033004122139.center.na610@33.4.122.139","traceId":"215048ad17648441290525287e0eb7"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{5462015033247:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"9536.00\",\"price2\":\"9436.00\",\"price3\":\"9536.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"13_10000\",\"utcDPre\":\"noProm\"}}","sellerId":"2010197355","sid":"5462015033247","traceId":"215048ad17648441290525287e0eb7","type":"99","umpCreateTime":"2025-12-04 18:28:49","version":"2.1","xobjectId":"801554375496"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预计5天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"意大利","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["店铺券满5000减100"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","正品保障","品质严保","证照公示","退货运费险"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["小清新"],"title":"风格"},{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["牛皮"],"title":"皮质特征"},{"text":["M83576"],"title":"货号"},{"text":["短款钱包"],"title":"款式"},{"text":["2024年夏季"],"title":"上市年份季节"},{"text":["牛皮"],"title":"质地"},{"text":["青年"],"title":"适用对象"},{"text":["女"],"title":"性别"},{"text":["渐变蓝"],"title":"颜色分类"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=6c68c3c2187cccd2fb1aff9623223bfe","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商家赠送运费险，退换货选择上门取件，自动减免首重运费；若选择自寄，参照首重标准赔付，具体以“订单详情-退货运费险”页面为准。"],"title":"退货运费险"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=801554375496","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"943600","priceText":"9436","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"953600","priceText":"9536","priceTitle":"优惠前","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","5462015033247":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=677583363886</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"9","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWLbWLjrFxK9ae68cxpgt8fq1cxbjzzE7fii9335E4Dhcy","evaluates":[{"level":"-1","levelText":"低","score":"4.4 ","title":"宝贝描述","type":"desc"},{"level":"-1","levelText":"低","score":"4.4 ","title":"卖家服务","type":"serv"},{"level":"-1","levelText":"低","score":"4.4 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop107257976.taobao.com","sellerId":"1879964243","sellerNick":"尚品城海外专营店","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//68/47/TB1tY0pPVXXXXcJXFXXwu0bFXXX.png","shopId":"107257976","shopName":"尚品城海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN01Z8Xo0V1vJCxVltJIB_!!6000000006151-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"1879964243"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i3/1879964243/O1CN01jXKUbN1hDLWr9vvAr_!!4611686018427386451-2-item_pic.png","https://img.alicdn.com/imgextra/i3/1879964243/O1CN01xTELTT1hDLWoARu75_!!1879964243.png","https://img.alicdn.com/imgextra/i1/1879964243/O1CN012ppPLz1hDLWqKrAxm_!!1879964243.png","https://img.alicdn.com/imgextra/i4/1879964243/O1CN01AY1CF41hDLWqKqm4I_!!1879964243.png","https://img.alicdn.com/imgextra/i3/1879964243/O1CN01iY7Qzy1hDLWrYhDvY_!!1879964243.png"],"itemId":"677583363886","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=677583363886&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0677583363886!11071112883&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=677583363886","spuId":"2542383119","title":"尚品城Louis Vuitton/路易威登女士对比色条纹长款钱包钱夹M81305","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"颜色分类","valueName":"自然色黑色"}],"enhanceParamList":[{"propertyName":"货号","valueName":"M81305"},{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"上市年份季节","valueName":"2022年夏季"},{"propertyName":"质地","valueName":"帆布"},{"propertyName":"款式","valueName":"长款钱包"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"itemApplyParams":"[{\"couponName\":\"满10000减200店铺优惠券\",\"sellerId\":1879964243,\"couponType\":1,\"templateCode\":\"7838730179\",\"uuid\":\"1ebe989960194fc5a315ac7f9682a745\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"1065900","priceText":"10659","priceTitle":"优惠前"},"quantity":"20","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"1045900","priceText":"10459","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"4865048417072":{"itemApplyParams":"[{\"couponName\":\"满10000减200店铺优惠券\",\"sellerId\":1879964243,\"couponType\":1,\"templateCode\":\"7838730179\",\"uuid\":\"1ebe989960194fc5a315ac7f9682a745\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"1065900","priceText":"10659","priceTitle":"优惠前"},"quantity":"20","quantityDisplayValue":"1","quantityText":"有货","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"1045900","priceText":"10459","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（1）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i2/1879964243/O1CN01MXoLd11hDLGaU4ttI_!!1879964243.jpg","name":"自然色黑色","vid":"431418808"}]}],"skus":[{"propPath":"1627207:431418808","skuId":"4865048417072"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"10659.00","auction_type":"b","x-uid":"","title":"尚品城Louis Vuitton/路易威登女士对比色条纹长款钱包钱夹M81305","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"尚品城海外专营店","photo_url":"i2/1879964243/O1CN01dVtkaP1hDLbfiha3v-1879964243.jpg","current_price":"10659.00","region":"意大利","seller_id":"684719e6f02695e9e68fef0394127c66","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop107257976.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/1879964243/O1CN01dVtkaP1hDLbfiha3v-1879964243.jpg","https://img.alicdn.com/imgextra/i3/1879964243/O1CN01okRNF41hDLGqlnocU_!!1879964243.jpg","https://img.alicdn.com/imgextra/i3/1879964243/O1CN010yJgO41hDLGqlmXdT_!!1879964243.jpg","https://img.alicdn.com/imgextra/i1/1879964243/O1CN01DgjBlB1hDLGlxTsHf_!!1879964243.jpg","https://img.alicdn.com/imgextra/i1/1879964243/O1CN01jQwTEV1hDLGrXzVBV_!!1879964243.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop107257976.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"9","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"5.0","title":"宝贝质量"},{"score":"4.0","title":"物流速度"},{"score":"4.4","title":"服务保障"}],"labelList":[],"overallScore":"4.4","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//68/47/TB1tY0pPVXXXXcJXFXXwu0bFXXX.png","shopName":"尚品城海外专营店","shopUrl":"//shop107257976.taobao.com","starNum":"3.5","startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN01Z8Xo0V1vJCxVltJIB_!!6000000006151-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"尚品城Louis Vuitton/路易威登女士对比色条纹长款钱包钱夹M81305"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033043073140.center.na610@33.43.73.140","traceId":"215048ad17648441672838287e0eb7"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{4865048417072:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"10659.00\",\"price2\":\"10459.00\",\"price3\":\"10659.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"13_20000\",\"utcDPre\":\"noProm\"}}","sellerId":"1879964243","sid":"4865048417072","traceId":"215048ad17648441672838287e0eb7","type":"99","umpCreateTime":"2025-12-04 18:29:27","version":"2.1","xobjectId":"677583363886"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预计5天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"意大利","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["3期免息"]},{"text":["店铺券满10000减200"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","正品保障","品质严保","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["帆布"],"title":"质地"},{"text":["自然色黑色"],"title":"颜色分类"},{"text":["2022年夏季"],"title":"上市年份季节"},{"text":["M81305"],"title":"货号"},{"text":["长款钱包"],"title":"款式"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=684719e6f02695e9e68fef0394127c66","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=677583363886","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"1045900","priceText":"10459","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"1065900","priceText":"10659","priceTitle":"优惠前","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","4865048417072":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=993178558198</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWQE6aTU17DV9cV5csV7nv9LPgBUNFvu9dmENC4Wm1RghB","evaluates":[{"level":"1","levelText":"高","score":"4.9 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.9 ","title":"卖家服务","type":"serv"},{"level":"1","levelText":"高","score":"4.9 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop299368212.taobao.com","sellerId":"2206906647747","sellerNick":"墨犀海外专营店","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopId":"299368212","shopName":"墨犀海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2206906647747"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01ZVP4Ld276BQTSXWUt_!!4611686018427380931-0-item_pic.jpg","https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01r1Cx4G276BQSD03J8_!!2206906647747.png","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01fNqUFF276BQSchhUD_!!2206906647747.png","https://img.alicdn.com/imgextra/i3/2206906647747/O1CN014zhlRJ276BQRSoQ4L_!!2206906647747.png","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01dtZydQ276BQRa0WJQ_!!2206906647747.png"],"itemId":"993178558198","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=993178558198&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0993178558198!1326448136&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=993178558198","spuId":"8674550352","title":"LV/路易威登女士钱包卡包 黄色老花牛皮内衬2025圣诞新款","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"适用性别","valueName":"女"},{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"流行款式名称","valueName":"其他"}],"enhanceParamList":[{"propertyName":"货号","valueName":"M26842_7U"},{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"适用场景","valueName":"日常"},{"propertyName":"上市年份季节","valueName":"2025年夏季"},{"propertyName":"适用人群","valueName":"女士"},{"propertyName":"是否商场同款","valueName":"是"},{"propertyName":"款式名称","valueName":"手拿包"},{"propertyName":"吊牌价","valueName":"99999元"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"itemApplyParams":"[{\"couponName\":\"满51减50店铺优惠券\",\"sellerId\":2206906647747,\"couponType\":1,\"templateCode\":\"7843257482\",\"uuid\":\"a1534acafe284a90821dc696b8f662ea\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"450000","priceText":"4500","priceTitle":"优惠前"},"quantity":"5","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"445000","priceText":"4450","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"false","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"skus":[]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"4500.00","auction_type":"b","x-uid":"","title":"LV/路易威登女士钱包卡包 黄色老花牛皮内衬2025圣诞新款","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"墨犀海外专营店","photo_url":"i4/2206906647747/O1CN01ZVP4Ld276BQTSXWUt_!!4611686018427380931-0-item_pic.jpg","current_price":"4500.00","region":"意大利","seller_id":"31934cb70841307c0cfe27c4cda03122","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01ZVP4Ld276BQTSXWUt_!!4611686018427380931-0-item_pic.jpg","https://img.alicdn.com/imgextra/i3/2206906647747/O1CN01r1Cx4G276BQSD03J8_!!2206906647747.png","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01fNqUFF276BQSchhUD_!!2206906647747.png","https://img.alicdn.com/imgextra/i3/2206906647747/O1CN014zhlRJ276BQRSoQ4L_!!2206906647747.png","https://img.alicdn.com/imgextra/i4/2206906647747/O1CN01dtZydQ276BQRa0WJQ_!!2206906647747.png"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop299368212.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"7","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"5.0","title":"宝贝质量"},{"score":"3.4","title":"物流速度"},{"score":"4.7","title":"服务保障"}],"labelList":[],"overallScore":"4.6","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//31/93/TB1WWhntxn1gK0jSZKPxKNvUXXa.jpeg","shopName":"墨犀海外专营店","shopUrl":"//shop299368212.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"LV/路易威登女士钱包卡包 黄色老花牛皮内衬2025圣诞新款"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033039216140.center.na610@33.39.216.140","traceId":"215048ad17648442077733776e0eb7"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{0:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"4500.00\",\"price2\":\"4450.00\",\"price3\":\"4500.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"13_5000\",\"utcDPre\":\"noProm\"}}","sellerId":"2206906647747","sid":"0","traceId":"215048ad17648442077733776e0eb7","type":"99","umpCreateTime":"2025-12-04 18:30:07","version":"2.1","xobjectId":"993178558198"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预计5天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"意大利","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["3期免息"]},{"text":["店铺券满51减50"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["30天价保","不支持7天无理由退货","正品保障","品质严保","证照公示","退货运费险"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["女"],"title":"适用性别"},{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["M26842_7U"],"title":"货号"},{"text":["手拿包"],"title":"款式名称"},{"text":["其他"],"title":"流行款式名称"},{"text":["2025年夏季"],"title":"上市年份季节"},{"text":["99999元"],"title":"吊牌价"},{"text":["是"],"title":"是否商场同款"},{"text":["女士"],"title":"适用人群"},{"text":["日常"],"title":"适用场景"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"action":"更多","actionLink":"https://rulesale.taobao.com/?type=detail&amp;ruleId=10000095&amp;cId=347#/rule/detail?ruleId=10000095&amp;cId=347","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01KdloOc1iYhaZElYLo_!!6000000004425-2-tps-88-88.png","text":["付款后30天内降价，可通过“手机淘宝首页搜索-价保中心”申请补差，部分特定场景除外"],"title":"30天价保"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=31934cb70841307c0cfe27c4cda03122","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商家赠送运费险，退换货选择上门取件，自动减免首重运费；若选择自寄，参照首重标准赔付，具体以“订单详情-退货运费险”页面为准。"],"title":"退货运费险"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=993178558198","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"445000","priceText":"4450","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"450000","priceText":"4500","priceTitle":"优惠前","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=848164076198</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"8","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWJNxgnWQiFir3Je6gksvx1cVx531SqBLeueZyGu2XGTcY","evaluates":[{"level":"1","levelText":"高","score":"4.9 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.9 ","title":"卖家服务","type":"serv"},{"level":"1","levelText":"高","score":"4.9 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop296477293.taobao.com","sellerId":"2208405665483","sellerNick":"anorange海外专营店","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i3/6000000000246/O1CN01JKiKIE1Dgi929GVNL_!!6000000000246-0-shopmanager.jpg","shopId":"296477293","shopName":"AnOrange海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2208405665483"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/bao/uploaded/i4/2208405665483/O1CN015gJRF41qNGjWZ59Qp_!!2208405665483.jpg","https://img.alicdn.com/imgextra/i4/2208405665483/O1CN01QZTU0I1qNGd9WoDl5_!!2208405665483.jpg","https://img.alicdn.com/imgextra/i2/2208405665483/O1CN01OtnpZF1qNGdDtO20z_!!2208405665483.jpg","https://img.alicdn.com/imgextra/i4/2208405665483/O1CN01JFNDCv1qNGdG39MQA_!!2208405665483.jpg","https://img.alicdn.com/imgextra/i4/2208405665483/O1CN01vDUfjl1qNGdG385RV_!!2208405665483.jpg"],"itemId":"848164076198","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=848164076198&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0848164076198!13445588555&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=848164076198","spuId":"7795607276","title":"圣诞限量款路易威登LV女包蓝色压花粒面牛皮按扣短款钱包M12746","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0","videos":[{"actionEvent":{"exposureArgs":{"item_id":"848164076198","video_id":"472976839702"},"openUrlEventArgs":{"enableUserTrackEvent":"true","userTrackArgs":{"page":"Page_Detail","type":"userTrack","item_id":"848164076198","arg1":"Page_Detail_Videos_Dx_Skip","video_id":"472976839702"}}},"itemId":"848164076198","spatialVideoDimension":"3:4","type":"3","url":"https://cloud.video.taobao.com/play/u/2208405665483/p/2/e/6/t/1/472976839702.mp4?appKey=38829","videoId":"472976839702","videoThumbnailURL":"https://img.alicdn.com/imgextra/i3/6000000004734/O1CN01ABYC7H1kqDwq35gBW_!!6000000004734-0-tmap.jpg","weexRecommendUrl":"https://market.m.taobao.com/apps/market/detailrax/recommend-items.html?spm=a2116h.app.0.0.16d957e9U2bxVj&amp;wh_weex=true&amp;itemId=848164076198"}]},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"Louis Vuitton/路易威登系列","valueName":"Monogram Empreinte 皮革"},{"propertyName":"颜色分类","valueName":"蓝色"}],"enhanceParamList":[{"propertyName":"货号","valueName":"M12746"},{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"上市年份季节","valueName":"2024年秋季"},{"propertyName":"质地","valueName":"牛皮革"},{"propertyName":"款式","valueName":"短款钱包"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"itemApplyParams":"[{\"couponName\":\"满300减40店铺优惠券\",\"sellerId\":2208405665483,\"couponType\":1,\"templateCode\":\"7836138737\",\"uuid\":\"618bf177aca44830b7b9b3f14ff17afc\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"774000","priceText":"7740","priceTitle":"优惠前"},"quantity":"7","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"770000","priceText":"7700","priceTitle":"券后","priceTitleColor":"#FFFFFF"}},"5802184503218":{"itemApplyParams":"[{\"couponName\":\"满300减40店铺优惠券\",\"sellerId\":2208405665483,\"couponType\":1,\"templateCode\":\"7836138737\",\"uuid\":\"618bf177aca44830b7b9b3f14ff17afc\"}]","logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#7A7A7A","priceMoney":"774000","priceText":"7740","priceTitle":"优惠前"},"quantity":"7","quantityDisplayValue":"1","quantityText":"即将售罄","subPrice":{"priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"770000","priceText":"7700","priceTitle":"券后","priceTitleColor":"#FFFFFF"}}},"skuItem":{"itemStatus":"0","renderSku":"true","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"props":[{"comboProperty":"false","hasGroupTags":"false","hasImage":"true","name":"颜色分类","nameDesc":"（1）","packProp":"false","pid":"1627207","shouldGroup":"false","values":[{"comboPropertyValue":"false","image":"https://gw.alicdn.com/bao/uploaded/i4/2208405665483/O1CN016m83pP1qNGdGflAzz_!!2208405665483.jpg","name":"蓝色","vid":"28338"}]}],"skus":[{"propPath":"1627207:28338","skuId":"5802184503218"}]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"7740.00","auction_type":"b","x-uid":"","title":"圣诞限量款路易威登LV女包蓝色压花粒面牛皮按扣短款钱包M12746","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"AnOrange海外专营店","photo_url":"i3/2208405665483/O1CN01fKkD8Z1qNGjRIj1FL_!!2208405665483.jpg","current_price":"7740.00","region":"意大利","seller_id":"4fdd5f80c3302b932ca3e273b2193abc","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop296477293.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/bao/uploaded/i4/2208405665483/O1CN015gJRF41qNGjWZ59Qp_!!2208405665483.jpg","https://img.alicdn.com/imgextra/i4/2208405665483/O1CN01QZTU0I1qNGd9WoDl5_!!2208405665483.jpg","https://img.alicdn.com/imgextra/i2/2208405665483/O1CN01OtnpZF1qNGdDtO20z_!!2208405665483.jpg","https://img.alicdn.com/imgextra/i4/2208405665483/O1CN01JFNDCv1qNGdG39MQA_!!2208405665483.jpg","https://img.alicdn.com/imgextra/i4/2208405665483/O1CN01vDUfjl1qNGdG385RV_!!2208405665483.jpg"],"videos":[{"itemId":"848164076198","spatialVideoDimension":"3:4","url":"http://cloud.video.taobao.com/play/u/2208405665483/p/2/e/6/t/1/472976839702.mp4?appKey=38829","videoId":"472976839702","videoThumbnailURL":"https://img.alicdn.com/bao/uploaded/i4/2208405665483/O1CN015gJRF41qNGjWZ59Qp_!!2208405665483.jpg"}]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop296477293.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"8","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"4.8","title":"宝贝质量"},{"score":"4.3","title":"物流速度"},{"score":"4.9","title":"服务保障"}],"labelList":[],"overallScore":"4.8","sellerType":"B","shopIcon":"https://img.alicdn.com/imgextra/i3/6000000000246/O1CN01JKiKIE1Dgi929GVNL_!!6000000000246-0-shopmanager.jpg","shopName":"AnOrange海外专营店","shopUrl":"//shop296477293.taobao.com","starNum":"4.5","startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN013FxkJk1Nj8RiWyGO5_!!6000000001605-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"圣诞限量款路易威登LV女包蓝色压花粒面牛皮按扣短款钱包M12746"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033054103142.center.na620@33.54.103.142","traceId":"215048ad17648442486077517e0eb7"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{5802184503218:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"7740.00\",\"price2\":\"7700.00\",\"price3\":\"7740.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"13_4000\",\"utcDPre\":\"noProm\"}}","sellerId":"2208405665483","sid":"5802184503218","traceId":"215048ad17648442486077517e0eb7","type":"99","umpCreateTime":"2025-12-04 18:30:48","version":"2.1","xobjectId":"848164076198"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预计5天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"意大利","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"领券购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["3期免息"]},{"text":["店铺券满300减40"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","正品保障","品质严保","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["Monogram Empreinte 皮革"],"title":"Louis Vuitton/路易威登系列"},{"text":["M12746"],"title":"货号"},{"text":["短款钱包"],"title":"款式"},{"text":["2024年秋季"],"title":"上市年份季节"},{"text":["牛皮革"],"title":"质地"},{"text":["蓝色"],"title":"颜色分类"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=4fdd5f80c3302b932ca3e273b2193abc","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=848164076198","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"extraPrice":{"hiddenPrice":"false","priceBgColor":"#FF5000","priceColor":"#FFFFFF","priceColorNew":"#FF5000","priceMoney":"770000","priceText":"7700","priceTitle":"券后","priceTitleColor":"#FFFFFF","priceUnit":"￥"},"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#7A7A7A","priceMoney":"774000","priceText":"7740","priceTitle":"优惠前","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 ","5802184503218":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=971483288756</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"11","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWSeg4ZGh1NwDSwPz8XdBwGPmKM9o1QeHNvUn9tniehA8J","evaluates":[{"level":"-1","levelText":"低","score":"4.6 ","title":"宝贝描述","type":"desc"},{"level":"1","levelText":"高","score":"4.8 ","title":"卖家服务","type":"serv"},{"level":"-1","levelText":"低","score":"4.8 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop109123604.taobao.com","sellerId":"2010197355","sellerNick":"孔雀翎海外专营店","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//6c/68/T1Nr8cFFNdXXb1upjX.jpg","shopId":"109123604","shopName":"孔雀翎海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"2010197355"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i1/2010197355/O1CN01cfmWJT24Ce9SlY3Ud_!!2010197355.jpg","https://img.alicdn.com/imgextra/i1/2010197355/O1CN01kYVouY24Ce9SOzOF6_!!2010197355.jpg","https://img.alicdn.com/imgextra/i4/2010197355/O1CN01P1ptsW24Ce9SgSnhw_!!2010197355.jpg","https://img.alicdn.com/imgextra/i1/2010197355/O1CN01vCuXR024Ce9SlYvYD_!!2010197355.jpg","https://img.alicdn.com/imgextra/i2/2010197355/O1CN01PHsA5t24Ce9RnmMJ0_!!2010197355.jpg"],"itemId":"971483288756","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=971483288756&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0971483288756!11575993887&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=971483288756","spuId":"8581466088","title":"LV/路易威登女士卡包村上隆联名多彩Monogram护照夹新款M13414","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"适用性别","valueName":"女"},{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"包大小","valueName":"中"}],"enhanceParamList":[{"propertyName":"货号","valueName":"M13414_K2"},{"propertyName":"品牌","valueName":"Louis Vuitton/路易威登"},{"propertyName":"适用场景","valueName":"日常"},{"propertyName":"上市年份季节","valueName":"2025年夏季"},{"propertyName":"外部材质","valueName":"混合材质"},{"propertyName":"是否商场同款","valueName":"是"},{"propertyName":"款式名称","valueName":"手拿包"},{"propertyName":"吊牌价","valueName":"99999元"},{"propertyName":"风格","valueName":"休闲简约风"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#FF5000","priceMoney":"449800","priceText":"4498"},"quantity":"5","quantityDisplayValue":"1","quantityText":"即将售罄"}},"skuItem":{"itemStatus":"0","renderSku":"false","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"skus":[]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"4498.00","auction_type":"b","x-uid":"","title":"LV/路易威登女士卡包村上隆联名多彩Monogram护照夹新款M13414","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"孔雀翎海外专营店","photo_url":"i1/2010197355/O1CN01cfmWJT24Ce9SlY3Ud_!!2010197355.jpg","current_price":"4498.00","region":"意大利","seller_id":"6c68c3c2187cccd2fb1aff9623223bfe","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop109123604.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i1/2010197355/O1CN01cfmWJT24Ce9SlY3Ud_!!2010197355.jpg","https://img.alicdn.com/imgextra/i1/2010197355/O1CN01kYVouY24Ce9SOzOF6_!!2010197355.jpg","https://img.alicdn.com/imgextra/i4/2010197355/O1CN01P1ptsW24Ce9SgSnhw_!!2010197355.jpg","https://img.alicdn.com/imgextra/i1/2010197355/O1CN01vCuXR024Ce9SlYvYD_!!2010197355.jpg","https://img.alicdn.com/imgextra/i2/2010197355/O1CN01PHsA5t24Ce9RnmMJ0_!!2010197355.jpg"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop109123604.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"11","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"5.0","title":"宝贝质量"},{"score":"4.0","title":"物流速度"},{"score":"4.5","title":"服务保障"}],"labelList":[],"overallScore":"4.6","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//6c/68/T1Nr8cFFNdXXb1upjX.jpg","shopName":"孔雀翎海外专营店","shopUrl":"//shop109123604.taobao.com","starNum":"4.0","startsIcon":"https://img.alicdn.com/imgextra/i4/O1CN01tMiOur1U6OFc3CkX7_!!6000000002468-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"LV/路易威登女士卡包村上隆联名多彩Monogram护照夹新款M13414"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail033061005143.center.na610@33.61.5.143","traceId":"215048ad17648442843342227e0eb7"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{0:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"4498.00\",\"price3\":\"4498.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"noProm\",\"utcDPre\":\"noProm\"}}","sellerId":"2010197355","sid":"0","traceId":"215048ad17648442843342227e0eb7","type":"99","umpCreateTime":"2025-12-04 18:31:24","version":"2.1","xobjectId":"971483288756"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预计5天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"意大利","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"立即购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["店铺券满5000减100"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","正品保障","品质严保","证照公示","退货运费险"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["女"],"title":"适用性别"},{"text":["休闲简约风"],"title":"风格"},{"text":["Louis Vuitton/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["M13414_K2"],"title":"货号"},{"text":["手拿包"],"title":"款式名称"},{"text":["2025年夏季"],"title":"上市年份季节"},{"text":["中"],"title":"包大小"},{"text":["混合材质"],"title":"外部材质"},{"text":["99999元"],"title":"吊牌价"},{"text":["是"],"title":"是否商场同款"},{"text":["日常"],"title":"适用场景"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=6c68c3c2187cccd2fb1aff9623223bfe","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商家赠送运费险，退换货选择上门取件，自动减免首重运费；若选择自寄，参照首重标准赔付，具体以“订单详情-退货运费险”页面为准。"],"title":"退货运费险"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=971483288756","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#FF5000","priceMoney":"449800","priceText":"4498","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=767958612397</t>
+  </si>
+  <si>
+    <t>{"seller":{"creditLevel":"9","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","encryptUid":"RAzN8HWLbWLjrFxK9ae68cxpgt8fq1cxbjzzE7fii9335E4Dhcy","evaluates":[{"level":"-1","levelText":"低","score":"4.4 ","title":"宝贝描述","type":"desc"},{"level":"-1","levelText":"低","score":"4.4 ","title":"卖家服务","type":"serv"},{"level":"-1","levelText":"低","score":"4.4 ","title":"跨境物流","type":"post"}],"pcShopUrl":"//shop107257976.taobao.com","sellerId":"1879964243","sellerNick":"尚品城海外专营店","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//68/47/TB1tY0pPVXXXXcJXFXXwu0bFXXX.png","shopId":"107257976","shopName":"尚品城海外专营店","startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN01Z8Xo0V1vJCxVltJIB_!!6000000006151-2-tps-91-14.png","tagIcon":"//gw.alicdn.com/tfs/TB1889mggMPMeJjy1XbXXcwxVXa-113-28.png","userId":"1879964243"},"item":{"bottomIcons":[],"images":["https://img.alicdn.com/imgextra/i4/1879964243/O1CN01JTrTgi1hDLTHCPe47_!!0-item_pic.jpg"],"itemId":"767958612397","pcADescUrl":"//market.m.taobao.com/app/detail-project/desc/index.html?id=767958612397&amp;descVersion=7.0&amp;type=1&amp;f=icoss!0767958612397!12547893435&amp;sellerType=B","qrCode":"https://h5.m.taobao.com/awp/core/detail.htm?id=767958612397","spuId":"6671513165","title":"LV/路易威登男士老花帆布蓝色小巧便携卡包卡夹M31051","titleIcon":"//gw.alicdn.com/tfs/TB1KuplSpXXXXawXpXXXXXXXXXX-135-36.png","useWirelessDesc":"true","vagueSellCount":"0"},"feature":{"pcResistDetail":"false","tmwOverseasScene":"false","pcIdentityRisk":"false","tmallhkScene":"true"},"plusViewVO":{"askAnswerVO":{"ext":{"skeletonImg":"https://img.alicdn.com/imgextra/i2/O1CN01MLPxBr1flZy969k5W_!!6000000004047-2-tps-1376-1216.png"},"hit":"true","spm":"aliabtest948562_960155"},"guessLikeVO":{"hit":"true"},"rankVO":{"hit":"true","spm":"aliabtest723647_830745"},"tabPlaceholderVO":{"hit":"true","spm":"aliabtest801234_834392"},"industryParamVO":{"basicParamList":[{"propertyName":"Louis Vuitton/路易威登系列","valueName":"其他"},{"propertyName":"皮革材质","valueName":"牛皮革"},{"propertyName":"背包方式","valueName":"单肩"}],"enhanceParamList":[{"propertyName":"货号","valueName":"M31051_l6"},{"propertyName":"品牌","valueName":"LV/路易威登"},{"propertyName":"上市年份季节","valueName":"2022年秋季"},{"propertyName":"质地","valueName":"牛皮"},{"propertyName":"款式","valueName":"单肩包"}],"hit":"true"},"headAtmosphereBeltVO":{"hit":"true","valid":"false"},"commentListVO":{"ext":{"countShow":"\"false\""},"hit":"true"},"pcFrontSkuQuantityLimitVO":{"hit":"true"},"buyParamVO":{"ext":{"autoApplCoupSource":"pcDetailOrder","needAutoApplCoup":"true"},"hit":"true","spm":"aliabtest941180_724531"}},"skuCore":{"sku2info":{"0":{"logisticsTime":"预计5天内发货","moreQuantity":"false","price":{"priceColorNew":"#FF5000","priceMoney":"350800","priceText":"3508"},"quantity":"5","quantityDisplayValue":"1","quantityText":"即将售罄"}},"skuItem":{"itemStatus":"0","renderSku":"false","unitBuy":"1"}},"params":{"aplusParams":"[]","trackParams":{"detailabtestdetail":""}},"skuBase":{"components":[],"skus":[]},"pcTrade":{"bizDataBuyParams":{},"buyNowUrl":"//buy.tmall.com/order/confirm_order.htm","pcBuyParams":{"virtual":"false","buy_now":"3508.00","auction_type":"b","x-uid":"","title":"LV/路易威登男士老花帆布蓝色小巧便携卡包卡夹M31051","buyer_from":"ecity","page_from_type":"main_site_pc","detailIsLimit":"false","who_pay_ship":"卖家承担运费","rootCatId":"50006842","auto_post1":null,"routeToNewPc":"1","auto_post":"false","seller_nickname":"尚品城海外专营店","photo_url":"i2/1879964243/O1CN017aK0291hDLbi8qFcd-1879964243.jpg","current_price":"3508.00","region":"意大利","seller_id":"684719e6f02695e9e68fef0394127c66","etm":"post"},"pcCartParam":{"areaId":"110108","addressId":"7689479327"},"tradeType":"2"},"componentsVO":{"headerVO":{"buttons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#7A3BE7","#B948F1"]},"disabled":"false","events":[{"fields":{"url":"//pages.tmall.com/wow/z/import/tmg-ch-tubes/fJiiCQT5DbMxQXAaQeGc"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜天猫国际"},"type":"search_in_tmallhk"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","gradientColor":["#343434"]},"disabled":"false","events":[{"fields":{"url":"//shop107257976.taobao.com/search.htm"},"type":"onClick"}],"subTitle":{},"title":{"text":"搜本店"},"type":"search_in_store"}],"logoJumpUrl":"http://www.tmall.hk","mallLogo":"https://img.alicdn.com/imgextra/i1/O1CN01nToS041IQkWFthCav_!!6000000000888-2-tps-936-106.png","searchText":"搜索宝贝"},"headImageVO":{"images":["https://img.alicdn.com/imgextra/i2/1879964243/O1CN017aK0291hDLbi8qFcd-1879964243.jpg","https://img.alicdn.com/imgextra/i4/1879964243/O1CN01ItEFWx1hDLQrWiiAZ-1879964243.png","https://img.alicdn.com/imgextra/i3/1879964243/O1CN01LBVVgr1hDLQuS8Mdk-1879964243.png","https://img.alicdn.com/imgextra/i1/1879964243/O1CN01ZBXOHn1hDLQvqZNBV-1879964243.png","https://img.alicdn.com/imgextra/i4/1879964243/O1CN01E1ILtY1hDLQvDzR8Q-1879964243.png"],"videos":[]},"storeCardVO":{"buttons":[{"disabled":"false","image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg"},"title":{"text":"客服"},"type":"customer_service"},{"disabled":"false","events":[{"fields":{"url":"//shop107257976.taobao.com"},"type":"openUrl"}],"image":{"gifAnimated":"false","imageUrl":"https://img.alicdn.com/imgextra/i4/O1CN01jn67ow1ZhYeiTJlZn_!!6000000003226-55-tps-24-24.svg"},"title":{"text":"进店"},"type":"enter_shop"}],"creditLevel":"9","creditLevelIcon":"//gw.alicdn.com/tfs/TB1MpufDhjaK1RjSZKzXXXVwXXa-165-45.png","evaluates":[{"score":"5.0","title":"宝贝质量"},{"score":"4.0","title":"物流速度"},{"score":"4.4","title":"服务保障"}],"labelList":[],"overallScore":"4.4","sellerType":"B","shopIcon":"//img.alicdn.com/imgextra//68/47/TB1tY0pPVXXXXcJXFXXwu0bFXXX.png","shopName":"尚品城海外专营店","shopUrl":"//shop107257976.taobao.com","starNum":"3.5","startsIcon":"https://img.alicdn.com/imgextra/i2/O1CN01Z8Xo0V1vJCxVltJIB_!!6000000006151-2-tps-91-14.png"},"titleVO":{"salesDesc":"已售 0","subTitles":[],"title":{"title":"LV/路易威登男士老花帆布蓝色小巧便携卡包卡夹M31051"}},"bannerVO":{"imageUrl":"https://img.alicdn.com/imgextra/i2/O1CN01FFzZRW1U7lUORwap8_!!6000000002471-2-tps-1980-160.png","type":"tmgPostGate"},"debugVO":{"host":"taodetail011080177143.center.na610@11.80.177.143","traceId":"215048ad17648443225285770e0eb7"},"rateVO":{"favorableRate":{},"totalCount":"0"},"umpPriceLogVO":{"bcType":"b","bs":"businessScenario","dumpInvoke":"0","map":"{0:{\"channelKeyD\":\"empty\",\"fpChannelKeyD\":\"empty\",\"price1\":\"3508.00\",\"price3\":\"3508.00\",\"sourceTypeKeyD\":\"4_null\",\"utcDNow\":\"noProm\",\"utcDPre\":\"noProm\"}}","sellerId":"1879964243","sid":"0","traceId":"215048ad17648443225285770e0eb7","type":"99","umpCreateTime":"2025-12-04 18:32:02","version":"2.1","xobjectId":"767958612397"},"deliveryVO":{"addressId":"7689479327","agingDesc":"预计5天内发货","agingDescColor":"#1F1F1F","areaId":"110108","deliverToCity":"北京市","deliveryFromAddr":"意大利","deliveryToAddr":"北京市 海淀区 西三旗街道","deliveryToDistrict":"海淀区","freight":"运费: 免运费"},"o2oVo":{"enableJzLocalizationProduct":"false"},"bottomBarVO":{"buyInMobile":"false","leftButtons":[{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#9D6FFA","#8B24DC"],"gradientColor":["#9D6FFA","#8B24DC"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#33ffffff","fontSize":"16","text":"加入购物车"},"type":"add_cart"},{"background":{"alpha":"1.0","disabledAlpha":"1.0","disabledColor":["#FB49CE","#FF2B6C"],"gradientColor":["#FB49CE","#FF2B6C"]},"disabled":"false","title":{"alpha":"1.0","bold":"true","color":"#ffffff","disabledAlpha":"0.2","disabledColor":"#80ffffff","fontSize":"16","text":"立即购买"},"type":"buy_now"}],"rightButtons":[{"disabled":"false","icon":{"alpha":"1.0","color":"#666666","disabledAlpha":"1.0","disabledColor":"#dddddd","iconFontName":"뀚","size":"14"},"title":{"alpha":"1.0","bold":"false","color":"#666666","disabledAlpha":"1.0","disabledColor":"#666666","fontSize":"14","text":"收藏"},"type":"collect"}]},"extensionInfoVO":{"infos":[{"items":[{"text":["3期免息"]},{"text":["店铺券满5000减100"]}],"title":"优惠","type":"DAILY_COUPON"},{"items":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN01Peta7R1WB5ZxlaLRZ_!!6000000002749-2-tps-232-52.png","text":["轻松领红包，惊喜周边免费拿！"]}],"title":"活动","type":"ACTIVITIES"},{"items":[{"text":["不支持7天无理由退货","正品保障","品质严保","证照公示"]}],"title":"保障","type":"GUARANTEE"},{"items":[{"text":["LV/路易威登"],"title":"品牌"},{"text":["其他"],"title":"Louis Vuitton/路易威登系列"},{"text":["牛皮"],"title":"质地"},{"text":["牛皮革"],"title":"皮革材质"},{"text":["2022年秋季"],"title":"上市年份季节"},{"text":["M31051_l6"],"title":"货号"},{"text":["单肩"],"title":"背包方式"},{"text":["单肩包"],"title":"款式"}],"title":"参数","type":"BASE_PROPS"},{"items":[{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["此商品不支持7天无理由退货"],"title":"不支持7天无理由退货"},{"action":"查看","actionLink":"https://pages.tmall.com/wow/z/import/tmg-rax-home/tmallimportwupr-index?wh_pid=tmg-website%2F4h5m5nfdx7bdnktxpsy3","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["100%正品，假一赔十"],"title":"正品保障"},{"icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["商品售前/售中/售后对品质严格把控,全流程品质保障"],"title":"品质严保"},{"action":"查看","actionLink":"//www.tmall.hk/wow/z/import/pegasus-no-head/Gr3QWZwPfyEaWkbZQfFx?xid=684719e6f02695e9e68fef0394127c66","icon":"https://gw.alicdn.com/imgextra/i2/O1CN01rGRSdc27ieaMPmbtb_!!6000000007831-2-tps-88-88.png","text":["证照公示"],"title":"证照公示"}],"title":"保障","type":"GUARANTEE_NEW"}]},"rightBarVO":{"buyerButtons":[{"disabled":"false","href":"https://pc.taobao.com?channel=item","icon":"https://gw.alicdn.com/imgextra/i4/O1CN0165n4Cr1CGK2faBVbj_!!6000000000053-1-tps-56-56.gif","label":"桌面版","priority":"201","type":"plugin"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i2/O1CN012pqGiT1gp4XhKkkRs_!!6000000004190-2-tps-96-96.png","label":"联系客服","priority":"200","type":"webww2"},{"disabled":"false","href":"//cart.taobao.com","icon":"https://img.alicdn.com/imgextra/i4/O1CN01FOK30u1SymJbsQUtk_!!6000000002316-2-tps-96-96.png","label":"购物车","priority":"199","type":"cart2"},{"disabled":"false","href":"https://h5.m.taobao.com/awp/core/detail.htm?id=767958612397","icon":"https://img.alicdn.com/imgextra/i3/O1CN01CkZbKp27arsx4ktdK_!!6000000007814-2-tps-96-96.png","label":"商品码","priority":"198","type":"qrcode"},{"disabled":"false","href":"https://survey.taobao.com/apps/zhiliao/GUShqv-xp","icon":"https://gw.alicdn.com/imgextra/i3/O1CN01js47DP1J3DxYBQG4g_!!6000000000972-1-tps-56-56.gif","label":"用户调研","priority":"197","type":"survey"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01Go6lqn28DnZ3MlmFE_!!6000000007899-2-tps-96-96.png","label":"复制链接","priority":"196","type":"copyUrl"},{"disabled":"false","icon":"https://img.alicdn.com/imgextra/i1/O1CN01at70Km26oJu1Kk0vt_!!6000000007708-2-tps-96-96.png","priority":"195","type":"feedback"},{"disabled":"false","priority":"1","type":"backTop"}],"sellerButtons":[]},"payVO":{"payConfigList":[{"text":"信用卡支付"}]},"priceVO":{"isNewStyle":"true","price":{"hiddenPrice":"false","priceColor":"#FF4F00","priceColorNew":"#FF5000","priceMoney":"350800","priceText":"3508","priceTitleColor":"#FF4F00","priceUnit":"￥"}},"webfontVO":{"enableWebfont":"false"},"tabVO":{"tabList":[{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"comments","sort":"1","title":"用户评价"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"base_drops","sort":"2","title":"参数信息"},{"name":"factory_qualification","sort":"3","title":"验厂资质"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"desc","sort":"4","title":"图文详情"},{"icon":"https://img.alicdn.com/imgextra/i1/O1CN016DNujx1yMMj6NMXVv_!!6000000006564-55-tps-24-24.svg","name":"recommends","sort":"5","title":"本店推荐"},{"name":"guessULike","sort":"7","title":"看了又看"}]},"priceDescVO":{"descItems":[{"event":[{"fields":{"url":"https://pages.tmall.com/wow/import/act/detail-taxes?wh_biz=tm&amp;wh_weex=true&amp;data=%7B%22taxDescTittle%22%3A%22%E7%A8%8E%E8%B4%B9%E8%AF%B4%E6%98%8E%22%2C%22taxDesc%22%3A%5B%7B%22%E5%95%86%E5%93%81%E8%BF%9B%E5%8F%A3%E7%A8%8E%22%3A%7B%22%E4%BB%B7%E6%A0%BC%E5%B7%B2%E5%90%AB%E7%A8%8E%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E7%A8%8E%E7%8E%87%22%3A%7B%22%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%2C%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E%E8%AE%A1%E7%AE%97%22%3A%7B%22%E8%BF%9B%E5%8F%A3%E7%A8%8E+%3D+%E6%B5%B7%E5%85%B3%E8%AE%A4%E5%AE%9A%E5%AE%8C%E7%A8%8E%E4%BB%B7+*+%E8%AE%A4%E5%AE%9A%E7%A8%8E%E7%8E%87%22%3A%22%22%7D%7D%5D%7D"},"type":"openFloatDialog"},{"fields":{"page":"Page_Detail","eventId":"2101","arg1":"Page_Detail_Button-TaxRate","args":{"spm":"a2141.7631564.taxRate"}},"type":"userTrack"}],"isRichText":"true","richText":[{"style":{"color":"#999999"},"text":"进口税 价格已含税 "},{"imageUrl":"https://gw.alicdn.com/tfs/TB1J38IkkL0gK0jSZFxXXXWHVXa-38-38.png?getAvatar=avatar","style":{},"type":"image"}],"sku2Text":{"0":"进口税 价格已含税 "},"text":"进口税 价格已含税 "}]}}}</t>
   </si>
 </sst>
 </file>
@@ -779,6 +719,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -792,13 +738,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,7 +1055,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1146,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>357.08</v>
+        <v>134.86</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1156,11 +1096,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>357.08</v>
+        <v>134.86</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1170,11 +1110,11 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>357.08</v>
+        <v>134.86</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1184,11 +1124,11 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>357.08</v>
+        <v>134.86</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1198,11 +1138,11 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>357.08</v>
+        <v>134.86</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1212,11 +1152,11 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7">
-        <v>357.08</v>
+        <v>134.86</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -1226,160 +1166,62 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8">
-        <v>357.08</v>
+        <v>134.86</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>357.08</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2">
-        <v>134.86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2">
-        <v>134.86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2">
-        <v>134.86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2">
-        <v>134.86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2">
-        <v>134.86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>134.86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <v>134.86</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>134.86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://item.taobao.com/item.htm?id=857834525119"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://item.taobao.com/item.htm?id=880364206406"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://item.taobao.com/item.htm?id=981761597951"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://item.taobao.com/item.htm?id=765962701385"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://item.taobao.com/item.htm?id=889279775828"/>
-    <hyperlink ref="B7" r:id="rId6" display="https://item.taobao.com/item.htm?id=989290874017"/>
-    <hyperlink ref="B8" r:id="rId7" display="https://item.taobao.com/item.htm?id=919624931776"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://item.taobao.com/item.htm?id=995004731158"/>
-    <hyperlink ref="B15" r:id="rId9" display="https://item.taobao.com/item.htm?id=950800064175"/>
-    <hyperlink ref="B16" r:id="rId10" display="https://item.taobao.com/item.htm?id=980095910295"/>
-    <hyperlink ref="B17" r:id="rId11" display="https://item.taobao.com/item.htm?id=644724442369"/>
-    <hyperlink ref="B10" r:id="rId12" display="https://item.taobao.com/item.htm?id=990910984659" tooltip="https://item.taobao.com/item.htm?id=990910984659"/>
-    <hyperlink ref="B11" r:id="rId13" display="https://item.taobao.com/item.htm?id=697797565154" tooltip="https://item.taobao.com/item.htm?id=697797565154"/>
-    <hyperlink ref="B12" r:id="rId14" display="https://item.taobao.com/item.htm?id=697797209606" tooltip="https://item.taobao.com/item.htm?id=697797209606"/>
-    <hyperlink ref="B13" r:id="rId15" display="https://item.taobao.com/item.htm?id=677845075438" tooltip="https://item.taobao.com/item.htm?id=677845075438"/>
-    <hyperlink ref="B14" r:id="rId16" display="https://item.taobao.com/item.htm?id=993281691950" tooltip="https://item.taobao.com/item.htm?id=993281691950"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://item.taobao.com/item.htm?id=803371081651"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://item.taobao.com/item.htm?id=801554375496"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://item.taobao.com/item.htm?id=677583363886"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://item.taobao.com/item.htm?id=993178558198"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://item.taobao.com/item.htm?id=971483288756"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://item.taobao.com/item.htm?id=767958612397"/>
+    <hyperlink ref="B6" r:id="rId7" display="https://item.taobao.com/item.htm?id=848164076198"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
